--- a/HydroFPV_plants/CombinedTechsCreation/CombinedHydroSolar.xlsx
+++ b/HydroFPV_plants/CombinedTechsCreation/CombinedHydroSolar.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Alessandro Pieruzzi\Documents\Thesis\TEMBA_FPV\HydroFPV_plants\CombinedTechsCreation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1903BF4D-9FF6-427D-94A2-7D20D39610EE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1B8A1CBE-15BE-4B72-840F-67A50ECA770B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -45,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="400" uniqueCount="74">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="401" uniqueCount="74">
   <si>
     <t>Country</t>
   </si>
@@ -661,7 +661,7 @@
   <dimension ref="A1:O24"/>
   <sheetViews>
     <sheetView topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="O1" sqref="O1"/>
+      <selection activeCell="O1" sqref="O1:O1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1724,10 +1724,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{77FC710B-81A7-4A19-B13B-3AD951BA7D4B}">
-  <dimension ref="A1:W25"/>
+  <dimension ref="A1:X25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F11" sqref="F11"/>
+      <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1752,7 +1752,7 @@
     <col min="23" max="23" width="10" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
@@ -1822,8 +1822,11 @@
       <c r="W1" s="4" t="s">
         <v>68</v>
       </c>
-    </row>
-    <row r="2" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X1" s="4" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>7</v>
       </c>
@@ -1894,8 +1897,11 @@
       <c r="W2">
         <v>0.1117774126984127</v>
       </c>
-    </row>
-    <row r="3" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X2">
+        <v>2010</v>
+      </c>
+    </row>
+    <row r="3" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>7</v>
       </c>
@@ -1965,8 +1971,11 @@
       <c r="W3">
         <v>0.1126826774193548</v>
       </c>
-    </row>
-    <row r="4" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X3">
+        <v>2010</v>
+      </c>
+    </row>
+    <row r="4" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>7</v>
       </c>
@@ -2036,8 +2045,11 @@
       <c r="W4">
         <v>0.1126826774193548</v>
       </c>
-    </row>
-    <row r="5" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X4">
+        <v>2010</v>
+      </c>
+    </row>
+    <row r="5" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>17</v>
       </c>
@@ -2107,8 +2119,11 @@
       <c r="W5">
         <v>0.11339636354326681</v>
       </c>
-    </row>
-    <row r="6" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X5">
+        <v>2023</v>
+      </c>
+    </row>
+    <row r="6" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>17</v>
       </c>
@@ -2176,8 +2191,11 @@
       <c r="W6">
         <v>0.111860513312852</v>
       </c>
-    </row>
-    <row r="7" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X6">
+        <v>2030</v>
+      </c>
+    </row>
+    <row r="7" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>17</v>
       </c>
@@ -2244,8 +2262,11 @@
       <c r="W7">
         <v>0.13024408422939071</v>
       </c>
-    </row>
-    <row r="8" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X7">
+        <v>2026</v>
+      </c>
+    </row>
+    <row r="8" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>17</v>
       </c>
@@ -2313,8 +2334,11 @@
       <c r="W8">
         <v>0.1242511758832565</v>
       </c>
-    </row>
-    <row r="9" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X8">
+        <v>2028</v>
+      </c>
+    </row>
+    <row r="9" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>17</v>
       </c>
@@ -2381,8 +2405,11 @@
       <c r="W9">
         <v>9.809929006656426E-2</v>
       </c>
-    </row>
-    <row r="10" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X9">
+        <v>2025</v>
+      </c>
+    </row>
+    <row r="10" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>17</v>
       </c>
@@ -2434,7 +2461,7 @@
         <v>0.14075010650281619</v>
       </c>
     </row>
-    <row r="11" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>29</v>
       </c>
@@ -2505,8 +2532,11 @@
       <c r="W11">
         <v>0.1216317309267793</v>
       </c>
-    </row>
-    <row r="12" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X11">
+        <v>2009</v>
+      </c>
+    </row>
+    <row r="12" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>29</v>
       </c>
@@ -2576,8 +2606,11 @@
       <c r="W12">
         <v>0.11319275345622121</v>
       </c>
-    </row>
-    <row r="13" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X12">
+        <v>1966</v>
+      </c>
+    </row>
+    <row r="13" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>29</v>
       </c>
@@ -2647,8 +2680,11 @@
       <c r="W13">
         <v>0.1173318461341526</v>
       </c>
-    </row>
-    <row r="14" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X13">
+        <v>1962</v>
+      </c>
+    </row>
+    <row r="14" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>29</v>
       </c>
@@ -2719,8 +2755,11 @@
       <c r="W14">
         <v>0.1194960299539171</v>
       </c>
-    </row>
-    <row r="15" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X14">
+        <v>2003</v>
+      </c>
+    </row>
+    <row r="15" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>29</v>
       </c>
@@ -2787,8 +2826,11 @@
       <c r="W15">
         <v>0.1130760087045571</v>
       </c>
-    </row>
-    <row r="16" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X15">
+        <v>2030</v>
+      </c>
+    </row>
+    <row r="16" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>29</v>
       </c>
@@ -2856,8 +2898,11 @@
       <c r="W16">
         <v>0.12482191730670759</v>
       </c>
-    </row>
-    <row r="17" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X16">
+        <v>2025</v>
+      </c>
+    </row>
+    <row r="17" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>29</v>
       </c>
@@ -2924,8 +2969,11 @@
       <c r="W17">
         <v>0.1174430401945725</v>
       </c>
-    </row>
-    <row r="18" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X17">
+        <v>2024</v>
+      </c>
+    </row>
+    <row r="18" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>29</v>
       </c>
@@ -2992,8 +3040,11 @@
       <c r="W18">
         <v>0.12382463159242189</v>
       </c>
-    </row>
-    <row r="19" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X18">
+        <v>2028</v>
+      </c>
+    </row>
+    <row r="19" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>29</v>
       </c>
@@ -3061,8 +3112,11 @@
       <c r="W19">
         <v>0.12471186533538151</v>
       </c>
-    </row>
-    <row r="20" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X19">
+        <v>2030</v>
+      </c>
+    </row>
+    <row r="20" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>29</v>
       </c>
@@ -3129,8 +3183,11 @@
       <c r="W20">
         <v>0.124365051203277</v>
       </c>
-    </row>
-    <row r="21" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X20">
+        <v>2030</v>
+      </c>
+    </row>
+    <row r="21" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A21" s="8" t="s">
         <v>7</v>
       </c>
@@ -3173,8 +3230,11 @@
       <c r="U21" s="12">
         <v>0.93</v>
       </c>
-    </row>
-    <row r="22" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X21">
+        <v>2010</v>
+      </c>
+    </row>
+    <row r="22" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A22" s="8" t="s">
         <v>7</v>
       </c>
@@ -3217,8 +3277,11 @@
       <c r="U22" s="12">
         <v>1</v>
       </c>
-    </row>
-    <row r="23" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X22">
+        <v>2010</v>
+      </c>
+    </row>
+    <row r="23" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A23" s="8" t="s">
         <v>7</v>
       </c>
@@ -3261,8 +3324,11 @@
       <c r="U23" s="12">
         <v>1</v>
       </c>
-    </row>
-    <row r="24" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X23">
+        <v>2018</v>
+      </c>
+    </row>
+    <row r="24" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A24" s="8" t="s">
         <v>17</v>
       </c>
@@ -3305,8 +3371,11 @@
       <c r="U24" s="12">
         <v>1</v>
       </c>
-    </row>
-    <row r="25" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X24">
+        <v>2010</v>
+      </c>
+    </row>
+    <row r="25" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A25" s="8" t="s">
         <v>17</v>
       </c>
@@ -3349,11 +3418,11 @@
       <c r="U25" s="12">
         <v>1</v>
       </c>
+      <c r="X25">
+        <v>2000</v>
+      </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A21:G25">
-    <sortCondition ref="A21:A25"/>
-  </sortState>
   <conditionalFormatting sqref="G2:G20">
     <cfRule type="colorScale" priority="89">
       <colorScale>

--- a/HydroFPV_plants/CombinedTechsCreation/CombinedHydroSolar.xlsx
+++ b/HydroFPV_plants/CombinedTechsCreation/CombinedHydroSolar.xlsx
@@ -8,14 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Alessandro Pieruzzi\Documents\Thesis\TEMBA_FPV\HydroFPV_plants\CombinedTechsCreation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CBE35B07-327E-4630-B8E5-6343EB183145}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F256FF9D-DE09-4EAD-A426-7B9D94C41AC3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="CombinedHydroSolar" sheetId="1" r:id="rId1"/>
-    <sheet name="All_Seasons_normal_all_plants" sheetId="4" r:id="rId2"/>
-    <sheet name="All_Seasons_normal_2015-30" sheetId="16" r:id="rId3"/>
+    <sheet name="Potentials" sheetId="18" r:id="rId2"/>
+    <sheet name="All_Seasons_normal_all_plants" sheetId="4" r:id="rId3"/>
+    <sheet name="locations" sheetId="17" r:id="rId4"/>
+    <sheet name="All_Seasons_normal_2015-30" sheetId="16" r:id="rId5"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -35,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="498" uniqueCount="119">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="591" uniqueCount="164">
   <si>
     <t>Country</t>
   </si>
@@ -256,9 +258,6 @@
     <t>Attaqa Mountain</t>
   </si>
   <si>
-    <t>Planned</t>
-  </si>
-  <si>
     <t>Type</t>
   </si>
   <si>
@@ -268,9 +267,6 @@
     <t>ROR</t>
   </si>
   <si>
-    <t>PHS</t>
-  </si>
-  <si>
     <t>SOUTH SUDAN</t>
   </si>
   <si>
@@ -298,9 +294,6 @@
     <t>Wau</t>
   </si>
   <si>
-    <t xml:space="preserve">SUDAN </t>
-  </si>
-  <si>
     <t xml:space="preserve">Kashm El Girba </t>
   </si>
   <si>
@@ -392,6 +385,150 @@
   </si>
   <si>
     <t>Naga Hamadi Small</t>
+  </si>
+  <si>
+    <t>AE</t>
+  </si>
+  <si>
+    <t>AW</t>
+  </si>
+  <si>
+    <t>AN</t>
+  </si>
+  <si>
+    <t>BA</t>
+  </si>
+  <si>
+    <t>CY</t>
+  </si>
+  <si>
+    <t>JA</t>
+  </si>
+  <si>
+    <t>JB</t>
+  </si>
+  <si>
+    <t>LD</t>
+  </si>
+  <si>
+    <t>A1</t>
+  </si>
+  <si>
+    <t>A2</t>
+  </si>
+  <si>
+    <t>BR</t>
+  </si>
+  <si>
+    <t>BB</t>
+  </si>
+  <si>
+    <t>DG</t>
+  </si>
+  <si>
+    <t>DL</t>
+  </si>
+  <si>
+    <t>FC</t>
+  </si>
+  <si>
+    <t>GB</t>
+  </si>
+  <si>
+    <t>GJ</t>
+  </si>
+  <si>
+    <t>HA</t>
+  </si>
+  <si>
+    <t>KB</t>
+  </si>
+  <si>
+    <t>KR</t>
+  </si>
+  <si>
+    <t>KS</t>
+  </si>
+  <si>
+    <t>LT</t>
+  </si>
+  <si>
+    <t>LS</t>
+  </si>
+  <si>
+    <t>MR</t>
+  </si>
+  <si>
+    <t>MG</t>
+  </si>
+  <si>
+    <t>RN</t>
+  </si>
+  <si>
+    <t>RS</t>
+  </si>
+  <si>
+    <t>SB</t>
+  </si>
+  <si>
+    <t>SN</t>
+  </si>
+  <si>
+    <t>SH</t>
+  </si>
+  <si>
+    <t>S2</t>
+  </si>
+  <si>
+    <t>TM</t>
+  </si>
+  <si>
+    <t>T1</t>
+  </si>
+  <si>
+    <t>T2</t>
+  </si>
+  <si>
+    <t>UA</t>
+  </si>
+  <si>
+    <t>UD</t>
+  </si>
+  <si>
+    <t>UM</t>
+  </si>
+  <si>
+    <t>WA</t>
+  </si>
+  <si>
+    <t>BD</t>
+  </si>
+  <si>
+    <t>ES</t>
+  </si>
+  <si>
+    <t>FL</t>
+  </si>
+  <si>
+    <t>FS</t>
+  </si>
+  <si>
+    <t>LK</t>
+  </si>
+  <si>
+    <t>NH</t>
+  </si>
+  <si>
+    <t>SL</t>
+  </si>
+  <si>
+    <t>SR</t>
+  </si>
+  <si>
+    <t>loc_codes</t>
+  </si>
+  <si>
+    <t>NB</t>
   </si>
 </sst>
 </file>
@@ -478,7 +615,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -494,8 +631,6 @@
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="2" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="2" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -1822,38 +1957,205 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ADD0C4BF-8238-4E1B-8DDC-8CB02F115C91}">
+  <dimension ref="B2:E21"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F10" sqref="F10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="2" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B2" t="s">
+        <v>94</v>
+      </c>
+      <c r="C2" s="15" t="s">
+        <v>67</v>
+      </c>
+      <c r="D2">
+        <f>6.12448*1000</f>
+        <v>6124.4800000000005</v>
+      </c>
+      <c r="E2" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="3" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="C3" t="s">
+        <v>68</v>
+      </c>
+      <c r="D3">
+        <v>45000</v>
+      </c>
+    </row>
+    <row r="4" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="C4" s="15" t="s">
+        <v>69</v>
+      </c>
+      <c r="D4">
+        <v>4900</v>
+      </c>
+    </row>
+    <row r="5" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="C5" t="s">
+        <v>88</v>
+      </c>
+      <c r="D5">
+        <v>3100</v>
+      </c>
+    </row>
+    <row r="8" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B8" t="s">
+        <v>93</v>
+      </c>
+      <c r="C8" t="s">
+        <v>67</v>
+      </c>
+      <c r="D8" s="1">
+        <f>SUM(All_Seasons_normal_all_plants!K2:K4,All_Seasons_normal_all_plants!K21,All_Seasons_normal_all_plants!K22,All_Seasons_normal_all_plants!K23)</f>
+        <v>4330</v>
+      </c>
+    </row>
+    <row r="9" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="C9" t="s">
+        <v>68</v>
+      </c>
+      <c r="D9">
+        <f>SUM(All_Seasons_normal_all_plants!K5:K10,All_Seasons_normal_all_plants!K25,All_Seasons_normal_all_plants!K24,All_Seasons_normal_all_plants!K35:K50)</f>
+        <v>8288.7351598200003</v>
+      </c>
+    </row>
+    <row r="10" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="C10" t="s">
+        <v>69</v>
+      </c>
+      <c r="D10">
+        <f>SUM(All_Seasons_normal_all_plants!K11:K20,All_Seasons_normal_all_plants!K33,All_Seasons_normal_all_plants!K34)</f>
+        <v>11813</v>
+      </c>
+    </row>
+    <row r="11" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="C11" t="s">
+        <v>70</v>
+      </c>
+      <c r="D11">
+        <f>SUM(All_Seasons_normal_all_plants!K26:K32)</f>
+        <v>1479.4</v>
+      </c>
+    </row>
+    <row r="13" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B13" t="s">
+        <v>95</v>
+      </c>
+      <c r="C13" t="s">
+        <v>89</v>
+      </c>
+      <c r="D13">
+        <v>2831.7351598173518</v>
+      </c>
+    </row>
+    <row r="14" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="C14" t="s">
+        <v>90</v>
+      </c>
+      <c r="D14">
+        <v>22834</v>
+      </c>
+    </row>
+    <row r="15" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="C15" t="s">
+        <v>91</v>
+      </c>
+      <c r="D15">
+        <v>4142</v>
+      </c>
+    </row>
+    <row r="16" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="C16" t="s">
+        <v>92</v>
+      </c>
+      <c r="D16">
+        <v>2157.4</v>
+      </c>
+    </row>
+    <row r="18" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B18" t="s">
+        <v>96</v>
+      </c>
+      <c r="C18" t="s">
+        <v>89</v>
+      </c>
+      <c r="D18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="C19" t="s">
+        <v>90</v>
+      </c>
+      <c r="D19">
+        <f>D14-D9</f>
+        <v>14545.26484018</v>
+      </c>
+    </row>
+    <row r="20" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="C20" t="s">
+        <v>91</v>
+      </c>
+      <c r="D20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="C21" t="s">
+        <v>92</v>
+      </c>
+      <c r="D21">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{77FC710B-81A7-4A19-B13B-3AD951BA7D4B}">
-  <dimension ref="A1:Z80"/>
+  <dimension ref="A1:AA50"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C30" workbookViewId="0">
-      <selection activeCell="V43" sqref="V43"/>
+    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
+      <selection activeCell="G49" sqref="G49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="2" max="2" width="14.42578125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="17.7109375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="10.140625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="20" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.140625" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="14.140625" customWidth="1"/>
-    <col min="13" max="13" width="10" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="10" customWidth="1"/>
-    <col min="15" max="16" width="14.140625" customWidth="1"/>
-    <col min="17" max="17" width="10" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="10" customWidth="1"/>
-    <col min="19" max="19" width="9" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="14.140625" customWidth="1"/>
-    <col min="21" max="21" width="10" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="10" customWidth="1"/>
-    <col min="24" max="24" width="14.140625" customWidth="1"/>
-    <col min="25" max="25" width="10" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="10" customWidth="1"/>
+    <col min="4" max="4" width="17.7109375" customWidth="1"/>
+    <col min="6" max="6" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="20" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="9.5703125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.140625" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="14.140625" customWidth="1"/>
+    <col min="14" max="14" width="10" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="10" customWidth="1"/>
+    <col min="16" max="17" width="14.140625" customWidth="1"/>
+    <col min="18" max="18" width="10" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="10" customWidth="1"/>
+    <col min="20" max="20" width="9" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.140625" customWidth="1"/>
+    <col min="22" max="22" width="10" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="10" customWidth="1"/>
+    <col min="25" max="25" width="14.140625" customWidth="1"/>
+    <col min="26" max="26" width="10" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="10" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="B1" s="4" t="s">
         <v>0</v>
@@ -1862,3289 +2164,3800 @@
         <v>1</v>
       </c>
       <c r="D1" s="4" t="s">
+        <v>162</v>
+      </c>
+      <c r="E1" s="4" t="s">
         <v>45</v>
       </c>
-      <c r="E1" s="4" t="s">
+      <c r="F1" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="F1" s="4" t="s">
+      <c r="G1" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="G1" s="4" t="s">
+      <c r="H1" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="I1" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="J1" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="K1" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="L1" s="11" t="s">
+        <v>50</v>
+      </c>
+      <c r="M1" s="11" t="s">
+        <v>49</v>
+      </c>
+      <c r="N1" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="O1" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="P1" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="Q1" s="11" t="s">
+        <v>53</v>
+      </c>
+      <c r="R1" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="S1" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="T1" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="U1" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="V1" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="W1" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="X1" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="Y1" s="11" t="s">
+        <v>61</v>
+      </c>
+      <c r="Z1" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="AA1" s="4" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="2" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="A2">
+        <v>2</v>
+      </c>
+      <c r="B2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D2" t="s">
+        <v>124</v>
+      </c>
+      <c r="E2" s="1">
+        <v>24.033999999999999</v>
+      </c>
+      <c r="F2">
+        <v>32.869999999999997</v>
+      </c>
+      <c r="G2" t="s">
+        <v>9</v>
+      </c>
+      <c r="H2" t="s">
         <v>74</v>
       </c>
-      <c r="H1" s="4" t="s">
-        <v>47</v>
-      </c>
-      <c r="I1" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="J1" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="K1" s="11" t="s">
-        <v>50</v>
-      </c>
-      <c r="L1" s="11" t="s">
-        <v>49</v>
-      </c>
-      <c r="M1" s="4" t="s">
-        <v>51</v>
-      </c>
-      <c r="N1" s="4" t="s">
-        <v>52</v>
-      </c>
-      <c r="O1" s="4" t="s">
-        <v>54</v>
-      </c>
-      <c r="P1" s="11" t="s">
-        <v>53</v>
-      </c>
-      <c r="Q1" s="4" t="s">
-        <v>55</v>
-      </c>
-      <c r="R1" s="4" t="s">
-        <v>56</v>
-      </c>
-      <c r="S1" s="4" t="s">
-        <v>58</v>
-      </c>
-      <c r="T1" s="11" t="s">
-        <v>57</v>
-      </c>
-      <c r="U1" s="4" t="s">
-        <v>59</v>
-      </c>
-      <c r="V1" s="4" t="s">
-        <v>60</v>
-      </c>
-      <c r="W1" s="4" t="s">
-        <v>64</v>
-      </c>
-      <c r="X1" s="11" t="s">
-        <v>61</v>
-      </c>
-      <c r="Y1" s="4" t="s">
-        <v>62</v>
-      </c>
-      <c r="Z1" s="4" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="2" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A2">
-        <v>26</v>
-      </c>
-      <c r="B2" s="15" t="s">
-        <v>7</v>
-      </c>
-      <c r="C2" s="8" t="s">
-        <v>72</v>
-      </c>
-      <c r="D2">
-        <v>30.02499999999899</v>
-      </c>
-      <c r="E2">
-        <v>32.310416666665901</v>
-      </c>
-      <c r="F2" t="s">
-        <v>73</v>
-      </c>
-      <c r="G2" s="15" t="s">
-        <v>77</v>
-      </c>
-      <c r="J2" s="8">
-        <v>2400</v>
-      </c>
-    </row>
-    <row r="3" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="I2">
+        <v>8.24</v>
+      </c>
+      <c r="J2">
+        <v>2010</v>
+      </c>
+      <c r="K2">
+        <v>280</v>
+      </c>
+      <c r="L2" s="12">
+        <v>1</v>
+      </c>
+      <c r="M2" s="12">
+        <v>1</v>
+      </c>
+      <c r="N2">
+        <v>0.40949003026682601</v>
+      </c>
+      <c r="O2">
+        <v>0.1261858979689367</v>
+      </c>
+      <c r="P2" s="1">
+        <v>1</v>
+      </c>
+      <c r="Q2" s="1">
+        <v>1</v>
+      </c>
+      <c r="R2">
+        <v>0.38181073277578648</v>
+      </c>
+      <c r="S2">
+        <v>0.1174411816009558</v>
+      </c>
+      <c r="T2" s="1">
+        <v>1</v>
+      </c>
+      <c r="U2" s="1">
+        <v>1</v>
+      </c>
+      <c r="V2">
+        <v>0.37100408442851451</v>
+      </c>
+      <c r="W2">
+        <v>0.1288478107526882</v>
+      </c>
+      <c r="X2" s="1">
+        <v>1</v>
+      </c>
+      <c r="Y2" s="1">
+        <v>1</v>
+      </c>
+      <c r="Z2">
+        <v>0.4012607561017239</v>
+      </c>
+      <c r="AA2">
+        <v>0.1126826774193548</v>
+      </c>
+    </row>
+    <row r="3" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B3" t="s">
         <v>7</v>
       </c>
       <c r="C3" t="s">
-        <v>12</v>
-      </c>
-      <c r="D3" s="1">
+        <v>13</v>
+      </c>
+      <c r="D3" t="s">
+        <v>125</v>
+      </c>
+      <c r="E3" s="1">
         <v>24.033999999999999</v>
       </c>
-      <c r="E3">
+      <c r="F3">
         <v>32.869999999999997</v>
       </c>
-      <c r="F3" t="s">
+      <c r="G3" t="s">
         <v>9</v>
       </c>
-      <c r="G3" t="s">
-        <v>75</v>
-      </c>
-      <c r="H3">
+      <c r="H3" t="s">
+        <v>74</v>
+      </c>
+      <c r="I3">
         <v>8.24</v>
       </c>
-      <c r="I3">
+      <c r="J3">
         <v>2010</v>
       </c>
-      <c r="J3">
-        <v>280</v>
-      </c>
-      <c r="K3" s="12">
-        <v>1</v>
+      <c r="K3">
+        <v>270</v>
       </c>
       <c r="L3" s="12">
         <v>1</v>
       </c>
-      <c r="M3">
+      <c r="M3" s="12">
+        <v>1</v>
+      </c>
+      <c r="N3">
         <v>0.40949003026682601</v>
       </c>
-      <c r="N3">
+      <c r="O3">
         <v>0.1261858979689367</v>
       </c>
-      <c r="O3" s="1">
-        <v>1</v>
-      </c>
       <c r="P3" s="1">
         <v>1</v>
       </c>
-      <c r="Q3">
+      <c r="Q3" s="1">
+        <v>1</v>
+      </c>
+      <c r="R3">
         <v>0.38181073277578648</v>
       </c>
-      <c r="R3">
+      <c r="S3">
         <v>0.1174411816009558</v>
       </c>
-      <c r="S3" s="1">
-        <v>1</v>
-      </c>
       <c r="T3" s="1">
         <v>1</v>
       </c>
-      <c r="U3">
+      <c r="U3" s="1">
+        <v>1</v>
+      </c>
+      <c r="V3">
         <v>0.37100408442851451</v>
       </c>
-      <c r="V3">
+      <c r="W3">
         <v>0.1288478107526882</v>
       </c>
-      <c r="W3" s="1">
-        <v>1</v>
-      </c>
       <c r="X3" s="1">
         <v>1</v>
       </c>
-      <c r="Y3">
+      <c r="Y3" s="1">
+        <v>1</v>
+      </c>
+      <c r="Z3">
         <v>0.4012607561017239</v>
       </c>
-      <c r="Z3">
+      <c r="AA3">
         <v>0.1126826774193548</v>
       </c>
     </row>
-    <row r="4" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A4">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B4" t="s">
         <v>7</v>
       </c>
       <c r="C4" t="s">
-        <v>13</v>
-      </c>
-      <c r="D4" s="1">
-        <v>24.033999999999999</v>
-      </c>
-      <c r="E4">
-        <v>32.869999999999997</v>
-      </c>
-      <c r="F4" t="s">
+        <v>8</v>
+      </c>
+      <c r="D4" t="s">
+        <v>133</v>
+      </c>
+      <c r="E4" s="1">
+        <v>23.973310000000001</v>
+      </c>
+      <c r="F4">
+        <v>32.880000000000003</v>
+      </c>
+      <c r="G4" t="s">
         <v>9</v>
       </c>
-      <c r="G4" t="s">
-        <v>75</v>
-      </c>
-      <c r="H4">
-        <v>8.24</v>
+      <c r="H4" t="s">
+        <v>74</v>
       </c>
       <c r="I4">
+        <v>6500</v>
+      </c>
+      <c r="J4">
         <v>2010</v>
       </c>
-      <c r="J4">
-        <v>270</v>
-      </c>
-      <c r="K4" s="12">
-        <v>1</v>
+      <c r="K4">
+        <v>2100</v>
       </c>
       <c r="L4" s="12">
-        <v>1</v>
-      </c>
-      <c r="M4">
-        <v>0.40949003026682601</v>
+        <v>0.72314188741695651</v>
+      </c>
+      <c r="M4" s="12">
+        <v>0.72314188741695651</v>
       </c>
       <c r="N4">
-        <v>0.1261858979689367</v>
-      </c>
-      <c r="O4" s="1">
-        <v>1</v>
+        <v>0.40586848506571083</v>
+      </c>
+      <c r="O4">
+        <v>0.12603861242532849</v>
       </c>
       <c r="P4" s="1">
-        <v>1</v>
-      </c>
-      <c r="Q4">
-        <v>0.38181073277578648</v>
+        <v>0.72314188741695651</v>
+      </c>
+      <c r="Q4" s="1">
+        <v>0.72314188741695651</v>
       </c>
       <c r="R4">
-        <v>0.1174411816009558</v>
-      </c>
-      <c r="S4" s="1">
-        <v>1</v>
+        <v>0.38385520469932288</v>
+      </c>
+      <c r="S4">
+        <v>0.11816489581839899</v>
       </c>
       <c r="T4" s="1">
-        <v>1</v>
-      </c>
-      <c r="U4">
-        <v>0.37100408442851451</v>
+        <v>0.72314188741695651</v>
+      </c>
+      <c r="U4" s="1">
+        <v>0.72314188741695651</v>
       </c>
       <c r="V4">
-        <v>0.1288478107526882</v>
-      </c>
-      <c r="W4" s="1">
-        <v>1</v>
+        <v>0.37423852608522501</v>
+      </c>
+      <c r="W4">
+        <v>0.1297939178016726</v>
       </c>
       <c r="X4" s="1">
-        <v>1</v>
-      </c>
-      <c r="Y4">
-        <v>0.4012607561017239</v>
+        <v>0.72314188741695651</v>
+      </c>
+      <c r="Y4" s="1">
+        <v>0.72314188741695651</v>
       </c>
       <c r="Z4">
-        <v>0.1126826774193548</v>
-      </c>
-    </row>
-    <row r="5" spans="1:26" x14ac:dyDescent="0.2">
+        <v>0.39426057176992663</v>
+      </c>
+      <c r="AA4">
+        <v>0.1117774126984127</v>
+      </c>
+    </row>
+    <row r="5" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A5">
-        <v>1</v>
+        <v>45</v>
       </c>
       <c r="B5" t="s">
-        <v>7</v>
+        <v>17</v>
       </c>
       <c r="C5" t="s">
-        <v>8</v>
-      </c>
-      <c r="D5" s="1">
-        <v>23.973310000000001</v>
+        <v>105</v>
+      </c>
+      <c r="D5" t="s">
+        <v>116</v>
       </c>
       <c r="E5">
-        <v>32.880000000000003</v>
-      </c>
-      <c r="F5" t="s">
+        <v>9.7799999999999994</v>
+      </c>
+      <c r="F5">
+        <v>38.83</v>
+      </c>
+      <c r="G5" t="s">
+        <v>24</v>
+      </c>
+      <c r="H5" t="s">
+        <v>74</v>
+      </c>
+      <c r="J5">
+        <v>2031</v>
+      </c>
+      <c r="K5">
+        <v>189</v>
+      </c>
+      <c r="L5">
+        <v>3.433550240586513E-2</v>
+      </c>
+      <c r="M5">
+        <v>3.433550240586513E-2</v>
+      </c>
+      <c r="N5">
+        <v>0.28975484309040223</v>
+      </c>
+      <c r="O5">
+        <v>0.13667612353643971</v>
+      </c>
+      <c r="P5">
+        <v>0.57473682007163951</v>
+      </c>
+      <c r="Q5">
+        <v>0.57473682007163951</v>
+      </c>
+      <c r="R5">
+        <v>0.2641995675029869</v>
+      </c>
+      <c r="S5">
+        <v>9.4938511350059748E-2</v>
+      </c>
+      <c r="T5">
+        <v>0.45762385822795409</v>
+      </c>
+      <c r="U5">
+        <v>0.45762385822795409</v>
+      </c>
+      <c r="V5">
+        <v>0.29161254161688571</v>
+      </c>
+      <c r="W5">
+        <v>0.13333808936678609</v>
+      </c>
+      <c r="X5">
+        <v>2.6200930948138496E-2</v>
+      </c>
+      <c r="Y5">
+        <v>2.6200930948138496E-2</v>
+      </c>
+      <c r="Z5">
+        <v>0.35088009813961418</v>
+      </c>
+      <c r="AA5">
+        <v>0.14635089605734769</v>
+      </c>
+    </row>
+    <row r="6" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="A6">
+        <v>46</v>
+      </c>
+      <c r="B6" t="s">
+        <v>17</v>
+      </c>
+      <c r="C6" t="s">
+        <v>106</v>
+      </c>
+      <c r="D6" t="s">
+        <v>117</v>
+      </c>
+      <c r="E6">
+        <v>9.7799999999999994</v>
+      </c>
+      <c r="F6">
+        <v>38.83</v>
+      </c>
+      <c r="G6" t="s">
+        <v>24</v>
+      </c>
+      <c r="H6" t="s">
+        <v>74</v>
+      </c>
+      <c r="J6">
+        <v>2031</v>
+      </c>
+      <c r="K6">
+        <v>265</v>
+      </c>
+      <c r="L6">
+        <v>3.433550240586513E-2</v>
+      </c>
+      <c r="M6">
+        <v>3.433550240586513E-2</v>
+      </c>
+      <c r="N6">
+        <v>0.28975484309040223</v>
+      </c>
+      <c r="O6">
+        <v>0.13667612353643971</v>
+      </c>
+      <c r="P6">
+        <v>0.57473682007163962</v>
+      </c>
+      <c r="Q6">
+        <v>0.57473682007163962</v>
+      </c>
+      <c r="R6">
+        <v>0.2641995675029869</v>
+      </c>
+      <c r="S6">
+        <v>9.4938511350059748E-2</v>
+      </c>
+      <c r="T6">
+        <v>0.45762385822795409</v>
+      </c>
+      <c r="U6">
+        <v>0.45762385822795409</v>
+      </c>
+      <c r="V6">
+        <v>0.29161254161688571</v>
+      </c>
+      <c r="W6">
+        <v>0.13333808936678609</v>
+      </c>
+      <c r="X6">
+        <v>2.6200930948138496E-2</v>
+      </c>
+      <c r="Y6">
+        <v>2.6200930948138496E-2</v>
+      </c>
+      <c r="Z6">
+        <v>0.35088009813961418</v>
+      </c>
+      <c r="AA6">
+        <v>0.14635089605734769</v>
+      </c>
+    </row>
+    <row r="7" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="A7">
+        <v>41</v>
+      </c>
+      <c r="B7" t="s">
+        <v>17</v>
+      </c>
+      <c r="C7" t="s">
+        <v>101</v>
+      </c>
+      <c r="D7" t="s">
+        <v>118</v>
+      </c>
+      <c r="E7">
+        <v>9.5941700999999906</v>
+      </c>
+      <c r="F7">
+        <v>37.232997899999901</v>
+      </c>
+      <c r="G7" t="s">
         <v>9</v>
       </c>
-      <c r="G5" t="s">
-        <v>75</v>
-      </c>
-      <c r="H5">
-        <v>6500</v>
-      </c>
-      <c r="I5">
-        <v>2010</v>
-      </c>
-      <c r="J5">
-        <v>2100</v>
-      </c>
-      <c r="K5" s="12">
-        <v>0.72314188741695651</v>
-      </c>
-      <c r="L5" s="12">
-        <v>0.72314188741695651</v>
-      </c>
-      <c r="M5">
-        <v>0.40586848506571083</v>
-      </c>
-      <c r="N5">
-        <v>0.12603861242532849</v>
-      </c>
-      <c r="O5" s="1">
-        <v>0.72314188741695651</v>
-      </c>
-      <c r="P5" s="1">
-        <v>0.72314188741695651</v>
-      </c>
-      <c r="Q5">
-        <v>0.38385520469932288</v>
-      </c>
-      <c r="R5">
-        <v>0.11816489581839899</v>
-      </c>
-      <c r="S5" s="1">
-        <v>0.72314188741695651</v>
-      </c>
-      <c r="T5" s="1">
-        <v>0.72314188741695651</v>
-      </c>
-      <c r="U5">
-        <v>0.37423852608522501</v>
-      </c>
-      <c r="V5">
-        <v>0.1297939178016726</v>
-      </c>
-      <c r="W5" s="1">
-        <v>0.72314188741695651</v>
-      </c>
-      <c r="X5" s="1">
-        <v>0.72314188741695651</v>
-      </c>
-      <c r="Y5">
-        <v>0.39426057176992663</v>
-      </c>
-      <c r="Z5">
-        <v>0.1117774126984127</v>
-      </c>
-    </row>
-    <row r="6" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A6">
-        <v>27</v>
-      </c>
-      <c r="B6" s="15" t="s">
-        <v>7</v>
-      </c>
-      <c r="C6" s="8" t="s">
-        <v>118</v>
-      </c>
-      <c r="D6">
-        <v>26.03449683085595</v>
-      </c>
-      <c r="E6">
-        <v>32.257169835809101</v>
-      </c>
-      <c r="F6" t="s">
-        <v>9</v>
-      </c>
-      <c r="G6" s="15" t="s">
-        <v>75</v>
-      </c>
-      <c r="J6" s="8">
-        <v>4.5</v>
-      </c>
-    </row>
-    <row r="7" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A7">
-        <v>25</v>
-      </c>
-      <c r="B7" s="15" t="s">
-        <v>7</v>
-      </c>
-      <c r="C7" s="8" t="s">
-        <v>71</v>
-      </c>
-      <c r="D7">
-        <v>30.257831191935612</v>
-      </c>
-      <c r="E7">
-        <v>27.74949785860262</v>
-      </c>
-      <c r="F7" t="s">
-        <v>73</v>
-      </c>
-      <c r="G7" s="15" t="s">
-        <v>75</v>
-      </c>
-      <c r="J7" s="8">
-        <v>2100</v>
-      </c>
-    </row>
-    <row r="8" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="H7" t="s">
+        <v>74</v>
+      </c>
+      <c r="J7">
+        <v>2013</v>
+      </c>
+      <c r="K7">
+        <v>98</v>
+      </c>
+      <c r="L7">
+        <v>0.47346314129137629</v>
+      </c>
+      <c r="M7">
+        <v>0.47346314129137629</v>
+      </c>
+      <c r="N7">
+        <v>0.32822893986459573</v>
+      </c>
+      <c r="O7">
+        <v>0.11213200095579449</v>
+      </c>
+      <c r="P7">
+        <v>0.47346314129137629</v>
+      </c>
+      <c r="Q7">
+        <v>0.47346314129137629</v>
+      </c>
+      <c r="R7">
+        <v>0.25394759219434487</v>
+      </c>
+      <c r="S7">
+        <v>7.8348711589008357E-2</v>
+      </c>
+      <c r="T7">
+        <v>0.47346314129137629</v>
+      </c>
+      <c r="U7">
+        <v>0.47346314129137629</v>
+      </c>
+      <c r="V7">
+        <v>0.30030267144563932</v>
+      </c>
+      <c r="W7">
+        <v>0.11891993715651129</v>
+      </c>
+      <c r="X7">
+        <v>0.47346314129137629</v>
+      </c>
+      <c r="Y7">
+        <v>0.47346314129137629</v>
+      </c>
+      <c r="Z7">
+        <v>0.38199672683051711</v>
+      </c>
+      <c r="AA7">
+        <v>0.1325895962621608</v>
+      </c>
+    </row>
+    <row r="8" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A8">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B8" t="s">
         <v>17</v>
       </c>
       <c r="C8" t="s">
-        <v>108</v>
-      </c>
-      <c r="D8">
-        <v>9.7799999999999994</v>
+        <v>104</v>
+      </c>
+      <c r="D8" t="s">
+        <v>126</v>
       </c>
       <c r="E8">
-        <v>38.83</v>
-      </c>
-      <c r="F8" t="s">
+        <v>7.2166699999999997</v>
+      </c>
+      <c r="F8">
+        <v>35.633339999999997</v>
+      </c>
+      <c r="G8" t="s">
         <v>24</v>
       </c>
-      <c r="G8" t="s">
-        <v>75</v>
-      </c>
-      <c r="I8">
-        <v>2031</v>
+      <c r="H8" t="s">
+        <v>74</v>
       </c>
       <c r="J8">
-        <v>189</v>
+        <v>2025</v>
       </c>
       <c r="K8">
-        <v>3.433550240586513E-2</v>
+        <v>645</v>
       </c>
       <c r="L8">
-        <v>3.433550240586513E-2</v>
+        <v>0.71648926237161525</v>
+      </c>
+      <c r="M8">
+        <v>0.71648926237161525</v>
+      </c>
+      <c r="N8">
+        <v>0.28282056272401429</v>
       </c>
       <c r="O8">
-        <v>0.57473682007163951</v>
+        <v>9.2343708960573465E-2</v>
       </c>
       <c r="P8">
-        <v>0.57473682007163951</v>
+        <v>0.98991596638655466</v>
+      </c>
+      <c r="Q8">
+        <v>0.98991596638655466</v>
+      </c>
+      <c r="R8">
+        <v>0.2265720688968538</v>
       </c>
       <c r="S8">
-        <v>0.45762385822795409</v>
+        <v>7.175436367980885E-2</v>
       </c>
       <c r="T8">
-        <v>0.45762385822795409</v>
+        <v>0.87813258636788039</v>
+      </c>
+      <c r="U8">
+        <v>0.87813258636788039</v>
+      </c>
+      <c r="V8">
+        <v>0.25743379729191562</v>
       </c>
       <c r="W8">
-        <v>2.6200930948138496E-2</v>
+        <v>0.1046037954599761</v>
       </c>
       <c r="X8">
-        <v>2.6200930948138496E-2</v>
-      </c>
-    </row>
-    <row r="9" spans="1:26" x14ac:dyDescent="0.2">
+        <v>0.24112418300653601</v>
+      </c>
+      <c r="Y8">
+        <v>0.24112418300653601</v>
+      </c>
+      <c r="Z8">
+        <v>0.33027548088410991</v>
+      </c>
+      <c r="AA8">
+        <v>0.1029040325140809</v>
+      </c>
+    </row>
+    <row r="9" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A9">
-        <v>46</v>
+        <v>7</v>
       </c>
       <c r="B9" t="s">
         <v>17</v>
       </c>
       <c r="C9" t="s">
-        <v>109</v>
-      </c>
-      <c r="D9">
-        <v>9.7799999999999994</v>
-      </c>
-      <c r="E9">
-        <v>38.83</v>
-      </c>
-      <c r="F9" t="s">
+        <v>26</v>
+      </c>
+      <c r="D9" t="s">
+        <v>119</v>
+      </c>
+      <c r="E9" s="1">
+        <v>10.340844000000001</v>
+      </c>
+      <c r="F9">
+        <v>36.65</v>
+      </c>
+      <c r="G9" t="s">
         <v>24</v>
       </c>
-      <c r="G9" t="s">
-        <v>75</v>
-      </c>
-      <c r="I9">
-        <v>2031</v>
+      <c r="H9" t="s">
+        <v>74</v>
       </c>
       <c r="J9">
-        <v>265</v>
+        <v>2028</v>
       </c>
       <c r="K9">
-        <v>3.433550240586513E-2</v>
-      </c>
-      <c r="L9">
-        <v>3.433550240586513E-2</v>
+        <v>935</v>
+      </c>
+      <c r="L9" s="12">
+        <v>4.8058277799555731E-2</v>
+      </c>
+      <c r="M9" s="12">
+        <v>4.8058277799555731E-2</v>
+      </c>
+      <c r="N9">
+        <v>0.3186647343687774</v>
       </c>
       <c r="O9">
-        <v>0.57473682007163962</v>
-      </c>
-      <c r="P9">
-        <v>0.57473682007163962</v>
+        <v>0.1097955641577061</v>
+      </c>
+      <c r="P9" s="1">
+        <v>0.72644714491049267</v>
+      </c>
+      <c r="Q9" s="1">
+        <v>0.72644714491049267</v>
+      </c>
+      <c r="R9">
+        <v>0.27000886260453999</v>
       </c>
       <c r="S9">
-        <v>0.45762385822795409</v>
-      </c>
-      <c r="T9">
-        <v>0.45762385822795409</v>
+        <v>7.4062143130227007E-2</v>
+      </c>
+      <c r="T9" s="1">
+        <v>0.48480334509342748</v>
+      </c>
+      <c r="U9" s="1">
+        <v>0.48480334509342748</v>
+      </c>
+      <c r="V9">
+        <v>0.3237500696933493</v>
       </c>
       <c r="W9">
-        <v>2.6200930948138496E-2</v>
-      </c>
-      <c r="X9">
-        <v>2.6200930948138496E-2</v>
-      </c>
-    </row>
-    <row r="10" spans="1:26" x14ac:dyDescent="0.2">
+        <v>0.1145830021505376</v>
+      </c>
+      <c r="X9" s="1">
+        <v>2.9720371096302111E-2</v>
+      </c>
+      <c r="Y9" s="1">
+        <v>2.9720371096302111E-2</v>
+      </c>
+      <c r="Z9">
+        <v>0.38074566009557947</v>
+      </c>
+      <c r="AA9">
+        <v>0.1242511758832565</v>
+      </c>
+    </row>
+    <row r="10" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A10">
-        <v>41</v>
+        <v>50</v>
       </c>
       <c r="B10" t="s">
         <v>17</v>
       </c>
       <c r="C10" t="s">
-        <v>104</v>
-      </c>
-      <c r="D10">
-        <v>9.5941700999999906</v>
+        <v>110</v>
+      </c>
+      <c r="D10" t="s">
+        <v>127</v>
       </c>
       <c r="E10">
-        <v>37.232997899999901</v>
-      </c>
-      <c r="F10" t="s">
-        <v>9</v>
+        <v>8.5429999999999993</v>
+      </c>
+      <c r="F10">
+        <v>35.195</v>
       </c>
       <c r="G10" t="s">
-        <v>75</v>
-      </c>
-      <c r="I10">
-        <v>2013</v>
+        <v>24</v>
+      </c>
+      <c r="H10" t="s">
+        <v>74</v>
       </c>
       <c r="J10">
-        <v>98</v>
+        <v>2025</v>
       </c>
       <c r="K10">
-        <v>0.47346314129137629</v>
+        <v>467</v>
       </c>
       <c r="L10">
-        <v>0.47346314129137629</v>
+        <v>4.3201198882104185E-2</v>
+      </c>
+      <c r="M10">
+        <v>4.3201198882104185E-2</v>
+      </c>
+      <c r="N10">
+        <v>0.30872469454400631</v>
       </c>
       <c r="O10">
-        <v>0.47346314129137629</v>
+        <v>8.7997688649940245E-2</v>
       </c>
       <c r="P10">
-        <v>0.47346314129137629</v>
+        <v>0.82341432688128036</v>
+      </c>
+      <c r="Q10">
+        <v>0.82341432688128036</v>
+      </c>
+      <c r="R10">
+        <v>0.27046071166865798</v>
       </c>
       <c r="S10">
-        <v>0.47346314129137629</v>
+        <v>7.1315783990442069E-2</v>
       </c>
       <c r="T10">
-        <v>0.47346314129137629</v>
+        <v>0.4738184238006809</v>
+      </c>
+      <c r="U10">
+        <v>0.4738184238006809</v>
+      </c>
+      <c r="V10">
+        <v>0.2988493687773795</v>
       </c>
       <c r="W10">
-        <v>0.47346314129137629</v>
+        <v>0.100828680525687</v>
       </c>
       <c r="X10">
-        <v>0.47346314129137629</v>
-      </c>
-    </row>
-    <row r="11" spans="1:26" x14ac:dyDescent="0.2">
+        <v>2.5322465759443403E-2</v>
+      </c>
+      <c r="Y10">
+        <v>2.5322465759443403E-2</v>
+      </c>
+      <c r="Z10">
+        <v>0.35154741167434722</v>
+      </c>
+      <c r="AA10">
+        <v>0.1059629395801331</v>
+      </c>
+    </row>
+    <row r="11" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A11">
-        <v>44</v>
+        <v>8</v>
       </c>
       <c r="B11" t="s">
         <v>17</v>
       </c>
       <c r="C11" t="s">
-        <v>107</v>
-      </c>
-      <c r="D11">
-        <v>7.2166699999999997</v>
-      </c>
-      <c r="E11">
-        <v>35.633339999999997</v>
-      </c>
-      <c r="F11" t="s">
+        <v>27</v>
+      </c>
+      <c r="D11" t="s">
+        <v>120</v>
+      </c>
+      <c r="E11" s="1">
+        <v>9.8629999999999995</v>
+      </c>
+      <c r="F11">
+        <v>37.67</v>
+      </c>
+      <c r="G11" t="s">
         <v>24</v>
       </c>
-      <c r="G11" t="s">
-        <v>75</v>
-      </c>
-      <c r="I11">
+      <c r="H11" t="s">
+        <v>74</v>
+      </c>
+      <c r="J11">
         <v>2025</v>
       </c>
-      <c r="J11">
-        <v>645</v>
-      </c>
       <c r="K11">
-        <v>0.71648926237161525</v>
-      </c>
-      <c r="L11">
-        <v>0.71648926237161525</v>
+        <v>280</v>
+      </c>
+      <c r="L11" s="12">
+        <v>3.0751295336787571E-2</v>
+      </c>
+      <c r="M11" s="12">
+        <v>3.0751295336787571E-2</v>
+      </c>
+      <c r="N11">
+        <v>0.34092719315013942</v>
       </c>
       <c r="O11">
-        <v>0.98991596638655466</v>
-      </c>
-      <c r="P11">
-        <v>0.98991596638655466</v>
+        <v>0.1071180219832736</v>
+      </c>
+      <c r="P11" s="1">
+        <v>0.86701208981001721</v>
+      </c>
+      <c r="Q11" s="1">
+        <v>0.86701208981001721</v>
+      </c>
+      <c r="R11">
+        <v>0.30769531063321381</v>
       </c>
       <c r="S11">
-        <v>0.87813258636788039</v>
-      </c>
-      <c r="T11">
-        <v>0.87813258636788039</v>
+        <v>7.763356463560335E-2</v>
+      </c>
+      <c r="T11" s="1">
+        <v>0.58084628670120908</v>
+      </c>
+      <c r="U11" s="1">
+        <v>0.58084628670120908</v>
+      </c>
+      <c r="V11">
+        <v>0.32889110155316609</v>
       </c>
       <c r="W11">
-        <v>0.24112418300653601</v>
-      </c>
-      <c r="X11">
-        <v>0.24112418300653601</v>
-      </c>
-    </row>
-    <row r="12" spans="1:26" x14ac:dyDescent="0.2">
+        <v>0.1072930659498208</v>
+      </c>
+      <c r="X11" s="1">
+        <v>3.181347150259068E-2</v>
+      </c>
+      <c r="Y11" s="1">
+        <v>3.181347150259068E-2</v>
+      </c>
+      <c r="Z11">
+        <v>0.36244325098139613</v>
+      </c>
+      <c r="AA11">
+        <v>9.809929006656426E-2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A12">
-        <v>7</v>
+        <v>40</v>
       </c>
       <c r="B12" t="s">
         <v>17</v>
       </c>
       <c r="C12" t="s">
-        <v>26</v>
-      </c>
-      <c r="D12" s="1">
-        <v>10.340844000000001</v>
+        <v>100</v>
+      </c>
+      <c r="D12" t="s">
+        <v>130</v>
       </c>
       <c r="E12">
-        <v>36.65</v>
-      </c>
-      <c r="F12" t="s">
-        <v>24</v>
+        <v>9.5592100000000002</v>
+      </c>
+      <c r="F12">
+        <v>37.36562</v>
       </c>
       <c r="G12" t="s">
-        <v>75</v>
-      </c>
-      <c r="I12">
-        <v>2028</v>
+        <v>9</v>
+      </c>
+      <c r="H12" t="s">
+        <v>74</v>
       </c>
       <c r="J12">
-        <v>935</v>
-      </c>
-      <c r="K12" s="12">
-        <v>4.8058277799555731E-2</v>
-      </c>
-      <c r="L12" s="12">
-        <v>4.8058277799555731E-2</v>
+        <v>1973</v>
+      </c>
+      <c r="K12">
+        <v>128</v>
+      </c>
+      <c r="L12">
+        <v>0.39112886967512511</v>
       </c>
       <c r="M12">
-        <v>0.3186647343687774</v>
+        <v>0.39112886967512511</v>
       </c>
       <c r="N12">
-        <v>0.1097955641577061</v>
-      </c>
-      <c r="O12" s="1">
-        <v>0.72644714491049267</v>
-      </c>
-      <c r="P12" s="1">
-        <v>0.72644714491049267</v>
+        <v>0.31769913022700119</v>
+      </c>
+      <c r="O12">
+        <v>0.1226002829151733</v>
+      </c>
+      <c r="P12">
+        <v>0.55395990010728102</v>
       </c>
       <c r="Q12">
-        <v>0.27000886260453999</v>
+        <v>0.55395990010728102</v>
       </c>
       <c r="R12">
-        <v>7.4062143130227007E-2</v>
-      </c>
-      <c r="S12" s="1">
-        <v>0.48480334509342748</v>
-      </c>
-      <c r="T12" s="1">
-        <v>0.48480334509342748</v>
+        <v>0.26080937037037039</v>
+      </c>
+      <c r="S12">
+        <v>7.8234182317801673E-2</v>
+      </c>
+      <c r="T12">
+        <v>0.50142622072856036</v>
       </c>
       <c r="U12">
-        <v>0.3237500696933493</v>
+        <v>0.50142622072856036</v>
       </c>
       <c r="V12">
-        <v>0.1145830021505376</v>
-      </c>
-      <c r="W12" s="1">
-        <v>2.9720371096302111E-2</v>
-      </c>
-      <c r="X12" s="1">
-        <v>2.9720371096302111E-2</v>
+        <v>0.29062612704101948</v>
+      </c>
+      <c r="W12">
+        <v>0.1203243992831541</v>
+      </c>
+      <c r="X12">
+        <v>0.39620138396267701</v>
       </c>
       <c r="Y12">
-        <v>0.38074566009557947</v>
+        <v>0.39620138396267701</v>
       </c>
       <c r="Z12">
-        <v>0.1242511758832565</v>
-      </c>
-    </row>
-    <row r="13" spans="1:26" x14ac:dyDescent="0.2">
+        <v>0.36399640809011768</v>
+      </c>
+      <c r="AA12">
+        <v>0.13593716615463389</v>
+      </c>
+    </row>
+    <row r="13" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A13">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="B13" t="s">
         <v>17</v>
       </c>
       <c r="C13" t="s">
-        <v>113</v>
-      </c>
-      <c r="D13">
-        <v>8.5429999999999993</v>
+        <v>107</v>
+      </c>
+      <c r="D13" t="s">
+        <v>131</v>
       </c>
       <c r="E13">
-        <v>35.195</v>
-      </c>
-      <c r="F13" t="s">
+        <v>8.31</v>
+      </c>
+      <c r="F13">
+        <v>36.1</v>
+      </c>
+      <c r="G13" t="s">
         <v>24</v>
       </c>
-      <c r="G13" t="s">
-        <v>75</v>
-      </c>
-      <c r="I13">
+      <c r="H13" t="s">
+        <v>74</v>
+      </c>
+      <c r="J13">
         <v>2025</v>
       </c>
-      <c r="J13">
-        <v>467</v>
-      </c>
       <c r="K13">
-        <v>4.3201198882104185E-2</v>
+        <v>372</v>
       </c>
       <c r="L13">
-        <v>4.3201198882104185E-2</v>
+        <v>0.4734631412913764</v>
+      </c>
+      <c r="M13">
+        <v>0.4734631412913764</v>
+      </c>
+      <c r="N13">
+        <v>0.28966248387096782</v>
       </c>
       <c r="O13">
-        <v>0.82341432688128036</v>
+        <v>0.10492320908004781</v>
       </c>
       <c r="P13">
-        <v>0.82341432688128036</v>
+        <v>0.4734631412913764</v>
+      </c>
+      <c r="Q13">
+        <v>0.4734631412913764</v>
+      </c>
+      <c r="R13">
+        <v>0.20662490123456789</v>
       </c>
       <c r="S13">
-        <v>0.4738184238006809</v>
+        <v>7.2926951254480288E-2</v>
       </c>
       <c r="T13">
-        <v>0.4738184238006809</v>
+        <v>0.4734631412913764</v>
+      </c>
+      <c r="U13">
+        <v>0.4734631412913764</v>
+      </c>
+      <c r="V13">
+        <v>0.25082501951413783</v>
       </c>
       <c r="W13">
-        <v>2.5322465759443403E-2</v>
+        <v>0.1116878334528076</v>
       </c>
       <c r="X13">
-        <v>2.5322465759443403E-2</v>
-      </c>
-    </row>
-    <row r="14" spans="1:26" x14ac:dyDescent="0.2">
+        <v>0.4734631412913764</v>
+      </c>
+      <c r="Y13">
+        <v>0.4734631412913764</v>
+      </c>
+      <c r="Z13">
+        <v>0.34061422725721108</v>
+      </c>
+      <c r="AA13">
+        <v>0.1200607611367128</v>
+      </c>
+    </row>
+    <row r="14" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A14">
-        <v>8</v>
+        <v>48</v>
       </c>
       <c r="B14" t="s">
         <v>17</v>
       </c>
       <c r="C14" t="s">
-        <v>27</v>
-      </c>
-      <c r="D14" s="1">
-        <v>9.8629999999999995</v>
+        <v>108</v>
+      </c>
+      <c r="D14" t="s">
+        <v>132</v>
       </c>
       <c r="E14">
-        <v>37.67</v>
-      </c>
-      <c r="F14" t="s">
+        <v>8.23</v>
+      </c>
+      <c r="F14">
+        <v>34.96</v>
+      </c>
+      <c r="G14" t="s">
         <v>24</v>
       </c>
-      <c r="G14" t="s">
-        <v>75</v>
-      </c>
-      <c r="I14">
+      <c r="H14" t="s">
+        <v>74</v>
+      </c>
+      <c r="J14">
         <v>2025</v>
       </c>
-      <c r="J14">
-        <v>280</v>
-      </c>
-      <c r="K14" s="12">
-        <v>3.0751295336787571E-2</v>
-      </c>
-      <c r="L14" s="12">
-        <v>3.0751295336787571E-2</v>
+      <c r="K14">
+        <v>216</v>
+      </c>
+      <c r="L14">
+        <v>0.17605086170659942</v>
       </c>
       <c r="M14">
-        <v>0.34092719315013942</v>
+        <v>0.17605086170659942</v>
       </c>
       <c r="N14">
-        <v>0.1071180219832736</v>
-      </c>
-      <c r="O14" s="1">
-        <v>0.86701208981001721</v>
-      </c>
-      <c r="P14" s="1">
-        <v>0.86701208981001721</v>
+        <v>0.3125925786539227</v>
+      </c>
+      <c r="O14">
+        <v>7.9993380406212664E-2</v>
+      </c>
+      <c r="P14">
+        <v>0.97162673392181587</v>
       </c>
       <c r="Q14">
-        <v>0.30769531063321381</v>
+        <v>0.97162673392181587</v>
       </c>
       <c r="R14">
-        <v>7.763356463560335E-2</v>
-      </c>
-      <c r="S14" s="1">
-        <v>0.58084628670120908</v>
-      </c>
-      <c r="T14" s="1">
-        <v>0.58084628670120908</v>
+        <v>0.25202684906411782</v>
+      </c>
+      <c r="S14">
+        <v>6.7338230585424139E-2</v>
+      </c>
+      <c r="T14">
+        <v>0.69829760403530894</v>
       </c>
       <c r="U14">
-        <v>0.32889110155316609</v>
+        <v>0.69829760403530894</v>
       </c>
       <c r="V14">
-        <v>0.1072930659498208</v>
-      </c>
-      <c r="W14" s="1">
-        <v>3.181347150259068E-2</v>
-      </c>
-      <c r="X14" s="1">
-        <v>3.181347150259068E-2</v>
+        <v>0.29334078255675028</v>
+      </c>
+      <c r="W14">
+        <v>9.7413269772998801E-2</v>
+      </c>
+      <c r="X14">
+        <v>5.3270281630937368E-2</v>
       </c>
       <c r="Y14">
-        <v>0.36244325098139613</v>
+        <v>5.3270281630937368E-2</v>
       </c>
       <c r="Z14">
-        <v>9.809929006656426E-2</v>
-      </c>
-    </row>
-    <row r="15" spans="1:26" x14ac:dyDescent="0.2">
+        <v>0.35921848566308251</v>
+      </c>
+      <c r="AA14">
+        <v>9.4217673067076291E-2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A15">
-        <v>40</v>
+        <v>6</v>
       </c>
       <c r="B15" t="s">
         <v>17</v>
       </c>
       <c r="C15" t="s">
-        <v>103</v>
-      </c>
-      <c r="D15">
-        <v>9.5592100000000002</v>
-      </c>
-      <c r="E15">
-        <v>37.36562</v>
-      </c>
-      <c r="F15" t="s">
+        <v>23</v>
+      </c>
+      <c r="D15" t="s">
+        <v>135</v>
+      </c>
+      <c r="E15" s="1">
+        <v>10.144004000000001</v>
+      </c>
+      <c r="F15">
+        <v>38.340000000000003</v>
+      </c>
+      <c r="G15" t="s">
+        <v>24</v>
+      </c>
+      <c r="H15" t="s">
+        <v>74</v>
+      </c>
+      <c r="J15">
+        <v>2026</v>
+      </c>
+      <c r="K15">
+        <v>1600</v>
+      </c>
+      <c r="L15" s="12">
+        <v>0.15239928498888736</v>
+      </c>
+      <c r="M15" s="12">
+        <v>0.15239928498888736</v>
+      </c>
+      <c r="N15">
+        <v>0.34185133452807648</v>
+      </c>
+      <c r="O15">
+        <v>0.120099909916368</v>
+      </c>
+      <c r="P15" s="1">
+        <v>0.96594138936903073</v>
+      </c>
+      <c r="Q15" s="1">
+        <v>0.96594138936903073</v>
+      </c>
+      <c r="R15">
+        <v>0.30371421146953398</v>
+      </c>
+      <c r="S15">
+        <v>8.7546180884109925E-2</v>
+      </c>
+      <c r="T15" s="1">
+        <v>0.6383653800451311</v>
+      </c>
+      <c r="U15" s="1">
+        <v>0.6383653800451311</v>
+      </c>
+      <c r="V15">
+        <v>0.33924185145360408</v>
+      </c>
+      <c r="W15">
+        <v>0.12606837108721619</v>
+      </c>
+      <c r="X15" s="1">
+        <v>6.2072973513692446E-2</v>
+      </c>
+      <c r="Y15" s="1">
+        <v>6.2072973513692446E-2</v>
+      </c>
+      <c r="Z15">
+        <v>0.37769306152927129</v>
+      </c>
+      <c r="AA15">
+        <v>0.13024408422939071</v>
+      </c>
+    </row>
+    <row r="16" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="A16">
         <v>9</v>
-      </c>
-      <c r="G15" t="s">
-        <v>75</v>
-      </c>
-      <c r="I15">
-        <v>1973</v>
-      </c>
-      <c r="J15">
-        <v>128</v>
-      </c>
-      <c r="K15">
-        <v>0.39112886967512511</v>
-      </c>
-      <c r="L15">
-        <v>0.39112886967512511</v>
-      </c>
-      <c r="O15">
-        <v>0.55395990010728102</v>
-      </c>
-      <c r="P15">
-        <v>0.55395990010728102</v>
-      </c>
-      <c r="S15">
-        <v>0.50142622072856036</v>
-      </c>
-      <c r="T15">
-        <v>0.50142622072856036</v>
-      </c>
-      <c r="W15">
-        <v>0.39620138396267701</v>
-      </c>
-      <c r="X15">
-        <v>0.39620138396267701</v>
-      </c>
-    </row>
-    <row r="16" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A16">
-        <v>47</v>
       </c>
       <c r="B16" t="s">
         <v>17</v>
       </c>
       <c r="C16" t="s">
-        <v>110</v>
-      </c>
-      <c r="D16">
-        <v>8.31</v>
-      </c>
-      <c r="E16">
-        <v>36.1</v>
-      </c>
-      <c r="F16" t="s">
-        <v>24</v>
+        <v>113</v>
+      </c>
+      <c r="D16" t="s">
+        <v>137</v>
+      </c>
+      <c r="E16" s="1">
+        <v>11.71</v>
+      </c>
+      <c r="F16">
+        <v>37.380000000000003</v>
       </c>
       <c r="G16" t="s">
-        <v>75</v>
+        <v>9</v>
+      </c>
+      <c r="H16" t="s">
+        <v>74</v>
       </c>
       <c r="I16">
-        <v>2025</v>
+        <v>3600</v>
       </c>
       <c r="J16">
-        <v>372</v>
+        <v>2010</v>
       </c>
       <c r="K16">
-        <v>0.4734631412913764</v>
-      </c>
-      <c r="L16">
-        <v>0.4734631412913764</v>
+        <v>460</v>
+      </c>
+      <c r="L16" s="12">
+        <v>0.46374835586876301</v>
+      </c>
+      <c r="M16" s="12">
+        <v>0.46374835586876301</v>
+      </c>
+      <c r="N16">
+        <v>0.34544052767821593</v>
       </c>
       <c r="O16">
-        <v>0.4734631412913764</v>
-      </c>
-      <c r="P16">
-        <v>0.4734631412913764</v>
+        <v>0.11954228339307051</v>
+      </c>
+      <c r="P16" s="12">
+        <v>0.46374835586876301</v>
+      </c>
+      <c r="Q16" s="12">
+        <v>0.46374835586876301</v>
+      </c>
+      <c r="R16">
+        <v>0.24786641338112311</v>
       </c>
       <c r="S16">
-        <v>0.4734631412913764</v>
-      </c>
-      <c r="T16">
-        <v>0.4734631412913764</v>
+        <v>9.7465531660692939E-2</v>
+      </c>
+      <c r="T16" s="12">
+        <v>0.46374835586876301</v>
+      </c>
+      <c r="U16" s="12">
+        <v>0.46374835586876301</v>
+      </c>
+      <c r="V16">
+        <v>0.31596995459976113</v>
       </c>
       <c r="W16">
-        <v>0.4734631412913764</v>
-      </c>
-      <c r="X16">
-        <v>0.4734631412913764</v>
-      </c>
-    </row>
-    <row r="17" spans="1:26" x14ac:dyDescent="0.2">
+        <v>0.1412421925925926</v>
+      </c>
+      <c r="X16" s="12">
+        <v>0.46374835586876301</v>
+      </c>
+      <c r="Y16" s="12">
+        <v>0.46374835586876301</v>
+      </c>
+      <c r="Z16">
+        <v>0.3865118322239291</v>
+      </c>
+      <c r="AA16">
+        <v>0.14075010650281619</v>
+      </c>
+    </row>
+    <row r="17" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A17">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="B17" t="s">
         <v>17</v>
       </c>
       <c r="C17" t="s">
-        <v>111</v>
-      </c>
-      <c r="D17">
-        <v>8.23</v>
+        <v>112</v>
+      </c>
+      <c r="D17" t="s">
+        <v>123</v>
       </c>
       <c r="E17">
-        <v>34.96</v>
-      </c>
-      <c r="F17" t="s">
+        <v>9.7920509063105143</v>
+      </c>
+      <c r="F17">
+        <v>34.821217572976948</v>
+      </c>
+      <c r="G17" t="s">
         <v>24</v>
       </c>
-      <c r="G17" t="s">
-        <v>75</v>
-      </c>
-      <c r="I17">
-        <v>2025</v>
+      <c r="H17" t="s">
+        <v>74</v>
       </c>
       <c r="J17">
-        <v>216</v>
+        <v>2031</v>
       </c>
       <c r="K17">
-        <v>0.17605086170659942</v>
+        <v>250</v>
       </c>
       <c r="L17">
-        <v>0.17605086170659942</v>
+        <v>0.5</v>
+      </c>
+      <c r="M17">
+        <v>0.5</v>
+      </c>
+      <c r="N17">
+        <v>0.27238327479091989</v>
       </c>
       <c r="O17">
-        <v>0.97162673392181587</v>
+        <v>0.10800152401433689</v>
       </c>
       <c r="P17">
-        <v>0.97162673392181587</v>
+        <v>0.5</v>
+      </c>
+      <c r="Q17">
+        <v>0.5</v>
+      </c>
+      <c r="R17">
+        <v>0.24155350975706891</v>
       </c>
       <c r="S17">
-        <v>0.69829760403530894</v>
+        <v>6.6075166547192352E-2</v>
       </c>
       <c r="T17">
-        <v>0.69829760403530894</v>
+        <v>0.5</v>
+      </c>
+      <c r="U17">
+        <v>0.5</v>
+      </c>
+      <c r="V17">
+        <v>0.27196658821186781</v>
       </c>
       <c r="W17">
-        <v>5.3270281630937368E-2</v>
+        <v>0.10728013309438469</v>
       </c>
       <c r="X17">
-        <v>5.3270281630937368E-2</v>
-      </c>
-    </row>
-    <row r="18" spans="1:26" x14ac:dyDescent="0.2">
+        <v>0.5</v>
+      </c>
+      <c r="Y17">
+        <v>0.5</v>
+      </c>
+      <c r="Z17">
+        <v>0.35598600273084152</v>
+      </c>
+      <c r="AA17">
+        <v>0.12134669226830511</v>
+      </c>
+    </row>
+    <row r="18" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A18">
-        <v>6</v>
+        <v>51</v>
       </c>
       <c r="B18" t="s">
         <v>17</v>
       </c>
       <c r="C18" t="s">
-        <v>23</v>
-      </c>
-      <c r="D18" s="1">
-        <v>10.144004000000001</v>
+        <v>111</v>
+      </c>
+      <c r="D18" t="s">
+        <v>138</v>
       </c>
       <c r="E18">
-        <v>38.340000000000003</v>
-      </c>
-      <c r="F18" t="s">
+        <v>8.9687499999993818</v>
+      </c>
+      <c r="F18">
+        <v>36.228934219808657</v>
+      </c>
+      <c r="G18" t="s">
         <v>24</v>
       </c>
-      <c r="G18" t="s">
-        <v>75</v>
-      </c>
-      <c r="I18">
-        <v>2026</v>
+      <c r="H18" t="s">
+        <v>74</v>
       </c>
       <c r="J18">
-        <v>1600</v>
-      </c>
-      <c r="K18" s="12">
-        <v>0.15239928498888736</v>
-      </c>
-      <c r="L18" s="12">
-        <v>0.15239928498888736</v>
+        <v>2025</v>
+      </c>
+      <c r="K18">
+        <v>550</v>
+      </c>
+      <c r="L18">
+        <v>0.5</v>
       </c>
       <c r="M18">
-        <v>0.34185133452807648</v>
+        <v>0.5</v>
       </c>
       <c r="N18">
-        <v>0.120099909916368</v>
-      </c>
-      <c r="O18" s="1">
-        <v>0.96594138936903073</v>
-      </c>
-      <c r="P18" s="1">
-        <v>0.96594138936903073</v>
+        <v>0.32026751971326162</v>
+      </c>
+      <c r="O18">
+        <v>0.1044625844683393</v>
+      </c>
+      <c r="P18">
+        <v>0.5</v>
       </c>
       <c r="Q18">
-        <v>0.30371421146953398</v>
+        <v>0.5</v>
       </c>
       <c r="R18">
-        <v>8.7546180884109925E-2</v>
-      </c>
-      <c r="S18" s="1">
-        <v>0.6383653800451311</v>
-      </c>
-      <c r="T18" s="1">
-        <v>0.6383653800451311</v>
+        <v>0.26110407606531272</v>
+      </c>
+      <c r="S18">
+        <v>7.1898174910394255E-2</v>
+      </c>
+      <c r="T18">
+        <v>0.5</v>
       </c>
       <c r="U18">
-        <v>0.33924185145360408</v>
+        <v>0.5</v>
       </c>
       <c r="V18">
-        <v>0.12606837108721619</v>
-      </c>
-      <c r="W18" s="1">
-        <v>6.2072973513692446E-2</v>
-      </c>
-      <c r="X18" s="1">
-        <v>6.2072973513692446E-2</v>
+        <v>0.31357061529271207</v>
+      </c>
+      <c r="W18">
+        <v>0.1066021416965352</v>
+      </c>
+      <c r="X18">
+        <v>0.5</v>
       </c>
       <c r="Y18">
-        <v>0.37769306152927129</v>
+        <v>0.5</v>
       </c>
       <c r="Z18">
-        <v>0.13024408422939071</v>
-      </c>
-    </row>
-    <row r="19" spans="1:26" x14ac:dyDescent="0.2">
+        <v>0.3784216705069125</v>
+      </c>
+      <c r="AA18">
+        <v>0.1159565138248848</v>
+      </c>
+    </row>
+    <row r="19" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A19">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="B19" t="s">
         <v>17</v>
       </c>
       <c r="C19" t="s">
-        <v>116</v>
-      </c>
-      <c r="D19" s="1">
-        <v>11.71</v>
-      </c>
-      <c r="E19">
-        <v>37.380000000000003</v>
-      </c>
-      <c r="F19" t="s">
+        <v>18</v>
+      </c>
+      <c r="D19" t="s">
+        <v>141</v>
+      </c>
+      <c r="E19" s="1">
+        <v>11.21</v>
+      </c>
+      <c r="F19">
+        <v>35.090000000000003</v>
+      </c>
+      <c r="G19" t="s">
         <v>9</v>
       </c>
-      <c r="G19" t="s">
-        <v>75</v>
-      </c>
-      <c r="H19">
-        <v>3600</v>
-      </c>
-      <c r="I19">
-        <v>2010</v>
+      <c r="H19" t="s">
+        <v>74</v>
+      </c>
+      <c r="I19" s="5">
+        <v>1874</v>
       </c>
       <c r="J19">
-        <v>460</v>
-      </c>
-      <c r="K19" s="12">
-        <v>0.46374835586876301</v>
+        <v>2023</v>
+      </c>
+      <c r="K19">
+        <v>6400</v>
       </c>
       <c r="L19" s="12">
-        <v>0.46374835586876301</v>
-      </c>
-      <c r="M19">
-        <v>0.34544052767821593</v>
+        <v>0.27571636687559031</v>
+      </c>
+      <c r="M19" s="12">
+        <v>0.27571636687559031</v>
       </c>
       <c r="N19">
-        <v>0.11954228339307051</v>
-      </c>
-      <c r="O19" s="12">
-        <v>0.46374835586876301</v>
-      </c>
-      <c r="P19" s="12">
-        <v>0.46374835586876301</v>
-      </c>
-      <c r="Q19">
-        <v>0.24786641338112311</v>
+        <v>0.33303783671843878</v>
+      </c>
+      <c r="O19">
+        <v>0.10567916917562729</v>
+      </c>
+      <c r="P19" s="1">
+        <v>0.27571636687559031</v>
+      </c>
+      <c r="Q19" s="1">
+        <v>0.27571636687559031</v>
       </c>
       <c r="R19">
-        <v>9.7465531660692939E-2</v>
-      </c>
-      <c r="S19" s="12">
-        <v>0.46374835586876301</v>
-      </c>
-      <c r="T19" s="12">
-        <v>0.46374835586876301</v>
-      </c>
-      <c r="U19">
-        <v>0.31596995459976113</v>
+        <v>0.27764846395858228</v>
+      </c>
+      <c r="S19">
+        <v>6.7827279569892471E-2</v>
+      </c>
+      <c r="T19" s="1">
+        <v>0.27571636687559031</v>
+      </c>
+      <c r="U19" s="1">
+        <v>0.27571636687559031</v>
       </c>
       <c r="V19">
-        <v>0.1412421925925926</v>
-      </c>
-      <c r="W19" s="12">
-        <v>0.46374835586876301</v>
-      </c>
-      <c r="X19" s="12">
-        <v>0.46374835586876301</v>
-      </c>
-      <c r="Y19">
-        <v>0.3865118322239291</v>
+        <v>0.30851121903624051</v>
+      </c>
+      <c r="W19">
+        <v>0.1091898138590203</v>
+      </c>
+      <c r="X19" s="1">
+        <v>0.27571636687559031</v>
+      </c>
+      <c r="Y19" s="1">
+        <v>0.27571636687559031</v>
       </c>
       <c r="Z19">
-        <v>0.14075010650281619</v>
-      </c>
-    </row>
-    <row r="20" spans="1:26" x14ac:dyDescent="0.2">
+        <v>0.37835753840245773</v>
+      </c>
+      <c r="AA19">
+        <v>0.11339636354326681</v>
+      </c>
+    </row>
+    <row r="20" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A20">
-        <v>52</v>
+        <v>43</v>
       </c>
       <c r="B20" t="s">
         <v>17</v>
       </c>
       <c r="C20" t="s">
-        <v>115</v>
-      </c>
-      <c r="D20">
-        <v>9.7920509063105143</v>
+        <v>103</v>
+      </c>
+      <c r="D20" t="s">
+        <v>146</v>
       </c>
       <c r="E20">
-        <v>34.821217572976948</v>
-      </c>
-      <c r="F20" t="s">
+        <v>8.2235060000000004</v>
+      </c>
+      <c r="F20">
+        <v>35.493414399999999</v>
+      </c>
+      <c r="G20" t="s">
         <v>24</v>
       </c>
-      <c r="G20" t="s">
-        <v>75</v>
-      </c>
-      <c r="I20">
-        <v>2031</v>
+      <c r="H20" t="s">
+        <v>74</v>
       </c>
       <c r="J20">
-        <v>250</v>
-      </c>
-    </row>
-    <row r="21" spans="1:26" x14ac:dyDescent="0.2">
+        <v>2022</v>
+      </c>
+      <c r="K20">
+        <v>5</v>
+      </c>
+      <c r="L20">
+        <v>0.17605086170659942</v>
+      </c>
+      <c r="M20">
+        <v>0.17605086170659942</v>
+      </c>
+      <c r="N20">
+        <v>0.28545257148546388</v>
+      </c>
+      <c r="O20">
+        <v>9.5809534528076459E-2</v>
+      </c>
+      <c r="P20">
+        <v>0.97162673392181587</v>
+      </c>
+      <c r="Q20">
+        <v>0.97162673392181587</v>
+      </c>
+      <c r="R20">
+        <v>0.2150205523695739</v>
+      </c>
+      <c r="S20">
+        <v>7.4644783034647555E-2</v>
+      </c>
+      <c r="T20">
+        <v>0.69829760403530894</v>
+      </c>
+      <c r="U20">
+        <v>0.69829760403530894</v>
+      </c>
+      <c r="V20">
+        <v>0.25505418837116678</v>
+      </c>
+      <c r="W20">
+        <v>0.1065369913978495</v>
+      </c>
+      <c r="X20">
+        <v>5.3270281630937368E-2</v>
+      </c>
+      <c r="Y20">
+        <v>5.3270281630937368E-2</v>
+      </c>
+      <c r="Z20">
+        <v>0.34678538786482332</v>
+      </c>
+      <c r="AA20">
+        <v>0.11359697977470561</v>
+      </c>
+    </row>
+    <row r="21" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A21">
-        <v>51</v>
+        <v>39</v>
       </c>
       <c r="B21" t="s">
         <v>17</v>
       </c>
       <c r="C21" t="s">
-        <v>114</v>
-      </c>
-      <c r="D21">
-        <v>8.9687499999993818</v>
+        <v>99</v>
+      </c>
+      <c r="D21" t="s">
+        <v>147</v>
       </c>
       <c r="E21">
-        <v>36.228934219808657</v>
-      </c>
-      <c r="F21" t="s">
+        <v>7.9729166666660403</v>
+      </c>
+      <c r="F21">
+        <v>35.327083333332517</v>
+      </c>
+      <c r="G21" t="s">
         <v>24</v>
       </c>
-      <c r="G21" t="s">
-        <v>75</v>
+      <c r="H21" t="s">
+        <v>74</v>
       </c>
       <c r="I21">
-        <v>2025</v>
+        <v>76</v>
       </c>
       <c r="J21">
-        <v>550</v>
-      </c>
-    </row>
-    <row r="22" spans="1:26" x14ac:dyDescent="0.2">
+        <v>2031</v>
+      </c>
+      <c r="K21">
+        <v>1000</v>
+      </c>
+      <c r="L21">
+        <v>0.5</v>
+      </c>
+      <c r="M21">
+        <v>0.5</v>
+      </c>
+      <c r="N21">
+        <v>0.27118642134607718</v>
+      </c>
+      <c r="O21">
+        <v>9.4730189247311816E-2</v>
+      </c>
+      <c r="P21">
+        <v>0.5</v>
+      </c>
+      <c r="Q21">
+        <v>0.5</v>
+      </c>
+      <c r="R21">
+        <v>0.19225094026284351</v>
+      </c>
+      <c r="S21">
+        <v>7.0605205017921155E-2</v>
+      </c>
+      <c r="T21">
+        <v>0.5</v>
+      </c>
+      <c r="U21">
+        <v>0.5</v>
+      </c>
+      <c r="V21">
+        <v>0.23421118598168059</v>
+      </c>
+      <c r="W21">
+        <v>0.10729649032258071</v>
+      </c>
+      <c r="X21">
+        <v>0.5</v>
+      </c>
+      <c r="Y21">
+        <v>0.5</v>
+      </c>
+      <c r="Z21">
+        <v>0.33075371693121691</v>
+      </c>
+      <c r="AA21">
+        <v>0.1102367903225806</v>
+      </c>
+    </row>
+    <row r="22" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A22">
-        <v>4</v>
+        <v>38</v>
       </c>
       <c r="B22" t="s">
         <v>17</v>
       </c>
       <c r="C22" t="s">
-        <v>18</v>
-      </c>
-      <c r="D22" s="1">
-        <v>11.21</v>
+        <v>98</v>
+      </c>
+      <c r="D22" t="s">
+        <v>148</v>
       </c>
       <c r="E22">
-        <v>35.090000000000003</v>
-      </c>
-      <c r="F22" t="s">
+        <v>13.347630000000001</v>
+      </c>
+      <c r="F22">
+        <v>38.743160000000003</v>
+      </c>
+      <c r="G22" t="s">
         <v>9</v>
       </c>
-      <c r="G22" t="s">
-        <v>75</v>
-      </c>
-      <c r="H22" s="5">
-        <v>1874</v>
-      </c>
-      <c r="I22">
-        <v>2023</v>
+      <c r="H22" t="s">
+        <v>74</v>
       </c>
       <c r="J22">
-        <v>6400</v>
-      </c>
-      <c r="K22" s="12">
-        <v>0.27571636687559031</v>
-      </c>
-      <c r="L22" s="12">
-        <v>0.27571636687559031</v>
+        <v>2010</v>
+      </c>
+      <c r="K22">
+        <v>300</v>
+      </c>
+      <c r="L22">
+        <v>1</v>
       </c>
       <c r="M22">
-        <v>0.33303783671843878</v>
+        <v>1</v>
       </c>
       <c r="N22">
-        <v>0.10567916917562729</v>
-      </c>
-      <c r="O22" s="1">
-        <v>0.27571636687559031</v>
-      </c>
-      <c r="P22" s="1">
-        <v>0.27571636687559031</v>
+        <v>0.28742656471525291</v>
+      </c>
+      <c r="O22">
+        <v>0.13885416821983271</v>
+      </c>
+      <c r="P22">
+        <v>1</v>
       </c>
       <c r="Q22">
-        <v>0.27764846395858228</v>
+        <v>1</v>
       </c>
       <c r="R22">
-        <v>6.7827279569892471E-2</v>
-      </c>
-      <c r="S22" s="1">
-        <v>0.27571636687559031</v>
-      </c>
-      <c r="T22" s="1">
-        <v>0.27571636687559031</v>
+        <v>0.26241724253285548</v>
+      </c>
+      <c r="S22">
+        <v>0.1140387906810036</v>
+      </c>
+      <c r="T22">
+        <v>1</v>
       </c>
       <c r="U22">
-        <v>0.30851121903624051</v>
+        <v>1</v>
       </c>
       <c r="V22">
-        <v>0.1091898138590203</v>
-      </c>
-      <c r="W22" s="1">
-        <v>0.27571636687559031</v>
-      </c>
-      <c r="X22" s="1">
-        <v>0.27571636687559031</v>
+        <v>0.2465983233771406</v>
+      </c>
+      <c r="W22">
+        <v>0.14380953620071679</v>
+      </c>
+      <c r="X22">
+        <v>1</v>
       </c>
       <c r="Y22">
-        <v>0.37835753840245773</v>
+        <v>1</v>
       </c>
       <c r="Z22">
-        <v>0.11339636354326681</v>
-      </c>
-    </row>
-    <row r="23" spans="1:26" x14ac:dyDescent="0.2">
+        <v>0.26817943207031919</v>
+      </c>
+      <c r="AA22">
+        <v>0.1139012657450077</v>
+      </c>
+    </row>
+    <row r="23" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A23">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="B23" t="s">
         <v>17</v>
       </c>
       <c r="C23" t="s">
-        <v>106</v>
-      </c>
-      <c r="D23">
-        <v>8.2235060000000004</v>
+        <v>97</v>
+      </c>
+      <c r="D23" t="s">
+        <v>149</v>
       </c>
       <c r="E23">
-        <v>35.493414399999999</v>
-      </c>
-      <c r="F23" t="s">
+        <v>13.790556</v>
+      </c>
+      <c r="F23">
+        <v>37.997222000000001</v>
+      </c>
+      <c r="G23" t="s">
         <v>24</v>
       </c>
-      <c r="G23" t="s">
-        <v>75</v>
-      </c>
-      <c r="I23">
-        <v>2022</v>
+      <c r="H23" t="s">
+        <v>74</v>
       </c>
       <c r="J23">
-        <v>5</v>
+        <v>2025</v>
       </c>
       <c r="K23">
-        <v>0.17605086170659942</v>
+        <v>380</v>
       </c>
       <c r="L23">
-        <v>0.17605086170659942</v>
+        <v>1</v>
+      </c>
+      <c r="M23">
+        <v>1</v>
+      </c>
+      <c r="N23">
+        <v>0.29878433373158098</v>
       </c>
       <c r="O23">
-        <v>0.97162673392181587</v>
+        <v>0.13950407383512539</v>
       </c>
       <c r="P23">
-        <v>0.97162673392181587</v>
+        <v>1</v>
+      </c>
+      <c r="Q23">
+        <v>1</v>
+      </c>
+      <c r="R23">
+        <v>0.26141661210673039</v>
       </c>
       <c r="S23">
-        <v>0.69829760403530894</v>
+        <v>0.11389629414575871</v>
       </c>
       <c r="T23">
-        <v>0.69829760403530894</v>
+        <v>1</v>
+      </c>
+      <c r="U23">
+        <v>1</v>
+      </c>
+      <c r="V23">
+        <v>0.28619818797291918</v>
       </c>
       <c r="W23">
-        <v>5.3270281630937368E-2</v>
+        <v>0.15239372855436081</v>
       </c>
       <c r="X23">
-        <v>5.3270281630937368E-2</v>
-      </c>
-    </row>
-    <row r="24" spans="1:26" x14ac:dyDescent="0.2">
+        <v>1</v>
+      </c>
+      <c r="Y23">
+        <v>1</v>
+      </c>
+      <c r="Z23">
+        <v>0.32245606332138588</v>
+      </c>
+      <c r="AA23">
+        <v>0.144823194828469</v>
+      </c>
+    </row>
+    <row r="24" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A24">
-        <v>39</v>
+        <v>49</v>
       </c>
       <c r="B24" t="s">
         <v>17</v>
       </c>
       <c r="C24" t="s">
-        <v>102</v>
-      </c>
-      <c r="F24" t="s">
+        <v>109</v>
+      </c>
+      <c r="D24" t="s">
+        <v>151</v>
+      </c>
+      <c r="E24">
+        <v>9.9860109999999995</v>
+      </c>
+      <c r="F24">
+        <v>34.893504</v>
+      </c>
+      <c r="G24" t="s">
         <v>24</v>
       </c>
-      <c r="G24" t="s">
-        <v>75</v>
-      </c>
-      <c r="H24">
-        <v>76</v>
-      </c>
-      <c r="I24">
-        <v>2031</v>
+      <c r="H24" t="s">
+        <v>74</v>
       </c>
       <c r="J24">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="25" spans="1:26" x14ac:dyDescent="0.2">
+        <v>2025</v>
+      </c>
+      <c r="K24">
+        <v>326</v>
+      </c>
+      <c r="L24">
+        <v>3.9472117214678984E-2</v>
+      </c>
+      <c r="M24">
+        <v>3.9472117214678984E-2</v>
+      </c>
+      <c r="N24">
+        <v>0.29209634846674631</v>
+      </c>
+      <c r="O24">
+        <v>0.10407190322580639</v>
+      </c>
+      <c r="P24">
+        <v>0.84636157253600031</v>
+      </c>
+      <c r="Q24">
+        <v>0.84636157253600031</v>
+      </c>
+      <c r="R24">
+        <v>0.24039536280366389</v>
+      </c>
+      <c r="S24">
+        <v>6.262635101553167E-2</v>
+      </c>
+      <c r="T24">
+        <v>0.53219510012209625</v>
+      </c>
+      <c r="U24">
+        <v>0.53219510012209625</v>
+      </c>
+      <c r="V24">
+        <v>0.28377471166865792</v>
+      </c>
+      <c r="W24">
+        <v>0.1086817311827957</v>
+      </c>
+      <c r="X24">
+        <v>2.2890325229511288E-2</v>
+      </c>
+      <c r="Y24">
+        <v>2.2890325229511288E-2</v>
+      </c>
+      <c r="Z24">
+        <v>0.37913282130056319</v>
+      </c>
+      <c r="AA24">
+        <v>0.117723065796211</v>
+      </c>
+    </row>
+    <row r="25" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A25">
-        <v>38</v>
+        <v>5</v>
       </c>
       <c r="B25" t="s">
         <v>17</v>
       </c>
       <c r="C25" t="s">
-        <v>101</v>
-      </c>
-      <c r="D25">
-        <v>13.347630000000001</v>
-      </c>
-      <c r="E25">
-        <v>38.743160000000003</v>
-      </c>
-      <c r="F25" t="s">
+        <v>28</v>
+      </c>
+      <c r="D25" t="s">
+        <v>152</v>
+      </c>
+      <c r="E25" s="1">
+        <v>9.9470200000000002</v>
+      </c>
+      <c r="F25">
+        <v>35.68</v>
+      </c>
+      <c r="G25" t="s">
+        <v>24</v>
+      </c>
+      <c r="H25" t="s">
+        <v>74</v>
+      </c>
+      <c r="J25">
+        <v>2030</v>
+      </c>
+      <c r="K25">
+        <v>1700</v>
+      </c>
+      <c r="L25" s="12">
+        <v>4.9502697311754849E-2</v>
+      </c>
+      <c r="M25" s="12">
+        <v>4.9502697311754849E-2</v>
+      </c>
+      <c r="N25">
+        <v>0.32756912345679012</v>
+      </c>
+      <c r="O25">
+        <v>9.7332529988052571E-2</v>
+      </c>
+      <c r="P25" s="1">
+        <v>0.78571104764495214</v>
+      </c>
+      <c r="Q25" s="1">
+        <v>0.78571104764495214</v>
+      </c>
+      <c r="R25">
+        <v>0.26230201513341289</v>
+      </c>
+      <c r="S25">
+        <v>7.0104277419354835E-2</v>
+      </c>
+      <c r="T25" s="1">
+        <v>0.50293304320232102</v>
+      </c>
+      <c r="U25" s="1">
+        <v>0.50293304320232102</v>
+      </c>
+      <c r="V25">
+        <v>0.32110683074472318</v>
+      </c>
+      <c r="W25">
+        <v>0.10273956296296299</v>
+      </c>
+      <c r="X25" s="1">
+        <v>2.8134548256947282E-2</v>
+      </c>
+      <c r="Y25" s="1">
+        <v>2.8134548256947282E-2</v>
+      </c>
+      <c r="Z25">
+        <v>0.37596370327700979</v>
+      </c>
+      <c r="AA25">
+        <v>0.111860513312852</v>
+      </c>
+    </row>
+    <row r="26" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="A26">
+        <v>28</v>
+      </c>
+      <c r="B26" t="s">
+        <v>76</v>
+      </c>
+      <c r="C26" s="8" t="s">
+        <v>77</v>
+      </c>
+      <c r="D26" s="8" t="s">
+        <v>122</v>
+      </c>
+      <c r="E26">
+        <v>4.7392422337811801</v>
+      </c>
+      <c r="F26">
+        <v>31.597916666665899</v>
+      </c>
+      <c r="G26" t="s">
+        <v>24</v>
+      </c>
+      <c r="H26" t="s">
+        <v>74</v>
+      </c>
+      <c r="J26">
+        <v>2026</v>
+      </c>
+      <c r="K26">
+        <v>120</v>
+      </c>
+      <c r="L26">
+        <v>0.5</v>
+      </c>
+      <c r="M26">
+        <v>0.5</v>
+      </c>
+      <c r="N26">
+        <v>0.31782991039426522</v>
+      </c>
+      <c r="O26">
+        <v>9.1050570609318995E-2</v>
+      </c>
+      <c r="P26">
+        <v>0.5</v>
+      </c>
+      <c r="Q26">
+        <v>0.5</v>
+      </c>
+      <c r="R26">
+        <v>0.27428759936280372</v>
+      </c>
+      <c r="S26">
+        <v>7.5601210513739539E-2</v>
+      </c>
+      <c r="T26">
+        <v>0.5</v>
+      </c>
+      <c r="U26">
+        <v>0.5</v>
+      </c>
+      <c r="V26">
+        <v>0.29182108442851451</v>
+      </c>
+      <c r="W26">
+        <v>0.107807576344086</v>
+      </c>
+      <c r="X26">
+        <v>0.5</v>
+      </c>
+      <c r="Y26">
+        <v>0.5</v>
+      </c>
+      <c r="Z26">
+        <v>0.3619241816009558</v>
+      </c>
+      <c r="AA26">
+        <v>0.10526507910906301</v>
+      </c>
+    </row>
+    <row r="27" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="A27">
+        <v>34</v>
+      </c>
+      <c r="B27" t="s">
+        <v>76</v>
+      </c>
+      <c r="C27" t="s">
+        <v>84</v>
+      </c>
+      <c r="D27" t="s">
+        <v>153</v>
+      </c>
+      <c r="E27" s="1">
+        <v>7.6813841641640401</v>
+      </c>
+      <c r="F27" s="1">
+        <v>28.047306141252399</v>
+      </c>
+      <c r="G27" t="s">
+        <v>24</v>
+      </c>
+      <c r="H27" t="s">
+        <v>74</v>
+      </c>
+      <c r="J27">
+        <v>2030</v>
+      </c>
+      <c r="K27">
+        <v>10.4</v>
+      </c>
+      <c r="L27">
+        <v>0.31029445257849358</v>
+      </c>
+      <c r="M27">
+        <v>0.31029445257849358</v>
+      </c>
+      <c r="N27">
+        <v>0.35536499522102738</v>
+      </c>
+      <c r="O27">
+        <v>8.8994540501792119E-2</v>
+      </c>
+      <c r="P27">
+        <v>0.1454367984382626</v>
+      </c>
+      <c r="Q27">
+        <v>0.1454367984382626</v>
+      </c>
+      <c r="R27">
+        <v>0.296346847471127</v>
+      </c>
+      <c r="S27">
+        <v>7.0238719474313024E-2</v>
+      </c>
+      <c r="T27">
+        <v>0.71904994306165604</v>
+      </c>
+      <c r="U27">
+        <v>0.71904994306165604</v>
+      </c>
+      <c r="V27">
+        <v>0.33079598048586217</v>
+      </c>
+      <c r="W27">
+        <v>9.9134947670250884E-2</v>
+      </c>
+      <c r="X27">
+        <v>6.3152757442654958E-2</v>
+      </c>
+      <c r="Y27">
+        <v>6.3152757442654958E-2</v>
+      </c>
+      <c r="Z27">
+        <v>0.39432404761904771</v>
+      </c>
+      <c r="AA27">
+        <v>9.4888290322580629E-2</v>
+      </c>
+    </row>
+    <row r="28" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="A28">
+        <v>17</v>
+      </c>
+      <c r="B28" t="s">
+        <v>29</v>
+      </c>
+      <c r="C28" t="s">
+        <v>38</v>
+      </c>
+      <c r="D28" t="s">
+        <v>128</v>
+      </c>
+      <c r="E28" s="1">
+        <v>19.3353124367388</v>
+      </c>
+      <c r="F28">
+        <v>33.409999999999997</v>
+      </c>
+      <c r="G28" t="s">
+        <v>24</v>
+      </c>
+      <c r="H28" t="s">
+        <v>74</v>
+      </c>
+      <c r="J28">
+        <v>2028</v>
+      </c>
+      <c r="K28">
+        <v>312</v>
+      </c>
+      <c r="L28" s="12">
+        <v>1</v>
+      </c>
+      <c r="M28" s="12">
+        <v>1</v>
+      </c>
+      <c r="N28">
+        <v>0.40658502349661491</v>
+      </c>
+      <c r="O28">
+        <v>0.133054680525687</v>
+      </c>
+      <c r="P28" s="1">
+        <v>1</v>
+      </c>
+      <c r="Q28" s="1">
+        <v>1</v>
+      </c>
+      <c r="R28">
+        <v>0.35451344165671039</v>
+      </c>
+      <c r="S28">
+        <v>0.11408707311827949</v>
+      </c>
+      <c r="T28" s="1">
+        <v>1</v>
+      </c>
+      <c r="U28" s="1">
+        <v>1</v>
+      </c>
+      <c r="V28">
+        <v>0.36084930426125061</v>
+      </c>
+      <c r="W28">
+        <v>0.13215149486260461</v>
+      </c>
+      <c r="X28" s="1">
+        <v>1</v>
+      </c>
+      <c r="Y28" s="1">
+        <v>1</v>
+      </c>
+      <c r="Z28">
+        <v>0.40695313150708318</v>
+      </c>
+      <c r="AA28">
+        <v>0.12382463159242189</v>
+      </c>
+    </row>
+    <row r="29" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="A29">
+        <v>14</v>
+      </c>
+      <c r="B29" t="s">
+        <v>29</v>
+      </c>
+      <c r="C29" t="s">
+        <v>39</v>
+      </c>
+      <c r="D29" t="s">
+        <v>129</v>
+      </c>
+      <c r="E29" s="1">
+        <v>21.373100000000001</v>
+      </c>
+      <c r="F29">
+        <v>30.93</v>
+      </c>
+      <c r="G29" t="s">
+        <v>24</v>
+      </c>
+      <c r="H29" t="s">
+        <v>74</v>
+      </c>
+      <c r="J29">
+        <v>2030</v>
+      </c>
+      <c r="K29">
+        <v>648</v>
+      </c>
+      <c r="L29" s="12">
+        <v>1</v>
+      </c>
+      <c r="M29" s="12">
+        <v>1</v>
+      </c>
+      <c r="N29">
+        <v>0.42521820788530468</v>
+      </c>
+      <c r="O29">
+        <v>0.1244606697729988</v>
+      </c>
+      <c r="P29" s="1">
+        <v>1</v>
+      </c>
+      <c r="Q29" s="1">
+        <v>1</v>
+      </c>
+      <c r="R29">
+        <v>0.37771498287534838</v>
+      </c>
+      <c r="S29">
+        <v>0.1102721285543608</v>
+      </c>
+      <c r="T29" s="1">
+        <v>1</v>
+      </c>
+      <c r="U29" s="1">
+        <v>1</v>
+      </c>
+      <c r="V29">
+        <v>0.38316936001592983</v>
+      </c>
+      <c r="W29">
+        <v>0.12599141863799279</v>
+      </c>
+      <c r="X29" s="1">
+        <v>1</v>
+      </c>
+      <c r="Y29" s="1">
+        <v>1</v>
+      </c>
+      <c r="Z29">
+        <v>0.40716517665130569</v>
+      </c>
+      <c r="AA29">
+        <v>0.1130760087045571</v>
+      </c>
+    </row>
+    <row r="30" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="A30">
+        <v>13</v>
+      </c>
+      <c r="B30" t="s">
+        <v>29</v>
+      </c>
+      <c r="C30" t="s">
+        <v>30</v>
+      </c>
+      <c r="D30" t="s">
+        <v>121</v>
+      </c>
+      <c r="E30" s="1">
+        <v>15.238888888888889</v>
+      </c>
+      <c r="F30">
+        <v>32.46</v>
+      </c>
+      <c r="G30" t="s">
         <v>9</v>
       </c>
-      <c r="G25" t="s">
-        <v>75</v>
-      </c>
-      <c r="I25">
-        <v>2010</v>
-      </c>
-      <c r="J25">
-        <v>300</v>
-      </c>
-      <c r="K25">
-        <v>1</v>
-      </c>
-      <c r="L25">
-        <v>1</v>
-      </c>
-      <c r="O25">
-        <v>1</v>
-      </c>
-      <c r="P25">
-        <v>1</v>
-      </c>
-      <c r="S25">
-        <v>1</v>
-      </c>
-      <c r="T25">
-        <v>1</v>
-      </c>
-      <c r="W25">
-        <v>1</v>
-      </c>
-      <c r="X25">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="26" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A26">
-        <v>37</v>
-      </c>
-      <c r="B26" t="s">
-        <v>17</v>
-      </c>
-      <c r="C26" t="s">
-        <v>100</v>
-      </c>
-      <c r="D26">
-        <v>13.790556</v>
-      </c>
-      <c r="E26">
-        <v>37.997222000000001</v>
-      </c>
-      <c r="F26" t="s">
-        <v>24</v>
-      </c>
-      <c r="G26" t="s">
-        <v>75</v>
-      </c>
-      <c r="I26">
-        <v>2025</v>
-      </c>
-      <c r="J26">
-        <v>380</v>
-      </c>
-      <c r="K26">
-        <v>1</v>
-      </c>
-      <c r="L26">
-        <v>1</v>
-      </c>
-      <c r="O26">
-        <v>1</v>
-      </c>
-      <c r="P26">
-        <v>1</v>
-      </c>
-      <c r="S26">
-        <v>1</v>
-      </c>
-      <c r="T26">
-        <v>1</v>
-      </c>
-      <c r="W26">
-        <v>1</v>
-      </c>
-      <c r="X26">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="27" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A27">
-        <v>49</v>
-      </c>
-      <c r="B27" t="s">
-        <v>17</v>
-      </c>
-      <c r="C27" t="s">
-        <v>112</v>
-      </c>
-      <c r="D27">
-        <v>9.9860109999999995</v>
-      </c>
-      <c r="E27">
-        <v>34.893504</v>
-      </c>
-      <c r="F27" t="s">
-        <v>24</v>
-      </c>
-      <c r="G27" t="s">
-        <v>75</v>
-      </c>
-      <c r="I27">
-        <v>2025</v>
-      </c>
-      <c r="J27">
-        <v>326</v>
-      </c>
-      <c r="K27">
-        <v>3.9472117214678984E-2</v>
-      </c>
-      <c r="L27">
-        <v>3.9472117214678984E-2</v>
-      </c>
-      <c r="O27">
-        <v>0.84636157253600031</v>
-      </c>
-      <c r="P27">
-        <v>0.84636157253600031</v>
-      </c>
-      <c r="S27">
-        <v>0.53219510012209625</v>
-      </c>
-      <c r="T27">
-        <v>0.53219510012209625</v>
-      </c>
-      <c r="W27">
-        <v>2.2890325229511288E-2</v>
-      </c>
-      <c r="X27">
-        <v>2.2890325229511288E-2</v>
-      </c>
-    </row>
-    <row r="28" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A28">
-        <v>5</v>
-      </c>
-      <c r="B28" t="s">
-        <v>17</v>
-      </c>
-      <c r="C28" t="s">
-        <v>28</v>
-      </c>
-      <c r="D28" s="1">
-        <v>9.9470200000000002</v>
-      </c>
-      <c r="E28">
-        <v>35.68</v>
-      </c>
-      <c r="F28" t="s">
-        <v>24</v>
-      </c>
-      <c r="G28" t="s">
-        <v>75</v>
-      </c>
-      <c r="I28">
-        <v>2030</v>
-      </c>
-      <c r="J28">
-        <v>1700</v>
-      </c>
-      <c r="K28" s="12">
-        <v>4.9502697311754849E-2</v>
-      </c>
-      <c r="L28" s="12">
-        <v>4.9502697311754849E-2</v>
-      </c>
-      <c r="M28">
-        <v>0.32756912345679012</v>
-      </c>
-      <c r="N28">
-        <v>9.7332529988052571E-2</v>
-      </c>
-      <c r="O28" s="1">
-        <v>0.78571104764495214</v>
-      </c>
-      <c r="P28" s="1">
-        <v>0.78571104764495214</v>
-      </c>
-      <c r="Q28">
-        <v>0.26230201513341289</v>
-      </c>
-      <c r="R28">
-        <v>7.0104277419354835E-2</v>
-      </c>
-      <c r="S28" s="1">
-        <v>0.50293304320232102</v>
-      </c>
-      <c r="T28" s="1">
-        <v>0.50293304320232102</v>
-      </c>
-      <c r="U28">
-        <v>0.32110683074472318</v>
-      </c>
-      <c r="V28">
-        <v>0.10273956296296299</v>
-      </c>
-      <c r="W28" s="1">
-        <v>2.8134548256947282E-2</v>
-      </c>
-      <c r="X28" s="1">
-        <v>2.8134548256947282E-2</v>
-      </c>
-      <c r="Y28">
-        <v>0.37596370327700979</v>
-      </c>
-      <c r="Z28">
-        <v>0.111860513312852</v>
-      </c>
-    </row>
-    <row r="29" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A29">
-        <v>28</v>
-      </c>
-      <c r="B29" s="15" t="s">
-        <v>78</v>
-      </c>
-      <c r="C29" s="8" t="s">
-        <v>79</v>
-      </c>
-      <c r="D29">
-        <v>4.7392422337811801</v>
-      </c>
-      <c r="E29">
-        <v>31.597916666665899</v>
-      </c>
-      <c r="F29" t="s">
-        <v>24</v>
-      </c>
-      <c r="G29" s="15" t="s">
-        <v>75</v>
-      </c>
-      <c r="I29">
-        <v>2026</v>
-      </c>
-      <c r="J29">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="30" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A30">
-        <v>34</v>
-      </c>
-      <c r="B30" t="s">
-        <v>78</v>
-      </c>
-      <c r="C30" t="s">
-        <v>86</v>
-      </c>
-      <c r="D30" s="1">
-        <v>7.6813841641640401</v>
-      </c>
-      <c r="E30" s="1">
-        <v>28.047306141252399</v>
-      </c>
-      <c r="F30" t="s">
-        <v>24</v>
-      </c>
-      <c r="G30" t="s">
-        <v>75</v>
+      <c r="H30" t="s">
+        <v>74</v>
       </c>
       <c r="I30">
-        <v>2030</v>
+        <v>1222</v>
       </c>
       <c r="J30">
-        <v>10.4</v>
+        <v>2003</v>
       </c>
       <c r="K30">
-        <v>0.31029445257849358</v>
-      </c>
-      <c r="L30">
-        <v>0.31029445257849358</v>
+        <v>19</v>
+      </c>
+      <c r="L30" s="12">
+        <v>0.83298124989973343</v>
+      </c>
+      <c r="M30" s="12">
+        <v>0.83298124989973343</v>
+      </c>
+      <c r="N30">
+        <v>0.39466196216646748</v>
       </c>
       <c r="O30">
-        <v>0.1454367984382626</v>
-      </c>
-      <c r="P30">
-        <v>0.1454367984382626</v>
+        <v>0.1190324735961768</v>
+      </c>
+      <c r="P30" s="1">
+        <v>0.77571629040725032</v>
+      </c>
+      <c r="Q30" s="1">
+        <v>0.77571629040725032</v>
+      </c>
+      <c r="R30">
+        <v>0.32528437594583842</v>
       </c>
       <c r="S30">
-        <v>0.71904994306165604</v>
-      </c>
-      <c r="T30">
-        <v>0.71904994306165604</v>
+        <v>9.0738510872162489E-2</v>
+      </c>
+      <c r="T30" s="1">
+        <v>0.80812762284681627</v>
+      </c>
+      <c r="U30" s="1">
+        <v>0.80812762284681627</v>
+      </c>
+      <c r="V30">
+        <v>0.35242235364396662</v>
       </c>
       <c r="W30">
-        <v>6.3152757442654958E-2</v>
-      </c>
-      <c r="X30">
-        <v>6.3152757442654958E-2</v>
-      </c>
-    </row>
-    <row r="31" spans="1:26" x14ac:dyDescent="0.2">
+        <v>0.1197469111111111</v>
+      </c>
+      <c r="X30" s="1">
+        <v>0.34980347843566895</v>
+      </c>
+      <c r="Y30" s="1">
+        <v>0.34980347843566895</v>
+      </c>
+      <c r="Z30">
+        <v>0.41910394393241168</v>
+      </c>
+      <c r="AA30">
+        <v>0.1194960299539171</v>
+      </c>
+    </row>
+    <row r="31" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A31">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B31" t="s">
         <v>29</v>
       </c>
       <c r="C31" t="s">
-        <v>38</v>
-      </c>
-      <c r="D31" s="1">
-        <v>19.3353124367388</v>
-      </c>
-      <c r="E31">
-        <v>33.409999999999997</v>
-      </c>
-      <c r="F31" t="s">
+        <v>37</v>
+      </c>
+      <c r="D31" t="s">
+        <v>134</v>
+      </c>
+      <c r="E31" s="1">
+        <v>19.166699999999999</v>
+      </c>
+      <c r="F31">
+        <v>30.48</v>
+      </c>
+      <c r="G31" t="s">
         <v>24</v>
       </c>
-      <c r="G31" t="s">
-        <v>75</v>
-      </c>
-      <c r="I31">
-        <v>2028</v>
+      <c r="H31" t="s">
+        <v>74</v>
       </c>
       <c r="J31">
-        <v>312</v>
-      </c>
-      <c r="K31" s="12">
-        <v>1</v>
+        <v>2024</v>
+      </c>
+      <c r="K31">
+        <v>360</v>
       </c>
       <c r="L31" s="12">
         <v>1</v>
       </c>
-      <c r="M31">
-        <v>0.40658502349661491</v>
+      <c r="M31" s="12">
+        <v>1</v>
       </c>
       <c r="N31">
-        <v>0.133054680525687</v>
-      </c>
-      <c r="O31" s="1">
-        <v>1</v>
+        <v>0.41996924133811242</v>
+      </c>
+      <c r="O31">
+        <v>0.1218930356033453</v>
       </c>
       <c r="P31" s="1">
         <v>1</v>
       </c>
-      <c r="Q31">
-        <v>0.35451344165671039</v>
+      <c r="Q31" s="1">
+        <v>1</v>
       </c>
       <c r="R31">
-        <v>0.11408707311827949</v>
-      </c>
-      <c r="S31" s="1">
-        <v>1</v>
+        <v>0.36449918518518509</v>
+      </c>
+      <c r="S31">
+        <v>0.10455796200716851</v>
       </c>
       <c r="T31" s="1">
         <v>1</v>
       </c>
-      <c r="U31">
-        <v>0.36084930426125061</v>
+      <c r="U31" s="1">
+        <v>1</v>
       </c>
       <c r="V31">
-        <v>0.13215149486260461</v>
-      </c>
-      <c r="W31" s="1">
-        <v>1</v>
+        <v>0.37915904579848669</v>
+      </c>
+      <c r="W31">
+        <v>0.1228442348864994</v>
       </c>
       <c r="X31" s="1">
         <v>1</v>
       </c>
-      <c r="Y31">
-        <v>0.40695313150708318</v>
+      <c r="Y31" s="1">
+        <v>1</v>
       </c>
       <c r="Z31">
-        <v>0.12382463159242189</v>
-      </c>
-    </row>
-    <row r="32" spans="1:26" x14ac:dyDescent="0.2">
+        <v>0.43280106246799788</v>
+      </c>
+      <c r="AA31">
+        <v>0.1174430401945725</v>
+      </c>
+    </row>
+    <row r="32" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A32">
-        <v>14</v>
+        <v>35</v>
       </c>
       <c r="B32" t="s">
         <v>29</v>
       </c>
       <c r="C32" t="s">
-        <v>39</v>
-      </c>
-      <c r="D32" s="1">
-        <v>21.373100000000001</v>
-      </c>
-      <c r="E32">
-        <v>30.93</v>
-      </c>
-      <c r="F32" t="s">
-        <v>24</v>
+        <v>85</v>
+      </c>
+      <c r="D32" t="s">
+        <v>136</v>
+      </c>
+      <c r="E32" s="1">
+        <v>14.9222</v>
+      </c>
+      <c r="F32" s="1">
+        <v>35.908299999999997</v>
       </c>
       <c r="G32" t="s">
-        <v>75</v>
-      </c>
-      <c r="I32">
-        <v>2030</v>
+        <v>9</v>
+      </c>
+      <c r="H32" t="s">
+        <v>74</v>
       </c>
       <c r="J32">
-        <v>648</v>
-      </c>
-      <c r="K32" s="12">
-        <v>1</v>
-      </c>
-      <c r="L32" s="12">
-        <v>1</v>
+        <v>1964</v>
+      </c>
+      <c r="K32">
+        <v>10</v>
+      </c>
+      <c r="L32">
+        <v>0.42335374090065131</v>
       </c>
       <c r="M32">
-        <v>0.42521820788530468</v>
+        <v>0.42335374090065131</v>
       </c>
       <c r="N32">
-        <v>0.1244606697729988</v>
-      </c>
-      <c r="O32" s="1">
-        <v>1</v>
-      </c>
-      <c r="P32" s="1">
+        <v>0.35828716925527671</v>
+      </c>
+      <c r="O32">
+        <v>0.12592183058542411</v>
+      </c>
+      <c r="P32">
         <v>1</v>
       </c>
       <c r="Q32">
-        <v>0.37771498287534838</v>
+        <v>1</v>
       </c>
       <c r="R32">
-        <v>0.1102721285543608</v>
-      </c>
-      <c r="S32" s="1">
-        <v>1</v>
-      </c>
-      <c r="T32" s="1">
+        <v>0.30841619553962568</v>
+      </c>
+      <c r="S32">
+        <v>0.1049052191158901</v>
+      </c>
+      <c r="T32">
         <v>1</v>
       </c>
       <c r="U32">
-        <v>0.38316936001592983</v>
+        <v>1</v>
       </c>
       <c r="V32">
-        <v>0.12599141863799279</v>
-      </c>
-      <c r="W32" s="1">
-        <v>1</v>
-      </c>
-      <c r="X32" s="1">
-        <v>1</v>
+        <v>0.33410105575467941</v>
+      </c>
+      <c r="W32">
+        <v>0.13192159689366789</v>
+      </c>
+      <c r="X32">
+        <v>0.45356200606665714</v>
       </c>
       <c r="Y32">
-        <v>0.40716517665130569</v>
+        <v>0.45356200606665714</v>
       </c>
       <c r="Z32">
-        <v>0.1130760087045571</v>
-      </c>
-    </row>
-    <row r="33" spans="1:26" x14ac:dyDescent="0.2">
+        <v>0.38180538061102581</v>
+      </c>
+      <c r="AA32">
+        <v>0.12809286277521759</v>
+      </c>
+    </row>
+    <row r="33" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A33">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="B33" t="s">
         <v>29</v>
       </c>
       <c r="C33" t="s">
-        <v>30</v>
-      </c>
-      <c r="D33" s="1">
-        <v>15.238888888888889</v>
-      </c>
-      <c r="E33">
-        <v>32.46</v>
-      </c>
-      <c r="F33" t="s">
+        <v>33</v>
+      </c>
+      <c r="D33" t="s">
+        <v>139</v>
+      </c>
+      <c r="E33" s="1">
+        <v>18.492560000000001</v>
+      </c>
+      <c r="F33">
+        <v>31.82</v>
+      </c>
+      <c r="G33" t="s">
         <v>9</v>
       </c>
-      <c r="G33" t="s">
-        <v>75</v>
-      </c>
-      <c r="H33">
-        <v>1222</v>
+      <c r="H33" t="s">
+        <v>74</v>
       </c>
       <c r="I33">
-        <v>2003</v>
+        <v>476</v>
       </c>
       <c r="J33">
-        <v>19</v>
-      </c>
-      <c r="K33" s="12">
-        <v>0.83298124989973343</v>
+        <v>2009</v>
+      </c>
+      <c r="K33">
+        <v>1240</v>
       </c>
       <c r="L33" s="12">
-        <v>0.83298124989973343</v>
-      </c>
-      <c r="M33">
-        <v>0.39466196216646748</v>
+        <v>0.85019816635710554</v>
+      </c>
+      <c r="M33" s="12">
+        <v>0.85019816635710554</v>
       </c>
       <c r="N33">
-        <v>0.1190324735961768</v>
-      </c>
-      <c r="O33" s="1">
-        <v>0.77571629040725032</v>
+        <v>0.41324736758263642</v>
+      </c>
+      <c r="O33">
+        <v>0.12749815675029871</v>
       </c>
       <c r="P33" s="1">
-        <v>0.77571629040725032</v>
-      </c>
-      <c r="Q33">
-        <v>0.32528437594583842</v>
+        <v>0.92476270759666213</v>
+      </c>
+      <c r="Q33" s="1">
+        <v>0.92476270759666213</v>
       </c>
       <c r="R33">
-        <v>9.0738510872162489E-2</v>
-      </c>
-      <c r="S33" s="1">
-        <v>0.80812762284681627</v>
+        <v>0.35471768857029068</v>
+      </c>
+      <c r="S33">
+        <v>0.1051770494623656</v>
       </c>
       <c r="T33" s="1">
-        <v>0.80812762284681627</v>
-      </c>
-      <c r="U33">
-        <v>0.35242235364396662</v>
+        <v>0.98817898158853146</v>
+      </c>
+      <c r="U33" s="1">
+        <v>0.98817898158853146</v>
       </c>
       <c r="V33">
-        <v>0.1197469111111111</v>
-      </c>
-      <c r="W33" s="1">
-        <v>0.34980347843566895</v>
+        <v>0.36381105894066113</v>
+      </c>
+      <c r="W33">
+        <v>0.12547243990442061</v>
       </c>
       <c r="X33" s="1">
-        <v>0.34980347843566895</v>
-      </c>
-      <c r="Y33">
-        <v>0.41910394393241168</v>
+        <v>0.81116964716180107</v>
+      </c>
+      <c r="Y33" s="1">
+        <v>0.81116964716180107</v>
       </c>
       <c r="Z33">
-        <v>0.1194960299539171</v>
-      </c>
-    </row>
-    <row r="34" spans="1:26" x14ac:dyDescent="0.2">
+        <v>0.41797175029868577</v>
+      </c>
+      <c r="AA33">
+        <v>0.1216317309267793</v>
+      </c>
+    </row>
+    <row r="34" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A34">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="B34" t="s">
         <v>29</v>
       </c>
       <c r="C34" t="s">
-        <v>37</v>
-      </c>
-      <c r="D34" s="1">
-        <v>19.166699999999999</v>
-      </c>
-      <c r="E34">
-        <v>30.48</v>
-      </c>
-      <c r="F34" t="s">
+        <v>34</v>
+      </c>
+      <c r="D34" t="s">
+        <v>140</v>
+      </c>
+      <c r="E34" s="1">
+        <v>19.286999999999999</v>
+      </c>
+      <c r="F34">
+        <v>32.69</v>
+      </c>
+      <c r="G34" t="s">
         <v>24</v>
       </c>
-      <c r="G34" t="s">
-        <v>75</v>
-      </c>
-      <c r="I34">
-        <v>2024</v>
+      <c r="H34" t="s">
+        <v>74</v>
       </c>
       <c r="J34">
-        <v>360</v>
-      </c>
-      <c r="K34" s="12">
-        <v>1</v>
+        <v>2030</v>
+      </c>
+      <c r="K34">
+        <v>312</v>
       </c>
       <c r="L34" s="12">
-        <v>1</v>
-      </c>
-      <c r="M34">
-        <v>0.41996924133811242</v>
+        <v>0.48267455815236754</v>
+      </c>
+      <c r="M34" s="12">
+        <v>0.48267455815236754</v>
       </c>
       <c r="N34">
-        <v>0.1218930356033453</v>
-      </c>
-      <c r="O34" s="1">
-        <v>1</v>
+        <v>0.41117306730386288</v>
+      </c>
+      <c r="O34">
+        <v>0.13151496917562719</v>
       </c>
       <c r="P34" s="1">
-        <v>1</v>
-      </c>
-      <c r="Q34">
-        <v>0.36449918518518509</v>
+        <v>0.53491992806031752</v>
+      </c>
+      <c r="Q34" s="1">
+        <v>0.53491992806031752</v>
       </c>
       <c r="R34">
-        <v>0.10455796200716851</v>
-      </c>
-      <c r="S34" s="1">
-        <v>1</v>
+        <v>0.35771489884508167</v>
+      </c>
+      <c r="S34">
+        <v>0.1127497758661888</v>
       </c>
       <c r="T34" s="1">
-        <v>1</v>
-      </c>
-      <c r="U34">
-        <v>0.37915904579848669</v>
+        <v>0.54138714543912902</v>
+      </c>
+      <c r="U34" s="1">
+        <v>0.54138714543912902</v>
       </c>
       <c r="V34">
-        <v>0.1228442348864994</v>
-      </c>
-      <c r="W34" s="1">
-        <v>1</v>
+        <v>0.36348772481083241</v>
+      </c>
+      <c r="W34">
+        <v>0.12972741075268809</v>
       </c>
       <c r="X34" s="1">
-        <v>1</v>
-      </c>
-      <c r="Y34">
-        <v>0.43280106246799788</v>
+        <v>0.44101836834818581</v>
+      </c>
+      <c r="Y34" s="1">
+        <v>0.44101836834818581</v>
       </c>
       <c r="Z34">
-        <v>0.1174430401945725</v>
-      </c>
-    </row>
-    <row r="35" spans="1:26" x14ac:dyDescent="0.2">
+        <v>0.41726091696535239</v>
+      </c>
+      <c r="AA34">
+        <v>0.12471186533538151</v>
+      </c>
+    </row>
+    <row r="35" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A35">
-        <v>35</v>
+        <v>11</v>
       </c>
       <c r="B35" t="s">
-        <v>87</v>
+        <v>29</v>
       </c>
       <c r="C35" t="s">
-        <v>88</v>
-      </c>
-      <c r="D35" s="1">
-        <v>14.9222</v>
+        <v>32</v>
+      </c>
+      <c r="D35" t="s">
+        <v>142</v>
       </c>
       <c r="E35" s="1">
-        <v>35.908299999999997</v>
-      </c>
-      <c r="F35" t="s">
+        <v>11.7983333333333</v>
+      </c>
+      <c r="F35">
+        <v>34.39</v>
+      </c>
+      <c r="G35" t="s">
         <v>9</v>
       </c>
-      <c r="G35" t="s">
-        <v>75</v>
+      <c r="H35" t="s">
+        <v>74</v>
       </c>
       <c r="I35">
-        <v>1964</v>
+        <v>233</v>
       </c>
       <c r="J35">
-        <v>10</v>
+        <v>1966</v>
       </c>
       <c r="K35">
-        <v>0.42335374090065131</v>
-      </c>
-      <c r="L35">
-        <v>0.42335374090065131</v>
+        <v>270</v>
+      </c>
+      <c r="L35" s="12">
+        <v>0.5</v>
+      </c>
+      <c r="M35" s="12">
+        <v>0.5</v>
+      </c>
+      <c r="N35">
+        <v>0.36434364874551972</v>
       </c>
       <c r="O35">
-        <v>1</v>
-      </c>
-      <c r="P35">
-        <v>1</v>
+        <v>0.1070808571087216</v>
+      </c>
+      <c r="P35" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="Q35" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="R35">
+        <v>0.29083403385105527</v>
       </c>
       <c r="S35">
-        <v>1</v>
-      </c>
-      <c r="T35">
-        <v>1</v>
+        <v>7.0465027718040626E-2</v>
+      </c>
+      <c r="T35" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="U35" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="V35">
+        <v>0.33143540342493027</v>
       </c>
       <c r="W35">
-        <v>0.45356200606665714</v>
-      </c>
-      <c r="X35">
-        <v>0.45356200606665714</v>
-      </c>
-    </row>
-    <row r="36" spans="1:26" x14ac:dyDescent="0.2">
+        <v>0.1056444339307049</v>
+      </c>
+      <c r="X35" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="Y35" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="Z35">
+        <v>0.40202260582010579</v>
+      </c>
+      <c r="AA35">
+        <v>0.11319275345622121</v>
+      </c>
+    </row>
+    <row r="36" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A36">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="B36" t="s">
         <v>29</v>
       </c>
       <c r="C36" t="s">
-        <v>33</v>
-      </c>
-      <c r="D36" s="1">
-        <v>18.492560000000001</v>
-      </c>
-      <c r="E36">
-        <v>31.82</v>
-      </c>
-      <c r="F36" t="s">
-        <v>9</v>
+        <v>40</v>
+      </c>
+      <c r="D36" t="s">
+        <v>143</v>
+      </c>
+      <c r="E36" s="1">
+        <v>16.3569</v>
+      </c>
+      <c r="F36">
+        <v>32.71</v>
       </c>
       <c r="G36" t="s">
-        <v>75</v>
-      </c>
-      <c r="H36">
-        <v>476</v>
-      </c>
-      <c r="I36">
-        <v>2009</v>
+        <v>24</v>
+      </c>
+      <c r="H36" t="s">
+        <v>74</v>
       </c>
       <c r="J36">
-        <v>1240</v>
-      </c>
-      <c r="K36" s="12">
-        <v>0.85019816635710554</v>
+        <v>2030</v>
+      </c>
+      <c r="K36">
+        <v>205</v>
       </c>
       <c r="L36" s="12">
-        <v>0.85019816635710554</v>
-      </c>
-      <c r="M36">
-        <v>0.41324736758263642</v>
+        <v>1</v>
+      </c>
+      <c r="M36" s="12">
+        <v>1</v>
       </c>
       <c r="N36">
-        <v>0.12749815675029871</v>
-      </c>
-      <c r="O36" s="1">
-        <v>0.92476270759666213</v>
+        <v>0.40252829948227792</v>
+      </c>
+      <c r="O36">
+        <v>0.1276621199522103</v>
       </c>
       <c r="P36" s="1">
-        <v>0.92476270759666213</v>
-      </c>
-      <c r="Q36">
-        <v>0.35471768857029068</v>
+        <v>1</v>
+      </c>
+      <c r="Q36" s="1">
+        <v>1</v>
       </c>
       <c r="R36">
-        <v>0.1051770494623656</v>
-      </c>
-      <c r="S36" s="1">
-        <v>0.98817898158853146</v>
+        <v>0.33904976543209869</v>
+      </c>
+      <c r="S36">
+        <v>0.1012916372759857</v>
       </c>
       <c r="T36" s="1">
-        <v>0.98817898158853146</v>
-      </c>
-      <c r="U36">
-        <v>0.36381105894066113</v>
+        <v>1</v>
+      </c>
+      <c r="U36" s="1">
+        <v>1</v>
       </c>
       <c r="V36">
-        <v>0.12547243990442061</v>
-      </c>
-      <c r="W36" s="1">
-        <v>0.81116964716180107</v>
+        <v>0.35010868657905209</v>
+      </c>
+      <c r="W36">
+        <v>0.12502672329749101</v>
       </c>
       <c r="X36" s="1">
-        <v>0.81116964716180107</v>
-      </c>
-      <c r="Y36">
-        <v>0.41797175029868577</v>
+        <v>1</v>
+      </c>
+      <c r="Y36" s="1">
+        <v>1</v>
       </c>
       <c r="Z36">
-        <v>0.1216317309267793</v>
-      </c>
-    </row>
-    <row r="37" spans="1:26" x14ac:dyDescent="0.2">
+        <v>0.41956464285714279</v>
+      </c>
+      <c r="AA36">
+        <v>0.124365051203277</v>
+      </c>
+    </row>
+    <row r="37" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A37">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="B37" t="s">
         <v>29</v>
       </c>
       <c r="C37" t="s">
-        <v>34</v>
-      </c>
-      <c r="D37" s="1">
-        <v>19.286999999999999</v>
-      </c>
-      <c r="E37">
-        <v>32.69</v>
-      </c>
-      <c r="F37" t="s">
-        <v>24</v>
+        <v>35</v>
+      </c>
+      <c r="D37" t="s">
+        <v>144</v>
+      </c>
+      <c r="E37" s="1">
+        <v>13.29707</v>
+      </c>
+      <c r="F37">
+        <v>33.89</v>
       </c>
       <c r="G37" t="s">
-        <v>75</v>
+        <v>9</v>
+      </c>
+      <c r="H37" t="s">
+        <v>74</v>
       </c>
       <c r="I37">
-        <v>2030</v>
+        <v>15.2</v>
       </c>
       <c r="J37">
-        <v>312</v>
-      </c>
-      <c r="K37" s="12">
-        <v>0.48267455815236754</v>
+        <v>1962</v>
+      </c>
+      <c r="K37">
+        <v>26</v>
       </c>
       <c r="L37" s="12">
-        <v>0.48267455815236754</v>
-      </c>
-      <c r="M37">
-        <v>0.41117306730386288</v>
+        <v>0.5</v>
+      </c>
+      <c r="M37" s="12">
+        <v>0.5</v>
       </c>
       <c r="N37">
-        <v>0.13151496917562719</v>
-      </c>
-      <c r="O37" s="1">
-        <v>0.53491992806031752</v>
+        <v>0.36713684946236558</v>
+      </c>
+      <c r="O37">
+        <v>0.1140524489844684</v>
       </c>
       <c r="P37" s="1">
-        <v>0.53491992806031752</v>
-      </c>
-      <c r="Q37">
-        <v>0.35771489884508167</v>
+        <v>0.5</v>
+      </c>
+      <c r="Q37" s="1">
+        <v>0.5</v>
       </c>
       <c r="R37">
-        <v>0.1127497758661888</v>
-      </c>
-      <c r="S37" s="1">
-        <v>0.54138714543912902</v>
+        <v>0.28934304380724812</v>
+      </c>
+      <c r="S37">
+        <v>7.8925713261648753E-2</v>
       </c>
       <c r="T37" s="1">
-        <v>0.54138714543912902</v>
-      </c>
-      <c r="U37">
-        <v>0.36348772481083241</v>
+        <v>0.5</v>
+      </c>
+      <c r="U37" s="1">
+        <v>0.5</v>
       </c>
       <c r="V37">
-        <v>0.12972741075268809</v>
-      </c>
-      <c r="W37" s="1">
-        <v>0.44101836834818581</v>
+        <v>0.33376081999203511</v>
+      </c>
+      <c r="W37">
+        <v>0.1145908714456392</v>
       </c>
       <c r="X37" s="1">
-        <v>0.44101836834818581</v>
-      </c>
-      <c r="Y37">
-        <v>0.41726091696535239</v>
+        <v>0.5</v>
+      </c>
+      <c r="Y37" s="1">
+        <v>0.5</v>
       </c>
       <c r="Z37">
-        <v>0.12471186533538151</v>
-      </c>
-    </row>
-    <row r="38" spans="1:26" x14ac:dyDescent="0.2">
+        <v>0.39572908004778973</v>
+      </c>
+      <c r="AA37">
+        <v>0.1173318461341526</v>
+      </c>
+    </row>
+    <row r="38" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A38">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="B38" t="s">
         <v>29</v>
       </c>
       <c r="C38" t="s">
-        <v>32</v>
-      </c>
-      <c r="D38" s="1">
-        <v>11.7983333333333</v>
-      </c>
-      <c r="E38">
-        <v>34.39</v>
-      </c>
-      <c r="F38" t="s">
-        <v>9</v>
+        <v>36</v>
+      </c>
+      <c r="D38" t="s">
+        <v>145</v>
+      </c>
+      <c r="E38" s="1">
+        <v>19.226299999999998</v>
+      </c>
+      <c r="F38">
+        <v>33.479999999999997</v>
       </c>
       <c r="G38" t="s">
-        <v>75</v>
-      </c>
-      <c r="H38">
-        <v>233</v>
-      </c>
-      <c r="I38">
-        <v>1966</v>
+        <v>24</v>
+      </c>
+      <c r="H38" t="s">
+        <v>74</v>
       </c>
       <c r="J38">
-        <v>270</v>
-      </c>
-      <c r="K38" s="12">
-        <v>0.5</v>
+        <v>2025</v>
+      </c>
+      <c r="K38">
+        <v>420</v>
       </c>
       <c r="L38" s="12">
-        <v>0.5</v>
-      </c>
-      <c r="M38">
-        <v>0.36434364874551972</v>
+        <v>0.968101455335308</v>
+      </c>
+      <c r="M38" s="12">
+        <v>0.968101455335308</v>
       </c>
       <c r="N38">
-        <v>0.1070808571087216</v>
-      </c>
-      <c r="O38" s="1">
-        <v>0.5</v>
+        <v>0.40367119076065322</v>
+      </c>
+      <c r="O38">
+        <v>0.1329511230585424</v>
       </c>
       <c r="P38" s="1">
-        <v>0.5</v>
-      </c>
-      <c r="Q38">
-        <v>0.29083403385105527</v>
+        <v>1</v>
+      </c>
+      <c r="Q38" s="1">
+        <v>1</v>
       </c>
       <c r="R38">
-        <v>7.0465027718040626E-2</v>
-      </c>
-      <c r="S38" s="1">
-        <v>0.5</v>
+        <v>0.35034039944245321</v>
+      </c>
+      <c r="S38">
+        <v>0.1136679777777778</v>
       </c>
       <c r="T38" s="1">
-        <v>0.5</v>
-      </c>
-      <c r="U38">
-        <v>0.33143540342493027</v>
+        <v>1</v>
+      </c>
+      <c r="U38" s="1">
+        <v>1</v>
       </c>
       <c r="V38">
-        <v>0.1056444339307049</v>
-      </c>
-      <c r="W38" s="1">
-        <v>0.5</v>
+        <v>0.35596104659498212</v>
+      </c>
+      <c r="W38">
+        <v>0.13273961720430111</v>
       </c>
       <c r="X38" s="1">
-        <v>0.5</v>
-      </c>
-      <c r="Y38">
-        <v>0.40202260582010579</v>
+        <v>0.98223850763713827</v>
+      </c>
+      <c r="Y38" s="1">
+        <v>0.98223850763713827</v>
       </c>
       <c r="Z38">
-        <v>0.11319275345622121</v>
-      </c>
-    </row>
-    <row r="39" spans="1:26" x14ac:dyDescent="0.2">
+        <v>0.40630400110940429</v>
+      </c>
+      <c r="AA38">
+        <v>0.12482191730670759</v>
+      </c>
+    </row>
+    <row r="39" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A39">
-        <v>19</v>
+        <v>36</v>
       </c>
       <c r="B39" t="s">
         <v>29</v>
       </c>
       <c r="C39" t="s">
-        <v>40</v>
-      </c>
-      <c r="D39" s="1">
-        <v>16.3569</v>
-      </c>
-      <c r="E39">
-        <v>32.71</v>
-      </c>
-      <c r="F39" t="s">
+        <v>86</v>
+      </c>
+      <c r="D39" t="s">
+        <v>150</v>
+      </c>
+      <c r="E39" s="1">
+        <v>14.2767</v>
+      </c>
+      <c r="F39" s="1">
+        <v>35.896900000000002</v>
+      </c>
+      <c r="G39" t="s">
+        <v>9</v>
+      </c>
+      <c r="H39" t="s">
+        <v>74</v>
+      </c>
+      <c r="J39">
+        <v>2017</v>
+      </c>
+      <c r="K39">
+        <v>320</v>
+      </c>
+      <c r="L39">
+        <v>2.7317154803051569E-2</v>
+      </c>
+      <c r="M39">
+        <v>2.7317154803051569E-2</v>
+      </c>
+      <c r="N39">
+        <v>0.35530261847869382</v>
+      </c>
+      <c r="O39">
+        <v>0.1228047395459976</v>
+      </c>
+      <c r="P39">
+        <v>0.59015230995696066</v>
+      </c>
+      <c r="Q39">
+        <v>0.59015230995696066</v>
+      </c>
+      <c r="R39">
+        <v>0.30836657228195941</v>
+      </c>
+      <c r="S39">
+        <v>0.1002377624850657</v>
+      </c>
+      <c r="T39">
+        <v>0.44439081011541814</v>
+      </c>
+      <c r="U39">
+        <v>0.44439081011541814</v>
+      </c>
+      <c r="V39">
+        <v>0.33429198128235771</v>
+      </c>
+      <c r="W39">
+        <v>0.12918153524492229</v>
+      </c>
+      <c r="X39">
+        <v>2.9266361284883659E-2</v>
+      </c>
+      <c r="Y39">
+        <v>2.9266361284883659E-2</v>
+      </c>
+      <c r="Z39">
+        <v>0.37724122802526022</v>
+      </c>
+      <c r="AA39">
+        <v>0.123978404249872</v>
+      </c>
+    </row>
+    <row r="40" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="A40">
+        <v>20</v>
+      </c>
+      <c r="B40" t="s">
+        <v>7</v>
+      </c>
+      <c r="C40" t="s">
+        <v>14</v>
+      </c>
+      <c r="D40" t="s">
+        <v>155</v>
+      </c>
+      <c r="E40" s="1">
+        <v>25.315359999999998</v>
+      </c>
+      <c r="F40">
+        <v>32.56</v>
+      </c>
+      <c r="G40" t="s">
+        <v>9</v>
+      </c>
+      <c r="H40" t="s">
+        <v>75</v>
+      </c>
+      <c r="J40">
+        <v>2010</v>
+      </c>
+      <c r="K40">
+        <v>86</v>
+      </c>
+      <c r="L40" s="12">
+        <v>0.92906388888888891</v>
+      </c>
+      <c r="M40" s="12">
+        <v>0.92906388888888891</v>
+      </c>
+      <c r="P40" s="12">
+        <v>0.92906388888888891</v>
+      </c>
+      <c r="Q40" s="12">
+        <v>0.92906388888888891</v>
+      </c>
+      <c r="T40" s="12">
+        <v>0.92906388888888891</v>
+      </c>
+      <c r="U40" s="12">
+        <v>0.92906388888888891</v>
+      </c>
+      <c r="X40" s="12">
+        <v>0.92906388888888891</v>
+      </c>
+      <c r="Y40" s="12">
+        <v>0.92906388888888891</v>
+      </c>
+    </row>
+    <row r="41" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="A41">
+        <v>21</v>
+      </c>
+      <c r="B41" t="s">
+        <v>7</v>
+      </c>
+      <c r="C41" t="s">
+        <v>15</v>
+      </c>
+      <c r="D41" t="s">
+        <v>159</v>
+      </c>
+      <c r="E41" s="1">
+        <v>26.045996917309001</v>
+      </c>
+      <c r="F41">
+        <v>32.25</v>
+      </c>
+      <c r="G41" t="s">
+        <v>9</v>
+      </c>
+      <c r="H41" t="s">
+        <v>75</v>
+      </c>
+      <c r="J41">
+        <v>2010</v>
+      </c>
+      <c r="K41">
+        <v>64</v>
+      </c>
+      <c r="L41" s="12">
+        <v>1</v>
+      </c>
+      <c r="M41" s="12">
+        <v>1</v>
+      </c>
+      <c r="P41" s="12">
+        <v>1</v>
+      </c>
+      <c r="Q41" s="12">
+        <v>1</v>
+      </c>
+      <c r="T41" s="12">
+        <v>1</v>
+      </c>
+      <c r="U41" s="12">
+        <v>1</v>
+      </c>
+      <c r="X41" s="12">
+        <v>1</v>
+      </c>
+      <c r="Y41" s="12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="42" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="A42">
+        <v>22</v>
+      </c>
+      <c r="B42" t="s">
+        <v>7</v>
+      </c>
+      <c r="C42" t="s">
+        <v>16</v>
+      </c>
+      <c r="D42" t="s">
+        <v>163</v>
+      </c>
+      <c r="E42" s="1">
+        <v>29.996935100000002</v>
+      </c>
+      <c r="F42">
+        <v>31.25</v>
+      </c>
+      <c r="G42" t="s">
+        <v>9</v>
+      </c>
+      <c r="H42" t="s">
+        <v>75</v>
+      </c>
+      <c r="J42">
+        <v>2018</v>
+      </c>
+      <c r="K42" s="1">
+        <v>31.73515982</v>
+      </c>
+      <c r="L42" s="12">
+        <v>1</v>
+      </c>
+      <c r="M42" s="12">
+        <v>1</v>
+      </c>
+      <c r="P42" s="12">
+        <v>1</v>
+      </c>
+      <c r="Q42" s="12">
+        <v>1</v>
+      </c>
+      <c r="T42" s="12">
+        <v>1</v>
+      </c>
+      <c r="U42" s="12">
+        <v>1</v>
+      </c>
+      <c r="X42" s="12">
+        <v>1</v>
+      </c>
+      <c r="Y42" s="12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="43" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="A43">
+        <v>42</v>
+      </c>
+      <c r="B43" t="s">
+        <v>17</v>
+      </c>
+      <c r="C43" t="s">
+        <v>102</v>
+      </c>
+      <c r="D43" t="s">
+        <v>161</v>
+      </c>
+      <c r="E43">
+        <v>8.39</v>
+      </c>
+      <c r="F43">
+        <v>35.44</v>
+      </c>
+      <c r="G43" t="s">
+        <v>9</v>
+      </c>
+      <c r="H43" t="s">
+        <v>83</v>
+      </c>
+      <c r="J43">
+        <v>2014</v>
+      </c>
+      <c r="K43">
+        <v>5</v>
+      </c>
+      <c r="L43">
+        <v>0.17605086170659942</v>
+      </c>
+      <c r="M43">
+        <v>0.17605086170659942</v>
+      </c>
+      <c r="P43">
+        <v>0.97162673392181587</v>
+      </c>
+      <c r="Q43">
+        <v>0.97162673392181587</v>
+      </c>
+      <c r="T43">
+        <v>0.69829760403530894</v>
+      </c>
+      <c r="U43">
+        <v>0.69829760403530894</v>
+      </c>
+      <c r="X43">
+        <v>5.3270281630937368E-2</v>
+      </c>
+      <c r="Y43">
+        <v>5.3270281630937368E-2</v>
+      </c>
+    </row>
+    <row r="44" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="A44">
         <v>24</v>
       </c>
-      <c r="G39" t="s">
+      <c r="B44" t="s">
+        <v>17</v>
+      </c>
+      <c r="C44" t="s">
+        <v>21</v>
+      </c>
+      <c r="D44" t="s">
+        <v>148</v>
+      </c>
+      <c r="E44" s="1">
+        <v>11.485569999999999</v>
+      </c>
+      <c r="F44">
+        <v>37.590000000000003</v>
+      </c>
+      <c r="G44" t="s">
+        <v>9</v>
+      </c>
+      <c r="H44" t="s">
         <v>75</v>
       </c>
-      <c r="I39">
-        <v>2030</v>
-      </c>
-      <c r="J39">
-        <v>205</v>
-      </c>
-      <c r="K39" s="12">
-        <v>1</v>
-      </c>
-      <c r="L39" s="12">
-        <v>1</v>
-      </c>
-      <c r="M39">
-        <v>0.40252829948227792</v>
-      </c>
-      <c r="N39">
-        <v>0.1276621199522103</v>
-      </c>
-      <c r="O39" s="1">
-        <v>1</v>
-      </c>
-      <c r="P39" s="1">
-        <v>1</v>
-      </c>
-      <c r="Q39">
-        <v>0.33904976543209869</v>
-      </c>
-      <c r="R39">
-        <v>0.1012916372759857</v>
-      </c>
-      <c r="S39" s="1">
-        <v>1</v>
-      </c>
-      <c r="T39" s="1">
-        <v>1</v>
-      </c>
-      <c r="U39">
-        <v>0.35010868657905209</v>
-      </c>
-      <c r="V39">
-        <v>0.12502672329749101</v>
-      </c>
-      <c r="W39" s="1">
-        <v>1</v>
-      </c>
-      <c r="X39" s="1">
-        <v>1</v>
-      </c>
-      <c r="Y39">
-        <v>0.41956464285714279</v>
-      </c>
-      <c r="Z39">
-        <v>0.124365051203277</v>
-      </c>
-    </row>
-    <row r="40" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A40">
-        <v>12</v>
-      </c>
-      <c r="B40" t="s">
+      <c r="J44">
+        <v>2000</v>
+      </c>
+      <c r="K44">
+        <v>11</v>
+      </c>
+      <c r="L44" s="12">
+        <v>1</v>
+      </c>
+      <c r="M44" s="12">
+        <v>1</v>
+      </c>
+      <c r="P44" s="12">
+        <v>1</v>
+      </c>
+      <c r="Q44" s="12">
+        <v>1</v>
+      </c>
+      <c r="T44" s="12">
+        <v>1</v>
+      </c>
+      <c r="U44" s="12">
+        <v>1</v>
+      </c>
+      <c r="X44" s="12">
+        <v>1</v>
+      </c>
+      <c r="Y44" s="12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="45" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="A45">
+        <v>23</v>
+      </c>
+      <c r="B45" t="s">
+        <v>17</v>
+      </c>
+      <c r="C45" t="s">
+        <v>22</v>
+      </c>
+      <c r="D45" t="s">
+        <v>149</v>
+      </c>
+      <c r="E45" s="1">
+        <v>11.4887</v>
+      </c>
+      <c r="F45">
+        <v>37.6</v>
+      </c>
+      <c r="G45" t="s">
+        <v>9</v>
+      </c>
+      <c r="H45" t="s">
+        <v>75</v>
+      </c>
+      <c r="J45">
+        <v>2010</v>
+      </c>
+      <c r="K45">
+        <v>78</v>
+      </c>
+      <c r="L45" s="12">
+        <v>1</v>
+      </c>
+      <c r="M45" s="12">
+        <v>1</v>
+      </c>
+      <c r="P45" s="12">
+        <v>1</v>
+      </c>
+      <c r="Q45" s="12">
+        <v>1</v>
+      </c>
+      <c r="T45" s="12">
+        <v>1</v>
+      </c>
+      <c r="U45" s="12">
+        <v>1</v>
+      </c>
+      <c r="X45" s="12">
+        <v>1</v>
+      </c>
+      <c r="Y45" s="12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="46" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="A46">
         <v>29</v>
       </c>
-      <c r="C40" t="s">
-        <v>35</v>
-      </c>
-      <c r="D40" s="1">
-        <v>13.29707</v>
-      </c>
-      <c r="E40">
-        <v>33.89</v>
-      </c>
-      <c r="F40" t="s">
-        <v>9</v>
-      </c>
-      <c r="G40" t="s">
-        <v>75</v>
-      </c>
-      <c r="H40">
-        <v>15.2</v>
-      </c>
-      <c r="I40">
-        <v>1962</v>
-      </c>
-      <c r="J40">
-        <v>26</v>
-      </c>
-      <c r="K40" s="12">
-        <v>0.5</v>
-      </c>
-      <c r="L40" s="12">
-        <v>0.5</v>
-      </c>
-      <c r="M40">
-        <v>0.36713684946236558</v>
-      </c>
-      <c r="N40">
-        <v>0.1140524489844684</v>
-      </c>
-      <c r="O40" s="1">
-        <v>0.5</v>
-      </c>
-      <c r="P40" s="1">
-        <v>0.5</v>
-      </c>
-      <c r="Q40">
-        <v>0.28934304380724812</v>
-      </c>
-      <c r="R40">
-        <v>7.8925713261648753E-2</v>
-      </c>
-      <c r="S40" s="1">
-        <v>0.5</v>
-      </c>
-      <c r="T40" s="1">
-        <v>0.5</v>
-      </c>
-      <c r="U40">
-        <v>0.33376081999203511</v>
-      </c>
-      <c r="V40">
-        <v>0.1145908714456392</v>
-      </c>
-      <c r="W40" s="1">
-        <v>0.5</v>
-      </c>
-      <c r="X40" s="1">
-        <v>0.5</v>
-      </c>
-      <c r="Y40">
-        <v>0.39572908004778973</v>
-      </c>
-      <c r="Z40">
-        <v>0.1173318461341526</v>
-      </c>
-    </row>
-    <row r="41" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A41">
-        <v>15</v>
-      </c>
-      <c r="B41" t="s">
-        <v>29</v>
-      </c>
-      <c r="C41" t="s">
-        <v>36</v>
-      </c>
-      <c r="D41" s="1">
-        <v>19.226299999999998</v>
-      </c>
-      <c r="E41">
-        <v>33.479999999999997</v>
-      </c>
-      <c r="F41" t="s">
+      <c r="B46" t="s">
+        <v>76</v>
+      </c>
+      <c r="C46" t="s">
+        <v>78</v>
+      </c>
+      <c r="D46" t="s">
+        <v>154</v>
+      </c>
+      <c r="E46">
+        <v>4.5624833330000456</v>
+      </c>
+      <c r="F46">
+        <v>31.504183333000071</v>
+      </c>
+      <c r="G46" t="s">
         <v>24</v>
       </c>
-      <c r="G41" t="s">
-        <v>75</v>
-      </c>
-      <c r="I41">
+      <c r="H46" t="s">
+        <v>83</v>
+      </c>
+      <c r="J46">
+        <v>2024</v>
+      </c>
+      <c r="K46">
+        <v>570</v>
+      </c>
+      <c r="L46">
+        <v>1</v>
+      </c>
+      <c r="M46">
+        <v>1</v>
+      </c>
+      <c r="P46">
+        <v>0.67026307426542553</v>
+      </c>
+      <c r="Q46">
+        <v>0.67026307426542553</v>
+      </c>
+      <c r="T46">
+        <v>0.91525790813472963</v>
+      </c>
+      <c r="U46">
+        <v>0.91525790813472963</v>
+      </c>
+      <c r="X46">
+        <v>0.67857773012340161</v>
+      </c>
+      <c r="Y46">
+        <v>0.67857773012340161</v>
+      </c>
+    </row>
+    <row r="47" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="A47">
+        <v>32</v>
+      </c>
+      <c r="B47" t="s">
+        <v>76</v>
+      </c>
+      <c r="C47" t="s">
+        <v>81</v>
+      </c>
+      <c r="D47" t="s">
+        <v>156</v>
+      </c>
+      <c r="E47">
+        <v>3.954004000000054</v>
+      </c>
+      <c r="F47">
+        <v>31.708496000000029</v>
+      </c>
+      <c r="G47" t="s">
+        <v>24</v>
+      </c>
+      <c r="H47" t="s">
+        <v>83</v>
+      </c>
+      <c r="J47">
+        <v>2024</v>
+      </c>
+      <c r="K47">
+        <v>890</v>
+      </c>
+      <c r="L47">
+        <v>0.80890994820337736</v>
+      </c>
+      <c r="M47">
+        <v>0.80890994820337736</v>
+      </c>
+      <c r="P47">
+        <v>0.23468337930949679</v>
+      </c>
+      <c r="Q47">
+        <v>0.23468337930949679</v>
+      </c>
+      <c r="T47">
+        <v>0.34012796812683682</v>
+      </c>
+      <c r="U47">
+        <v>0.34012796812683682</v>
+      </c>
+      <c r="X47">
+        <v>0.25363881180651482</v>
+      </c>
+      <c r="Y47">
+        <v>0.25363881180651482</v>
+      </c>
+    </row>
+    <row r="48" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="A48">
+        <v>33</v>
+      </c>
+      <c r="B48" t="s">
+        <v>76</v>
+      </c>
+      <c r="C48" t="s">
+        <v>82</v>
+      </c>
+      <c r="D48" t="s">
+        <v>157</v>
+      </c>
+      <c r="E48">
+        <v>3.6708333360000398</v>
+      </c>
+      <c r="F48">
+        <v>31.972916667</v>
+      </c>
+      <c r="G48" t="s">
+        <v>24</v>
+      </c>
+      <c r="H48" t="s">
+        <v>83</v>
+      </c>
+      <c r="J48">
         <v>2025</v>
       </c>
-      <c r="J41">
-        <v>420</v>
-      </c>
-      <c r="K41" s="12">
-        <v>0.968101455335308</v>
-      </c>
-      <c r="L41" s="12">
-        <v>0.968101455335308</v>
-      </c>
-      <c r="M41">
-        <v>0.40367119076065322</v>
-      </c>
-      <c r="N41">
-        <v>0.1329511230585424</v>
-      </c>
-      <c r="O41" s="1">
-        <v>1</v>
-      </c>
-      <c r="P41" s="1">
-        <v>1</v>
-      </c>
-      <c r="Q41">
-        <v>0.35034039944245321</v>
-      </c>
-      <c r="R41">
-        <v>0.1136679777777778</v>
-      </c>
-      <c r="S41" s="1">
-        <v>1</v>
-      </c>
-      <c r="T41" s="1">
-        <v>1</v>
-      </c>
-      <c r="U41">
-        <v>0.35596104659498212</v>
-      </c>
-      <c r="V41">
-        <v>0.13273961720430111</v>
-      </c>
-      <c r="W41" s="1">
-        <v>0.98223850763713827</v>
-      </c>
-      <c r="X41" s="1">
-        <v>0.98223850763713827</v>
-      </c>
-      <c r="Y41">
-        <v>0.40630400110940429</v>
-      </c>
-      <c r="Z41">
-        <v>0.12482191730670759</v>
-      </c>
-    </row>
-    <row r="42" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A42">
-        <v>36</v>
-      </c>
-      <c r="B42" t="s">
-        <v>29</v>
-      </c>
-      <c r="C42" t="s">
-        <v>89</v>
-      </c>
-      <c r="D42" s="1">
-        <v>14.2767</v>
-      </c>
-      <c r="E42" s="1">
-        <v>35.896900000000002</v>
-      </c>
-      <c r="F42" t="s">
-        <v>9</v>
-      </c>
-      <c r="G42" t="s">
-        <v>75</v>
-      </c>
-      <c r="I42">
-        <v>2017</v>
-      </c>
-      <c r="J42">
-        <v>320</v>
-      </c>
-      <c r="K42">
-        <v>2.7317154803051569E-2</v>
-      </c>
-      <c r="L42">
-        <v>2.7317154803051569E-2</v>
-      </c>
-      <c r="O42">
-        <v>0.59015230995696066</v>
-      </c>
-      <c r="P42">
-        <v>0.59015230995696066</v>
-      </c>
-      <c r="S42">
-        <v>0.44439081011541814</v>
-      </c>
-      <c r="T42">
-        <v>0.44439081011541814</v>
-      </c>
-      <c r="W42">
-        <v>2.9266361284883659E-2</v>
-      </c>
-      <c r="X42">
-        <v>2.9266361284883659E-2</v>
-      </c>
-    </row>
-    <row r="43" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A43">
-        <v>20</v>
-      </c>
-      <c r="B43" s="15" t="s">
-        <v>7</v>
-      </c>
-      <c r="C43" s="15" t="s">
-        <v>14</v>
-      </c>
-      <c r="D43" s="16">
-        <v>25.315359999999998</v>
-      </c>
-      <c r="E43" s="15">
-        <v>32.56</v>
-      </c>
-      <c r="F43" t="s">
-        <v>9</v>
-      </c>
-      <c r="G43" s="15" t="s">
+      <c r="K48">
+        <v>42</v>
+      </c>
+      <c r="L48">
+        <v>0.80890994820337736</v>
+      </c>
+      <c r="M48">
+        <v>0.80890994820337736</v>
+      </c>
+      <c r="P48">
+        <v>0.23468337930949679</v>
+      </c>
+      <c r="Q48">
+        <v>0.23468337930949679</v>
+      </c>
+      <c r="T48">
+        <v>0.34012796812683682</v>
+      </c>
+      <c r="U48">
+        <v>0.34012796812683682</v>
+      </c>
+      <c r="X48">
+        <v>0.25363881180651482</v>
+      </c>
+      <c r="Y48">
+        <v>0.25363881180651482</v>
+      </c>
+    </row>
+    <row r="49" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="A49">
+        <v>30</v>
+      </c>
+      <c r="B49" t="s">
         <v>76</v>
       </c>
-      <c r="I43">
-        <v>2010</v>
-      </c>
-      <c r="J43" s="15">
-        <v>86</v>
-      </c>
-      <c r="K43" s="12">
-        <v>0.92906388888888891</v>
-      </c>
-      <c r="L43" s="12">
-        <v>0.92906388888888891</v>
-      </c>
-      <c r="O43" s="12">
-        <v>0.92906388888888891</v>
-      </c>
-      <c r="P43" s="12">
-        <v>0.92906388888888891</v>
-      </c>
-      <c r="S43" s="12">
-        <v>0.92906388888888891</v>
-      </c>
-      <c r="T43" s="12">
-        <v>0.92906388888888891</v>
-      </c>
-      <c r="W43" s="12">
-        <v>0.92906388888888891</v>
-      </c>
-      <c r="X43" s="12">
-        <v>0.92906388888888891</v>
-      </c>
-    </row>
-    <row r="44" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A44">
-        <v>21</v>
-      </c>
-      <c r="B44" s="15" t="s">
-        <v>7</v>
-      </c>
-      <c r="C44" s="15" t="s">
-        <v>15</v>
-      </c>
-      <c r="D44" s="16">
-        <v>26.045996917309001</v>
-      </c>
-      <c r="E44" s="15">
-        <v>32.25</v>
-      </c>
-      <c r="F44" t="s">
-        <v>9</v>
-      </c>
-      <c r="G44" s="15" t="s">
+      <c r="C49" t="s">
+        <v>79</v>
+      </c>
+      <c r="D49" t="s">
+        <v>158</v>
+      </c>
+      <c r="E49">
+        <v>4.1286550000000366</v>
+      </c>
+      <c r="F49">
+        <v>31.581250000000072</v>
+      </c>
+      <c r="G49" t="s">
+        <v>24</v>
+      </c>
+      <c r="H49" t="s">
+        <v>83</v>
+      </c>
+      <c r="J49">
+        <v>2024</v>
+      </c>
+      <c r="K49">
+        <v>410</v>
+      </c>
+      <c r="L49">
+        <v>1</v>
+      </c>
+      <c r="M49">
+        <v>1</v>
+      </c>
+      <c r="P49">
+        <v>0.66221978734810272</v>
+      </c>
+      <c r="Q49">
+        <v>0.66221978734810272</v>
+      </c>
+      <c r="T49">
+        <v>0.91607860535489305</v>
+      </c>
+      <c r="U49">
+        <v>0.91607860535489305</v>
+      </c>
+      <c r="X49">
+        <v>0.6905463510218347</v>
+      </c>
+      <c r="Y49">
+        <v>0.6905463510218347</v>
+      </c>
+    </row>
+    <row r="50" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="A50">
+        <v>31</v>
+      </c>
+      <c r="B50" t="s">
         <v>76</v>
       </c>
-      <c r="I44">
-        <v>2010</v>
-      </c>
-      <c r="J44" s="15">
-        <v>64</v>
-      </c>
-      <c r="K44" s="12">
-        <v>1</v>
-      </c>
-      <c r="L44" s="12">
-        <v>1</v>
-      </c>
-      <c r="O44" s="12">
-        <v>1</v>
-      </c>
-      <c r="P44" s="12">
-        <v>1</v>
-      </c>
-      <c r="S44" s="12">
-        <v>1</v>
-      </c>
-      <c r="T44" s="12">
-        <v>1</v>
-      </c>
-      <c r="W44" s="12">
-        <v>1</v>
-      </c>
-      <c r="X44" s="12">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="45" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A45">
-        <v>22</v>
-      </c>
-      <c r="B45" s="15" t="s">
-        <v>7</v>
-      </c>
-      <c r="C45" s="15" t="s">
-        <v>16</v>
-      </c>
-      <c r="D45" s="16">
-        <v>29.996935100000002</v>
-      </c>
-      <c r="E45" s="15">
-        <v>31.25</v>
-      </c>
-      <c r="F45" t="s">
-        <v>9</v>
-      </c>
-      <c r="G45" s="15" t="s">
-        <v>76</v>
-      </c>
-      <c r="I45">
-        <v>2018</v>
-      </c>
-      <c r="J45" s="16">
-        <v>31.73515982</v>
-      </c>
-      <c r="K45" s="12">
-        <v>1</v>
-      </c>
-      <c r="L45" s="12">
-        <v>1</v>
-      </c>
-      <c r="O45" s="12">
-        <v>1</v>
-      </c>
-      <c r="P45" s="12">
-        <v>1</v>
-      </c>
-      <c r="S45" s="12">
-        <v>1</v>
-      </c>
-      <c r="T45" s="12">
-        <v>1</v>
-      </c>
-      <c r="W45" s="12">
-        <v>1</v>
-      </c>
-      <c r="X45" s="12">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="46" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A46">
-        <v>42</v>
-      </c>
-      <c r="B46" t="s">
-        <v>17</v>
-      </c>
-      <c r="C46" t="s">
-        <v>105</v>
-      </c>
-      <c r="D46">
-        <v>8.2235060000000004</v>
-      </c>
-      <c r="E46">
-        <v>35.493414399999999</v>
-      </c>
-      <c r="F46" t="s">
-        <v>9</v>
-      </c>
-      <c r="G46" t="s">
-        <v>85</v>
-      </c>
-      <c r="I46">
-        <v>2014</v>
-      </c>
-      <c r="J46" s="15">
-        <v>5</v>
-      </c>
-      <c r="K46">
-        <v>0.17605086170659942</v>
-      </c>
-      <c r="L46">
-        <v>0.17605086170659942</v>
-      </c>
-      <c r="O46">
-        <v>0.97162673392181587</v>
-      </c>
-      <c r="P46">
-        <v>0.97162673392181587</v>
-      </c>
-      <c r="S46">
-        <v>0.69829760403530894</v>
-      </c>
-      <c r="T46">
-        <v>0.69829760403530894</v>
-      </c>
-      <c r="W46">
-        <v>5.3270281630937368E-2</v>
-      </c>
-      <c r="X46">
-        <v>5.3270281630937368E-2</v>
-      </c>
-    </row>
-    <row r="47" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A47">
+      <c r="C50" t="s">
+        <v>80</v>
+      </c>
+      <c r="D50" t="s">
+        <v>160</v>
+      </c>
+      <c r="E50">
+        <v>4.0364056660000642</v>
+      </c>
+      <c r="F50">
+        <v>31.634427666000079</v>
+      </c>
+      <c r="G50" t="s">
         <v>24</v>
       </c>
-      <c r="B47" s="15" t="s">
-        <v>17</v>
-      </c>
-      <c r="C47" s="15" t="s">
-        <v>21</v>
-      </c>
-      <c r="D47" s="16">
-        <v>11.485569999999999</v>
-      </c>
-      <c r="E47" s="15">
-        <v>37.590000000000003</v>
-      </c>
-      <c r="F47" t="s">
-        <v>9</v>
-      </c>
-      <c r="G47" s="15" t="s">
-        <v>76</v>
-      </c>
-      <c r="I47">
-        <v>2000</v>
-      </c>
-      <c r="J47" s="15">
-        <v>11</v>
-      </c>
-      <c r="K47" s="12">
-        <v>1</v>
-      </c>
-      <c r="L47" s="12">
-        <v>1</v>
-      </c>
-      <c r="O47" s="12">
-        <v>1</v>
-      </c>
-      <c r="P47" s="12">
-        <v>1</v>
-      </c>
-      <c r="S47" s="12">
-        <v>1</v>
-      </c>
-      <c r="T47" s="12">
-        <v>1</v>
-      </c>
-      <c r="W47" s="12">
-        <v>1</v>
-      </c>
-      <c r="X47" s="12">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="48" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A48">
-        <v>23</v>
-      </c>
-      <c r="B48" s="15" t="s">
-        <v>17</v>
-      </c>
-      <c r="C48" s="15" t="s">
-        <v>22</v>
-      </c>
-      <c r="D48" s="16">
-        <v>11.4887</v>
-      </c>
-      <c r="E48" s="15">
-        <v>37.6</v>
-      </c>
-      <c r="F48" t="s">
-        <v>9</v>
-      </c>
-      <c r="G48" s="15" t="s">
-        <v>76</v>
-      </c>
-      <c r="I48">
-        <v>2010</v>
-      </c>
-      <c r="J48" s="15">
-        <v>78</v>
-      </c>
-      <c r="K48" s="12">
-        <v>1</v>
-      </c>
-      <c r="L48" s="12">
-        <v>1</v>
-      </c>
-      <c r="O48" s="12">
-        <v>1</v>
-      </c>
-      <c r="P48" s="12">
-        <v>1</v>
-      </c>
-      <c r="S48" s="12">
-        <v>1</v>
-      </c>
-      <c r="T48" s="12">
-        <v>1</v>
-      </c>
-      <c r="W48" s="12">
-        <v>1</v>
-      </c>
-      <c r="X48" s="12">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="49" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A49">
-        <v>29</v>
-      </c>
-      <c r="B49" s="15" t="s">
-        <v>78</v>
-      </c>
-      <c r="C49" t="s">
-        <v>80</v>
-      </c>
-      <c r="D49">
-        <v>4.5624833330000456</v>
-      </c>
-      <c r="E49">
-        <v>31.504183333000071</v>
-      </c>
-      <c r="F49" t="s">
-        <v>24</v>
-      </c>
-      <c r="G49" t="s">
-        <v>85</v>
-      </c>
-      <c r="I49">
+      <c r="H50" t="s">
+        <v>83</v>
+      </c>
+      <c r="J50">
         <v>2024</v>
       </c>
-      <c r="J49">
-        <v>570</v>
-      </c>
-      <c r="K49">
-        <v>1</v>
-      </c>
-      <c r="L49">
-        <v>1</v>
-      </c>
-      <c r="O49">
-        <v>0.67026307426542553</v>
-      </c>
-      <c r="P49">
-        <v>0.67026307426542553</v>
-      </c>
-      <c r="S49">
-        <v>0.91525790813472963</v>
-      </c>
-      <c r="T49">
-        <v>0.91525790813472963</v>
-      </c>
-      <c r="W49">
-        <v>0.67857773012340161</v>
-      </c>
-      <c r="X49">
-        <v>0.67857773012340161</v>
-      </c>
-    </row>
-    <row r="50" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A50">
-        <v>32</v>
-      </c>
-      <c r="B50" s="15" t="s">
-        <v>78</v>
-      </c>
-      <c r="C50" t="s">
-        <v>83</v>
-      </c>
-      <c r="D50">
-        <v>3.954004000000054</v>
-      </c>
-      <c r="E50">
-        <v>31.708496000000029</v>
-      </c>
-      <c r="F50" t="s">
-        <v>24</v>
-      </c>
-      <c r="G50" t="s">
-        <v>85</v>
-      </c>
-      <c r="I50">
-        <v>2024</v>
-      </c>
-      <c r="J50">
-        <v>890</v>
-      </c>
       <c r="K50">
-        <v>0.80890994820337736</v>
+        <v>235</v>
       </c>
       <c r="L50">
-        <v>0.80890994820337736</v>
-      </c>
-      <c r="O50">
-        <v>0.23468337930949679</v>
+        <v>0.80346644663172329</v>
+      </c>
+      <c r="M50">
+        <v>0.80346644663172329</v>
       </c>
       <c r="P50">
-        <v>0.23468337930949679</v>
-      </c>
-      <c r="S50">
-        <v>0.34012796812683682</v>
+        <v>0.23195088873838973</v>
+      </c>
+      <c r="Q50">
+        <v>0.23195088873838973</v>
       </c>
       <c r="T50">
-        <v>0.34012796812683682</v>
-      </c>
-      <c r="W50">
-        <v>0.25363881180651482</v>
+        <v>0.33939605785664223</v>
+      </c>
+      <c r="U50">
+        <v>0.33939605785664223</v>
       </c>
       <c r="X50">
-        <v>0.25363881180651482</v>
-      </c>
-    </row>
-    <row r="51" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A51">
-        <v>33</v>
-      </c>
-      <c r="B51" s="15" t="s">
-        <v>78</v>
-      </c>
-      <c r="C51" t="s">
-        <v>84</v>
-      </c>
-      <c r="D51">
-        <v>3.6708333360000398</v>
-      </c>
-      <c r="E51">
-        <v>31.972916667</v>
-      </c>
-      <c r="F51" t="s">
-        <v>19</v>
-      </c>
-      <c r="G51" t="s">
-        <v>85</v>
-      </c>
-      <c r="I51">
-        <v>2025</v>
-      </c>
-      <c r="J51">
-        <v>42</v>
-      </c>
-      <c r="K51">
-        <v>0.80890994820337736</v>
-      </c>
-      <c r="L51">
-        <v>0.80890994820337736</v>
-      </c>
-      <c r="O51">
-        <v>0.23468337930949679</v>
-      </c>
-      <c r="P51">
-        <v>0.23468337930949679</v>
-      </c>
-      <c r="S51">
-        <v>0.34012796812683682</v>
-      </c>
-      <c r="T51">
-        <v>0.34012796812683682</v>
-      </c>
-      <c r="W51">
-        <v>0.25363881180651482</v>
-      </c>
-      <c r="X51">
-        <v>0.25363881180651482</v>
-      </c>
-    </row>
-    <row r="52" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A52">
-        <v>30</v>
-      </c>
-      <c r="B52" s="15" t="s">
-        <v>78</v>
-      </c>
-      <c r="C52" t="s">
-        <v>81</v>
-      </c>
-      <c r="D52">
-        <v>4.1286550000000366</v>
-      </c>
-      <c r="E52">
-        <v>31.581250000000072</v>
-      </c>
-      <c r="F52" t="s">
-        <v>24</v>
-      </c>
-      <c r="G52" t="s">
-        <v>85</v>
-      </c>
-      <c r="I52">
-        <v>2024</v>
-      </c>
-      <c r="J52">
-        <v>410</v>
-      </c>
-      <c r="K52">
-        <v>1</v>
-      </c>
-      <c r="L52">
-        <v>1</v>
-      </c>
-      <c r="O52">
-        <v>0.66221978734810272</v>
-      </c>
-      <c r="P52">
-        <v>0.66221978734810272</v>
-      </c>
-      <c r="S52">
-        <v>0.91607860535489305</v>
-      </c>
-      <c r="T52">
-        <v>0.91607860535489305</v>
-      </c>
-      <c r="W52">
-        <v>0.6905463510218347</v>
-      </c>
-      <c r="X52">
-        <v>0.6905463510218347</v>
-      </c>
-    </row>
-    <row r="53" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A53">
-        <v>31</v>
-      </c>
-      <c r="B53" s="15" t="s">
-        <v>78</v>
-      </c>
-      <c r="C53" t="s">
-        <v>82</v>
-      </c>
-      <c r="D53">
-        <v>4.0364056660000642</v>
-      </c>
-      <c r="E53">
-        <v>31.634427666000079</v>
-      </c>
-      <c r="F53" t="s">
-        <v>24</v>
-      </c>
-      <c r="G53" t="s">
-        <v>85</v>
-      </c>
-      <c r="I53">
-        <v>2024</v>
-      </c>
-      <c r="J53">
-        <v>235</v>
-      </c>
-      <c r="K53">
-        <v>0.80346644663172329</v>
-      </c>
-      <c r="L53">
-        <v>0.80346644663172329</v>
-      </c>
-      <c r="O53">
-        <v>0.23195088873838973</v>
-      </c>
-      <c r="P53">
-        <v>0.23195088873838973</v>
-      </c>
-      <c r="S53">
-        <v>0.33939605785664223</v>
-      </c>
-      <c r="T53">
-        <v>0.33939605785664223</v>
-      </c>
-      <c r="W53">
         <v>0.2418726273281383</v>
       </c>
-      <c r="X53">
+      <c r="Y50">
         <v>0.2418726273281383</v>
       </c>
     </row>
-    <row r="61" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="B61" t="s">
-        <v>97</v>
-      </c>
-      <c r="C61" s="17" t="s">
-        <v>67</v>
-      </c>
-      <c r="D61">
-        <f>6.12448*1000</f>
-        <v>6124.4800000000005</v>
-      </c>
-      <c r="E61" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="62" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="C62" t="s">
-        <v>68</v>
-      </c>
-      <c r="D62">
-        <v>45000</v>
-      </c>
-    </row>
-    <row r="63" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="C63" s="17" t="s">
-        <v>69</v>
-      </c>
-      <c r="D63">
-        <v>4900</v>
-      </c>
-    </row>
-    <row r="64" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="C64" t="s">
-        <v>91</v>
-      </c>
-      <c r="D64">
-        <v>3100</v>
-      </c>
-    </row>
-    <row r="67" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B67" t="s">
-        <v>96</v>
-      </c>
-      <c r="C67" t="s">
-        <v>67</v>
-      </c>
-      <c r="D67" s="1">
-        <f>SUM(J2:J4,J21,J22,J23,J26,J27,J28)</f>
-        <v>12311</v>
-      </c>
-    </row>
-    <row r="68" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="C68" t="s">
-        <v>68</v>
-      </c>
-      <c r="D68">
-        <f>SUM(J5:J10,J25,J24,J38:J53)</f>
-        <v>9720.2351598200003</v>
-      </c>
-    </row>
-    <row r="69" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="C69" t="s">
-        <v>69</v>
-      </c>
-      <c r="D69">
-        <f>SUM(J11:J20,J36,J37)</f>
-        <v>6905</v>
-      </c>
-    </row>
-    <row r="70" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="C70" t="s">
-        <v>70</v>
-      </c>
-      <c r="D70">
-        <f>SUM(J29:J35)</f>
-        <v>1479.4</v>
-      </c>
-    </row>
-    <row r="72" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B72" t="s">
-        <v>98</v>
-      </c>
-      <c r="C72" t="s">
-        <v>92</v>
-      </c>
-      <c r="D72">
-        <v>2831.7351598173518</v>
-      </c>
-    </row>
-    <row r="73" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="C73" t="s">
-        <v>93</v>
-      </c>
-      <c r="D73">
-        <v>22834</v>
-      </c>
-    </row>
-    <row r="74" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="C74" t="s">
-        <v>94</v>
-      </c>
-      <c r="D74">
-        <v>4142</v>
-      </c>
-    </row>
-    <row r="75" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="C75" t="s">
-        <v>95</v>
-      </c>
-      <c r="D75">
-        <v>2157.4</v>
-      </c>
-    </row>
-    <row r="77" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B77" t="s">
-        <v>99</v>
-      </c>
-      <c r="C77" t="s">
-        <v>92</v>
-      </c>
-      <c r="D77">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="78" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="C78" t="s">
-        <v>93</v>
-      </c>
-      <c r="D78">
-        <f>D73-D68</f>
-        <v>13113.76484018</v>
-      </c>
-    </row>
-    <row r="79" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="C79" t="s">
-        <v>94</v>
-      </c>
-      <c r="D79">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="80" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="C80" t="s">
-        <v>95</v>
-      </c>
-      <c r="D80">
-        <v>0</v>
-      </c>
-    </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:Z53">
-    <sortCondition ref="G2:G53"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:AA50">
+    <sortCondition ref="H2:H50"/>
   </sortState>
-  <conditionalFormatting sqref="J2:J9 J11:J20">
-    <cfRule type="colorScale" priority="92">
+  <conditionalFormatting sqref="K2:K50">
+    <cfRule type="colorScale" priority="383">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color theme="4" tint="0.79998168889431442"/>
+        <color theme="4" tint="0.39997558519241921"/>
+        <color theme="4" tint="-0.499984740745262"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K8:K17 K2:K6">
+    <cfRule type="colorScale" priority="95">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+    <cfRule type="colorScale" priority="94">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color theme="0"/>
+        <color theme="4" tint="0.39997558519241921"/>
+        <color theme="4" tint="-0.499984740745262"/>
+      </colorScale>
+    </cfRule>
+    <cfRule type="colorScale" priority="93">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -5154,7 +5967,41 @@
         <color theme="4" tint="-0.249977111117893"/>
       </colorScale>
     </cfRule>
-    <cfRule type="colorScale" priority="93">
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K8:K25 K2:K6">
+    <cfRule type="colorScale" priority="11">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color theme="4" tint="0.79998168889431442"/>
+        <color theme="4" tint="0.39997558519241921"/>
+        <color theme="4" tint="-0.249977111117893"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K8:K34 K2:K6">
+    <cfRule type="colorScale" priority="4">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color theme="4" tint="0.79998168889431442"/>
+        <color theme="4" tint="0.39997558519241921"/>
+        <color theme="4" tint="-0.499984740745262"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K18:K25">
+    <cfRule type="colorScale" priority="14">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+    <cfRule type="colorScale" priority="13">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -5164,17 +6011,19 @@
         <color theme="4" tint="-0.499984740745262"/>
       </colorScale>
     </cfRule>
-    <cfRule type="colorScale" priority="94">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FFF8696B"/>
+    <cfRule type="colorScale" priority="12">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color theme="0"/>
+        <color theme="4" tint="0.39997558519241921"/>
+        <color theme="4" tint="-0.249977111117893"/>
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J2:J9 J11:J28">
-    <cfRule type="colorScale" priority="10">
+  <conditionalFormatting sqref="L2:M22">
+    <cfRule type="colorScale" priority="381">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -5185,8 +6034,150 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J21:J28">
-    <cfRule type="colorScale" priority="11">
+  <conditionalFormatting sqref="N2:O22">
+    <cfRule type="colorScale" priority="382">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="N2:O50 R2:S50 V2:W50 Z2:AA50">
+    <cfRule type="colorScale" priority="1">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="O18:O22 N2:N22">
+    <cfRule type="colorScale" priority="156">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="P8:P17 P2:P6 Q17 P18:Q18">
+    <cfRule type="colorScale" priority="22">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color theme="4" tint="0.79998168889431442"/>
+        <color theme="4" tint="0.39997558519241921"/>
+        <color theme="4" tint="-0.249977111117893"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="P7:Q7">
+    <cfRule type="colorScale" priority="16">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color theme="4" tint="0.79998168889431442"/>
+        <color theme="4" tint="0.39997558519241921"/>
+        <color theme="4" tint="-0.249977111117893"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="P8:Q18 P2:Q6">
+    <cfRule type="colorScale" priority="20">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color theme="4" tint="0.79998168889431442"/>
+        <color theme="4" tint="0.39997558519241921"/>
+        <color theme="4" tint="-0.249977111117893"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="P18:Q20">
+    <cfRule type="colorScale" priority="10">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color theme="4" tint="0.79998168889431442"/>
+        <color theme="4" tint="0.39997558519241921"/>
+        <color theme="4" tint="-0.249977111117893"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="P21:Q22">
+    <cfRule type="colorScale" priority="7">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color theme="4" tint="0.79998168889431442"/>
+        <color theme="4" tint="0.39997558519241921"/>
+        <color theme="4" tint="-0.249977111117893"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="Q8:Q18 Q2:Q6">
+    <cfRule type="colorScale" priority="18">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color theme="4" tint="0.79998168889431442"/>
+        <color theme="4" tint="0.39997558519241921"/>
+        <color theme="4" tint="-0.249977111117893"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="R7">
+    <cfRule type="colorScale" priority="17">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="R8:R17 R2:R6">
+    <cfRule type="colorScale" priority="21">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="R7:S7">
+    <cfRule type="colorScale" priority="15">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="R8:S17 R2:S6">
+    <cfRule type="colorScale" priority="19">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="T8:T17 T2:T6 U17 T18:U18">
+    <cfRule type="colorScale" priority="34">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -5196,7 +6187,17 @@
         <color theme="4" tint="-0.249977111117893"/>
       </colorScale>
     </cfRule>
-    <cfRule type="colorScale" priority="12">
+    <cfRule type="colorScale" priority="32">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color theme="4" tint="0.79998168889431442"/>
+        <color theme="4" tint="0.39997558519241921"/>
+        <color theme="4" tint="-0.249977111117893"/>
+      </colorScale>
+    </cfRule>
+    <cfRule type="colorScale" priority="35">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -5206,17 +6207,19 @@
         <color theme="4" tint="-0.499984740745262"/>
       </colorScale>
     </cfRule>
-    <cfRule type="colorScale" priority="13">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FFF8696B"/>
+    <cfRule type="colorScale" priority="33">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color theme="0"/>
+        <color theme="4" tint="0.39997558519241921"/>
+        <color theme="4" tint="-0.499984740745262"/>
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K2:L25">
-    <cfRule type="colorScale" priority="80">
+  <conditionalFormatting sqref="T7:U7">
+    <cfRule type="colorScale" priority="24">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -5227,28 +6230,8 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="M2:M25 N21:N25">
-    <cfRule type="colorScale" priority="155">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="M2:N25">
-    <cfRule type="colorScale" priority="79">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="O2:O9 O11:O20">
-    <cfRule type="colorScale" priority="21">
+  <conditionalFormatting sqref="T18:U20">
+    <cfRule type="colorScale" priority="9">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -5259,8 +6242,8 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="O2:P9 O11:P20">
-    <cfRule type="colorScale" priority="19">
+  <conditionalFormatting sqref="T21:U22">
+    <cfRule type="colorScale" priority="6">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -5271,8 +6254,18 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="O10:P10">
-    <cfRule type="colorScale" priority="15">
+  <conditionalFormatting sqref="U8:U18 U2:U6">
+    <cfRule type="colorScale" priority="29">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color theme="0"/>
+        <color theme="4" tint="0.39997558519241921"/>
+        <color theme="4" tint="-0.249977111117893"/>
+      </colorScale>
+    </cfRule>
+    <cfRule type="colorScale" priority="27">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -5282,9 +6275,69 @@
         <color theme="4" tint="-0.249977111117893"/>
       </colorScale>
     </cfRule>
+    <cfRule type="colorScale" priority="28">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color theme="0"/>
+        <color theme="4" tint="0.39997558519241921"/>
+        <color theme="4" tint="-0.499984740745262"/>
+      </colorScale>
+    </cfRule>
+    <cfRule type="colorScale" priority="30">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color theme="0"/>
+        <color theme="4" tint="0.39997558519241921"/>
+        <color theme="4" tint="-0.499984740745262"/>
+      </colorScale>
+    </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="O21:P23">
-    <cfRule type="colorScale" priority="9">
+  <conditionalFormatting sqref="V7">
+    <cfRule type="colorScale" priority="25">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="V8:V17 V2:V6">
+    <cfRule type="colorScale" priority="31">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="V7:W7">
+    <cfRule type="colorScale" priority="23">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="V8:W17 V2:W6">
+    <cfRule type="colorScale" priority="26">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="X8:X17 X2:X6 Y17 X18:Y18">
+    <cfRule type="colorScale" priority="55">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -5294,9 +6347,37 @@
         <color theme="4" tint="-0.249977111117893"/>
       </colorScale>
     </cfRule>
+    <cfRule type="colorScale" priority="56">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color theme="0"/>
+        <color theme="4" tint="0.39997558519241921"/>
+        <color theme="4" tint="-0.249977111117893"/>
+      </colorScale>
+    </cfRule>
+    <cfRule type="colorScale" priority="57">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color theme="0"/>
+        <color theme="4" tint="0.39997558519241921"/>
+        <color theme="4" tint="-0.499984740745262"/>
+      </colorScale>
+    </cfRule>
+    <cfRule type="colorScale" priority="58">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="O24:P25">
-    <cfRule type="colorScale" priority="6">
+  <conditionalFormatting sqref="X7:Y7">
+    <cfRule type="colorScale" priority="50">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -5307,8 +6388,8 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="P2:P9 P11:P20">
-    <cfRule type="colorScale" priority="17">
+  <conditionalFormatting sqref="X18:Y20">
+    <cfRule type="colorScale" priority="8">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -5319,48 +6400,8 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="Q2:Q9 Q11:Q20">
-    <cfRule type="colorScale" priority="20">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="Q10">
-    <cfRule type="colorScale" priority="16">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="Q2:R9 Q11:R20">
-    <cfRule type="colorScale" priority="18">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="Q10:R10">
-    <cfRule type="colorScale" priority="14">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="S2:S9 S11:S20">
-    <cfRule type="colorScale" priority="31">
+  <conditionalFormatting sqref="X21:Y22">
+    <cfRule type="colorScale" priority="5">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -5370,39 +6411,21 @@
         <color theme="4" tint="-0.249977111117893"/>
       </colorScale>
     </cfRule>
-    <cfRule type="colorScale" priority="32">
+  </conditionalFormatting>
+  <conditionalFormatting sqref="X27:Y50 L2:M25 P2:Q25 T2:U25 X2:Y25 T27:U50 P27:Q50 L27:M50 L26:Y26">
+    <cfRule type="colorScale" priority="2">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
         <cfvo type="max"/>
-        <color theme="0"/>
+        <color theme="4" tint="0.79998168889431442"/>
         <color theme="4" tint="0.39997558519241921"/>
         <color theme="4" tint="-0.499984740745262"/>
       </colorScale>
     </cfRule>
-    <cfRule type="colorScale" priority="33">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color theme="0"/>
-        <color theme="4" tint="0.39997558519241921"/>
-        <color theme="4" tint="-0.249977111117893"/>
-      </colorScale>
-    </cfRule>
-    <cfRule type="colorScale" priority="34">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color theme="0"/>
-        <color theme="4" tint="0.39997558519241921"/>
-        <color theme="4" tint="-0.499984740745262"/>
-      </colorScale>
-    </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="S10:T10">
-    <cfRule type="colorScale" priority="23">
+  <conditionalFormatting sqref="Y8:Y18 Y2:Y6">
+    <cfRule type="colorScale" priority="53">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -5413,74 +6436,8 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="S21:T23">
-    <cfRule type="colorScale" priority="8">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color theme="4" tint="0.79998168889431442"/>
-        <color theme="4" tint="0.39997558519241921"/>
-        <color theme="4" tint="-0.249977111117893"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="S24:T25">
-    <cfRule type="colorScale" priority="5">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color theme="4" tint="0.79998168889431442"/>
-        <color theme="4" tint="0.39997558519241921"/>
-        <color theme="4" tint="-0.249977111117893"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="T2:T9 T11:T20">
-    <cfRule type="colorScale" priority="26">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color theme="4" tint="0.79998168889431442"/>
-        <color theme="4" tint="0.39997558519241921"/>
-        <color theme="4" tint="-0.249977111117893"/>
-      </colorScale>
-    </cfRule>
-    <cfRule type="colorScale" priority="27">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color theme="0"/>
-        <color theme="4" tint="0.39997558519241921"/>
-        <color theme="4" tint="-0.499984740745262"/>
-      </colorScale>
-    </cfRule>
-    <cfRule type="colorScale" priority="28">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color theme="0"/>
-        <color theme="4" tint="0.39997558519241921"/>
-        <color theme="4" tint="-0.249977111117893"/>
-      </colorScale>
-    </cfRule>
-    <cfRule type="colorScale" priority="29">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color theme="0"/>
-        <color theme="4" tint="0.39997558519241921"/>
-        <color theme="4" tint="-0.499984740745262"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="U2:U9 U11:U20">
-    <cfRule type="colorScale" priority="30">
+  <conditionalFormatting sqref="Z7">
+    <cfRule type="colorScale" priority="51">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -5489,8 +6446,8 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="U10">
-    <cfRule type="colorScale" priority="24">
+  <conditionalFormatting sqref="Z8:Z17 Z2:Z6">
+    <cfRule type="colorScale" priority="54">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -5499,8 +6456,8 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="U2:V9 U11:V20">
-    <cfRule type="colorScale" priority="25">
+  <conditionalFormatting sqref="Z7:AA7">
+    <cfRule type="colorScale" priority="49">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -5509,177 +6466,13 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="U10:V10">
-    <cfRule type="colorScale" priority="22">
+  <conditionalFormatting sqref="Z8:AA17 Z2:AA6">
+    <cfRule type="colorScale" priority="52">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="max"/>
         <color rgb="FFFCFCFF"/>
         <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="W2:W9 W11:W20">
-    <cfRule type="colorScale" priority="54">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color theme="4" tint="0.79998168889431442"/>
-        <color theme="4" tint="0.39997558519241921"/>
-        <color theme="4" tint="-0.249977111117893"/>
-      </colorScale>
-    </cfRule>
-    <cfRule type="colorScale" priority="55">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color theme="0"/>
-        <color theme="4" tint="0.39997558519241921"/>
-        <color theme="4" tint="-0.249977111117893"/>
-      </colorScale>
-    </cfRule>
-    <cfRule type="colorScale" priority="56">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color theme="0"/>
-        <color theme="4" tint="0.39997558519241921"/>
-        <color theme="4" tint="-0.499984740745262"/>
-      </colorScale>
-    </cfRule>
-    <cfRule type="colorScale" priority="57">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="W10:X10">
-    <cfRule type="colorScale" priority="49">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color theme="4" tint="0.79998168889431442"/>
-        <color theme="4" tint="0.39997558519241921"/>
-        <color theme="4" tint="-0.249977111117893"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="W21:X23">
-    <cfRule type="colorScale" priority="7">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color theme="4" tint="0.79998168889431442"/>
-        <color theme="4" tint="0.39997558519241921"/>
-        <color theme="4" tint="-0.249977111117893"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="W24:X25">
-    <cfRule type="colorScale" priority="4">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color theme="4" tint="0.79998168889431442"/>
-        <color theme="4" tint="0.39997558519241921"/>
-        <color theme="4" tint="-0.249977111117893"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="X2:X9 X11:X20">
-    <cfRule type="colorScale" priority="52">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color theme="4" tint="0.79998168889431442"/>
-        <color theme="4" tint="0.39997558519241921"/>
-        <color theme="4" tint="-0.249977111117893"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="Y2:Y9 Y11:Y20">
-    <cfRule type="colorScale" priority="53">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="Y10">
-    <cfRule type="colorScale" priority="50">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="Y2:Z9 Y11:Z20">
-    <cfRule type="colorScale" priority="51">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="Y10:Z10">
-    <cfRule type="colorScale" priority="48">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J2:J9 J11:J37">
-    <cfRule type="colorScale" priority="3">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color theme="4" tint="0.79998168889431442"/>
-        <color theme="4" tint="0.39997558519241921"/>
-        <color theme="4" tint="-0.499984740745262"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J2:J53">
-    <cfRule type="colorScale" priority="2">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color theme="4" tint="0.79998168889431442"/>
-        <color theme="4" tint="0.39997558519241921"/>
-        <color theme="4" tint="-0.499984740745262"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K2:L53 O2:P53 S2:T53 W2:X53">
-    <cfRule type="colorScale" priority="1">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color theme="4" tint="0.79998168889431442"/>
-        <color theme="4" tint="0.39997558519241921"/>
-        <color theme="4" tint="-0.499984740745262"/>
       </colorScale>
     </cfRule>
   </conditionalFormatting>
@@ -5687,7 +6480,600 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{38BDE28D-E540-41A1-B5C0-F7E4C1D8034A}">
+  <dimension ref="A1:C53"/>
+  <sheetViews>
+    <sheetView topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="G12" sqref="G12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A1" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A2" s="8" t="s">
+        <v>72</v>
+      </c>
+      <c r="B2">
+        <v>30.02499999999899</v>
+      </c>
+      <c r="C2">
+        <v>32.310416666665901</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B3" s="1">
+        <v>24.033999999999999</v>
+      </c>
+      <c r="C3">
+        <v>32.869999999999997</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>13</v>
+      </c>
+      <c r="B4" s="1">
+        <v>24.033999999999999</v>
+      </c>
+      <c r="C4">
+        <v>32.869999999999997</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>8</v>
+      </c>
+      <c r="B5" s="1">
+        <v>23.973310000000001</v>
+      </c>
+      <c r="C5">
+        <v>32.880000000000003</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A6" s="8" t="s">
+        <v>115</v>
+      </c>
+      <c r="B6">
+        <v>26.03449683085595</v>
+      </c>
+      <c r="C6">
+        <v>32.257169835809101</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A7" s="8" t="s">
+        <v>71</v>
+      </c>
+      <c r="B7">
+        <v>30.257831191935612</v>
+      </c>
+      <c r="C7">
+        <v>27.74949785860262</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>105</v>
+      </c>
+      <c r="B8">
+        <v>9.7799999999999994</v>
+      </c>
+      <c r="C8">
+        <v>38.83</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>106</v>
+      </c>
+      <c r="B9">
+        <v>9.7799999999999994</v>
+      </c>
+      <c r="C9">
+        <v>38.83</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>101</v>
+      </c>
+      <c r="B10">
+        <v>9.5941700999999906</v>
+      </c>
+      <c r="C10">
+        <v>37.232997899999901</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>104</v>
+      </c>
+      <c r="B11">
+        <v>7.2166699999999997</v>
+      </c>
+      <c r="C11">
+        <v>35.633339999999997</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>26</v>
+      </c>
+      <c r="B12" s="1">
+        <v>10.340844000000001</v>
+      </c>
+      <c r="C12">
+        <v>36.65</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
+        <v>110</v>
+      </c>
+      <c r="B13">
+        <v>8.5429999999999993</v>
+      </c>
+      <c r="C13">
+        <v>35.195</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
+        <v>27</v>
+      </c>
+      <c r="B14" s="1">
+        <v>9.8629999999999995</v>
+      </c>
+      <c r="C14">
+        <v>37.67</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A15" t="s">
+        <v>100</v>
+      </c>
+      <c r="B15">
+        <v>9.5592100000000002</v>
+      </c>
+      <c r="C15">
+        <v>37.36562</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A16" t="s">
+        <v>107</v>
+      </c>
+      <c r="B16">
+        <v>8.31</v>
+      </c>
+      <c r="C16">
+        <v>36.1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A17" t="s">
+        <v>108</v>
+      </c>
+      <c r="B17">
+        <v>8.23</v>
+      </c>
+      <c r="C17">
+        <v>34.96</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A18" t="s">
+        <v>23</v>
+      </c>
+      <c r="B18" s="1">
+        <v>10.144004000000001</v>
+      </c>
+      <c r="C18">
+        <v>38.340000000000003</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A19" t="s">
+        <v>113</v>
+      </c>
+      <c r="B19" s="1">
+        <v>11.71</v>
+      </c>
+      <c r="C19">
+        <v>37.380000000000003</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A20" t="s">
+        <v>112</v>
+      </c>
+      <c r="B20">
+        <v>9.7920509063105143</v>
+      </c>
+      <c r="C20">
+        <v>34.821217572976948</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A21" t="s">
+        <v>111</v>
+      </c>
+      <c r="B21">
+        <v>8.9687499999993818</v>
+      </c>
+      <c r="C21">
+        <v>36.228934219808657</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A22" t="s">
+        <v>18</v>
+      </c>
+      <c r="B22" s="1">
+        <v>11.21</v>
+      </c>
+      <c r="C22">
+        <v>35.090000000000003</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A23" t="s">
+        <v>103</v>
+      </c>
+      <c r="B23">
+        <v>8.2235060000000004</v>
+      </c>
+      <c r="C23">
+        <v>35.493414399999999</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A24" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A25" t="s">
+        <v>98</v>
+      </c>
+      <c r="B25">
+        <v>13.347630000000001</v>
+      </c>
+      <c r="C25">
+        <v>38.743160000000003</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A26" t="s">
+        <v>97</v>
+      </c>
+      <c r="B26">
+        <v>13.790556</v>
+      </c>
+      <c r="C26">
+        <v>37.997222000000001</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A27" t="s">
+        <v>109</v>
+      </c>
+      <c r="B27">
+        <v>9.9860109999999995</v>
+      </c>
+      <c r="C27">
+        <v>34.893504</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A28" t="s">
+        <v>28</v>
+      </c>
+      <c r="B28" s="1">
+        <v>9.9470200000000002</v>
+      </c>
+      <c r="C28">
+        <v>35.68</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A29" s="8" t="s">
+        <v>77</v>
+      </c>
+      <c r="B29">
+        <v>4.7392422337811801</v>
+      </c>
+      <c r="C29">
+        <v>31.597916666665899</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A30" t="s">
+        <v>84</v>
+      </c>
+      <c r="B30" s="1">
+        <v>7.6813841641640401</v>
+      </c>
+      <c r="C30" s="1">
+        <v>28.047306141252399</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A31" t="s">
+        <v>38</v>
+      </c>
+      <c r="B31" s="1">
+        <v>19.3353124367388</v>
+      </c>
+      <c r="C31">
+        <v>33.409999999999997</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A32" t="s">
+        <v>39</v>
+      </c>
+      <c r="B32" s="1">
+        <v>21.373100000000001</v>
+      </c>
+      <c r="C32">
+        <v>30.93</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A33" t="s">
+        <v>30</v>
+      </c>
+      <c r="B33" s="1">
+        <v>15.238888888888889</v>
+      </c>
+      <c r="C33">
+        <v>32.46</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A34" t="s">
+        <v>37</v>
+      </c>
+      <c r="B34" s="1">
+        <v>19.166699999999999</v>
+      </c>
+      <c r="C34">
+        <v>30.48</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A35" t="s">
+        <v>85</v>
+      </c>
+      <c r="B35" s="1">
+        <v>14.9222</v>
+      </c>
+      <c r="C35" s="1">
+        <v>35.908299999999997</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A36" t="s">
+        <v>33</v>
+      </c>
+      <c r="B36" s="1">
+        <v>18.492560000000001</v>
+      </c>
+      <c r="C36">
+        <v>31.82</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A37" t="s">
+        <v>34</v>
+      </c>
+      <c r="B37" s="1">
+        <v>19.286999999999999</v>
+      </c>
+      <c r="C37">
+        <v>32.69</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A38" t="s">
+        <v>32</v>
+      </c>
+      <c r="B38" s="1">
+        <v>11.7983333333333</v>
+      </c>
+      <c r="C38">
+        <v>34.39</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A39" t="s">
+        <v>40</v>
+      </c>
+      <c r="B39" s="1">
+        <v>16.3569</v>
+      </c>
+      <c r="C39">
+        <v>32.71</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A40" t="s">
+        <v>35</v>
+      </c>
+      <c r="B40" s="1">
+        <v>13.29707</v>
+      </c>
+      <c r="C40">
+        <v>33.89</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A41" t="s">
+        <v>36</v>
+      </c>
+      <c r="B41" s="1">
+        <v>19.226299999999998</v>
+      </c>
+      <c r="C41">
+        <v>33.479999999999997</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A42" t="s">
+        <v>86</v>
+      </c>
+      <c r="B42" s="1">
+        <v>14.2767</v>
+      </c>
+      <c r="C42" s="1">
+        <v>35.896900000000002</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A43" t="s">
+        <v>14</v>
+      </c>
+      <c r="B43" s="1">
+        <v>25.315359999999998</v>
+      </c>
+      <c r="C43">
+        <v>32.56</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A44" t="s">
+        <v>15</v>
+      </c>
+      <c r="B44" s="1">
+        <v>26.045996917309001</v>
+      </c>
+      <c r="C44">
+        <v>32.25</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A45" t="s">
+        <v>16</v>
+      </c>
+      <c r="B45" s="1">
+        <v>29.996935100000002</v>
+      </c>
+      <c r="C45">
+        <v>31.25</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A46" t="s">
+        <v>102</v>
+      </c>
+      <c r="B46">
+        <v>8.2235060000000004</v>
+      </c>
+      <c r="C46">
+        <v>35.493414399999999</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A47" t="s">
+        <v>21</v>
+      </c>
+      <c r="B47" s="1">
+        <v>11.485569999999999</v>
+      </c>
+      <c r="C47">
+        <v>37.590000000000003</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A48" t="s">
+        <v>22</v>
+      </c>
+      <c r="B48" s="1">
+        <v>11.4887</v>
+      </c>
+      <c r="C48">
+        <v>37.6</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A49" t="s">
+        <v>78</v>
+      </c>
+      <c r="B49">
+        <v>4.5624833330000456</v>
+      </c>
+      <c r="C49">
+        <v>31.504183333000071</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A50" t="s">
+        <v>81</v>
+      </c>
+      <c r="B50">
+        <v>3.954004000000054</v>
+      </c>
+      <c r="C50">
+        <v>31.708496000000029</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A51" t="s">
+        <v>82</v>
+      </c>
+      <c r="B51">
+        <v>3.6708333360000398</v>
+      </c>
+      <c r="C51">
+        <v>31.972916667</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A52" t="s">
+        <v>79</v>
+      </c>
+      <c r="B52">
+        <v>4.1286550000000366</v>
+      </c>
+      <c r="C52">
+        <v>31.581250000000072</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A53" t="s">
+        <v>80</v>
+      </c>
+      <c r="B53">
+        <v>4.0364056660000642</v>
+      </c>
+      <c r="C53">
+        <v>31.634427666000079</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7D0203F0-A1EC-4226-8EBE-C9AE66A6A6ED}">
   <dimension ref="A1:X41"/>
   <sheetViews>
@@ -7570,6 +8956,24 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="G2:G20">
+    <cfRule type="colorScale" priority="52">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+    <cfRule type="colorScale" priority="51">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color theme="0"/>
+        <color theme="4" tint="0.39997558519241921"/>
+        <color theme="4" tint="-0.499984740745262"/>
+      </colorScale>
+    </cfRule>
     <cfRule type="colorScale" priority="50">
       <colorScale>
         <cfvo type="min"/>
@@ -7580,7 +8984,21 @@
         <color theme="4" tint="-0.249977111117893"/>
       </colorScale>
     </cfRule>
-    <cfRule type="colorScale" priority="51">
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G2:G25">
+    <cfRule type="colorScale" priority="13">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color theme="4" tint="0.79998168889431442"/>
+        <color theme="4" tint="0.39997558519241921"/>
+        <color theme="4" tint="-0.249977111117893"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G21:G25">
+    <cfRule type="colorScale" priority="15">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -7590,7 +9008,7 @@
         <color theme="4" tint="-0.499984740745262"/>
       </colorScale>
     </cfRule>
-    <cfRule type="colorScale" priority="52">
+    <cfRule type="colorScale" priority="16">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -7598,9 +9016,19 @@
         <color rgb="FFF8696B"/>
       </colorScale>
     </cfRule>
+    <cfRule type="colorScale" priority="14">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color theme="0"/>
+        <color theme="4" tint="0.39997558519241921"/>
+        <color theme="4" tint="-0.249977111117893"/>
+      </colorScale>
+    </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G2:G25">
-    <cfRule type="colorScale" priority="13">
+  <conditionalFormatting sqref="H2:I25">
+    <cfRule type="colorScale" priority="49">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -7611,8 +9039,172 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G21:G25">
-    <cfRule type="colorScale" priority="14">
+  <conditionalFormatting sqref="J2:J25 K21:K25">
+    <cfRule type="colorScale" priority="53">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J2:K25">
+    <cfRule type="colorScale" priority="48">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L5:L9 L11:L20">
+    <cfRule type="colorScale" priority="24">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color theme="4" tint="0.79998168889431442"/>
+        <color theme="4" tint="0.39997558519241921"/>
+        <color theme="4" tint="-0.249977111117893"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L2:M4">
+    <cfRule type="colorScale" priority="3">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color theme="4" tint="0.79998168889431442"/>
+        <color theme="4" tint="0.39997558519241921"/>
+        <color theme="4" tint="-0.249977111117893"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L5:M9 L11:M20">
+    <cfRule type="colorScale" priority="22">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color theme="4" tint="0.79998168889431442"/>
+        <color theme="4" tint="0.39997558519241921"/>
+        <color theme="4" tint="-0.249977111117893"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L10:M10">
+    <cfRule type="colorScale" priority="18">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color theme="4" tint="0.79998168889431442"/>
+        <color theme="4" tint="0.39997558519241921"/>
+        <color theme="4" tint="-0.249977111117893"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L21:M23">
+    <cfRule type="colorScale" priority="6">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color theme="4" tint="0.79998168889431442"/>
+        <color theme="4" tint="0.39997558519241921"/>
+        <color theme="4" tint="-0.249977111117893"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L24:M25">
+    <cfRule type="colorScale" priority="9">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color theme="4" tint="0.79998168889431442"/>
+        <color theme="4" tint="0.39997558519241921"/>
+        <color theme="4" tint="-0.249977111117893"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="M5:M9 M11:M20">
+    <cfRule type="colorScale" priority="20">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color theme="4" tint="0.79998168889431442"/>
+        <color theme="4" tint="0.39997558519241921"/>
+        <color theme="4" tint="-0.249977111117893"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="N2:N9 N11:N20">
+    <cfRule type="colorScale" priority="23">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="N10">
+    <cfRule type="colorScale" priority="19">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="N2:O9 N11:O20">
+    <cfRule type="colorScale" priority="21">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="N10:O10">
+    <cfRule type="colorScale" priority="17">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="P5:P9 P11:P20">
+    <cfRule type="colorScale" priority="35">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color theme="0"/>
+        <color theme="4" tint="0.39997558519241921"/>
+        <color theme="4" tint="-0.499984740745262"/>
+      </colorScale>
+    </cfRule>
+    <cfRule type="colorScale" priority="34">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color theme="4" tint="0.79998168889431442"/>
+        <color theme="4" tint="0.39997558519241921"/>
+        <color theme="4" tint="-0.249977111117893"/>
+      </colorScale>
+    </cfRule>
+    <cfRule type="colorScale" priority="36">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -7622,7 +9214,7 @@
         <color theme="4" tint="-0.249977111117893"/>
       </colorScale>
     </cfRule>
-    <cfRule type="colorScale" priority="15">
+    <cfRule type="colorScale" priority="37">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -7632,17 +9224,9 @@
         <color theme="4" tint="-0.499984740745262"/>
       </colorScale>
     </cfRule>
-    <cfRule type="colorScale" priority="16">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H2:I25">
-    <cfRule type="colorScale" priority="49">
+  <conditionalFormatting sqref="P2:Q4">
+    <cfRule type="colorScale" priority="2">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -7653,28 +9237,8 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J2:J25 K21:K25">
-    <cfRule type="colorScale" priority="53">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J2:K25">
-    <cfRule type="colorScale" priority="48">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="L5:L9 L11:L20">
-    <cfRule type="colorScale" priority="24">
+  <conditionalFormatting sqref="P10:Q10">
+    <cfRule type="colorScale" priority="26">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -7685,8 +9249,8 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="L2:M4">
-    <cfRule type="colorScale" priority="3">
+  <conditionalFormatting sqref="P21:Q23">
+    <cfRule type="colorScale" priority="5">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -7697,8 +9261,8 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="L5:M9 L11:M20">
-    <cfRule type="colorScale" priority="22">
+  <conditionalFormatting sqref="P24:Q25">
+    <cfRule type="colorScale" priority="8">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -7709,8 +9273,38 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="L10:M10">
-    <cfRule type="colorScale" priority="18">
+  <conditionalFormatting sqref="Q5:Q9 Q11:Q20">
+    <cfRule type="colorScale" priority="31">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color theme="0"/>
+        <color theme="4" tint="0.39997558519241921"/>
+        <color theme="4" tint="-0.249977111117893"/>
+      </colorScale>
+    </cfRule>
+    <cfRule type="colorScale" priority="30">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color theme="0"/>
+        <color theme="4" tint="0.39997558519241921"/>
+        <color theme="4" tint="-0.499984740745262"/>
+      </colorScale>
+    </cfRule>
+    <cfRule type="colorScale" priority="32">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color theme="0"/>
+        <color theme="4" tint="0.39997558519241921"/>
+        <color theme="4" tint="-0.499984740745262"/>
+      </colorScale>
+    </cfRule>
+    <cfRule type="colorScale" priority="29">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -7718,214 +9312,6 @@
         <color theme="4" tint="0.79998168889431442"/>
         <color theme="4" tint="0.39997558519241921"/>
         <color theme="4" tint="-0.249977111117893"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="L21:M23">
-    <cfRule type="colorScale" priority="6">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color theme="4" tint="0.79998168889431442"/>
-        <color theme="4" tint="0.39997558519241921"/>
-        <color theme="4" tint="-0.249977111117893"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="L24:M25">
-    <cfRule type="colorScale" priority="9">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color theme="4" tint="0.79998168889431442"/>
-        <color theme="4" tint="0.39997558519241921"/>
-        <color theme="4" tint="-0.249977111117893"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="M5:M9 M11:M20">
-    <cfRule type="colorScale" priority="20">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color theme="4" tint="0.79998168889431442"/>
-        <color theme="4" tint="0.39997558519241921"/>
-        <color theme="4" tint="-0.249977111117893"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="N2:N9 N11:N20">
-    <cfRule type="colorScale" priority="23">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="N10">
-    <cfRule type="colorScale" priority="19">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="N2:O9 N11:O20">
-    <cfRule type="colorScale" priority="21">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="N10:O10">
-    <cfRule type="colorScale" priority="17">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="P5:P9 P11:P20">
-    <cfRule type="colorScale" priority="34">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color theme="4" tint="0.79998168889431442"/>
-        <color theme="4" tint="0.39997558519241921"/>
-        <color theme="4" tint="-0.249977111117893"/>
-      </colorScale>
-    </cfRule>
-    <cfRule type="colorScale" priority="35">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color theme="0"/>
-        <color theme="4" tint="0.39997558519241921"/>
-        <color theme="4" tint="-0.499984740745262"/>
-      </colorScale>
-    </cfRule>
-    <cfRule type="colorScale" priority="36">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color theme="0"/>
-        <color theme="4" tint="0.39997558519241921"/>
-        <color theme="4" tint="-0.249977111117893"/>
-      </colorScale>
-    </cfRule>
-    <cfRule type="colorScale" priority="37">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color theme="0"/>
-        <color theme="4" tint="0.39997558519241921"/>
-        <color theme="4" tint="-0.499984740745262"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="P2:Q4">
-    <cfRule type="colorScale" priority="2">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color theme="4" tint="0.79998168889431442"/>
-        <color theme="4" tint="0.39997558519241921"/>
-        <color theme="4" tint="-0.249977111117893"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="P10:Q10">
-    <cfRule type="colorScale" priority="26">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color theme="4" tint="0.79998168889431442"/>
-        <color theme="4" tint="0.39997558519241921"/>
-        <color theme="4" tint="-0.249977111117893"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="P21:Q23">
-    <cfRule type="colorScale" priority="5">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color theme="4" tint="0.79998168889431442"/>
-        <color theme="4" tint="0.39997558519241921"/>
-        <color theme="4" tint="-0.249977111117893"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="P24:Q25">
-    <cfRule type="colorScale" priority="8">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color theme="4" tint="0.79998168889431442"/>
-        <color theme="4" tint="0.39997558519241921"/>
-        <color theme="4" tint="-0.249977111117893"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="Q5:Q9 Q11:Q20">
-    <cfRule type="colorScale" priority="29">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color theme="4" tint="0.79998168889431442"/>
-        <color theme="4" tint="0.39997558519241921"/>
-        <color theme="4" tint="-0.249977111117893"/>
-      </colorScale>
-    </cfRule>
-    <cfRule type="colorScale" priority="30">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color theme="0"/>
-        <color theme="4" tint="0.39997558519241921"/>
-        <color theme="4" tint="-0.499984740745262"/>
-      </colorScale>
-    </cfRule>
-    <cfRule type="colorScale" priority="31">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color theme="0"/>
-        <color theme="4" tint="0.39997558519241921"/>
-        <color theme="4" tint="-0.249977111117893"/>
-      </colorScale>
-    </cfRule>
-    <cfRule type="colorScale" priority="32">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color theme="0"/>
-        <color theme="4" tint="0.39997558519241921"/>
-        <color theme="4" tint="-0.499984740745262"/>
       </colorScale>
     </cfRule>
   </conditionalFormatting>

--- a/HydroFPV_plants/CombinedTechsCreation/CombinedHydroSolar.xlsx
+++ b/HydroFPV_plants/CombinedTechsCreation/CombinedHydroSolar.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Alessandro Pieruzzi\Documents\Thesis\TEMBA_FPV\HydroFPV_plants\CombinedTechsCreation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F256FF9D-DE09-4EAD-A426-7B9D94C41AC3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{36BA883A-BB97-4A3C-A72C-B412F1DE0ABC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="591" uniqueCount="164">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="586" uniqueCount="163">
   <si>
     <t>Country</t>
   </si>
@@ -475,9 +475,6 @@
   </si>
   <si>
     <t>SH</t>
-  </si>
-  <si>
-    <t>S2</t>
   </si>
   <si>
     <t>TM</t>
@@ -615,7 +612,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -634,6 +631,8 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="165" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2013,7 +2012,7 @@
         <v>67</v>
       </c>
       <c r="D8" s="1">
-        <f>SUM(All_Seasons_normal_all_plants!K2:K4,All_Seasons_normal_all_plants!K21,All_Seasons_normal_all_plants!K22,All_Seasons_normal_all_plants!K23)</f>
+        <f>SUM(All_Seasons_normal_all_plants!K2:K4,All_Seasons_normal_all_plants!K20,All_Seasons_normal_all_plants!K21,All_Seasons_normal_all_plants!K22)</f>
         <v>4330</v>
       </c>
     </row>
@@ -2022,7 +2021,7 @@
         <v>68</v>
       </c>
       <c r="D9">
-        <f>SUM(All_Seasons_normal_all_plants!K5:K10,All_Seasons_normal_all_plants!K25,All_Seasons_normal_all_plants!K24,All_Seasons_normal_all_plants!K35:K50)</f>
+        <f>SUM(All_Seasons_normal_all_plants!K5:K10,All_Seasons_normal_all_plants!K24,All_Seasons_normal_all_plants!K23,All_Seasons_normal_all_plants!K34:K49)</f>
         <v>8288.7351598200003</v>
       </c>
     </row>
@@ -2031,8 +2030,8 @@
         <v>69</v>
       </c>
       <c r="D10">
-        <f>SUM(All_Seasons_normal_all_plants!K11:K20,All_Seasons_normal_all_plants!K33,All_Seasons_normal_all_plants!K34)</f>
-        <v>11813</v>
+        <f>SUM(All_Seasons_normal_all_plants!K11:K19,All_Seasons_normal_all_plants!K32,All_Seasons_normal_all_plants!K33)</f>
+        <v>11808</v>
       </c>
     </row>
     <row r="11" spans="2:5" x14ac:dyDescent="0.2">
@@ -2040,7 +2039,7 @@
         <v>70</v>
       </c>
       <c r="D11">
-        <f>SUM(All_Seasons_normal_all_plants!K26:K32)</f>
+        <f>SUM(All_Seasons_normal_all_plants!K25:K31)</f>
         <v>1479.4</v>
       </c>
     </row>
@@ -2122,10 +2121,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{77FC710B-81A7-4A19-B13B-3AD951BA7D4B}">
-  <dimension ref="A1:AA50"/>
+  <dimension ref="A1:AA49"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
-      <selection activeCell="G49" sqref="G49"/>
+    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="I37" sqref="I37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -2164,7 +2163,7 @@
         <v>1</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="E1" s="4" t="s">
         <v>45</v>
@@ -3608,107 +3607,107 @@
         <v>0.1159565138248848</v>
       </c>
     </row>
-    <row r="19" spans="1:27" x14ac:dyDescent="0.2">
-      <c r="A19">
+    <row r="19" spans="1:27" s="8" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A19" s="8">
         <v>4</v>
       </c>
-      <c r="B19" t="s">
+      <c r="B19" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="C19" t="s">
+      <c r="C19" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="D19" t="s">
+      <c r="D19" s="8" t="s">
         <v>141</v>
       </c>
-      <c r="E19" s="1">
+      <c r="E19" s="9">
         <v>11.21</v>
       </c>
-      <c r="F19">
+      <c r="F19" s="8">
         <v>35.090000000000003</v>
       </c>
-      <c r="G19" t="s">
+      <c r="G19" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="H19" t="s">
+      <c r="H19" s="8" t="s">
         <v>74</v>
       </c>
-      <c r="I19" s="5">
+      <c r="I19" s="16">
         <v>1874</v>
       </c>
-      <c r="J19">
+      <c r="J19" s="8">
         <v>2023</v>
       </c>
-      <c r="K19">
+      <c r="K19" s="8">
         <v>6400</v>
       </c>
-      <c r="L19" s="12">
+      <c r="L19" s="17">
         <v>0.27571636687559031</v>
       </c>
-      <c r="M19" s="12">
+      <c r="M19" s="17">
         <v>0.27571636687559031</v>
       </c>
-      <c r="N19">
+      <c r="N19" s="8">
         <v>0.33303783671843878</v>
       </c>
-      <c r="O19">
+      <c r="O19" s="8">
         <v>0.10567916917562729</v>
       </c>
-      <c r="P19" s="1">
+      <c r="P19" s="9">
         <v>0.27571636687559031</v>
       </c>
-      <c r="Q19" s="1">
+      <c r="Q19" s="9">
         <v>0.27571636687559031</v>
       </c>
-      <c r="R19">
+      <c r="R19" s="8">
         <v>0.27764846395858228</v>
       </c>
-      <c r="S19">
+      <c r="S19" s="8">
         <v>6.7827279569892471E-2</v>
       </c>
-      <c r="T19" s="1">
+      <c r="T19" s="9">
         <v>0.27571636687559031</v>
       </c>
-      <c r="U19" s="1">
+      <c r="U19" s="9">
         <v>0.27571636687559031</v>
       </c>
-      <c r="V19">
+      <c r="V19" s="8">
         <v>0.30851121903624051</v>
       </c>
-      <c r="W19">
+      <c r="W19" s="8">
         <v>0.1091898138590203</v>
       </c>
-      <c r="X19" s="1">
+      <c r="X19" s="9">
         <v>0.27571636687559031</v>
       </c>
-      <c r="Y19" s="1">
+      <c r="Y19" s="9">
         <v>0.27571636687559031</v>
       </c>
-      <c r="Z19">
+      <c r="Z19" s="8">
         <v>0.37835753840245773</v>
       </c>
-      <c r="AA19">
+      <c r="AA19" s="8">
         <v>0.11339636354326681</v>
       </c>
     </row>
     <row r="20" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A20">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="B20" t="s">
         <v>17</v>
       </c>
       <c r="C20" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="D20" t="s">
         <v>146</v>
       </c>
       <c r="E20">
-        <v>8.2235060000000004</v>
+        <v>7.9729166666660403</v>
       </c>
       <c r="F20">
-        <v>35.493414399999999</v>
+        <v>35.327083333332517</v>
       </c>
       <c r="G20" t="s">
         <v>24</v>
@@ -3716,174 +3715,174 @@
       <c r="H20" t="s">
         <v>74</v>
       </c>
+      <c r="I20">
+        <v>76</v>
+      </c>
       <c r="J20">
-        <v>2022</v>
+        <v>2031</v>
       </c>
       <c r="K20">
-        <v>5</v>
+        <v>1000</v>
       </c>
       <c r="L20">
-        <v>0.17605086170659942</v>
+        <v>0.5</v>
       </c>
       <c r="M20">
-        <v>0.17605086170659942</v>
+        <v>0.5</v>
       </c>
       <c r="N20">
-        <v>0.28545257148546388</v>
+        <v>0.27118642134607718</v>
       </c>
       <c r="O20">
-        <v>9.5809534528076459E-2</v>
+        <v>9.4730189247311816E-2</v>
       </c>
       <c r="P20">
-        <v>0.97162673392181587</v>
+        <v>0.5</v>
       </c>
       <c r="Q20">
-        <v>0.97162673392181587</v>
+        <v>0.5</v>
       </c>
       <c r="R20">
-        <v>0.2150205523695739</v>
+        <v>0.19225094026284351</v>
       </c>
       <c r="S20">
-        <v>7.4644783034647555E-2</v>
+        <v>7.0605205017921155E-2</v>
       </c>
       <c r="T20">
-        <v>0.69829760403530894</v>
+        <v>0.5</v>
       </c>
       <c r="U20">
-        <v>0.69829760403530894</v>
+        <v>0.5</v>
       </c>
       <c r="V20">
-        <v>0.25505418837116678</v>
+        <v>0.23421118598168059</v>
       </c>
       <c r="W20">
-        <v>0.1065369913978495</v>
+        <v>0.10729649032258071</v>
       </c>
       <c r="X20">
-        <v>5.3270281630937368E-2</v>
+        <v>0.5</v>
       </c>
       <c r="Y20">
-        <v>5.3270281630937368E-2</v>
+        <v>0.5</v>
       </c>
       <c r="Z20">
-        <v>0.34678538786482332</v>
+        <v>0.33075371693121691</v>
       </c>
       <c r="AA20">
-        <v>0.11359697977470561</v>
+        <v>0.1102367903225806</v>
       </c>
     </row>
     <row r="21" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A21">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B21" t="s">
         <v>17</v>
       </c>
       <c r="C21" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="D21" t="s">
         <v>147</v>
       </c>
       <c r="E21">
-        <v>7.9729166666660403</v>
+        <v>13.347630000000001</v>
       </c>
       <c r="F21">
-        <v>35.327083333332517</v>
+        <v>38.743160000000003</v>
       </c>
       <c r="G21" t="s">
-        <v>24</v>
+        <v>9</v>
       </c>
       <c r="H21" t="s">
         <v>74</v>
       </c>
-      <c r="I21">
-        <v>76</v>
-      </c>
       <c r="J21">
-        <v>2031</v>
+        <v>2010</v>
       </c>
       <c r="K21">
-        <v>1000</v>
+        <v>300</v>
       </c>
       <c r="L21">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="M21">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="N21">
-        <v>0.27118642134607718</v>
+        <v>0.28742656471525291</v>
       </c>
       <c r="O21">
-        <v>9.4730189247311816E-2</v>
+        <v>0.13885416821983271</v>
       </c>
       <c r="P21">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="Q21">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="R21">
-        <v>0.19225094026284351</v>
+        <v>0.26241724253285548</v>
       </c>
       <c r="S21">
-        <v>7.0605205017921155E-2</v>
+        <v>0.1140387906810036</v>
       </c>
       <c r="T21">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="U21">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="V21">
-        <v>0.23421118598168059</v>
+        <v>0.2465983233771406</v>
       </c>
       <c r="W21">
-        <v>0.10729649032258071</v>
+        <v>0.14380953620071679</v>
       </c>
       <c r="X21">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="Y21">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="Z21">
-        <v>0.33075371693121691</v>
+        <v>0.26817943207031919</v>
       </c>
       <c r="AA21">
-        <v>0.1102367903225806</v>
+        <v>0.1139012657450077</v>
       </c>
     </row>
     <row r="22" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A22">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B22" t="s">
         <v>17</v>
       </c>
       <c r="C22" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="D22" t="s">
         <v>148</v>
       </c>
       <c r="E22">
-        <v>13.347630000000001</v>
+        <v>13.790556</v>
       </c>
       <c r="F22">
-        <v>38.743160000000003</v>
+        <v>37.997222000000001</v>
       </c>
       <c r="G22" t="s">
-        <v>9</v>
+        <v>24</v>
       </c>
       <c r="H22" t="s">
         <v>74</v>
       </c>
       <c r="J22">
-        <v>2010</v>
+        <v>2025</v>
       </c>
       <c r="K22">
-        <v>300</v>
+        <v>380</v>
       </c>
       <c r="L22">
         <v>1</v>
@@ -3892,10 +3891,10 @@
         <v>1</v>
       </c>
       <c r="N22">
-        <v>0.28742656471525291</v>
+        <v>0.29878433373158098</v>
       </c>
       <c r="O22">
-        <v>0.13885416821983271</v>
+        <v>0.13950407383512539</v>
       </c>
       <c r="P22">
         <v>1</v>
@@ -3904,10 +3903,10 @@
         <v>1</v>
       </c>
       <c r="R22">
-        <v>0.26241724253285548</v>
+        <v>0.26141661210673039</v>
       </c>
       <c r="S22">
-        <v>0.1140387906810036</v>
+        <v>0.11389629414575871</v>
       </c>
       <c r="T22">
         <v>1</v>
@@ -3916,10 +3915,10 @@
         <v>1</v>
       </c>
       <c r="V22">
-        <v>0.2465983233771406</v>
+        <v>0.28619818797291918</v>
       </c>
       <c r="W22">
-        <v>0.14380953620071679</v>
+        <v>0.15239372855436081</v>
       </c>
       <c r="X22">
         <v>1</v>
@@ -3928,30 +3927,30 @@
         <v>1</v>
       </c>
       <c r="Z22">
-        <v>0.26817943207031919</v>
+        <v>0.32245606332138588</v>
       </c>
       <c r="AA22">
-        <v>0.1139012657450077</v>
+        <v>0.144823194828469</v>
       </c>
     </row>
     <row r="23" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A23">
-        <v>37</v>
+        <v>49</v>
       </c>
       <c r="B23" t="s">
         <v>17</v>
       </c>
       <c r="C23" t="s">
-        <v>97</v>
+        <v>109</v>
       </c>
       <c r="D23" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="E23">
-        <v>13.790556</v>
+        <v>9.9860109999999995</v>
       </c>
       <c r="F23">
-        <v>37.997222000000001</v>
+        <v>34.893504</v>
       </c>
       <c r="G23" t="s">
         <v>24</v>
@@ -3963,75 +3962,75 @@
         <v>2025</v>
       </c>
       <c r="K23">
-        <v>380</v>
+        <v>326</v>
       </c>
       <c r="L23">
-        <v>1</v>
+        <v>3.9472117214678984E-2</v>
       </c>
       <c r="M23">
-        <v>1</v>
+        <v>3.9472117214678984E-2</v>
       </c>
       <c r="N23">
-        <v>0.29878433373158098</v>
+        <v>0.29209634846674631</v>
       </c>
       <c r="O23">
-        <v>0.13950407383512539</v>
+        <v>0.10407190322580639</v>
       </c>
       <c r="P23">
-        <v>1</v>
+        <v>0.84636157253600031</v>
       </c>
       <c r="Q23">
-        <v>1</v>
+        <v>0.84636157253600031</v>
       </c>
       <c r="R23">
-        <v>0.26141661210673039</v>
+        <v>0.24039536280366389</v>
       </c>
       <c r="S23">
-        <v>0.11389629414575871</v>
+        <v>6.262635101553167E-2</v>
       </c>
       <c r="T23">
-        <v>1</v>
+        <v>0.53219510012209625</v>
       </c>
       <c r="U23">
-        <v>1</v>
+        <v>0.53219510012209625</v>
       </c>
       <c r="V23">
-        <v>0.28619818797291918</v>
+        <v>0.28377471166865792</v>
       </c>
       <c r="W23">
-        <v>0.15239372855436081</v>
+        <v>0.1086817311827957</v>
       </c>
       <c r="X23">
-        <v>1</v>
+        <v>2.2890325229511288E-2</v>
       </c>
       <c r="Y23">
-        <v>1</v>
+        <v>2.2890325229511288E-2</v>
       </c>
       <c r="Z23">
-        <v>0.32245606332138588</v>
+        <v>0.37913282130056319</v>
       </c>
       <c r="AA23">
-        <v>0.144823194828469</v>
+        <v>0.117723065796211</v>
       </c>
     </row>
     <row r="24" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A24">
-        <v>49</v>
+        <v>5</v>
       </c>
       <c r="B24" t="s">
         <v>17</v>
       </c>
       <c r="C24" t="s">
-        <v>109</v>
+        <v>28</v>
       </c>
       <c r="D24" t="s">
         <v>151</v>
       </c>
-      <c r="E24">
-        <v>9.9860109999999995</v>
+      <c r="E24" s="1">
+        <v>9.9470200000000002</v>
       </c>
       <c r="F24">
-        <v>34.893504</v>
+        <v>35.68</v>
       </c>
       <c r="G24" t="s">
         <v>24</v>
@@ -4040,78 +4039,78 @@
         <v>74</v>
       </c>
       <c r="J24">
-        <v>2025</v>
+        <v>2030</v>
       </c>
       <c r="K24">
-        <v>326</v>
-      </c>
-      <c r="L24">
-        <v>3.9472117214678984E-2</v>
-      </c>
-      <c r="M24">
-        <v>3.9472117214678984E-2</v>
+        <v>1700</v>
+      </c>
+      <c r="L24" s="12">
+        <v>4.9502697311754849E-2</v>
+      </c>
+      <c r="M24" s="12">
+        <v>4.9502697311754849E-2</v>
       </c>
       <c r="N24">
-        <v>0.29209634846674631</v>
+        <v>0.32756912345679012</v>
       </c>
       <c r="O24">
-        <v>0.10407190322580639</v>
-      </c>
-      <c r="P24">
-        <v>0.84636157253600031</v>
-      </c>
-      <c r="Q24">
-        <v>0.84636157253600031</v>
+        <v>9.7332529988052571E-2</v>
+      </c>
+      <c r="P24" s="1">
+        <v>0.78571104764495214</v>
+      </c>
+      <c r="Q24" s="1">
+        <v>0.78571104764495214</v>
       </c>
       <c r="R24">
-        <v>0.24039536280366389</v>
+        <v>0.26230201513341289</v>
       </c>
       <c r="S24">
-        <v>6.262635101553167E-2</v>
-      </c>
-      <c r="T24">
-        <v>0.53219510012209625</v>
-      </c>
-      <c r="U24">
-        <v>0.53219510012209625</v>
+        <v>7.0104277419354835E-2</v>
+      </c>
+      <c r="T24" s="1">
+        <v>0.50293304320232102</v>
+      </c>
+      <c r="U24" s="1">
+        <v>0.50293304320232102</v>
       </c>
       <c r="V24">
-        <v>0.28377471166865792</v>
+        <v>0.32110683074472318</v>
       </c>
       <c r="W24">
-        <v>0.1086817311827957</v>
-      </c>
-      <c r="X24">
-        <v>2.2890325229511288E-2</v>
-      </c>
-      <c r="Y24">
-        <v>2.2890325229511288E-2</v>
+        <v>0.10273956296296299</v>
+      </c>
+      <c r="X24" s="1">
+        <v>2.8134548256947282E-2</v>
+      </c>
+      <c r="Y24" s="1">
+        <v>2.8134548256947282E-2</v>
       </c>
       <c r="Z24">
-        <v>0.37913282130056319</v>
+        <v>0.37596370327700979</v>
       </c>
       <c r="AA24">
-        <v>0.117723065796211</v>
+        <v>0.111860513312852</v>
       </c>
     </row>
     <row r="25" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A25">
-        <v>5</v>
+        <v>28</v>
       </c>
       <c r="B25" t="s">
-        <v>17</v>
-      </c>
-      <c r="C25" t="s">
-        <v>28</v>
-      </c>
-      <c r="D25" t="s">
-        <v>152</v>
-      </c>
-      <c r="E25" s="1">
-        <v>9.9470200000000002</v>
+        <v>76</v>
+      </c>
+      <c r="C25" s="8" t="s">
+        <v>77</v>
+      </c>
+      <c r="D25" s="8" t="s">
+        <v>122</v>
+      </c>
+      <c r="E25">
+        <v>4.7392422337811801</v>
       </c>
       <c r="F25">
-        <v>35.68</v>
+        <v>31.597916666665899</v>
       </c>
       <c r="G25" t="s">
         <v>24</v>
@@ -4120,78 +4119,78 @@
         <v>74</v>
       </c>
       <c r="J25">
-        <v>2030</v>
+        <v>2026</v>
       </c>
       <c r="K25">
-        <v>1700</v>
-      </c>
-      <c r="L25" s="12">
-        <v>4.9502697311754849E-2</v>
-      </c>
-      <c r="M25" s="12">
-        <v>4.9502697311754849E-2</v>
+        <v>120</v>
+      </c>
+      <c r="L25">
+        <v>0.5</v>
+      </c>
+      <c r="M25">
+        <v>0.5</v>
       </c>
       <c r="N25">
-        <v>0.32756912345679012</v>
+        <v>0.31782991039426522</v>
       </c>
       <c r="O25">
-        <v>9.7332529988052571E-2</v>
-      </c>
-      <c r="P25" s="1">
-        <v>0.78571104764495214</v>
-      </c>
-      <c r="Q25" s="1">
-        <v>0.78571104764495214</v>
+        <v>9.1050570609318995E-2</v>
+      </c>
+      <c r="P25">
+        <v>0.5</v>
+      </c>
+      <c r="Q25">
+        <v>0.5</v>
       </c>
       <c r="R25">
-        <v>0.26230201513341289</v>
+        <v>0.27428759936280372</v>
       </c>
       <c r="S25">
-        <v>7.0104277419354835E-2</v>
-      </c>
-      <c r="T25" s="1">
-        <v>0.50293304320232102</v>
-      </c>
-      <c r="U25" s="1">
-        <v>0.50293304320232102</v>
+        <v>7.5601210513739539E-2</v>
+      </c>
+      <c r="T25">
+        <v>0.5</v>
+      </c>
+      <c r="U25">
+        <v>0.5</v>
       </c>
       <c r="V25">
-        <v>0.32110683074472318</v>
+        <v>0.29182108442851451</v>
       </c>
       <c r="W25">
-        <v>0.10273956296296299</v>
-      </c>
-      <c r="X25" s="1">
-        <v>2.8134548256947282E-2</v>
-      </c>
-      <c r="Y25" s="1">
-        <v>2.8134548256947282E-2</v>
+        <v>0.107807576344086</v>
+      </c>
+      <c r="X25">
+        <v>0.5</v>
+      </c>
+      <c r="Y25">
+        <v>0.5</v>
       </c>
       <c r="Z25">
-        <v>0.37596370327700979</v>
+        <v>0.3619241816009558</v>
       </c>
       <c r="AA25">
-        <v>0.111860513312852</v>
+        <v>0.10526507910906301</v>
       </c>
     </row>
     <row r="26" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A26">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="B26" t="s">
         <v>76</v>
       </c>
-      <c r="C26" s="8" t="s">
-        <v>77</v>
-      </c>
-      <c r="D26" s="8" t="s">
-        <v>122</v>
-      </c>
-      <c r="E26">
-        <v>4.7392422337811801</v>
-      </c>
-      <c r="F26">
-        <v>31.597916666665899</v>
+      <c r="C26" t="s">
+        <v>84</v>
+      </c>
+      <c r="D26" t="s">
+        <v>152</v>
+      </c>
+      <c r="E26" s="1">
+        <v>7.6813841641640401</v>
+      </c>
+      <c r="F26" s="1">
+        <v>28.047306141252399</v>
       </c>
       <c r="G26" t="s">
         <v>24</v>
@@ -4200,78 +4199,78 @@
         <v>74</v>
       </c>
       <c r="J26">
-        <v>2026</v>
+        <v>2030</v>
       </c>
       <c r="K26">
-        <v>120</v>
+        <v>10.4</v>
       </c>
       <c r="L26">
-        <v>0.5</v>
+        <v>0.31029445257849358</v>
       </c>
       <c r="M26">
-        <v>0.5</v>
+        <v>0.31029445257849358</v>
       </c>
       <c r="N26">
-        <v>0.31782991039426522</v>
+        <v>0.35536499522102738</v>
       </c>
       <c r="O26">
-        <v>9.1050570609318995E-2</v>
+        <v>8.8994540501792119E-2</v>
       </c>
       <c r="P26">
-        <v>0.5</v>
+        <v>0.1454367984382626</v>
       </c>
       <c r="Q26">
-        <v>0.5</v>
+        <v>0.1454367984382626</v>
       </c>
       <c r="R26">
-        <v>0.27428759936280372</v>
+        <v>0.296346847471127</v>
       </c>
       <c r="S26">
-        <v>7.5601210513739539E-2</v>
+        <v>7.0238719474313024E-2</v>
       </c>
       <c r="T26">
-        <v>0.5</v>
+        <v>0.71904994306165604</v>
       </c>
       <c r="U26">
-        <v>0.5</v>
+        <v>0.71904994306165604</v>
       </c>
       <c r="V26">
-        <v>0.29182108442851451</v>
+        <v>0.33079598048586217</v>
       </c>
       <c r="W26">
-        <v>0.107807576344086</v>
+        <v>9.9134947670250884E-2</v>
       </c>
       <c r="X26">
-        <v>0.5</v>
+        <v>6.3152757442654958E-2</v>
       </c>
       <c r="Y26">
-        <v>0.5</v>
+        <v>6.3152757442654958E-2</v>
       </c>
       <c r="Z26">
-        <v>0.3619241816009558</v>
+        <v>0.39432404761904771</v>
       </c>
       <c r="AA26">
-        <v>0.10526507910906301</v>
+        <v>9.4888290322580629E-2</v>
       </c>
     </row>
     <row r="27" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A27">
-        <v>34</v>
+        <v>17</v>
       </c>
       <c r="B27" t="s">
-        <v>76</v>
+        <v>29</v>
       </c>
       <c r="C27" t="s">
-        <v>84</v>
+        <v>38</v>
       </c>
       <c r="D27" t="s">
-        <v>153</v>
+        <v>128</v>
       </c>
       <c r="E27" s="1">
-        <v>7.6813841641640401</v>
-      </c>
-      <c r="F27" s="1">
-        <v>28.047306141252399</v>
+        <v>19.3353124367388</v>
+      </c>
+      <c r="F27">
+        <v>33.409999999999997</v>
       </c>
       <c r="G27" t="s">
         <v>24</v>
@@ -4280,78 +4279,78 @@
         <v>74</v>
       </c>
       <c r="J27">
-        <v>2030</v>
+        <v>2028</v>
       </c>
       <c r="K27">
-        <v>10.4</v>
-      </c>
-      <c r="L27">
-        <v>0.31029445257849358</v>
-      </c>
-      <c r="M27">
-        <v>0.31029445257849358</v>
+        <v>312</v>
+      </c>
+      <c r="L27" s="12">
+        <v>1</v>
+      </c>
+      <c r="M27" s="12">
+        <v>1</v>
       </c>
       <c r="N27">
-        <v>0.35536499522102738</v>
+        <v>0.40658502349661491</v>
       </c>
       <c r="O27">
-        <v>8.8994540501792119E-2</v>
-      </c>
-      <c r="P27">
-        <v>0.1454367984382626</v>
-      </c>
-      <c r="Q27">
-        <v>0.1454367984382626</v>
+        <v>0.133054680525687</v>
+      </c>
+      <c r="P27" s="1">
+        <v>1</v>
+      </c>
+      <c r="Q27" s="1">
+        <v>1</v>
       </c>
       <c r="R27">
-        <v>0.296346847471127</v>
+        <v>0.35451344165671039</v>
       </c>
       <c r="S27">
-        <v>7.0238719474313024E-2</v>
-      </c>
-      <c r="T27">
-        <v>0.71904994306165604</v>
-      </c>
-      <c r="U27">
-        <v>0.71904994306165604</v>
+        <v>0.11408707311827949</v>
+      </c>
+      <c r="T27" s="1">
+        <v>1</v>
+      </c>
+      <c r="U27" s="1">
+        <v>1</v>
       </c>
       <c r="V27">
-        <v>0.33079598048586217</v>
+        <v>0.36084930426125061</v>
       </c>
       <c r="W27">
-        <v>9.9134947670250884E-2</v>
-      </c>
-      <c r="X27">
-        <v>6.3152757442654958E-2</v>
-      </c>
-      <c r="Y27">
-        <v>6.3152757442654958E-2</v>
+        <v>0.13215149486260461</v>
+      </c>
+      <c r="X27" s="1">
+        <v>1</v>
+      </c>
+      <c r="Y27" s="1">
+        <v>1</v>
       </c>
       <c r="Z27">
-        <v>0.39432404761904771</v>
+        <v>0.40695313150708318</v>
       </c>
       <c r="AA27">
-        <v>9.4888290322580629E-2</v>
+        <v>0.12382463159242189</v>
       </c>
     </row>
     <row r="28" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A28">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="B28" t="s">
         <v>29</v>
       </c>
       <c r="C28" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="D28" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="E28" s="1">
-        <v>19.3353124367388</v>
+        <v>21.373100000000001</v>
       </c>
       <c r="F28">
-        <v>33.409999999999997</v>
+        <v>30.93</v>
       </c>
       <c r="G28" t="s">
         <v>24</v>
@@ -4360,10 +4359,10 @@
         <v>74</v>
       </c>
       <c r="J28">
-        <v>2028</v>
+        <v>2030</v>
       </c>
       <c r="K28">
-        <v>312</v>
+        <v>648</v>
       </c>
       <c r="L28" s="12">
         <v>1</v>
@@ -4372,10 +4371,10 @@
         <v>1</v>
       </c>
       <c r="N28">
-        <v>0.40658502349661491</v>
+        <v>0.42521820788530468</v>
       </c>
       <c r="O28">
-        <v>0.133054680525687</v>
+        <v>0.1244606697729988</v>
       </c>
       <c r="P28" s="1">
         <v>1</v>
@@ -4384,10 +4383,10 @@
         <v>1</v>
       </c>
       <c r="R28">
-        <v>0.35451344165671039</v>
+        <v>0.37771498287534838</v>
       </c>
       <c r="S28">
-        <v>0.11408707311827949</v>
+        <v>0.1102721285543608</v>
       </c>
       <c r="T28" s="1">
         <v>1</v>
@@ -4396,10 +4395,10 @@
         <v>1</v>
       </c>
       <c r="V28">
-        <v>0.36084930426125061</v>
+        <v>0.38316936001592983</v>
       </c>
       <c r="W28">
-        <v>0.13215149486260461</v>
+        <v>0.12599141863799279</v>
       </c>
       <c r="X28" s="1">
         <v>1</v>
@@ -4408,273 +4407,273 @@
         <v>1</v>
       </c>
       <c r="Z28">
-        <v>0.40695313150708318</v>
+        <v>0.40716517665130569</v>
       </c>
       <c r="AA28">
-        <v>0.12382463159242189</v>
+        <v>0.1130760087045571</v>
       </c>
     </row>
     <row r="29" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A29">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B29" t="s">
         <v>29</v>
       </c>
       <c r="C29" t="s">
-        <v>39</v>
+        <v>30</v>
       </c>
       <c r="D29" t="s">
-        <v>129</v>
+        <v>121</v>
       </c>
       <c r="E29" s="1">
-        <v>21.373100000000001</v>
+        <v>15.238888888888889</v>
       </c>
       <c r="F29">
-        <v>30.93</v>
+        <v>32.46</v>
       </c>
       <c r="G29" t="s">
-        <v>24</v>
+        <v>9</v>
       </c>
       <c r="H29" t="s">
         <v>74</v>
       </c>
+      <c r="I29">
+        <v>1222</v>
+      </c>
       <c r="J29">
-        <v>2030</v>
+        <v>2003</v>
       </c>
       <c r="K29">
-        <v>648</v>
+        <v>19</v>
       </c>
       <c r="L29" s="12">
-        <v>1</v>
+        <v>0.83298124989973343</v>
       </c>
       <c r="M29" s="12">
-        <v>1</v>
+        <v>0.83298124989973343</v>
       </c>
       <c r="N29">
-        <v>0.42521820788530468</v>
+        <v>0.39466196216646748</v>
       </c>
       <c r="O29">
-        <v>0.1244606697729988</v>
+        <v>0.1190324735961768</v>
       </c>
       <c r="P29" s="1">
-        <v>1</v>
+        <v>0.77571629040725032</v>
       </c>
       <c r="Q29" s="1">
-        <v>1</v>
+        <v>0.77571629040725032</v>
       </c>
       <c r="R29">
-        <v>0.37771498287534838</v>
+        <v>0.32528437594583842</v>
       </c>
       <c r="S29">
-        <v>0.1102721285543608</v>
+        <v>9.0738510872162489E-2</v>
       </c>
       <c r="T29" s="1">
-        <v>1</v>
+        <v>0.80812762284681627</v>
       </c>
       <c r="U29" s="1">
-        <v>1</v>
+        <v>0.80812762284681627</v>
       </c>
       <c r="V29">
-        <v>0.38316936001592983</v>
+        <v>0.35242235364396662</v>
       </c>
       <c r="W29">
-        <v>0.12599141863799279</v>
+        <v>0.1197469111111111</v>
       </c>
       <c r="X29" s="1">
-        <v>1</v>
+        <v>0.34980347843566895</v>
       </c>
       <c r="Y29" s="1">
-        <v>1</v>
+        <v>0.34980347843566895</v>
       </c>
       <c r="Z29">
-        <v>0.40716517665130569</v>
+        <v>0.41910394393241168</v>
       </c>
       <c r="AA29">
-        <v>0.1130760087045571</v>
+        <v>0.1194960299539171</v>
       </c>
     </row>
     <row r="30" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A30">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="B30" t="s">
         <v>29</v>
       </c>
       <c r="C30" t="s">
-        <v>30</v>
+        <v>37</v>
       </c>
       <c r="D30" t="s">
-        <v>121</v>
+        <v>134</v>
       </c>
       <c r="E30" s="1">
-        <v>15.238888888888889</v>
+        <v>19.166699999999999</v>
       </c>
       <c r="F30">
-        <v>32.46</v>
+        <v>30.48</v>
       </c>
       <c r="G30" t="s">
-        <v>9</v>
+        <v>24</v>
       </c>
       <c r="H30" t="s">
         <v>74</v>
       </c>
-      <c r="I30">
-        <v>1222</v>
-      </c>
       <c r="J30">
-        <v>2003</v>
+        <v>2024</v>
       </c>
       <c r="K30">
-        <v>19</v>
+        <v>360</v>
       </c>
       <c r="L30" s="12">
-        <v>0.83298124989973343</v>
+        <v>1</v>
       </c>
       <c r="M30" s="12">
-        <v>0.83298124989973343</v>
+        <v>1</v>
       </c>
       <c r="N30">
-        <v>0.39466196216646748</v>
+        <v>0.41996924133811242</v>
       </c>
       <c r="O30">
-        <v>0.1190324735961768</v>
+        <v>0.1218930356033453</v>
       </c>
       <c r="P30" s="1">
-        <v>0.77571629040725032</v>
+        <v>1</v>
       </c>
       <c r="Q30" s="1">
-        <v>0.77571629040725032</v>
+        <v>1</v>
       </c>
       <c r="R30">
-        <v>0.32528437594583842</v>
+        <v>0.36449918518518509</v>
       </c>
       <c r="S30">
-        <v>9.0738510872162489E-2</v>
+        <v>0.10455796200716851</v>
       </c>
       <c r="T30" s="1">
-        <v>0.80812762284681627</v>
+        <v>1</v>
       </c>
       <c r="U30" s="1">
-        <v>0.80812762284681627</v>
+        <v>1</v>
       </c>
       <c r="V30">
-        <v>0.35242235364396662</v>
+        <v>0.37915904579848669</v>
       </c>
       <c r="W30">
-        <v>0.1197469111111111</v>
+        <v>0.1228442348864994</v>
       </c>
       <c r="X30" s="1">
-        <v>0.34980347843566895</v>
+        <v>1</v>
       </c>
       <c r="Y30" s="1">
-        <v>0.34980347843566895</v>
+        <v>1</v>
       </c>
       <c r="Z30">
-        <v>0.41910394393241168</v>
+        <v>0.43280106246799788</v>
       </c>
       <c r="AA30">
-        <v>0.1194960299539171</v>
+        <v>0.1174430401945725</v>
       </c>
     </row>
     <row r="31" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A31">
-        <v>16</v>
+        <v>35</v>
       </c>
       <c r="B31" t="s">
         <v>29</v>
       </c>
       <c r="C31" t="s">
-        <v>37</v>
+        <v>85</v>
       </c>
       <c r="D31" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="E31" s="1">
-        <v>19.166699999999999</v>
-      </c>
-      <c r="F31">
-        <v>30.48</v>
+        <v>14.9222</v>
+      </c>
+      <c r="F31" s="1">
+        <v>35.908299999999997</v>
       </c>
       <c r="G31" t="s">
-        <v>24</v>
+        <v>9</v>
       </c>
       <c r="H31" t="s">
         <v>74</v>
       </c>
       <c r="J31">
-        <v>2024</v>
+        <v>1964</v>
       </c>
       <c r="K31">
-        <v>360</v>
-      </c>
-      <c r="L31" s="12">
-        <v>1</v>
-      </c>
-      <c r="M31" s="12">
-        <v>1</v>
+        <v>10</v>
+      </c>
+      <c r="L31">
+        <v>0.42335374090065131</v>
+      </c>
+      <c r="M31">
+        <v>0.42335374090065131</v>
       </c>
       <c r="N31">
-        <v>0.41996924133811242</v>
+        <v>0.35828716925527671</v>
       </c>
       <c r="O31">
-        <v>0.1218930356033453</v>
-      </c>
-      <c r="P31" s="1">
-        <v>1</v>
-      </c>
-      <c r="Q31" s="1">
+        <v>0.12592183058542411</v>
+      </c>
+      <c r="P31">
+        <v>1</v>
+      </c>
+      <c r="Q31">
         <v>1</v>
       </c>
       <c r="R31">
-        <v>0.36449918518518509</v>
+        <v>0.30841619553962568</v>
       </c>
       <c r="S31">
-        <v>0.10455796200716851</v>
-      </c>
-      <c r="T31" s="1">
-        <v>1</v>
-      </c>
-      <c r="U31" s="1">
+        <v>0.1049052191158901</v>
+      </c>
+      <c r="T31">
+        <v>1</v>
+      </c>
+      <c r="U31">
         <v>1</v>
       </c>
       <c r="V31">
-        <v>0.37915904579848669</v>
+        <v>0.33410105575467941</v>
       </c>
       <c r="W31">
-        <v>0.1228442348864994</v>
-      </c>
-      <c r="X31" s="1">
-        <v>1</v>
-      </c>
-      <c r="Y31" s="1">
-        <v>1</v>
+        <v>0.13192159689366789</v>
+      </c>
+      <c r="X31">
+        <v>0.45356200606665714</v>
+      </c>
+      <c r="Y31">
+        <v>0.45356200606665714</v>
       </c>
       <c r="Z31">
-        <v>0.43280106246799788</v>
+        <v>0.38180538061102581</v>
       </c>
       <c r="AA31">
-        <v>0.1174430401945725</v>
+        <v>0.12809286277521759</v>
       </c>
     </row>
     <row r="32" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A32">
-        <v>35</v>
+        <v>10</v>
       </c>
       <c r="B32" t="s">
         <v>29</v>
       </c>
       <c r="C32" t="s">
-        <v>85</v>
+        <v>33</v>
       </c>
       <c r="D32" t="s">
-        <v>136</v>
+        <v>139</v>
       </c>
       <c r="E32" s="1">
-        <v>14.9222</v>
-      </c>
-      <c r="F32" s="1">
-        <v>35.908299999999997</v>
+        <v>18.492560000000001</v>
+      </c>
+      <c r="F32">
+        <v>31.82</v>
       </c>
       <c r="G32" t="s">
         <v>9</v>
@@ -4682,648 +4681,624 @@
       <c r="H32" t="s">
         <v>74</v>
       </c>
+      <c r="I32">
+        <v>476</v>
+      </c>
       <c r="J32">
-        <v>1964</v>
+        <v>2009</v>
       </c>
       <c r="K32">
-        <v>10</v>
-      </c>
-      <c r="L32">
-        <v>0.42335374090065131</v>
-      </c>
-      <c r="M32">
-        <v>0.42335374090065131</v>
+        <v>1240</v>
+      </c>
+      <c r="L32" s="12">
+        <v>0.85019816635710554</v>
+      </c>
+      <c r="M32" s="12">
+        <v>0.85019816635710554</v>
       </c>
       <c r="N32">
-        <v>0.35828716925527671</v>
+        <v>0.41324736758263642</v>
       </c>
       <c r="O32">
-        <v>0.12592183058542411</v>
-      </c>
-      <c r="P32">
-        <v>1</v>
-      </c>
-      <c r="Q32">
-        <v>1</v>
+        <v>0.12749815675029871</v>
+      </c>
+      <c r="P32" s="1">
+        <v>0.92476270759666213</v>
+      </c>
+      <c r="Q32" s="1">
+        <v>0.92476270759666213</v>
       </c>
       <c r="R32">
-        <v>0.30841619553962568</v>
+        <v>0.35471768857029068</v>
       </c>
       <c r="S32">
-        <v>0.1049052191158901</v>
-      </c>
-      <c r="T32">
-        <v>1</v>
-      </c>
-      <c r="U32">
-        <v>1</v>
+        <v>0.1051770494623656</v>
+      </c>
+      <c r="T32" s="1">
+        <v>0.98817898158853146</v>
+      </c>
+      <c r="U32" s="1">
+        <v>0.98817898158853146</v>
       </c>
       <c r="V32">
-        <v>0.33410105575467941</v>
+        <v>0.36381105894066113</v>
       </c>
       <c r="W32">
-        <v>0.13192159689366789</v>
-      </c>
-      <c r="X32">
-        <v>0.45356200606665714</v>
-      </c>
-      <c r="Y32">
-        <v>0.45356200606665714</v>
+        <v>0.12547243990442061</v>
+      </c>
+      <c r="X32" s="1">
+        <v>0.81116964716180107</v>
+      </c>
+      <c r="Y32" s="1">
+        <v>0.81116964716180107</v>
       </c>
       <c r="Z32">
-        <v>0.38180538061102581</v>
+        <v>0.41797175029868577</v>
       </c>
       <c r="AA32">
-        <v>0.12809286277521759</v>
+        <v>0.1216317309267793</v>
       </c>
     </row>
     <row r="33" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A33">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="B33" t="s">
         <v>29</v>
       </c>
       <c r="C33" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D33" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="E33" s="1">
-        <v>18.492560000000001</v>
+        <v>19.286999999999999</v>
       </c>
       <c r="F33">
-        <v>31.82</v>
+        <v>32.69</v>
       </c>
       <c r="G33" t="s">
-        <v>9</v>
+        <v>24</v>
       </c>
       <c r="H33" t="s">
         <v>74</v>
       </c>
-      <c r="I33">
-        <v>476</v>
-      </c>
       <c r="J33">
-        <v>2009</v>
+        <v>2030</v>
       </c>
       <c r="K33">
-        <v>1240</v>
+        <v>312</v>
       </c>
       <c r="L33" s="12">
-        <v>0.85019816635710554</v>
+        <v>0.48267455815236754</v>
       </c>
       <c r="M33" s="12">
-        <v>0.85019816635710554</v>
+        <v>0.48267455815236754</v>
       </c>
       <c r="N33">
-        <v>0.41324736758263642</v>
+        <v>0.41117306730386288</v>
       </c>
       <c r="O33">
-        <v>0.12749815675029871</v>
+        <v>0.13151496917562719</v>
       </c>
       <c r="P33" s="1">
-        <v>0.92476270759666213</v>
+        <v>0.53491992806031752</v>
       </c>
       <c r="Q33" s="1">
-        <v>0.92476270759666213</v>
+        <v>0.53491992806031752</v>
       </c>
       <c r="R33">
-        <v>0.35471768857029068</v>
+        <v>0.35771489884508167</v>
       </c>
       <c r="S33">
-        <v>0.1051770494623656</v>
+        <v>0.1127497758661888</v>
       </c>
       <c r="T33" s="1">
-        <v>0.98817898158853146</v>
+        <v>0.54138714543912902</v>
       </c>
       <c r="U33" s="1">
-        <v>0.98817898158853146</v>
+        <v>0.54138714543912902</v>
       </c>
       <c r="V33">
-        <v>0.36381105894066113</v>
+        <v>0.36348772481083241</v>
       </c>
       <c r="W33">
-        <v>0.12547243990442061</v>
+        <v>0.12972741075268809</v>
       </c>
       <c r="X33" s="1">
-        <v>0.81116964716180107</v>
+        <v>0.44101836834818581</v>
       </c>
       <c r="Y33" s="1">
-        <v>0.81116964716180107</v>
+        <v>0.44101836834818581</v>
       </c>
       <c r="Z33">
-        <v>0.41797175029868577</v>
+        <v>0.41726091696535239</v>
       </c>
       <c r="AA33">
-        <v>0.1216317309267793</v>
+        <v>0.12471186533538151</v>
       </c>
     </row>
     <row r="34" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A34">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="B34" t="s">
         <v>29</v>
       </c>
       <c r="C34" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="D34" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="E34" s="1">
-        <v>19.286999999999999</v>
+        <v>11.7983333333333</v>
       </c>
       <c r="F34">
-        <v>32.69</v>
+        <v>34.39</v>
       </c>
       <c r="G34" t="s">
-        <v>24</v>
+        <v>9</v>
       </c>
       <c r="H34" t="s">
         <v>74</v>
       </c>
+      <c r="I34">
+        <v>233</v>
+      </c>
       <c r="J34">
-        <v>2030</v>
+        <v>1966</v>
       </c>
       <c r="K34">
-        <v>312</v>
+        <v>270</v>
       </c>
       <c r="L34" s="12">
-        <v>0.48267455815236754</v>
+        <v>0.5</v>
       </c>
       <c r="M34" s="12">
-        <v>0.48267455815236754</v>
+        <v>0.5</v>
       </c>
       <c r="N34">
-        <v>0.41117306730386288</v>
+        <v>0.36434364874551972</v>
       </c>
       <c r="O34">
-        <v>0.13151496917562719</v>
+        <v>0.1070808571087216</v>
       </c>
       <c r="P34" s="1">
-        <v>0.53491992806031752</v>
+        <v>0.5</v>
       </c>
       <c r="Q34" s="1">
-        <v>0.53491992806031752</v>
+        <v>0.5</v>
       </c>
       <c r="R34">
-        <v>0.35771489884508167</v>
+        <v>0.29083403385105527</v>
       </c>
       <c r="S34">
-        <v>0.1127497758661888</v>
+        <v>7.0465027718040626E-2</v>
       </c>
       <c r="T34" s="1">
-        <v>0.54138714543912902</v>
+        <v>0.5</v>
       </c>
       <c r="U34" s="1">
-        <v>0.54138714543912902</v>
+        <v>0.5</v>
       </c>
       <c r="V34">
-        <v>0.36348772481083241</v>
+        <v>0.33143540342493027</v>
       </c>
       <c r="W34">
-        <v>0.12972741075268809</v>
+        <v>0.1056444339307049</v>
       </c>
       <c r="X34" s="1">
-        <v>0.44101836834818581</v>
+        <v>0.5</v>
       </c>
       <c r="Y34" s="1">
-        <v>0.44101836834818581</v>
+        <v>0.5</v>
       </c>
       <c r="Z34">
-        <v>0.41726091696535239</v>
+        <v>0.40202260582010579</v>
       </c>
       <c r="AA34">
-        <v>0.12471186533538151</v>
+        <v>0.11319275345622121</v>
       </c>
     </row>
     <row r="35" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A35">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="B35" t="s">
         <v>29</v>
       </c>
       <c r="C35" t="s">
-        <v>32</v>
+        <v>40</v>
       </c>
       <c r="D35" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="E35" s="1">
-        <v>11.7983333333333</v>
+        <v>16.3569</v>
       </c>
       <c r="F35">
-        <v>34.39</v>
+        <v>32.71</v>
       </c>
       <c r="G35" t="s">
-        <v>9</v>
+        <v>24</v>
       </c>
       <c r="H35" t="s">
         <v>74</v>
       </c>
-      <c r="I35">
-        <v>233</v>
-      </c>
       <c r="J35">
-        <v>1966</v>
+        <v>2030</v>
       </c>
       <c r="K35">
-        <v>270</v>
+        <v>205</v>
       </c>
       <c r="L35" s="12">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="M35" s="12">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="N35">
-        <v>0.36434364874551972</v>
+        <v>0.40252829948227792</v>
       </c>
       <c r="O35">
-        <v>0.1070808571087216</v>
+        <v>0.1276621199522103</v>
       </c>
       <c r="P35" s="1">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="Q35" s="1">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="R35">
-        <v>0.29083403385105527</v>
+        <v>0.33904976543209869</v>
       </c>
       <c r="S35">
-        <v>7.0465027718040626E-2</v>
+        <v>0.1012916372759857</v>
       </c>
       <c r="T35" s="1">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="U35" s="1">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="V35">
-        <v>0.33143540342493027</v>
+        <v>0.35010868657905209</v>
       </c>
       <c r="W35">
-        <v>0.1056444339307049</v>
+        <v>0.12502672329749101</v>
       </c>
       <c r="X35" s="1">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="Y35" s="1">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="Z35">
-        <v>0.40202260582010579</v>
+        <v>0.41956464285714279</v>
       </c>
       <c r="AA35">
-        <v>0.11319275345622121</v>
+        <v>0.124365051203277</v>
       </c>
     </row>
     <row r="36" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A36">
-        <v>19</v>
+        <v>12</v>
       </c>
       <c r="B36" t="s">
         <v>29</v>
       </c>
       <c r="C36" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="D36" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="E36" s="1">
-        <v>16.3569</v>
+        <v>13.29707</v>
       </c>
       <c r="F36">
-        <v>32.71</v>
+        <v>33.89</v>
       </c>
       <c r="G36" t="s">
-        <v>24</v>
+        <v>9</v>
       </c>
       <c r="H36" t="s">
         <v>74</v>
       </c>
+      <c r="I36">
+        <v>15.2</v>
+      </c>
       <c r="J36">
-        <v>2030</v>
+        <v>1962</v>
       </c>
       <c r="K36">
-        <v>205</v>
+        <v>26</v>
       </c>
       <c r="L36" s="12">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="M36" s="12">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="N36">
-        <v>0.40252829948227792</v>
+        <v>0.36713684946236558</v>
       </c>
       <c r="O36">
-        <v>0.1276621199522103</v>
+        <v>0.1140524489844684</v>
       </c>
       <c r="P36" s="1">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="Q36" s="1">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="R36">
-        <v>0.33904976543209869</v>
+        <v>0.28934304380724812</v>
       </c>
       <c r="S36">
-        <v>0.1012916372759857</v>
+        <v>7.8925713261648753E-2</v>
       </c>
       <c r="T36" s="1">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="U36" s="1">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="V36">
-        <v>0.35010868657905209</v>
+        <v>0.33376081999203511</v>
       </c>
       <c r="W36">
-        <v>0.12502672329749101</v>
+        <v>0.1145908714456392</v>
       </c>
       <c r="X36" s="1">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="Y36" s="1">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="Z36">
-        <v>0.41956464285714279</v>
+        <v>0.39572908004778973</v>
       </c>
       <c r="AA36">
-        <v>0.124365051203277</v>
+        <v>0.1173318461341526</v>
       </c>
     </row>
     <row r="37" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A37">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="B37" t="s">
         <v>29</v>
       </c>
       <c r="C37" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D37" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="E37" s="1">
-        <v>13.29707</v>
+        <v>19.226299999999998</v>
       </c>
       <c r="F37">
-        <v>33.89</v>
+        <v>33.479999999999997</v>
       </c>
       <c r="G37" t="s">
-        <v>9</v>
+        <v>24</v>
       </c>
       <c r="H37" t="s">
         <v>74</v>
       </c>
-      <c r="I37">
-        <v>15.2</v>
-      </c>
       <c r="J37">
-        <v>1962</v>
+        <v>2025</v>
       </c>
       <c r="K37">
-        <v>26</v>
+        <v>420</v>
       </c>
       <c r="L37" s="12">
-        <v>0.5</v>
+        <v>0.968101455335308</v>
       </c>
       <c r="M37" s="12">
-        <v>0.5</v>
+        <v>0.968101455335308</v>
       </c>
       <c r="N37">
-        <v>0.36713684946236558</v>
+        <v>0.40367119076065322</v>
       </c>
       <c r="O37">
-        <v>0.1140524489844684</v>
+        <v>0.1329511230585424</v>
       </c>
       <c r="P37" s="1">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="Q37" s="1">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="R37">
-        <v>0.28934304380724812</v>
+        <v>0.35034039944245321</v>
       </c>
       <c r="S37">
-        <v>7.8925713261648753E-2</v>
+        <v>0.1136679777777778</v>
       </c>
       <c r="T37" s="1">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="U37" s="1">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="V37">
-        <v>0.33376081999203511</v>
+        <v>0.35596104659498212</v>
       </c>
       <c r="W37">
-        <v>0.1145908714456392</v>
+        <v>0.13273961720430111</v>
       </c>
       <c r="X37" s="1">
-        <v>0.5</v>
+        <v>0.98223850763713827</v>
       </c>
       <c r="Y37" s="1">
-        <v>0.5</v>
+        <v>0.98223850763713827</v>
       </c>
       <c r="Z37">
-        <v>0.39572908004778973</v>
+        <v>0.40630400110940429</v>
       </c>
       <c r="AA37">
-        <v>0.1173318461341526</v>
-      </c>
-    </row>
-    <row r="38" spans="1:27" x14ac:dyDescent="0.2">
-      <c r="A38">
-        <v>15</v>
-      </c>
-      <c r="B38" t="s">
+        <v>0.12482191730670759</v>
+      </c>
+    </row>
+    <row r="38" spans="1:27" s="8" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A38" s="8">
+        <v>36</v>
+      </c>
+      <c r="B38" s="8" t="s">
         <v>29</v>
       </c>
-      <c r="C38" t="s">
-        <v>36</v>
-      </c>
-      <c r="D38" t="s">
-        <v>145</v>
-      </c>
-      <c r="E38" s="1">
-        <v>19.226299999999998</v>
-      </c>
-      <c r="F38">
-        <v>33.479999999999997</v>
-      </c>
-      <c r="G38" t="s">
-        <v>24</v>
-      </c>
-      <c r="H38" t="s">
+      <c r="C38" s="8" t="s">
+        <v>86</v>
+      </c>
+      <c r="D38" s="8" t="s">
+        <v>149</v>
+      </c>
+      <c r="E38" s="9">
+        <v>14.2767</v>
+      </c>
+      <c r="F38" s="9">
+        <v>35.896900000000002</v>
+      </c>
+      <c r="G38" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="H38" s="8" t="s">
         <v>74</v>
       </c>
-      <c r="J38">
-        <v>2025</v>
-      </c>
-      <c r="K38">
-        <v>420</v>
-      </c>
-      <c r="L38" s="12">
-        <v>0.968101455335308</v>
-      </c>
-      <c r="M38" s="12">
-        <v>0.968101455335308</v>
-      </c>
-      <c r="N38">
-        <v>0.40367119076065322</v>
-      </c>
-      <c r="O38">
-        <v>0.1329511230585424</v>
-      </c>
-      <c r="P38" s="1">
-        <v>1</v>
-      </c>
-      <c r="Q38" s="1">
-        <v>1</v>
-      </c>
-      <c r="R38">
-        <v>0.35034039944245321</v>
-      </c>
-      <c r="S38">
-        <v>0.1136679777777778</v>
-      </c>
-      <c r="T38" s="1">
-        <v>1</v>
-      </c>
-      <c r="U38" s="1">
-        <v>1</v>
-      </c>
-      <c r="V38">
-        <v>0.35596104659498212</v>
-      </c>
-      <c r="W38">
-        <v>0.13273961720430111</v>
-      </c>
-      <c r="X38" s="1">
-        <v>0.98223850763713827</v>
-      </c>
-      <c r="Y38" s="1">
-        <v>0.98223850763713827</v>
-      </c>
-      <c r="Z38">
-        <v>0.40630400110940429</v>
-      </c>
-      <c r="AA38">
-        <v>0.12482191730670759</v>
+      <c r="J38" s="8">
+        <v>2017</v>
+      </c>
+      <c r="K38" s="8">
+        <v>320</v>
+      </c>
+      <c r="L38" s="8">
+        <v>2.7317154803051569E-2</v>
+      </c>
+      <c r="M38" s="8">
+        <v>2.7317154803051569E-2</v>
+      </c>
+      <c r="N38" s="8">
+        <v>0.35530261847869382</v>
+      </c>
+      <c r="O38" s="8">
+        <v>0.1228047395459976</v>
+      </c>
+      <c r="P38" s="8">
+        <v>0.59015230995696066</v>
+      </c>
+      <c r="Q38" s="8">
+        <v>0.59015230995696066</v>
+      </c>
+      <c r="R38" s="8">
+        <v>0.30836657228195941</v>
+      </c>
+      <c r="S38" s="8">
+        <v>0.1002377624850657</v>
+      </c>
+      <c r="T38" s="8">
+        <v>0.44439081011541814</v>
+      </c>
+      <c r="U38" s="8">
+        <v>0.44439081011541814</v>
+      </c>
+      <c r="V38" s="8">
+        <v>0.33429198128235771</v>
+      </c>
+      <c r="W38" s="8">
+        <v>0.12918153524492229</v>
+      </c>
+      <c r="X38" s="8">
+        <v>2.9266361284883659E-2</v>
+      </c>
+      <c r="Y38" s="8">
+        <v>2.9266361284883659E-2</v>
+      </c>
+      <c r="Z38" s="8">
+        <v>0.37724122802526022</v>
+      </c>
+      <c r="AA38" s="8">
+        <v>0.123978404249872</v>
       </c>
     </row>
     <row r="39" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A39">
-        <v>36</v>
+        <v>20</v>
       </c>
       <c r="B39" t="s">
-        <v>29</v>
+        <v>7</v>
       </c>
       <c r="C39" t="s">
-        <v>86</v>
+        <v>14</v>
       </c>
       <c r="D39" t="s">
-        <v>150</v>
+        <v>154</v>
       </c>
       <c r="E39" s="1">
-        <v>14.2767</v>
-      </c>
-      <c r="F39" s="1">
-        <v>35.896900000000002</v>
+        <v>25.315359999999998</v>
+      </c>
+      <c r="F39">
+        <v>32.56</v>
       </c>
       <c r="G39" t="s">
         <v>9</v>
       </c>
       <c r="H39" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="J39">
-        <v>2017</v>
+        <v>2010</v>
       </c>
       <c r="K39">
-        <v>320</v>
-      </c>
-      <c r="L39">
-        <v>2.7317154803051569E-2</v>
-      </c>
-      <c r="M39">
-        <v>2.7317154803051569E-2</v>
-      </c>
-      <c r="N39">
-        <v>0.35530261847869382</v>
-      </c>
-      <c r="O39">
-        <v>0.1228047395459976</v>
-      </c>
-      <c r="P39">
-        <v>0.59015230995696066</v>
-      </c>
-      <c r="Q39">
-        <v>0.59015230995696066</v>
-      </c>
-      <c r="R39">
-        <v>0.30836657228195941</v>
-      </c>
-      <c r="S39">
-        <v>0.1002377624850657</v>
-      </c>
-      <c r="T39">
-        <v>0.44439081011541814</v>
-      </c>
-      <c r="U39">
-        <v>0.44439081011541814</v>
-      </c>
-      <c r="V39">
-        <v>0.33429198128235771</v>
-      </c>
-      <c r="W39">
-        <v>0.12918153524492229</v>
-      </c>
-      <c r="X39">
-        <v>2.9266361284883659E-2</v>
-      </c>
-      <c r="Y39">
-        <v>2.9266361284883659E-2</v>
-      </c>
-      <c r="Z39">
-        <v>0.37724122802526022</v>
-      </c>
-      <c r="AA39">
-        <v>0.123978404249872</v>
+        <v>86</v>
+      </c>
+      <c r="L39" s="12">
+        <v>0.92906388888888891</v>
+      </c>
+      <c r="M39" s="12">
+        <v>0.92906388888888891</v>
+      </c>
+      <c r="P39" s="12">
+        <v>0.92906388888888891</v>
+      </c>
+      <c r="Q39" s="12">
+        <v>0.92906388888888891</v>
+      </c>
+      <c r="T39" s="12">
+        <v>0.92906388888888891</v>
+      </c>
+      <c r="U39" s="12">
+        <v>0.92906388888888891</v>
+      </c>
+      <c r="X39" s="12">
+        <v>0.92906388888888891</v>
+      </c>
+      <c r="Y39" s="12">
+        <v>0.92906388888888891</v>
       </c>
     </row>
     <row r="40" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A40">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B40" t="s">
         <v>7</v>
       </c>
       <c r="C40" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D40" t="s">
-        <v>155</v>
+        <v>158</v>
       </c>
       <c r="E40" s="1">
-        <v>25.315359999999998</v>
+        <v>26.045996917309001</v>
       </c>
       <c r="F40">
-        <v>32.56</v>
+        <v>32.25</v>
       </c>
       <c r="G40" t="s">
         <v>9</v>
@@ -5335,219 +5310,219 @@
         <v>2010</v>
       </c>
       <c r="K40">
-        <v>86</v>
+        <v>64</v>
       </c>
       <c r="L40" s="12">
-        <v>0.92906388888888891</v>
+        <v>1</v>
       </c>
       <c r="M40" s="12">
-        <v>0.92906388888888891</v>
+        <v>1</v>
       </c>
       <c r="P40" s="12">
-        <v>0.92906388888888891</v>
+        <v>1</v>
       </c>
       <c r="Q40" s="12">
-        <v>0.92906388888888891</v>
+        <v>1</v>
       </c>
       <c r="T40" s="12">
-        <v>0.92906388888888891</v>
+        <v>1</v>
       </c>
       <c r="U40" s="12">
-        <v>0.92906388888888891</v>
+        <v>1</v>
       </c>
       <c r="X40" s="12">
-        <v>0.92906388888888891</v>
+        <v>1</v>
       </c>
       <c r="Y40" s="12">
-        <v>0.92906388888888891</v>
-      </c>
-    </row>
-    <row r="41" spans="1:27" x14ac:dyDescent="0.2">
-      <c r="A41">
-        <v>21</v>
-      </c>
-      <c r="B41" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="41" spans="1:27" s="8" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A41" s="8">
+        <v>22</v>
+      </c>
+      <c r="B41" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="C41" t="s">
-        <v>15</v>
-      </c>
-      <c r="D41" t="s">
-        <v>159</v>
-      </c>
-      <c r="E41" s="1">
-        <v>26.045996917309001</v>
-      </c>
-      <c r="F41">
-        <v>32.25</v>
-      </c>
-      <c r="G41" t="s">
+      <c r="C41" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="D41" s="8" t="s">
+        <v>162</v>
+      </c>
+      <c r="E41" s="9">
+        <v>29.996935100000002</v>
+      </c>
+      <c r="F41" s="8">
+        <v>31.25</v>
+      </c>
+      <c r="G41" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="H41" t="s">
+      <c r="H41" s="8" t="s">
         <v>75</v>
       </c>
-      <c r="J41">
-        <v>2010</v>
-      </c>
-      <c r="K41">
-        <v>64</v>
-      </c>
-      <c r="L41" s="12">
-        <v>1</v>
-      </c>
-      <c r="M41" s="12">
-        <v>1</v>
-      </c>
-      <c r="P41" s="12">
-        <v>1</v>
-      </c>
-      <c r="Q41" s="12">
-        <v>1</v>
-      </c>
-      <c r="T41" s="12">
-        <v>1</v>
-      </c>
-      <c r="U41" s="12">
-        <v>1</v>
-      </c>
-      <c r="X41" s="12">
-        <v>1</v>
-      </c>
-      <c r="Y41" s="12">
+      <c r="J41" s="8">
+        <v>2018</v>
+      </c>
+      <c r="K41" s="9">
+        <v>31.73515982</v>
+      </c>
+      <c r="L41" s="17">
+        <v>1</v>
+      </c>
+      <c r="M41" s="17">
+        <v>1</v>
+      </c>
+      <c r="P41" s="17">
+        <v>1</v>
+      </c>
+      <c r="Q41" s="17">
+        <v>1</v>
+      </c>
+      <c r="T41" s="17">
+        <v>1</v>
+      </c>
+      <c r="U41" s="17">
+        <v>1</v>
+      </c>
+      <c r="X41" s="17">
+        <v>1</v>
+      </c>
+      <c r="Y41" s="17">
         <v>1</v>
       </c>
     </row>
     <row r="42" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A42">
-        <v>22</v>
+        <v>42</v>
       </c>
       <c r="B42" t="s">
-        <v>7</v>
+        <v>17</v>
       </c>
       <c r="C42" t="s">
-        <v>16</v>
+        <v>102</v>
       </c>
       <c r="D42" t="s">
-        <v>163</v>
-      </c>
-      <c r="E42" s="1">
-        <v>29.996935100000002</v>
+        <v>160</v>
+      </c>
+      <c r="E42">
+        <v>8.39</v>
       </c>
       <c r="F42">
-        <v>31.25</v>
+        <v>35.44</v>
       </c>
       <c r="G42" t="s">
         <v>9</v>
       </c>
       <c r="H42" t="s">
-        <v>75</v>
+        <v>83</v>
       </c>
       <c r="J42">
-        <v>2018</v>
-      </c>
-      <c r="K42" s="1">
-        <v>31.73515982</v>
-      </c>
-      <c r="L42" s="12">
-        <v>1</v>
-      </c>
-      <c r="M42" s="12">
-        <v>1</v>
-      </c>
-      <c r="P42" s="12">
-        <v>1</v>
-      </c>
-      <c r="Q42" s="12">
-        <v>1</v>
-      </c>
-      <c r="T42" s="12">
-        <v>1</v>
-      </c>
-      <c r="U42" s="12">
-        <v>1</v>
-      </c>
-      <c r="X42" s="12">
-        <v>1</v>
-      </c>
-      <c r="Y42" s="12">
-        <v>1</v>
+        <v>2014</v>
+      </c>
+      <c r="K42">
+        <v>5</v>
+      </c>
+      <c r="L42">
+        <v>0.17605086170659942</v>
+      </c>
+      <c r="M42">
+        <v>0.17605086170659942</v>
+      </c>
+      <c r="P42">
+        <v>0.97162673392181587</v>
+      </c>
+      <c r="Q42">
+        <v>0.97162673392181587</v>
+      </c>
+      <c r="T42">
+        <v>0.69829760403530894</v>
+      </c>
+      <c r="U42">
+        <v>0.69829760403530894</v>
+      </c>
+      <c r="X42">
+        <v>5.3270281630937368E-2</v>
+      </c>
+      <c r="Y42">
+        <v>5.3270281630937368E-2</v>
       </c>
     </row>
     <row r="43" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A43">
-        <v>42</v>
+        <v>24</v>
       </c>
       <c r="B43" t="s">
         <v>17</v>
       </c>
       <c r="C43" t="s">
-        <v>102</v>
+        <v>21</v>
       </c>
       <c r="D43" t="s">
-        <v>161</v>
-      </c>
-      <c r="E43">
-        <v>8.39</v>
+        <v>147</v>
+      </c>
+      <c r="E43" s="1">
+        <v>11.485569999999999</v>
       </c>
       <c r="F43">
-        <v>35.44</v>
+        <v>37.590000000000003</v>
       </c>
       <c r="G43" t="s">
         <v>9</v>
       </c>
       <c r="H43" t="s">
-        <v>83</v>
+        <v>75</v>
       </c>
       <c r="J43">
-        <v>2014</v>
+        <v>2000</v>
       </c>
       <c r="K43">
-        <v>5</v>
-      </c>
-      <c r="L43">
-        <v>0.17605086170659942</v>
-      </c>
-      <c r="M43">
-        <v>0.17605086170659942</v>
-      </c>
-      <c r="P43">
-        <v>0.97162673392181587</v>
-      </c>
-      <c r="Q43">
-        <v>0.97162673392181587</v>
-      </c>
-      <c r="T43">
-        <v>0.69829760403530894</v>
-      </c>
-      <c r="U43">
-        <v>0.69829760403530894</v>
-      </c>
-      <c r="X43">
-        <v>5.3270281630937368E-2</v>
-      </c>
-      <c r="Y43">
-        <v>5.3270281630937368E-2</v>
+        <v>11</v>
+      </c>
+      <c r="L43" s="12">
+        <v>1</v>
+      </c>
+      <c r="M43" s="12">
+        <v>1</v>
+      </c>
+      <c r="P43" s="12">
+        <v>1</v>
+      </c>
+      <c r="Q43" s="12">
+        <v>1</v>
+      </c>
+      <c r="T43" s="12">
+        <v>1</v>
+      </c>
+      <c r="U43" s="12">
+        <v>1</v>
+      </c>
+      <c r="X43" s="12">
+        <v>1</v>
+      </c>
+      <c r="Y43" s="12">
+        <v>1</v>
       </c>
     </row>
     <row r="44" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A44">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B44" t="s">
         <v>17</v>
       </c>
       <c r="C44" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D44" t="s">
         <v>148</v>
       </c>
       <c r="E44" s="1">
-        <v>11.485569999999999</v>
+        <v>11.4887</v>
       </c>
       <c r="F44">
-        <v>37.590000000000003</v>
+        <v>37.6</v>
       </c>
       <c r="G44" t="s">
         <v>9</v>
@@ -5556,10 +5531,10 @@
         <v>75</v>
       </c>
       <c r="J44">
-        <v>2000</v>
+        <v>2010</v>
       </c>
       <c r="K44">
-        <v>11</v>
+        <v>78</v>
       </c>
       <c r="L44" s="12">
         <v>1</v>
@@ -5588,78 +5563,78 @@
     </row>
     <row r="45" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A45">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="B45" t="s">
-        <v>17</v>
+        <v>76</v>
       </c>
       <c r="C45" t="s">
-        <v>22</v>
+        <v>78</v>
       </c>
       <c r="D45" t="s">
-        <v>149</v>
-      </c>
-      <c r="E45" s="1">
-        <v>11.4887</v>
+        <v>153</v>
+      </c>
+      <c r="E45">
+        <v>4.5624833330000456</v>
       </c>
       <c r="F45">
-        <v>37.6</v>
+        <v>31.504183333000071</v>
       </c>
       <c r="G45" t="s">
-        <v>9</v>
+        <v>24</v>
       </c>
       <c r="H45" t="s">
-        <v>75</v>
+        <v>83</v>
       </c>
       <c r="J45">
-        <v>2010</v>
+        <v>2024</v>
       </c>
       <c r="K45">
-        <v>78</v>
-      </c>
-      <c r="L45" s="12">
-        <v>1</v>
-      </c>
-      <c r="M45" s="12">
-        <v>1</v>
-      </c>
-      <c r="P45" s="12">
-        <v>1</v>
-      </c>
-      <c r="Q45" s="12">
-        <v>1</v>
-      </c>
-      <c r="T45" s="12">
-        <v>1</v>
-      </c>
-      <c r="U45" s="12">
-        <v>1</v>
-      </c>
-      <c r="X45" s="12">
-        <v>1</v>
-      </c>
-      <c r="Y45" s="12">
-        <v>1</v>
+        <v>570</v>
+      </c>
+      <c r="L45">
+        <v>1</v>
+      </c>
+      <c r="M45">
+        <v>1</v>
+      </c>
+      <c r="P45">
+        <v>0.67026307426542553</v>
+      </c>
+      <c r="Q45">
+        <v>0.67026307426542553</v>
+      </c>
+      <c r="T45">
+        <v>0.91525790813472963</v>
+      </c>
+      <c r="U45">
+        <v>0.91525790813472963</v>
+      </c>
+      <c r="X45">
+        <v>0.67857773012340161</v>
+      </c>
+      <c r="Y45">
+        <v>0.67857773012340161</v>
       </c>
     </row>
     <row r="46" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A46">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="B46" t="s">
         <v>76</v>
       </c>
       <c r="C46" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="D46" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="E46">
-        <v>4.5624833330000456</v>
+        <v>3.954004000000054</v>
       </c>
       <c r="F46">
-        <v>31.504183333000071</v>
+        <v>31.708496000000029</v>
       </c>
       <c r="G46" t="s">
         <v>24</v>
@@ -5671,51 +5646,51 @@
         <v>2024</v>
       </c>
       <c r="K46">
-        <v>570</v>
+        <v>890</v>
       </c>
       <c r="L46">
-        <v>1</v>
+        <v>0.80890994820337736</v>
       </c>
       <c r="M46">
-        <v>1</v>
+        <v>0.80890994820337736</v>
       </c>
       <c r="P46">
-        <v>0.67026307426542553</v>
+        <v>0.23468337930949679</v>
       </c>
       <c r="Q46">
-        <v>0.67026307426542553</v>
+        <v>0.23468337930949679</v>
       </c>
       <c r="T46">
-        <v>0.91525790813472963</v>
+        <v>0.34012796812683682</v>
       </c>
       <c r="U46">
-        <v>0.91525790813472963</v>
+        <v>0.34012796812683682</v>
       </c>
       <c r="X46">
-        <v>0.67857773012340161</v>
+        <v>0.25363881180651482</v>
       </c>
       <c r="Y46">
-        <v>0.67857773012340161</v>
+        <v>0.25363881180651482</v>
       </c>
     </row>
     <row r="47" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A47">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B47" t="s">
         <v>76</v>
       </c>
       <c r="C47" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="D47" t="s">
         <v>156</v>
       </c>
       <c r="E47">
-        <v>3.954004000000054</v>
+        <v>3.6708333360000398</v>
       </c>
       <c r="F47">
-        <v>31.708496000000029</v>
+        <v>31.972916667</v>
       </c>
       <c r="G47" t="s">
         <v>24</v>
@@ -5724,10 +5699,10 @@
         <v>83</v>
       </c>
       <c r="J47">
-        <v>2024</v>
+        <v>2025</v>
       </c>
       <c r="K47">
-        <v>890</v>
+        <v>42</v>
       </c>
       <c r="L47">
         <v>0.80890994820337736</v>
@@ -5756,22 +5731,22 @@
     </row>
     <row r="48" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A48">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="B48" t="s">
         <v>76</v>
       </c>
       <c r="C48" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="D48" t="s">
         <v>157</v>
       </c>
       <c r="E48">
-        <v>3.6708333360000398</v>
+        <v>4.1286550000000366</v>
       </c>
       <c r="F48">
-        <v>31.972916667</v>
+        <v>31.581250000000072</v>
       </c>
       <c r="G48" t="s">
         <v>24</v>
@@ -5780,54 +5755,54 @@
         <v>83</v>
       </c>
       <c r="J48">
-        <v>2025</v>
+        <v>2024</v>
       </c>
       <c r="K48">
-        <v>42</v>
+        <v>410</v>
       </c>
       <c r="L48">
-        <v>0.80890994820337736</v>
+        <v>1</v>
       </c>
       <c r="M48">
-        <v>0.80890994820337736</v>
+        <v>1</v>
       </c>
       <c r="P48">
-        <v>0.23468337930949679</v>
+        <v>0.66221978734810272</v>
       </c>
       <c r="Q48">
-        <v>0.23468337930949679</v>
+        <v>0.66221978734810272</v>
       </c>
       <c r="T48">
-        <v>0.34012796812683682</v>
+        <v>0.91607860535489305</v>
       </c>
       <c r="U48">
-        <v>0.34012796812683682</v>
+        <v>0.91607860535489305</v>
       </c>
       <c r="X48">
-        <v>0.25363881180651482</v>
+        <v>0.6905463510218347</v>
       </c>
       <c r="Y48">
-        <v>0.25363881180651482</v>
+        <v>0.6905463510218347</v>
       </c>
     </row>
     <row r="49" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A49">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B49" t="s">
         <v>76</v>
       </c>
       <c r="C49" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="D49" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="E49">
-        <v>4.1286550000000366</v>
+        <v>4.0364056660000642</v>
       </c>
       <c r="F49">
-        <v>31.581250000000072</v>
+        <v>31.634427666000079</v>
       </c>
       <c r="G49" t="s">
         <v>24</v>
@@ -5839,95 +5814,381 @@
         <v>2024</v>
       </c>
       <c r="K49">
-        <v>410</v>
+        <v>235</v>
       </c>
       <c r="L49">
-        <v>1</v>
+        <v>0.80346644663172329</v>
       </c>
       <c r="M49">
-        <v>1</v>
+        <v>0.80346644663172329</v>
       </c>
       <c r="P49">
-        <v>0.66221978734810272</v>
+        <v>0.23195088873838973</v>
       </c>
       <c r="Q49">
-        <v>0.66221978734810272</v>
+        <v>0.23195088873838973</v>
       </c>
       <c r="T49">
-        <v>0.91607860535489305</v>
+        <v>0.33939605785664223</v>
       </c>
       <c r="U49">
-        <v>0.91607860535489305</v>
+        <v>0.33939605785664223</v>
       </c>
       <c r="X49">
-        <v>0.6905463510218347</v>
+        <v>0.2418726273281383</v>
       </c>
       <c r="Y49">
-        <v>0.6905463510218347</v>
-      </c>
-    </row>
-    <row r="50" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="A50">
-        <v>31</v>
-      </c>
-      <c r="B50" t="s">
-        <v>76</v>
-      </c>
-      <c r="C50" t="s">
-        <v>80</v>
-      </c>
-      <c r="D50" t="s">
-        <v>160</v>
-      </c>
-      <c r="E50">
-        <v>4.0364056660000642</v>
-      </c>
-      <c r="F50">
-        <v>31.634427666000079</v>
-      </c>
-      <c r="G50" t="s">
-        <v>24</v>
-      </c>
-      <c r="H50" t="s">
-        <v>83</v>
-      </c>
-      <c r="J50">
-        <v>2024</v>
-      </c>
-      <c r="K50">
-        <v>235</v>
-      </c>
-      <c r="L50">
-        <v>0.80346644663172329</v>
-      </c>
-      <c r="M50">
-        <v>0.80346644663172329</v>
-      </c>
-      <c r="P50">
-        <v>0.23195088873838973</v>
-      </c>
-      <c r="Q50">
-        <v>0.23195088873838973</v>
-      </c>
-      <c r="T50">
-        <v>0.33939605785664223</v>
-      </c>
-      <c r="U50">
-        <v>0.33939605785664223</v>
-      </c>
-      <c r="X50">
         <v>0.2418726273281383</v>
       </c>
-      <c r="Y50">
-        <v>0.2418726273281383</v>
-      </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:AA50">
-    <sortCondition ref="H2:H50"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:AA49">
+    <sortCondition ref="H2:H49"/>
   </sortState>
-  <conditionalFormatting sqref="K2:K50">
-    <cfRule type="colorScale" priority="383">
+  <conditionalFormatting sqref="K8:K17 K2:K6">
+    <cfRule type="colorScale" priority="93">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color theme="0"/>
+        <color theme="4" tint="0.39997558519241921"/>
+        <color theme="4" tint="-0.249977111117893"/>
+      </colorScale>
+    </cfRule>
+    <cfRule type="colorScale" priority="94">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color theme="0"/>
+        <color theme="4" tint="0.39997558519241921"/>
+        <color theme="4" tint="-0.499984740745262"/>
+      </colorScale>
+    </cfRule>
+    <cfRule type="colorScale" priority="95">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="P8:P17 P2:P6 Q17 P18:Q18">
+    <cfRule type="colorScale" priority="22">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color theme="4" tint="0.79998168889431442"/>
+        <color theme="4" tint="0.39997558519241921"/>
+        <color theme="4" tint="-0.249977111117893"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="P7:Q7">
+    <cfRule type="colorScale" priority="16">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color theme="4" tint="0.79998168889431442"/>
+        <color theme="4" tint="0.39997558519241921"/>
+        <color theme="4" tint="-0.249977111117893"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="P8:Q18 P2:Q6">
+    <cfRule type="colorScale" priority="20">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color theme="4" tint="0.79998168889431442"/>
+        <color theme="4" tint="0.39997558519241921"/>
+        <color theme="4" tint="-0.249977111117893"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="P20:Q21">
+    <cfRule type="colorScale" priority="7">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color theme="4" tint="0.79998168889431442"/>
+        <color theme="4" tint="0.39997558519241921"/>
+        <color theme="4" tint="-0.249977111117893"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="Q8:Q18 Q2:Q6">
+    <cfRule type="colorScale" priority="18">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color theme="4" tint="0.79998168889431442"/>
+        <color theme="4" tint="0.39997558519241921"/>
+        <color theme="4" tint="-0.249977111117893"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="R7">
+    <cfRule type="colorScale" priority="17">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="R8:R17 R2:R6">
+    <cfRule type="colorScale" priority="21">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="R7:S7">
+    <cfRule type="colorScale" priority="15">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="R8:S17 R2:S6">
+    <cfRule type="colorScale" priority="19">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="T8:T17 T2:T6 U17 T18:U18">
+    <cfRule type="colorScale" priority="32">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color theme="4" tint="0.79998168889431442"/>
+        <color theme="4" tint="0.39997558519241921"/>
+        <color theme="4" tint="-0.249977111117893"/>
+      </colorScale>
+    </cfRule>
+    <cfRule type="colorScale" priority="33">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color theme="0"/>
+        <color theme="4" tint="0.39997558519241921"/>
+        <color theme="4" tint="-0.499984740745262"/>
+      </colorScale>
+    </cfRule>
+    <cfRule type="colorScale" priority="34">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color theme="0"/>
+        <color theme="4" tint="0.39997558519241921"/>
+        <color theme="4" tint="-0.249977111117893"/>
+      </colorScale>
+    </cfRule>
+    <cfRule type="colorScale" priority="35">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color theme="0"/>
+        <color theme="4" tint="0.39997558519241921"/>
+        <color theme="4" tint="-0.499984740745262"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="T7:U7">
+    <cfRule type="colorScale" priority="24">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color theme="4" tint="0.79998168889431442"/>
+        <color theme="4" tint="0.39997558519241921"/>
+        <color theme="4" tint="-0.249977111117893"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="T20:U21">
+    <cfRule type="colorScale" priority="6">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color theme="4" tint="0.79998168889431442"/>
+        <color theme="4" tint="0.39997558519241921"/>
+        <color theme="4" tint="-0.249977111117893"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="U8:U18 U2:U6">
+    <cfRule type="colorScale" priority="27">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color theme="4" tint="0.79998168889431442"/>
+        <color theme="4" tint="0.39997558519241921"/>
+        <color theme="4" tint="-0.249977111117893"/>
+      </colorScale>
+    </cfRule>
+    <cfRule type="colorScale" priority="28">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color theme="0"/>
+        <color theme="4" tint="0.39997558519241921"/>
+        <color theme="4" tint="-0.499984740745262"/>
+      </colorScale>
+    </cfRule>
+    <cfRule type="colorScale" priority="29">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color theme="0"/>
+        <color theme="4" tint="0.39997558519241921"/>
+        <color theme="4" tint="-0.249977111117893"/>
+      </colorScale>
+    </cfRule>
+    <cfRule type="colorScale" priority="30">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color theme="0"/>
+        <color theme="4" tint="0.39997558519241921"/>
+        <color theme="4" tint="-0.499984740745262"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="V7">
+    <cfRule type="colorScale" priority="25">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="V8:V17 V2:V6">
+    <cfRule type="colorScale" priority="31">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="V7:W7">
+    <cfRule type="colorScale" priority="23">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="V8:W17 V2:W6">
+    <cfRule type="colorScale" priority="26">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="X8:X17 X2:X6 Y17 X18:Y18">
+    <cfRule type="colorScale" priority="55">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color theme="4" tint="0.79998168889431442"/>
+        <color theme="4" tint="0.39997558519241921"/>
+        <color theme="4" tint="-0.249977111117893"/>
+      </colorScale>
+    </cfRule>
+    <cfRule type="colorScale" priority="56">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color theme="0"/>
+        <color theme="4" tint="0.39997558519241921"/>
+        <color theme="4" tint="-0.249977111117893"/>
+      </colorScale>
+    </cfRule>
+    <cfRule type="colorScale" priority="57">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color theme="0"/>
+        <color theme="4" tint="0.39997558519241921"/>
+        <color theme="4" tint="-0.499984740745262"/>
+      </colorScale>
+    </cfRule>
+    <cfRule type="colorScale" priority="58">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="X7:Y7">
+    <cfRule type="colorScale" priority="50">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color theme="4" tint="0.79998168889431442"/>
+        <color theme="4" tint="0.39997558519241921"/>
+        <color theme="4" tint="-0.249977111117893"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="X20:Y21">
+    <cfRule type="colorScale" priority="5">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color theme="4" tint="0.79998168889431442"/>
+        <color theme="4" tint="0.39997558519241921"/>
+        <color theme="4" tint="-0.249977111117893"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="X26:Y49 L2:M24 P2:Q24 T2:U24 X2:Y24 T26:U49 P26:Q49 L26:M49 L25:Y25">
+    <cfRule type="colorScale" priority="2">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -5938,8 +6199,20 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K8:K17 K2:K6">
-    <cfRule type="colorScale" priority="95">
+  <conditionalFormatting sqref="Y8:Y18 Y2:Y6">
+    <cfRule type="colorScale" priority="53">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color theme="4" tint="0.79998168889431442"/>
+        <color theme="4" tint="0.39997558519241921"/>
+        <color theme="4" tint="-0.249977111117893"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="Z7">
+    <cfRule type="colorScale" priority="51">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -5947,7 +6220,85 @@
         <color rgb="FFF8696B"/>
       </colorScale>
     </cfRule>
-    <cfRule type="colorScale" priority="94">
+  </conditionalFormatting>
+  <conditionalFormatting sqref="Z8:Z17 Z2:Z6">
+    <cfRule type="colorScale" priority="54">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="Z7:AA7">
+    <cfRule type="colorScale" priority="49">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="Z8:AA17 Z2:AA6">
+    <cfRule type="colorScale" priority="52">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K2:K49">
+    <cfRule type="colorScale" priority="384">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color theme="4" tint="0.79998168889431442"/>
+        <color theme="4" tint="0.39997558519241921"/>
+        <color theme="4" tint="-0.499984740745262"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K8:K24 K2:K6">
+    <cfRule type="colorScale" priority="386">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color theme="4" tint="0.79998168889431442"/>
+        <color theme="4" tint="0.39997558519241921"/>
+        <color theme="4" tint="-0.249977111117893"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K8:K33 K2:K6">
+    <cfRule type="colorScale" priority="389">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color theme="4" tint="0.79998168889431442"/>
+        <color theme="4" tint="0.39997558519241921"/>
+        <color theme="4" tint="-0.499984740745262"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K18:K24">
+    <cfRule type="colorScale" priority="392">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color theme="0"/>
+        <color theme="4" tint="0.39997558519241921"/>
+        <color theme="4" tint="-0.249977111117893"/>
+      </colorScale>
+    </cfRule>
+    <cfRule type="colorScale" priority="393">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -5957,19 +6308,17 @@
         <color theme="4" tint="-0.499984740745262"/>
       </colorScale>
     </cfRule>
-    <cfRule type="colorScale" priority="93">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color theme="0"/>
-        <color theme="4" tint="0.39997558519241921"/>
-        <color theme="4" tint="-0.249977111117893"/>
+    <cfRule type="colorScale" priority="394">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FFF8696B"/>
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K8:K25 K2:K6">
-    <cfRule type="colorScale" priority="11">
+  <conditionalFormatting sqref="L2:M21">
+    <cfRule type="colorScale" priority="398">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -5980,20 +6329,8 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K8:K34 K2:K6">
-    <cfRule type="colorScale" priority="4">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color theme="4" tint="0.79998168889431442"/>
-        <color theme="4" tint="0.39997558519241921"/>
-        <color theme="4" tint="-0.499984740745262"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K18:K25">
-    <cfRule type="colorScale" priority="14">
+  <conditionalFormatting sqref="N2:O21">
+    <cfRule type="colorScale" priority="400">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -6001,29 +6338,29 @@
         <color rgb="FFF8696B"/>
       </colorScale>
     </cfRule>
-    <cfRule type="colorScale" priority="13">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color theme="0"/>
-        <color theme="4" tint="0.39997558519241921"/>
-        <color theme="4" tint="-0.499984740745262"/>
-      </colorScale>
-    </cfRule>
-    <cfRule type="colorScale" priority="12">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color theme="0"/>
-        <color theme="4" tint="0.39997558519241921"/>
-        <color theme="4" tint="-0.249977111117893"/>
-      </colorScale>
-    </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="L2:M22">
-    <cfRule type="colorScale" priority="381">
+  <conditionalFormatting sqref="N2:O49 R2:S49 V2:W49 Z2:AA49">
+    <cfRule type="colorScale" priority="402">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="O18:O21 N2:N21">
+    <cfRule type="colorScale" priority="410">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="P18:Q19">
+    <cfRule type="colorScale" priority="414">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -6034,38 +6371,8 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="N2:O22">
-    <cfRule type="colorScale" priority="382">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="N2:O50 R2:S50 V2:W50 Z2:AA50">
-    <cfRule type="colorScale" priority="1">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="O18:O22 N2:N22">
-    <cfRule type="colorScale" priority="156">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="P8:P17 P2:P6 Q17 P18:Q18">
-    <cfRule type="colorScale" priority="22">
+  <conditionalFormatting sqref="T18:U19">
+    <cfRule type="colorScale" priority="415">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -6076,8 +6383,8 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="P7:Q7">
-    <cfRule type="colorScale" priority="16">
+  <conditionalFormatting sqref="X18:Y19">
+    <cfRule type="colorScale" priority="416">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -6085,394 +6392,6 @@
         <color theme="4" tint="0.79998168889431442"/>
         <color theme="4" tint="0.39997558519241921"/>
         <color theme="4" tint="-0.249977111117893"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="P8:Q18 P2:Q6">
-    <cfRule type="colorScale" priority="20">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color theme="4" tint="0.79998168889431442"/>
-        <color theme="4" tint="0.39997558519241921"/>
-        <color theme="4" tint="-0.249977111117893"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="P18:Q20">
-    <cfRule type="colorScale" priority="10">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color theme="4" tint="0.79998168889431442"/>
-        <color theme="4" tint="0.39997558519241921"/>
-        <color theme="4" tint="-0.249977111117893"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="P21:Q22">
-    <cfRule type="colorScale" priority="7">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color theme="4" tint="0.79998168889431442"/>
-        <color theme="4" tint="0.39997558519241921"/>
-        <color theme="4" tint="-0.249977111117893"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="Q8:Q18 Q2:Q6">
-    <cfRule type="colorScale" priority="18">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color theme="4" tint="0.79998168889431442"/>
-        <color theme="4" tint="0.39997558519241921"/>
-        <color theme="4" tint="-0.249977111117893"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="R7">
-    <cfRule type="colorScale" priority="17">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="R8:R17 R2:R6">
-    <cfRule type="colorScale" priority="21">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="R7:S7">
-    <cfRule type="colorScale" priority="15">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="R8:S17 R2:S6">
-    <cfRule type="colorScale" priority="19">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="T8:T17 T2:T6 U17 T18:U18">
-    <cfRule type="colorScale" priority="34">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color theme="0"/>
-        <color theme="4" tint="0.39997558519241921"/>
-        <color theme="4" tint="-0.249977111117893"/>
-      </colorScale>
-    </cfRule>
-    <cfRule type="colorScale" priority="32">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color theme="4" tint="0.79998168889431442"/>
-        <color theme="4" tint="0.39997558519241921"/>
-        <color theme="4" tint="-0.249977111117893"/>
-      </colorScale>
-    </cfRule>
-    <cfRule type="colorScale" priority="35">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color theme="0"/>
-        <color theme="4" tint="0.39997558519241921"/>
-        <color theme="4" tint="-0.499984740745262"/>
-      </colorScale>
-    </cfRule>
-    <cfRule type="colorScale" priority="33">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color theme="0"/>
-        <color theme="4" tint="0.39997558519241921"/>
-        <color theme="4" tint="-0.499984740745262"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="T7:U7">
-    <cfRule type="colorScale" priority="24">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color theme="4" tint="0.79998168889431442"/>
-        <color theme="4" tint="0.39997558519241921"/>
-        <color theme="4" tint="-0.249977111117893"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="T18:U20">
-    <cfRule type="colorScale" priority="9">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color theme="4" tint="0.79998168889431442"/>
-        <color theme="4" tint="0.39997558519241921"/>
-        <color theme="4" tint="-0.249977111117893"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="T21:U22">
-    <cfRule type="colorScale" priority="6">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color theme="4" tint="0.79998168889431442"/>
-        <color theme="4" tint="0.39997558519241921"/>
-        <color theme="4" tint="-0.249977111117893"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="U8:U18 U2:U6">
-    <cfRule type="colorScale" priority="29">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color theme="0"/>
-        <color theme="4" tint="0.39997558519241921"/>
-        <color theme="4" tint="-0.249977111117893"/>
-      </colorScale>
-    </cfRule>
-    <cfRule type="colorScale" priority="27">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color theme="4" tint="0.79998168889431442"/>
-        <color theme="4" tint="0.39997558519241921"/>
-        <color theme="4" tint="-0.249977111117893"/>
-      </colorScale>
-    </cfRule>
-    <cfRule type="colorScale" priority="28">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color theme="0"/>
-        <color theme="4" tint="0.39997558519241921"/>
-        <color theme="4" tint="-0.499984740745262"/>
-      </colorScale>
-    </cfRule>
-    <cfRule type="colorScale" priority="30">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color theme="0"/>
-        <color theme="4" tint="0.39997558519241921"/>
-        <color theme="4" tint="-0.499984740745262"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="V7">
-    <cfRule type="colorScale" priority="25">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="V8:V17 V2:V6">
-    <cfRule type="colorScale" priority="31">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="V7:W7">
-    <cfRule type="colorScale" priority="23">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="V8:W17 V2:W6">
-    <cfRule type="colorScale" priority="26">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="X8:X17 X2:X6 Y17 X18:Y18">
-    <cfRule type="colorScale" priority="55">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color theme="4" tint="0.79998168889431442"/>
-        <color theme="4" tint="0.39997558519241921"/>
-        <color theme="4" tint="-0.249977111117893"/>
-      </colorScale>
-    </cfRule>
-    <cfRule type="colorScale" priority="56">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color theme="0"/>
-        <color theme="4" tint="0.39997558519241921"/>
-        <color theme="4" tint="-0.249977111117893"/>
-      </colorScale>
-    </cfRule>
-    <cfRule type="colorScale" priority="57">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color theme="0"/>
-        <color theme="4" tint="0.39997558519241921"/>
-        <color theme="4" tint="-0.499984740745262"/>
-      </colorScale>
-    </cfRule>
-    <cfRule type="colorScale" priority="58">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="X7:Y7">
-    <cfRule type="colorScale" priority="50">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color theme="4" tint="0.79998168889431442"/>
-        <color theme="4" tint="0.39997558519241921"/>
-        <color theme="4" tint="-0.249977111117893"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="X18:Y20">
-    <cfRule type="colorScale" priority="8">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color theme="4" tint="0.79998168889431442"/>
-        <color theme="4" tint="0.39997558519241921"/>
-        <color theme="4" tint="-0.249977111117893"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="X21:Y22">
-    <cfRule type="colorScale" priority="5">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color theme="4" tint="0.79998168889431442"/>
-        <color theme="4" tint="0.39997558519241921"/>
-        <color theme="4" tint="-0.249977111117893"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="X27:Y50 L2:M25 P2:Q25 T2:U25 X2:Y25 T27:U50 P27:Q50 L27:M50 L26:Y26">
-    <cfRule type="colorScale" priority="2">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color theme="4" tint="0.79998168889431442"/>
-        <color theme="4" tint="0.39997558519241921"/>
-        <color theme="4" tint="-0.499984740745262"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="Y8:Y18 Y2:Y6">
-    <cfRule type="colorScale" priority="53">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color theme="4" tint="0.79998168889431442"/>
-        <color theme="4" tint="0.39997558519241921"/>
-        <color theme="4" tint="-0.249977111117893"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="Z7">
-    <cfRule type="colorScale" priority="51">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="Z8:Z17 Z2:Z6">
-    <cfRule type="colorScale" priority="54">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="Z7:AA7">
-    <cfRule type="colorScale" priority="49">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="Z8:AA17 Z2:AA6">
-    <cfRule type="colorScale" priority="52">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FFF8696B"/>
       </colorScale>
     </cfRule>
   </conditionalFormatting>
@@ -8956,12 +8875,14 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="G2:G20">
-    <cfRule type="colorScale" priority="52">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FFF8696B"/>
+    <cfRule type="colorScale" priority="50">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color theme="0"/>
+        <color theme="4" tint="0.39997558519241921"/>
+        <color theme="4" tint="-0.249977111117893"/>
       </colorScale>
     </cfRule>
     <cfRule type="colorScale" priority="51">
@@ -8974,7 +8895,29 @@
         <color theme="4" tint="-0.499984740745262"/>
       </colorScale>
     </cfRule>
-    <cfRule type="colorScale" priority="50">
+    <cfRule type="colorScale" priority="52">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G2:G25">
+    <cfRule type="colorScale" priority="13">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color theme="4" tint="0.79998168889431442"/>
+        <color theme="4" tint="0.39997558519241921"/>
+        <color theme="4" tint="-0.249977111117893"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G21:G25">
+    <cfRule type="colorScale" priority="14">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -8984,9 +8927,27 @@
         <color theme="4" tint="-0.249977111117893"/>
       </colorScale>
     </cfRule>
+    <cfRule type="colorScale" priority="15">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color theme="0"/>
+        <color theme="4" tint="0.39997558519241921"/>
+        <color theme="4" tint="-0.499984740745262"/>
+      </colorScale>
+    </cfRule>
+    <cfRule type="colorScale" priority="16">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G2:G25">
-    <cfRule type="colorScale" priority="13">
+  <conditionalFormatting sqref="H2:I25">
+    <cfRule type="colorScale" priority="49">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -8997,8 +8958,162 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G21:G25">
-    <cfRule type="colorScale" priority="15">
+  <conditionalFormatting sqref="J2:J25 K21:K25">
+    <cfRule type="colorScale" priority="53">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J2:K25">
+    <cfRule type="colorScale" priority="48">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L5:L9 L11:L20">
+    <cfRule type="colorScale" priority="24">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color theme="4" tint="0.79998168889431442"/>
+        <color theme="4" tint="0.39997558519241921"/>
+        <color theme="4" tint="-0.249977111117893"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L2:M4">
+    <cfRule type="colorScale" priority="3">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color theme="4" tint="0.79998168889431442"/>
+        <color theme="4" tint="0.39997558519241921"/>
+        <color theme="4" tint="-0.249977111117893"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L5:M9 L11:M20">
+    <cfRule type="colorScale" priority="22">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color theme="4" tint="0.79998168889431442"/>
+        <color theme="4" tint="0.39997558519241921"/>
+        <color theme="4" tint="-0.249977111117893"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L10:M10">
+    <cfRule type="colorScale" priority="18">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color theme="4" tint="0.79998168889431442"/>
+        <color theme="4" tint="0.39997558519241921"/>
+        <color theme="4" tint="-0.249977111117893"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L21:M23">
+    <cfRule type="colorScale" priority="6">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color theme="4" tint="0.79998168889431442"/>
+        <color theme="4" tint="0.39997558519241921"/>
+        <color theme="4" tint="-0.249977111117893"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L24:M25">
+    <cfRule type="colorScale" priority="9">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color theme="4" tint="0.79998168889431442"/>
+        <color theme="4" tint="0.39997558519241921"/>
+        <color theme="4" tint="-0.249977111117893"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="M5:M9 M11:M20">
+    <cfRule type="colorScale" priority="20">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color theme="4" tint="0.79998168889431442"/>
+        <color theme="4" tint="0.39997558519241921"/>
+        <color theme="4" tint="-0.249977111117893"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="N2:N9 N11:N20">
+    <cfRule type="colorScale" priority="23">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="N10">
+    <cfRule type="colorScale" priority="19">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="N2:O9 N11:O20">
+    <cfRule type="colorScale" priority="21">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="N10:O10">
+    <cfRule type="colorScale" priority="17">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="P5:P9 P11:P20">
+    <cfRule type="colorScale" priority="34">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color theme="4" tint="0.79998168889431442"/>
+        <color theme="4" tint="0.39997558519241921"/>
+        <color theme="4" tint="-0.249977111117893"/>
+      </colorScale>
+    </cfRule>
+    <cfRule type="colorScale" priority="35">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -9008,15 +9123,7 @@
         <color theme="4" tint="-0.499984740745262"/>
       </colorScale>
     </cfRule>
-    <cfRule type="colorScale" priority="16">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-    <cfRule type="colorScale" priority="14">
+    <cfRule type="colorScale" priority="36">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -9026,9 +9133,19 @@
         <color theme="4" tint="-0.249977111117893"/>
       </colorScale>
     </cfRule>
+    <cfRule type="colorScale" priority="37">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color theme="0"/>
+        <color theme="4" tint="0.39997558519241921"/>
+        <color theme="4" tint="-0.499984740745262"/>
+      </colorScale>
+    </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H2:I25">
-    <cfRule type="colorScale" priority="49">
+  <conditionalFormatting sqref="P2:Q4">
+    <cfRule type="colorScale" priority="2">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -9039,28 +9156,8 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J2:J25 K21:K25">
-    <cfRule type="colorScale" priority="53">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J2:K25">
-    <cfRule type="colorScale" priority="48">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="L5:L9 L11:L20">
-    <cfRule type="colorScale" priority="24">
+  <conditionalFormatting sqref="P10:Q10">
+    <cfRule type="colorScale" priority="26">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -9071,8 +9168,8 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="L2:M4">
-    <cfRule type="colorScale" priority="3">
+  <conditionalFormatting sqref="P21:Q23">
+    <cfRule type="colorScale" priority="5">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -9083,8 +9180,8 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="L5:M9 L11:M20">
-    <cfRule type="colorScale" priority="22">
+  <conditionalFormatting sqref="P24:Q25">
+    <cfRule type="colorScale" priority="8">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -9095,8 +9192,8 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="L10:M10">
-    <cfRule type="colorScale" priority="18">
+  <conditionalFormatting sqref="Q5:Q9 Q11:Q20">
+    <cfRule type="colorScale" priority="29">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -9106,85 +9203,7 @@
         <color theme="4" tint="-0.249977111117893"/>
       </colorScale>
     </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="L21:M23">
-    <cfRule type="colorScale" priority="6">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color theme="4" tint="0.79998168889431442"/>
-        <color theme="4" tint="0.39997558519241921"/>
-        <color theme="4" tint="-0.249977111117893"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="L24:M25">
-    <cfRule type="colorScale" priority="9">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color theme="4" tint="0.79998168889431442"/>
-        <color theme="4" tint="0.39997558519241921"/>
-        <color theme="4" tint="-0.249977111117893"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="M5:M9 M11:M20">
-    <cfRule type="colorScale" priority="20">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color theme="4" tint="0.79998168889431442"/>
-        <color theme="4" tint="0.39997558519241921"/>
-        <color theme="4" tint="-0.249977111117893"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="N2:N9 N11:N20">
-    <cfRule type="colorScale" priority="23">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="N10">
-    <cfRule type="colorScale" priority="19">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="N2:O9 N11:O20">
-    <cfRule type="colorScale" priority="21">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="N10:O10">
-    <cfRule type="colorScale" priority="17">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="P5:P9 P11:P20">
-    <cfRule type="colorScale" priority="35">
+    <cfRule type="colorScale" priority="30">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -9194,17 +9213,7 @@
         <color theme="4" tint="-0.499984740745262"/>
       </colorScale>
     </cfRule>
-    <cfRule type="colorScale" priority="34">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color theme="4" tint="0.79998168889431442"/>
-        <color theme="4" tint="0.39997558519241921"/>
-        <color theme="4" tint="-0.249977111117893"/>
-      </colorScale>
-    </cfRule>
-    <cfRule type="colorScale" priority="36">
+    <cfRule type="colorScale" priority="31">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -9214,7 +9223,7 @@
         <color theme="4" tint="-0.249977111117893"/>
       </colorScale>
     </cfRule>
-    <cfRule type="colorScale" priority="37">
+    <cfRule type="colorScale" priority="32">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -9222,96 +9231,6 @@
         <color theme="0"/>
         <color theme="4" tint="0.39997558519241921"/>
         <color theme="4" tint="-0.499984740745262"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="P2:Q4">
-    <cfRule type="colorScale" priority="2">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color theme="4" tint="0.79998168889431442"/>
-        <color theme="4" tint="0.39997558519241921"/>
-        <color theme="4" tint="-0.249977111117893"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="P10:Q10">
-    <cfRule type="colorScale" priority="26">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color theme="4" tint="0.79998168889431442"/>
-        <color theme="4" tint="0.39997558519241921"/>
-        <color theme="4" tint="-0.249977111117893"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="P21:Q23">
-    <cfRule type="colorScale" priority="5">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color theme="4" tint="0.79998168889431442"/>
-        <color theme="4" tint="0.39997558519241921"/>
-        <color theme="4" tint="-0.249977111117893"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="P24:Q25">
-    <cfRule type="colorScale" priority="8">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color theme="4" tint="0.79998168889431442"/>
-        <color theme="4" tint="0.39997558519241921"/>
-        <color theme="4" tint="-0.249977111117893"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="Q5:Q9 Q11:Q20">
-    <cfRule type="colorScale" priority="31">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color theme="0"/>
-        <color theme="4" tint="0.39997558519241921"/>
-        <color theme="4" tint="-0.249977111117893"/>
-      </colorScale>
-    </cfRule>
-    <cfRule type="colorScale" priority="30">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color theme="0"/>
-        <color theme="4" tint="0.39997558519241921"/>
-        <color theme="4" tint="-0.499984740745262"/>
-      </colorScale>
-    </cfRule>
-    <cfRule type="colorScale" priority="32">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color theme="0"/>
-        <color theme="4" tint="0.39997558519241921"/>
-        <color theme="4" tint="-0.499984740745262"/>
-      </colorScale>
-    </cfRule>
-    <cfRule type="colorScale" priority="29">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color theme="4" tint="0.79998168889431442"/>
-        <color theme="4" tint="0.39997558519241921"/>
-        <color theme="4" tint="-0.249977111117893"/>
       </colorScale>
     </cfRule>
   </conditionalFormatting>

--- a/HydroFPV_plants/CombinedTechsCreation/CombinedHydroSolar.xlsx
+++ b/HydroFPV_plants/CombinedTechsCreation/CombinedHydroSolar.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Alessandro Pieruzzi\Documents\Thesis\TEMBA_FPV\HydroFPV_plants\CombinedTechsCreation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{36BA883A-BB97-4A3C-A72C-B412F1DE0ABC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{50436E2D-AB0A-4EF3-9938-5B6AB4D54EF6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="10245" yWindow="0" windowWidth="10245" windowHeight="10920" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="CombinedHydroSolar" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="586" uniqueCount="163">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="651" uniqueCount="181">
   <si>
     <t>Country</t>
   </si>
@@ -526,6 +526,60 @@
   </si>
   <si>
     <t>NB</t>
+  </si>
+  <si>
+    <t>large</t>
+  </si>
+  <si>
+    <t>med</t>
+  </si>
+  <si>
+    <t>small</t>
+  </si>
+  <si>
+    <t>tot</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> TEMBA all </t>
+  </si>
+  <si>
+    <t>TEMBA FPV</t>
+  </si>
+  <si>
+    <t>EGHYDA1S03</t>
+  </si>
+  <si>
+    <t>EGHYDA2S03</t>
+  </si>
+  <si>
+    <t>EGHYDHAS03</t>
+  </si>
+  <si>
+    <t>EGHYDESS02</t>
+  </si>
+  <si>
+    <t>EGHYDNHS02</t>
+  </si>
+  <si>
+    <t>EGHYDNBS02</t>
+  </si>
+  <si>
+    <t xml:space="preserve">diff </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Max capacity </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Max Investment </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Residual capacity </t>
+  </si>
+  <si>
+    <t>EGHYDNAS02</t>
+  </si>
+  <si>
+    <t>tot non nile</t>
   </si>
 </sst>
 </file>
@@ -949,7 +1003,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:O24"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A78" workbookViewId="0">
       <selection activeCell="H36" sqref="H36"/>
     </sheetView>
   </sheetViews>
@@ -1957,15 +2011,21 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ADD0C4BF-8238-4E1B-8DDC-8CB02F115C91}">
-  <dimension ref="B2:E21"/>
+  <dimension ref="B2:Q27"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F10" sqref="F10"/>
+    <sheetView tabSelected="1" topLeftCell="K7" workbookViewId="0">
+      <selection activeCell="O15" sqref="O15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="2" max="2" width="13.140625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13.28515625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.7109375" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="16.42578125" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="2" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="2" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B2" t="s">
         <v>94</v>
       </c>
@@ -1979,8 +2039,17 @@
       <c r="E2" t="s">
         <v>87</v>
       </c>
-    </row>
-    <row r="3" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="G2" t="s">
+        <v>176</v>
+      </c>
+      <c r="K2" t="s">
+        <v>177</v>
+      </c>
+      <c r="O2" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="3" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C3" t="s">
         <v>68</v>
       </c>
@@ -1988,23 +2057,129 @@
         <v>45000</v>
       </c>
     </row>
-    <row r="4" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="4" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C4" s="15" t="s">
         <v>69</v>
       </c>
       <c r="D4">
         <v>4900</v>
       </c>
-    </row>
-    <row r="5" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="G4" t="s">
+        <v>167</v>
+      </c>
+      <c r="H4">
+        <v>2021</v>
+      </c>
+      <c r="I4">
+        <v>2022</v>
+      </c>
+      <c r="K4" t="s">
+        <v>167</v>
+      </c>
+      <c r="L4">
+        <v>2021</v>
+      </c>
+      <c r="M4">
+        <v>2022</v>
+      </c>
+      <c r="O4" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="5" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C5" t="s">
         <v>88</v>
       </c>
       <c r="D5">
         <v>3100</v>
       </c>
-    </row>
-    <row r="8" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="G5" t="s">
+        <v>163</v>
+      </c>
+      <c r="H5">
+        <v>1.014</v>
+      </c>
+      <c r="I5">
+        <v>1.014</v>
+      </c>
+      <c r="K5" t="s">
+        <v>163</v>
+      </c>
+      <c r="L5">
+        <v>1.014</v>
+      </c>
+      <c r="M5">
+        <v>1.014</v>
+      </c>
+      <c r="O5" t="s">
+        <v>163</v>
+      </c>
+      <c r="P5">
+        <v>4.2000000000000259E-2</v>
+      </c>
+      <c r="Q5">
+        <v>4.2000000000000259E-2</v>
+      </c>
+    </row>
+    <row r="6" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="G6" t="s">
+        <v>164</v>
+      </c>
+      <c r="H6">
+        <v>0.91826000000000008</v>
+      </c>
+      <c r="I6">
+        <v>0.91826000000000008</v>
+      </c>
+      <c r="K6" t="s">
+        <v>164</v>
+      </c>
+      <c r="L6">
+        <v>0.91826000000000008</v>
+      </c>
+      <c r="M6">
+        <v>0.91826000000000008</v>
+      </c>
+      <c r="O6" t="s">
+        <v>164</v>
+      </c>
+      <c r="P6">
+        <v>0</v>
+      </c>
+      <c r="Q6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="G7" t="s">
+        <v>165</v>
+      </c>
+      <c r="H7">
+        <v>8.0000000000000004E-4</v>
+      </c>
+      <c r="I7">
+        <v>8.0000000000000004E-4</v>
+      </c>
+      <c r="K7" t="s">
+        <v>165</v>
+      </c>
+      <c r="L7">
+        <v>0</v>
+      </c>
+      <c r="M7">
+        <v>0</v>
+      </c>
+      <c r="O7" t="s">
+        <v>165</v>
+      </c>
+      <c r="P7">
+        <v>8.0000000000000004E-4</v>
+      </c>
+      <c r="Q7">
+        <v>8.0000000000000004E-4</v>
+      </c>
+    </row>
+    <row r="8" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B8" t="s">
         <v>93</v>
       </c>
@@ -2015,8 +2190,35 @@
         <f>SUM(All_Seasons_normal_all_plants!K2:K4,All_Seasons_normal_all_plants!K20,All_Seasons_normal_all_plants!K21,All_Seasons_normal_all_plants!K22)</f>
         <v>4330</v>
       </c>
-    </row>
-    <row r="9" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="G8" t="s">
+        <v>171</v>
+      </c>
+      <c r="H8">
+        <v>2.1</v>
+      </c>
+      <c r="I8">
+        <v>2.1</v>
+      </c>
+      <c r="K8" t="s">
+        <v>171</v>
+      </c>
+      <c r="L8">
+        <v>2.1</v>
+      </c>
+      <c r="M8">
+        <v>2.1</v>
+      </c>
+      <c r="O8" t="s">
+        <v>171</v>
+      </c>
+      <c r="P8">
+        <v>2.1</v>
+      </c>
+      <c r="Q8">
+        <v>2.1</v>
+      </c>
+    </row>
+    <row r="9" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C9" t="s">
         <v>68</v>
       </c>
@@ -2024,8 +2226,35 @@
         <f>SUM(All_Seasons_normal_all_plants!K5:K10,All_Seasons_normal_all_plants!K24,All_Seasons_normal_all_plants!K23,All_Seasons_normal_all_plants!K34:K49)</f>
         <v>8288.7351598200003</v>
       </c>
-    </row>
-    <row r="10" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="G9" t="s">
+        <v>169</v>
+      </c>
+      <c r="H9">
+        <v>0.28000000000000003</v>
+      </c>
+      <c r="I9">
+        <v>0.28000000000000003</v>
+      </c>
+      <c r="K9" t="s">
+        <v>169</v>
+      </c>
+      <c r="L9">
+        <v>0.28000000000000003</v>
+      </c>
+      <c r="M9">
+        <v>0.28000000000000003</v>
+      </c>
+      <c r="O9" t="s">
+        <v>169</v>
+      </c>
+      <c r="P9">
+        <v>0.28000000000000003</v>
+      </c>
+      <c r="Q9">
+        <v>0.28000000000000003</v>
+      </c>
+    </row>
+    <row r="10" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C10" t="s">
         <v>69</v>
       </c>
@@ -2033,8 +2262,35 @@
         <f>SUM(All_Seasons_normal_all_plants!K11:K19,All_Seasons_normal_all_plants!K32,All_Seasons_normal_all_plants!K33)</f>
         <v>11808</v>
       </c>
-    </row>
-    <row r="11" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="G10" t="s">
+        <v>170</v>
+      </c>
+      <c r="H10">
+        <v>0.27</v>
+      </c>
+      <c r="I10">
+        <v>0.27</v>
+      </c>
+      <c r="K10" t="s">
+        <v>170</v>
+      </c>
+      <c r="L10">
+        <v>0.27</v>
+      </c>
+      <c r="M10">
+        <v>0.27</v>
+      </c>
+      <c r="O10" t="s">
+        <v>170</v>
+      </c>
+      <c r="P10">
+        <v>0.27</v>
+      </c>
+      <c r="Q10">
+        <v>0.27</v>
+      </c>
+    </row>
+    <row r="11" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C11" t="s">
         <v>70</v>
       </c>
@@ -2042,8 +2298,64 @@
         <f>SUM(All_Seasons_normal_all_plants!K25:K31)</f>
         <v>1479.4</v>
       </c>
-    </row>
-    <row r="13" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="G11" t="s">
+        <v>172</v>
+      </c>
+      <c r="H11">
+        <v>8.5999999999999993E-2</v>
+      </c>
+      <c r="I11">
+        <v>8.5999999999999993E-2</v>
+      </c>
+      <c r="K11" t="s">
+        <v>172</v>
+      </c>
+      <c r="L11">
+        <v>8.5999999999999993E-2</v>
+      </c>
+      <c r="M11">
+        <v>8.5999999999999993E-2</v>
+      </c>
+      <c r="O11" t="s">
+        <v>172</v>
+      </c>
+      <c r="P11">
+        <v>8.5999999999999993E-2</v>
+      </c>
+      <c r="Q11">
+        <v>8.5999999999999993E-2</v>
+      </c>
+    </row>
+    <row r="12" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="G12" t="s">
+        <v>173</v>
+      </c>
+      <c r="H12">
+        <v>6.4000000000000001E-2</v>
+      </c>
+      <c r="I12">
+        <v>6.4000000000000001E-2</v>
+      </c>
+      <c r="K12" t="s">
+        <v>173</v>
+      </c>
+      <c r="L12">
+        <v>6.4000000000000001E-2</v>
+      </c>
+      <c r="M12">
+        <v>6.4000000000000001E-2</v>
+      </c>
+      <c r="O12" t="s">
+        <v>173</v>
+      </c>
+      <c r="P12">
+        <v>6.4000000000000001E-2</v>
+      </c>
+      <c r="Q12">
+        <v>6.4000000000000001E-2</v>
+      </c>
+    </row>
+    <row r="13" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B13" t="s">
         <v>95</v>
       </c>
@@ -2053,24 +2365,106 @@
       <c r="D13">
         <v>2831.7351598173518</v>
       </c>
-    </row>
-    <row r="14" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="G13" t="s">
+        <v>179</v>
+      </c>
+      <c r="H13">
+        <v>3.1739999999999997E-2</v>
+      </c>
+      <c r="I13">
+        <v>3.1739999999999997E-2</v>
+      </c>
+      <c r="K13" t="s">
+        <v>179</v>
+      </c>
+      <c r="L13">
+        <v>3.1739999999999997E-2</v>
+      </c>
+      <c r="M13">
+        <v>3.1739999999999997E-2</v>
+      </c>
+      <c r="O13" t="s">
+        <v>179</v>
+      </c>
+      <c r="P13">
+        <v>3.1739999999999997E-2</v>
+      </c>
+      <c r="Q13">
+        <v>3.1739999999999997E-2</v>
+      </c>
+    </row>
+    <row r="14" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C14" t="s">
         <v>90</v>
       </c>
       <c r="D14">
         <v>22834</v>
       </c>
-    </row>
-    <row r="15" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="G14" t="s">
+        <v>166</v>
+      </c>
+      <c r="H14">
+        <f>SUM(H5:H13)</f>
+        <v>4.7648000000000001</v>
+      </c>
+      <c r="I14">
+        <f>SUM(I5:I13)</f>
+        <v>4.7648000000000001</v>
+      </c>
+      <c r="K14" t="s">
+        <v>166</v>
+      </c>
+      <c r="L14">
+        <f>SUM(L5:L13)</f>
+        <v>4.7640000000000002</v>
+      </c>
+      <c r="M14">
+        <f>SUM(M5:M13)</f>
+        <v>4.7640000000000002</v>
+      </c>
+      <c r="O14" t="s">
+        <v>166</v>
+      </c>
+      <c r="P14">
+        <f>SUM(P5:P13)</f>
+        <v>2.8745400000000005</v>
+      </c>
+      <c r="Q14">
+        <f>SUM(Q5:Q13)</f>
+        <v>2.8745400000000005</v>
+      </c>
+    </row>
+    <row r="15" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C15" t="s">
         <v>91</v>
       </c>
       <c r="D15">
         <v>4142</v>
       </c>
-    </row>
-    <row r="16" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="G15" t="s">
+        <v>180</v>
+      </c>
+      <c r="H15">
+        <f>SUM(H5:H7)</f>
+        <v>1.93306</v>
+      </c>
+      <c r="I15">
+        <f>SUM(I5:I7)</f>
+        <v>1.93306</v>
+      </c>
+      <c r="K15" t="s">
+        <v>166</v>
+      </c>
+      <c r="L15">
+        <f>SUM(L5:L7)</f>
+        <v>1.9322600000000001</v>
+      </c>
+      <c r="M15">
+        <f>SUM(M5:M7)</f>
+        <v>1.9322600000000001</v>
+      </c>
+    </row>
+    <row r="16" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C16" t="s">
         <v>92</v>
       </c>
@@ -2078,7 +2472,7 @@
         <v>2157.4</v>
       </c>
     </row>
-    <row r="18" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="18" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B18" t="s">
         <v>96</v>
       </c>
@@ -2088,8 +2482,17 @@
       <c r="D18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="G18" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="K18" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="O18" s="1" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="19" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C19" t="s">
         <v>90</v>
       </c>
@@ -2097,21 +2500,259 @@
         <f>D14-D9</f>
         <v>14545.26484018</v>
       </c>
-    </row>
-    <row r="20" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="G19" t="s">
+        <v>169</v>
+      </c>
+      <c r="H19">
+        <v>0.28000000000000003</v>
+      </c>
+      <c r="I19">
+        <v>0.28000000000000003</v>
+      </c>
+      <c r="K19" t="s">
+        <v>169</v>
+      </c>
+      <c r="L19">
+        <v>0.28000000000000003</v>
+      </c>
+      <c r="M19">
+        <v>0.28000000000000003</v>
+      </c>
+      <c r="O19" t="s">
+        <v>169</v>
+      </c>
+      <c r="P19">
+        <v>0.28000000000000003</v>
+      </c>
+      <c r="Q19">
+        <v>0.28000000000000003</v>
+      </c>
+    </row>
+    <row r="20" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C20" t="s">
         <v>91</v>
       </c>
       <c r="D20">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="G20" t="s">
+        <v>170</v>
+      </c>
+      <c r="H20">
+        <v>0.27</v>
+      </c>
+      <c r="I20">
+        <v>0.27</v>
+      </c>
+      <c r="K20" t="s">
+        <v>170</v>
+      </c>
+      <c r="L20">
+        <v>0.27</v>
+      </c>
+      <c r="M20">
+        <v>0.27</v>
+      </c>
+      <c r="O20" t="s">
+        <v>170</v>
+      </c>
+      <c r="P20">
+        <v>0.27</v>
+      </c>
+      <c r="Q20">
+        <v>0.27</v>
+      </c>
+    </row>
+    <row r="21" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C21" t="s">
         <v>92</v>
       </c>
       <c r="D21">
         <v>0</v>
+      </c>
+      <c r="G21" t="s">
+        <v>171</v>
+      </c>
+      <c r="H21">
+        <v>2.1</v>
+      </c>
+      <c r="I21">
+        <v>2.1</v>
+      </c>
+      <c r="K21" t="s">
+        <v>171</v>
+      </c>
+      <c r="L21">
+        <v>2.1</v>
+      </c>
+      <c r="M21">
+        <v>2.1</v>
+      </c>
+      <c r="O21" t="s">
+        <v>171</v>
+      </c>
+      <c r="P21">
+        <v>2.1</v>
+      </c>
+      <c r="Q21">
+        <v>2.1</v>
+      </c>
+    </row>
+    <row r="22" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="G22" t="s">
+        <v>172</v>
+      </c>
+      <c r="H22">
+        <v>8.5999999999999993E-2</v>
+      </c>
+      <c r="I22">
+        <v>8.5999999999999993E-2</v>
+      </c>
+      <c r="K22" t="s">
+        <v>172</v>
+      </c>
+      <c r="L22">
+        <v>8.5999999999999993E-2</v>
+      </c>
+      <c r="M22">
+        <v>8.5999999999999993E-2</v>
+      </c>
+      <c r="O22" t="s">
+        <v>172</v>
+      </c>
+      <c r="P22">
+        <v>8.5999999999999993E-2</v>
+      </c>
+      <c r="Q22">
+        <v>8.5999999999999993E-2</v>
+      </c>
+    </row>
+    <row r="23" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="G23" t="s">
+        <v>173</v>
+      </c>
+      <c r="H23">
+        <v>6.4000000000000001E-2</v>
+      </c>
+      <c r="I23">
+        <v>6.4000000000000001E-2</v>
+      </c>
+      <c r="K23" t="s">
+        <v>173</v>
+      </c>
+      <c r="L23">
+        <v>6.4000000000000001E-2</v>
+      </c>
+      <c r="M23">
+        <v>6.4000000000000001E-2</v>
+      </c>
+      <c r="O23" t="s">
+        <v>173</v>
+      </c>
+      <c r="P23">
+        <v>6.4000000000000001E-2</v>
+      </c>
+      <c r="Q23">
+        <v>6.4000000000000001E-2</v>
+      </c>
+    </row>
+    <row r="24" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="G24" t="s">
+        <v>174</v>
+      </c>
+      <c r="H24">
+        <v>3.1739999999999997E-2</v>
+      </c>
+      <c r="I24">
+        <v>3.1739999999999997E-2</v>
+      </c>
+      <c r="K24" t="s">
+        <v>174</v>
+      </c>
+      <c r="L24">
+        <v>3.1739999999999997E-2</v>
+      </c>
+      <c r="M24">
+        <v>3.1739999999999997E-2</v>
+      </c>
+      <c r="O24" t="s">
+        <v>174</v>
+      </c>
+      <c r="P24">
+        <v>0</v>
+      </c>
+      <c r="Q24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="G25" t="s">
+        <v>166</v>
+      </c>
+      <c r="H25">
+        <f>SUM(H19:H24)</f>
+        <v>2.8317400000000004</v>
+      </c>
+      <c r="I25">
+        <f>SUM(I19:I24)</f>
+        <v>2.8317400000000004</v>
+      </c>
+      <c r="K25" t="s">
+        <v>166</v>
+      </c>
+      <c r="L25">
+        <f>SUM(L19:L24)</f>
+        <v>2.8317400000000004</v>
+      </c>
+      <c r="M25">
+        <f>SUM(M19:M24)</f>
+        <v>2.8317400000000004</v>
+      </c>
+      <c r="O25" t="s">
+        <v>166</v>
+      </c>
+      <c r="P25">
+        <f>SUM(P19:P24)</f>
+        <v>2.8000000000000003</v>
+      </c>
+      <c r="Q25">
+        <f>SUM(Q19:Q24)</f>
+        <v>2.8000000000000003</v>
+      </c>
+    </row>
+    <row r="27" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="G27" t="s">
+        <v>175</v>
+      </c>
+      <c r="H27">
+        <f>H25-H14</f>
+        <v>-1.9330599999999998</v>
+      </c>
+      <c r="I27">
+        <f>I25-I14</f>
+        <v>-1.9330599999999998</v>
+      </c>
+      <c r="K27" t="s">
+        <v>175</v>
+      </c>
+      <c r="L27">
+        <f>L25-L15</f>
+        <v>0.89948000000000028</v>
+      </c>
+      <c r="M27">
+        <f>M25-M15</f>
+        <v>0.89948000000000028</v>
+      </c>
+      <c r="O27" t="s">
+        <v>175</v>
+      </c>
+      <c r="P27">
+        <f>P25-P14</f>
+        <v>-7.4540000000000273E-2</v>
+      </c>
+      <c r="Q27">
+        <f>Q25-Q14</f>
+        <v>-7.4540000000000273E-2</v>
       </c>
     </row>
   </sheetData>
@@ -2123,7 +2764,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{77FC710B-81A7-4A19-B13B-3AD951BA7D4B}">
   <dimension ref="A1:AA49"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
+    <sheetView topLeftCell="A22" workbookViewId="0">
       <selection activeCell="I37" sqref="I37"/>
     </sheetView>
   </sheetViews>
@@ -5845,6 +6486,18 @@
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:AA49">
     <sortCondition ref="H2:H49"/>
   </sortState>
+  <conditionalFormatting sqref="K2:K49">
+    <cfRule type="colorScale" priority="384">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color theme="4" tint="0.79998168889431442"/>
+        <color theme="4" tint="0.39997558519241921"/>
+        <color theme="4" tint="-0.499984740745262"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
   <conditionalFormatting sqref="K8:K17 K2:K6">
     <cfRule type="colorScale" priority="93">
       <colorScale>
@@ -5875,8 +6528,8 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="P8:P17 P2:P6 Q17 P18:Q18">
-    <cfRule type="colorScale" priority="22">
+  <conditionalFormatting sqref="K8:K24 K2:K6">
+    <cfRule type="colorScale" priority="386">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -5887,8 +6540,50 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="P7:Q7">
-    <cfRule type="colorScale" priority="16">
+  <conditionalFormatting sqref="K8:K33 K2:K6">
+    <cfRule type="colorScale" priority="389">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color theme="4" tint="0.79998168889431442"/>
+        <color theme="4" tint="0.39997558519241921"/>
+        <color theme="4" tint="-0.499984740745262"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K18:K24">
+    <cfRule type="colorScale" priority="392">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color theme="0"/>
+        <color theme="4" tint="0.39997558519241921"/>
+        <color theme="4" tint="-0.249977111117893"/>
+      </colorScale>
+    </cfRule>
+    <cfRule type="colorScale" priority="393">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color theme="0"/>
+        <color theme="4" tint="0.39997558519241921"/>
+        <color theme="4" tint="-0.499984740745262"/>
+      </colorScale>
+    </cfRule>
+    <cfRule type="colorScale" priority="394">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L2:M21">
+    <cfRule type="colorScale" priority="398">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -5899,8 +6594,38 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="P8:Q18 P2:Q6">
-    <cfRule type="colorScale" priority="20">
+  <conditionalFormatting sqref="N2:O21">
+    <cfRule type="colorScale" priority="400">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="N2:O49 R2:S49 V2:W49 Z2:AA49">
+    <cfRule type="colorScale" priority="402">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="O18:O21 N2:N21">
+    <cfRule type="colorScale" priority="410">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="P8:P17 P2:P6 Q17 P18:Q18">
+    <cfRule type="colorScale" priority="22">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -5911,8 +6636,8 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="P20:Q21">
-    <cfRule type="colorScale" priority="7">
+  <conditionalFormatting sqref="P7:Q7">
+    <cfRule type="colorScale" priority="16">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -5923,8 +6648,8 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="Q8:Q18 Q2:Q6">
-    <cfRule type="colorScale" priority="18">
+  <conditionalFormatting sqref="P8:Q18 P2:Q6">
+    <cfRule type="colorScale" priority="20">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -5935,6 +6660,42 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
+  <conditionalFormatting sqref="P18:Q19">
+    <cfRule type="colorScale" priority="414">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color theme="4" tint="0.79998168889431442"/>
+        <color theme="4" tint="0.39997558519241921"/>
+        <color theme="4" tint="-0.249977111117893"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="P20:Q21">
+    <cfRule type="colorScale" priority="7">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color theme="4" tint="0.79998168889431442"/>
+        <color theme="4" tint="0.39997558519241921"/>
+        <color theme="4" tint="-0.249977111117893"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="Q8:Q18 Q2:Q6">
+    <cfRule type="colorScale" priority="18">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color theme="4" tint="0.79998168889431442"/>
+        <color theme="4" tint="0.39997558519241921"/>
+        <color theme="4" tint="-0.249977111117893"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
   <conditionalFormatting sqref="R7">
     <cfRule type="colorScale" priority="17">
       <colorScale>
@@ -6029,8 +6790,8 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="T20:U21">
-    <cfRule type="colorScale" priority="6">
+  <conditionalFormatting sqref="T18:U19">
+    <cfRule type="colorScale" priority="415">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -6041,8 +6802,8 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="U8:U18 U2:U6">
-    <cfRule type="colorScale" priority="27">
+  <conditionalFormatting sqref="T20:U21">
+    <cfRule type="colorScale" priority="6">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -6052,6 +6813,18 @@
         <color theme="4" tint="-0.249977111117893"/>
       </colorScale>
     </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="U8:U18 U2:U6">
+    <cfRule type="colorScale" priority="27">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color theme="4" tint="0.79998168889431442"/>
+        <color theme="4" tint="0.39997558519241921"/>
+        <color theme="4" tint="-0.249977111117893"/>
+      </colorScale>
+    </cfRule>
     <cfRule type="colorScale" priority="28">
       <colorScale>
         <cfvo type="min"/>
@@ -6175,8 +6948,8 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="X20:Y21">
-    <cfRule type="colorScale" priority="5">
+  <conditionalFormatting sqref="X18:Y19">
+    <cfRule type="colorScale" priority="416">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -6187,6 +6960,18 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
+  <conditionalFormatting sqref="X20:Y21">
+    <cfRule type="colorScale" priority="5">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color theme="4" tint="0.79998168889431442"/>
+        <color theme="4" tint="0.39997558519241921"/>
+        <color theme="4" tint="-0.249977111117893"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
   <conditionalFormatting sqref="X26:Y49 L2:M24 P2:Q24 T2:U24 X2:Y24 T26:U49 P26:Q49 L26:M49 L25:Y25">
     <cfRule type="colorScale" priority="2">
       <colorScale>
@@ -6248,150 +7033,6 @@
         <cfvo type="max"/>
         <color rgb="FFFCFCFF"/>
         <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K2:K49">
-    <cfRule type="colorScale" priority="384">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color theme="4" tint="0.79998168889431442"/>
-        <color theme="4" tint="0.39997558519241921"/>
-        <color theme="4" tint="-0.499984740745262"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K8:K24 K2:K6">
-    <cfRule type="colorScale" priority="386">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color theme="4" tint="0.79998168889431442"/>
-        <color theme="4" tint="0.39997558519241921"/>
-        <color theme="4" tint="-0.249977111117893"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K8:K33 K2:K6">
-    <cfRule type="colorScale" priority="389">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color theme="4" tint="0.79998168889431442"/>
-        <color theme="4" tint="0.39997558519241921"/>
-        <color theme="4" tint="-0.499984740745262"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K18:K24">
-    <cfRule type="colorScale" priority="392">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color theme="0"/>
-        <color theme="4" tint="0.39997558519241921"/>
-        <color theme="4" tint="-0.249977111117893"/>
-      </colorScale>
-    </cfRule>
-    <cfRule type="colorScale" priority="393">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color theme="0"/>
-        <color theme="4" tint="0.39997558519241921"/>
-        <color theme="4" tint="-0.499984740745262"/>
-      </colorScale>
-    </cfRule>
-    <cfRule type="colorScale" priority="394">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="L2:M21">
-    <cfRule type="colorScale" priority="398">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color theme="4" tint="0.79998168889431442"/>
-        <color theme="4" tint="0.39997558519241921"/>
-        <color theme="4" tint="-0.249977111117893"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="N2:O21">
-    <cfRule type="colorScale" priority="400">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="N2:O49 R2:S49 V2:W49 Z2:AA49">
-    <cfRule type="colorScale" priority="402">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="O18:O21 N2:N21">
-    <cfRule type="colorScale" priority="410">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="P18:Q19">
-    <cfRule type="colorScale" priority="414">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color theme="4" tint="0.79998168889431442"/>
-        <color theme="4" tint="0.39997558519241921"/>
-        <color theme="4" tint="-0.249977111117893"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="T18:U19">
-    <cfRule type="colorScale" priority="415">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color theme="4" tint="0.79998168889431442"/>
-        <color theme="4" tint="0.39997558519241921"/>
-        <color theme="4" tint="-0.249977111117893"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="X18:Y19">
-    <cfRule type="colorScale" priority="416">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color theme="4" tint="0.79998168889431442"/>
-        <color theme="4" tint="0.39997558519241921"/>
-        <color theme="4" tint="-0.249977111117893"/>
       </colorScale>
     </cfRule>
   </conditionalFormatting>

--- a/HydroFPV_plants/CombinedTechsCreation/CombinedHydroSolar.xlsx
+++ b/HydroFPV_plants/CombinedTechsCreation/CombinedHydroSolar.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Alessandro Pieruzzi\Documents\Thesis\TEMBA_FPV\HydroFPV_plants\CombinedTechsCreation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{50436E2D-AB0A-4EF3-9938-5B6AB4D54EF6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D27A85BD-FD2C-49B1-8E8F-EC7777B6EE6D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="10245" yWindow="0" windowWidth="10245" windowHeight="10920" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="CombinedHydroSolar" sheetId="1" r:id="rId1"/>
@@ -2013,8 +2013,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ADD0C4BF-8238-4E1B-8DDC-8CB02F115C91}">
   <dimension ref="B2:Q27"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="K7" workbookViewId="0">
-      <selection activeCell="O15" sqref="O15"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D19" sqref="D19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -2223,8 +2223,8 @@
         <v>68</v>
       </c>
       <c r="D9">
-        <f>SUM(All_Seasons_normal_all_plants!K5:K10,All_Seasons_normal_all_plants!K24,All_Seasons_normal_all_plants!K23,All_Seasons_normal_all_plants!K34:K49)</f>
-        <v>8288.7351598200003</v>
+        <f>SUM(All_Seasons_normal_all_plants!K5:K24)</f>
+        <v>16561</v>
       </c>
       <c r="G9" t="s">
         <v>169</v>
@@ -2498,7 +2498,7 @@
       </c>
       <c r="D19">
         <f>D14-D9</f>
-        <v>14545.26484018</v>
+        <v>6273</v>
       </c>
       <c r="G19" t="s">
         <v>169</v>
@@ -2764,7 +2764,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{77FC710B-81A7-4A19-B13B-3AD951BA7D4B}">
   <dimension ref="A1:AA49"/>
   <sheetViews>
-    <sheetView topLeftCell="A22" workbookViewId="0">
+    <sheetView topLeftCell="A4" workbookViewId="0">
       <selection activeCell="I37" sqref="I37"/>
     </sheetView>
   </sheetViews>
@@ -6499,6 +6499,24 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K8:K17 K2:K6">
+    <cfRule type="colorScale" priority="95">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+    <cfRule type="colorScale" priority="94">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color theme="0"/>
+        <color theme="4" tint="0.39997558519241921"/>
+        <color theme="4" tint="-0.499984740745262"/>
+      </colorScale>
+    </cfRule>
     <cfRule type="colorScale" priority="93">
       <colorScale>
         <cfvo type="min"/>
@@ -6509,7 +6527,43 @@
         <color theme="4" tint="-0.249977111117893"/>
       </colorScale>
     </cfRule>
-    <cfRule type="colorScale" priority="94">
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K8:K24 K2:K6">
+    <cfRule type="colorScale" priority="386">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color theme="4" tint="0.79998168889431442"/>
+        <color theme="4" tint="0.39997558519241921"/>
+        <color theme="4" tint="-0.249977111117893"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K8:K33 K2:K6">
+    <cfRule type="colorScale" priority="389">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color theme="4" tint="0.79998168889431442"/>
+        <color theme="4" tint="0.39997558519241921"/>
+        <color theme="4" tint="-0.499984740745262"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K18:K24">
+    <cfRule type="colorScale" priority="392">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color theme="0"/>
+        <color theme="4" tint="0.39997558519241921"/>
+        <color theme="4" tint="-0.249977111117893"/>
+      </colorScale>
+    </cfRule>
+    <cfRule type="colorScale" priority="393">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -6519,7 +6573,7 @@
         <color theme="4" tint="-0.499984740745262"/>
       </colorScale>
     </cfRule>
-    <cfRule type="colorScale" priority="95">
+    <cfRule type="colorScale" priority="394">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -6528,8 +6582,8 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K8:K24 K2:K6">
-    <cfRule type="colorScale" priority="386">
+  <conditionalFormatting sqref="L2:M21">
+    <cfRule type="colorScale" priority="398">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -6540,20 +6594,160 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K8:K33 K2:K6">
-    <cfRule type="colorScale" priority="389">
+  <conditionalFormatting sqref="N2:O21">
+    <cfRule type="colorScale" priority="400">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="N2:O49 R2:S49 V2:W49 Z2:AA49">
+    <cfRule type="colorScale" priority="402">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="O18:O21 N2:N21">
+    <cfRule type="colorScale" priority="410">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="P8:P17 P2:P6 Q17 P18:Q18">
+    <cfRule type="colorScale" priority="22">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
         <cfvo type="max"/>
         <color theme="4" tint="0.79998168889431442"/>
         <color theme="4" tint="0.39997558519241921"/>
+        <color theme="4" tint="-0.249977111117893"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="P7:Q7">
+    <cfRule type="colorScale" priority="16">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color theme="4" tint="0.79998168889431442"/>
+        <color theme="4" tint="0.39997558519241921"/>
+        <color theme="4" tint="-0.249977111117893"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="P8:Q18 P2:Q6">
+    <cfRule type="colorScale" priority="20">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color theme="4" tint="0.79998168889431442"/>
+        <color theme="4" tint="0.39997558519241921"/>
+        <color theme="4" tint="-0.249977111117893"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="P18:Q19">
+    <cfRule type="colorScale" priority="414">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color theme="4" tint="0.79998168889431442"/>
+        <color theme="4" tint="0.39997558519241921"/>
+        <color theme="4" tint="-0.249977111117893"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="P20:Q21">
+    <cfRule type="colorScale" priority="7">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color theme="4" tint="0.79998168889431442"/>
+        <color theme="4" tint="0.39997558519241921"/>
+        <color theme="4" tint="-0.249977111117893"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="Q8:Q18 Q2:Q6">
+    <cfRule type="colorScale" priority="18">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color theme="4" tint="0.79998168889431442"/>
+        <color theme="4" tint="0.39997558519241921"/>
+        <color theme="4" tint="-0.249977111117893"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="R7">
+    <cfRule type="colorScale" priority="17">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="R8:R17 R2:R6">
+    <cfRule type="colorScale" priority="21">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="R7:S7">
+    <cfRule type="colorScale" priority="15">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="R8:S17 R2:S6">
+    <cfRule type="colorScale" priority="19">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="T8:T17 T2:T6 U17 T18:U18">
+    <cfRule type="colorScale" priority="35">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color theme="0"/>
+        <color theme="4" tint="0.39997558519241921"/>
         <color theme="4" tint="-0.499984740745262"/>
       </colorScale>
     </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K18:K24">
-    <cfRule type="colorScale" priority="392">
+    <cfRule type="colorScale" priority="34">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -6563,7 +6757,7 @@
         <color theme="4" tint="-0.249977111117893"/>
       </colorScale>
     </cfRule>
-    <cfRule type="colorScale" priority="393">
+    <cfRule type="colorScale" priority="33">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -6573,17 +6767,7 @@
         <color theme="4" tint="-0.499984740745262"/>
       </colorScale>
     </cfRule>
-    <cfRule type="colorScale" priority="394">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="L2:M21">
-    <cfRule type="colorScale" priority="398">
+    <cfRule type="colorScale" priority="32">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -6594,38 +6778,8 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="N2:O21">
-    <cfRule type="colorScale" priority="400">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="N2:O49 R2:S49 V2:W49 Z2:AA49">
-    <cfRule type="colorScale" priority="402">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="O18:O21 N2:N21">
-    <cfRule type="colorScale" priority="410">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="P8:P17 P2:P6 Q17 P18:Q18">
-    <cfRule type="colorScale" priority="22">
+  <conditionalFormatting sqref="T7:U7">
+    <cfRule type="colorScale" priority="24">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -6636,8 +6790,8 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="P7:Q7">
-    <cfRule type="colorScale" priority="16">
+  <conditionalFormatting sqref="T18:U19">
+    <cfRule type="colorScale" priority="415">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -6648,8 +6802,8 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="P8:Q18 P2:Q6">
-    <cfRule type="colorScale" priority="20">
+  <conditionalFormatting sqref="T20:U21">
+    <cfRule type="colorScale" priority="6">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -6660,8 +6814,28 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="P18:Q19">
-    <cfRule type="colorScale" priority="414">
+  <conditionalFormatting sqref="U8:U18 U2:U6">
+    <cfRule type="colorScale" priority="30">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color theme="0"/>
+        <color theme="4" tint="0.39997558519241921"/>
+        <color theme="4" tint="-0.499984740745262"/>
+      </colorScale>
+    </cfRule>
+    <cfRule type="colorScale" priority="28">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color theme="0"/>
+        <color theme="4" tint="0.39997558519241921"/>
+        <color theme="4" tint="-0.499984740745262"/>
+      </colorScale>
+    </cfRule>
+    <cfRule type="colorScale" priority="27">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -6671,93 +6845,7 @@
         <color theme="4" tint="-0.249977111117893"/>
       </colorScale>
     </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="P20:Q21">
-    <cfRule type="colorScale" priority="7">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color theme="4" tint="0.79998168889431442"/>
-        <color theme="4" tint="0.39997558519241921"/>
-        <color theme="4" tint="-0.249977111117893"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="Q8:Q18 Q2:Q6">
-    <cfRule type="colorScale" priority="18">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color theme="4" tint="0.79998168889431442"/>
-        <color theme="4" tint="0.39997558519241921"/>
-        <color theme="4" tint="-0.249977111117893"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="R7">
-    <cfRule type="colorScale" priority="17">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="R8:R17 R2:R6">
-    <cfRule type="colorScale" priority="21">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="R7:S7">
-    <cfRule type="colorScale" priority="15">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="R8:S17 R2:S6">
-    <cfRule type="colorScale" priority="19">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="T8:T17 T2:T6 U17 T18:U18">
-    <cfRule type="colorScale" priority="32">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color theme="4" tint="0.79998168889431442"/>
-        <color theme="4" tint="0.39997558519241921"/>
-        <color theme="4" tint="-0.249977111117893"/>
-      </colorScale>
-    </cfRule>
-    <cfRule type="colorScale" priority="33">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color theme="0"/>
-        <color theme="4" tint="0.39997558519241921"/>
-        <color theme="4" tint="-0.499984740745262"/>
-      </colorScale>
-    </cfRule>
-    <cfRule type="colorScale" priority="34">
+    <cfRule type="colorScale" priority="29">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -6765,94 +6853,6 @@
         <color theme="0"/>
         <color theme="4" tint="0.39997558519241921"/>
         <color theme="4" tint="-0.249977111117893"/>
-      </colorScale>
-    </cfRule>
-    <cfRule type="colorScale" priority="35">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color theme="0"/>
-        <color theme="4" tint="0.39997558519241921"/>
-        <color theme="4" tint="-0.499984740745262"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="T7:U7">
-    <cfRule type="colorScale" priority="24">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color theme="4" tint="0.79998168889431442"/>
-        <color theme="4" tint="0.39997558519241921"/>
-        <color theme="4" tint="-0.249977111117893"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="T18:U19">
-    <cfRule type="colorScale" priority="415">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color theme="4" tint="0.79998168889431442"/>
-        <color theme="4" tint="0.39997558519241921"/>
-        <color theme="4" tint="-0.249977111117893"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="T20:U21">
-    <cfRule type="colorScale" priority="6">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color theme="4" tint="0.79998168889431442"/>
-        <color theme="4" tint="0.39997558519241921"/>
-        <color theme="4" tint="-0.249977111117893"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="U8:U18 U2:U6">
-    <cfRule type="colorScale" priority="27">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color theme="4" tint="0.79998168889431442"/>
-        <color theme="4" tint="0.39997558519241921"/>
-        <color theme="4" tint="-0.249977111117893"/>
-      </colorScale>
-    </cfRule>
-    <cfRule type="colorScale" priority="28">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color theme="0"/>
-        <color theme="4" tint="0.39997558519241921"/>
-        <color theme="4" tint="-0.499984740745262"/>
-      </colorScale>
-    </cfRule>
-    <cfRule type="colorScale" priority="29">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color theme="0"/>
-        <color theme="4" tint="0.39997558519241921"/>
-        <color theme="4" tint="-0.249977111117893"/>
-      </colorScale>
-    </cfRule>
-    <cfRule type="colorScale" priority="30">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color theme="0"/>
-        <color theme="4" tint="0.39997558519241921"/>
-        <color theme="4" tint="-0.499984740745262"/>
       </colorScale>
     </cfRule>
   </conditionalFormatting>
@@ -9516,6 +9516,24 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="G2:G20">
+    <cfRule type="colorScale" priority="52">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+    <cfRule type="colorScale" priority="51">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color theme="0"/>
+        <color theme="4" tint="0.39997558519241921"/>
+        <color theme="4" tint="-0.499984740745262"/>
+      </colorScale>
+    </cfRule>
     <cfRule type="colorScale" priority="50">
       <colorScale>
         <cfvo type="min"/>
@@ -9526,7 +9544,21 @@
         <color theme="4" tint="-0.249977111117893"/>
       </colorScale>
     </cfRule>
-    <cfRule type="colorScale" priority="51">
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G2:G25">
+    <cfRule type="colorScale" priority="13">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color theme="4" tint="0.79998168889431442"/>
+        <color theme="4" tint="0.39997558519241921"/>
+        <color theme="4" tint="-0.249977111117893"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G21:G25">
+    <cfRule type="colorScale" priority="15">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -9536,7 +9568,7 @@
         <color theme="4" tint="-0.499984740745262"/>
       </colorScale>
     </cfRule>
-    <cfRule type="colorScale" priority="52">
+    <cfRule type="colorScale" priority="16">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -9544,9 +9576,19 @@
         <color rgb="FFF8696B"/>
       </colorScale>
     </cfRule>
+    <cfRule type="colorScale" priority="14">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color theme="0"/>
+        <color theme="4" tint="0.39997558519241921"/>
+        <color theme="4" tint="-0.249977111117893"/>
+      </colorScale>
+    </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G2:G25">
-    <cfRule type="colorScale" priority="13">
+  <conditionalFormatting sqref="H2:I25">
+    <cfRule type="colorScale" priority="49">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -9557,8 +9599,172 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G21:G25">
-    <cfRule type="colorScale" priority="14">
+  <conditionalFormatting sqref="J2:J25 K21:K25">
+    <cfRule type="colorScale" priority="53">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J2:K25">
+    <cfRule type="colorScale" priority="48">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L5:L9 L11:L20">
+    <cfRule type="colorScale" priority="24">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color theme="4" tint="0.79998168889431442"/>
+        <color theme="4" tint="0.39997558519241921"/>
+        <color theme="4" tint="-0.249977111117893"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L2:M4">
+    <cfRule type="colorScale" priority="3">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color theme="4" tint="0.79998168889431442"/>
+        <color theme="4" tint="0.39997558519241921"/>
+        <color theme="4" tint="-0.249977111117893"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L5:M9 L11:M20">
+    <cfRule type="colorScale" priority="22">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color theme="4" tint="0.79998168889431442"/>
+        <color theme="4" tint="0.39997558519241921"/>
+        <color theme="4" tint="-0.249977111117893"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L10:M10">
+    <cfRule type="colorScale" priority="18">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color theme="4" tint="0.79998168889431442"/>
+        <color theme="4" tint="0.39997558519241921"/>
+        <color theme="4" tint="-0.249977111117893"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L21:M23">
+    <cfRule type="colorScale" priority="6">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color theme="4" tint="0.79998168889431442"/>
+        <color theme="4" tint="0.39997558519241921"/>
+        <color theme="4" tint="-0.249977111117893"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L24:M25">
+    <cfRule type="colorScale" priority="9">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color theme="4" tint="0.79998168889431442"/>
+        <color theme="4" tint="0.39997558519241921"/>
+        <color theme="4" tint="-0.249977111117893"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="M5:M9 M11:M20">
+    <cfRule type="colorScale" priority="20">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color theme="4" tint="0.79998168889431442"/>
+        <color theme="4" tint="0.39997558519241921"/>
+        <color theme="4" tint="-0.249977111117893"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="N2:N9 N11:N20">
+    <cfRule type="colorScale" priority="23">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="N10">
+    <cfRule type="colorScale" priority="19">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="N2:O9 N11:O20">
+    <cfRule type="colorScale" priority="21">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="N10:O10">
+    <cfRule type="colorScale" priority="17">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="P5:P9 P11:P20">
+    <cfRule type="colorScale" priority="35">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color theme="0"/>
+        <color theme="4" tint="0.39997558519241921"/>
+        <color theme="4" tint="-0.499984740745262"/>
+      </colorScale>
+    </cfRule>
+    <cfRule type="colorScale" priority="34">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color theme="4" tint="0.79998168889431442"/>
+        <color theme="4" tint="0.39997558519241921"/>
+        <color theme="4" tint="-0.249977111117893"/>
+      </colorScale>
+    </cfRule>
+    <cfRule type="colorScale" priority="36">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -9568,7 +9774,7 @@
         <color theme="4" tint="-0.249977111117893"/>
       </colorScale>
     </cfRule>
-    <cfRule type="colorScale" priority="15">
+    <cfRule type="colorScale" priority="37">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -9578,17 +9784,9 @@
         <color theme="4" tint="-0.499984740745262"/>
       </colorScale>
     </cfRule>
-    <cfRule type="colorScale" priority="16">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H2:I25">
-    <cfRule type="colorScale" priority="49">
+  <conditionalFormatting sqref="P2:Q4">
+    <cfRule type="colorScale" priority="2">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -9599,28 +9797,8 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J2:J25 K21:K25">
-    <cfRule type="colorScale" priority="53">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J2:K25">
-    <cfRule type="colorScale" priority="48">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="L5:L9 L11:L20">
-    <cfRule type="colorScale" priority="24">
+  <conditionalFormatting sqref="P10:Q10">
+    <cfRule type="colorScale" priority="26">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -9631,8 +9809,8 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="L2:M4">
-    <cfRule type="colorScale" priority="3">
+  <conditionalFormatting sqref="P21:Q23">
+    <cfRule type="colorScale" priority="5">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -9643,8 +9821,8 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="L5:M9 L11:M20">
-    <cfRule type="colorScale" priority="22">
+  <conditionalFormatting sqref="P24:Q25">
+    <cfRule type="colorScale" priority="8">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -9655,8 +9833,38 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="L10:M10">
-    <cfRule type="colorScale" priority="18">
+  <conditionalFormatting sqref="Q5:Q9 Q11:Q20">
+    <cfRule type="colorScale" priority="31">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color theme="0"/>
+        <color theme="4" tint="0.39997558519241921"/>
+        <color theme="4" tint="-0.249977111117893"/>
+      </colorScale>
+    </cfRule>
+    <cfRule type="colorScale" priority="30">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color theme="0"/>
+        <color theme="4" tint="0.39997558519241921"/>
+        <color theme="4" tint="-0.499984740745262"/>
+      </colorScale>
+    </cfRule>
+    <cfRule type="colorScale" priority="32">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color theme="0"/>
+        <color theme="4" tint="0.39997558519241921"/>
+        <color theme="4" tint="-0.499984740745262"/>
+      </colorScale>
+    </cfRule>
+    <cfRule type="colorScale" priority="29">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -9664,214 +9872,6 @@
         <color theme="4" tint="0.79998168889431442"/>
         <color theme="4" tint="0.39997558519241921"/>
         <color theme="4" tint="-0.249977111117893"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="L21:M23">
-    <cfRule type="colorScale" priority="6">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color theme="4" tint="0.79998168889431442"/>
-        <color theme="4" tint="0.39997558519241921"/>
-        <color theme="4" tint="-0.249977111117893"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="L24:M25">
-    <cfRule type="colorScale" priority="9">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color theme="4" tint="0.79998168889431442"/>
-        <color theme="4" tint="0.39997558519241921"/>
-        <color theme="4" tint="-0.249977111117893"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="M5:M9 M11:M20">
-    <cfRule type="colorScale" priority="20">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color theme="4" tint="0.79998168889431442"/>
-        <color theme="4" tint="0.39997558519241921"/>
-        <color theme="4" tint="-0.249977111117893"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="N2:N9 N11:N20">
-    <cfRule type="colorScale" priority="23">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="N10">
-    <cfRule type="colorScale" priority="19">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="N2:O9 N11:O20">
-    <cfRule type="colorScale" priority="21">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="N10:O10">
-    <cfRule type="colorScale" priority="17">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="P5:P9 P11:P20">
-    <cfRule type="colorScale" priority="34">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color theme="4" tint="0.79998168889431442"/>
-        <color theme="4" tint="0.39997558519241921"/>
-        <color theme="4" tint="-0.249977111117893"/>
-      </colorScale>
-    </cfRule>
-    <cfRule type="colorScale" priority="35">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color theme="0"/>
-        <color theme="4" tint="0.39997558519241921"/>
-        <color theme="4" tint="-0.499984740745262"/>
-      </colorScale>
-    </cfRule>
-    <cfRule type="colorScale" priority="36">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color theme="0"/>
-        <color theme="4" tint="0.39997558519241921"/>
-        <color theme="4" tint="-0.249977111117893"/>
-      </colorScale>
-    </cfRule>
-    <cfRule type="colorScale" priority="37">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color theme="0"/>
-        <color theme="4" tint="0.39997558519241921"/>
-        <color theme="4" tint="-0.499984740745262"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="P2:Q4">
-    <cfRule type="colorScale" priority="2">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color theme="4" tint="0.79998168889431442"/>
-        <color theme="4" tint="0.39997558519241921"/>
-        <color theme="4" tint="-0.249977111117893"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="P10:Q10">
-    <cfRule type="colorScale" priority="26">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color theme="4" tint="0.79998168889431442"/>
-        <color theme="4" tint="0.39997558519241921"/>
-        <color theme="4" tint="-0.249977111117893"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="P21:Q23">
-    <cfRule type="colorScale" priority="5">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color theme="4" tint="0.79998168889431442"/>
-        <color theme="4" tint="0.39997558519241921"/>
-        <color theme="4" tint="-0.249977111117893"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="P24:Q25">
-    <cfRule type="colorScale" priority="8">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color theme="4" tint="0.79998168889431442"/>
-        <color theme="4" tint="0.39997558519241921"/>
-        <color theme="4" tint="-0.249977111117893"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="Q5:Q9 Q11:Q20">
-    <cfRule type="colorScale" priority="29">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color theme="4" tint="0.79998168889431442"/>
-        <color theme="4" tint="0.39997558519241921"/>
-        <color theme="4" tint="-0.249977111117893"/>
-      </colorScale>
-    </cfRule>
-    <cfRule type="colorScale" priority="30">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color theme="0"/>
-        <color theme="4" tint="0.39997558519241921"/>
-        <color theme="4" tint="-0.499984740745262"/>
-      </colorScale>
-    </cfRule>
-    <cfRule type="colorScale" priority="31">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color theme="0"/>
-        <color theme="4" tint="0.39997558519241921"/>
-        <color theme="4" tint="-0.249977111117893"/>
-      </colorScale>
-    </cfRule>
-    <cfRule type="colorScale" priority="32">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color theme="0"/>
-        <color theme="4" tint="0.39997558519241921"/>
-        <color theme="4" tint="-0.499984740745262"/>
       </colorScale>
     </cfRule>
   </conditionalFormatting>

--- a/HydroFPV_plants/CombinedTechsCreation/CombinedHydroSolar.xlsx
+++ b/HydroFPV_plants/CombinedTechsCreation/CombinedHydroSolar.xlsx
@@ -1,23 +1,24 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26626"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26731"/>
   <workbookPr hidePivotFieldList="1" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Alessandro Pieruzzi\Documents\Thesis\TEMBA_FPV\HydroFPV_plants\CombinedTechsCreation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D27A85BD-FD2C-49B1-8E8F-EC7777B6EE6D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E1F5CFE0-7FF9-47F9-95A6-7DA1677D7EB7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="20370" yWindow="-120" windowWidth="29040" windowHeight="15840" firstSheet="1" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="CombinedHydroSolar" sheetId="1" r:id="rId1"/>
     <sheet name="Potentials" sheetId="18" r:id="rId2"/>
     <sheet name="All_Seasons_normal_all_plants" sheetId="4" r:id="rId3"/>
-    <sheet name="locations" sheetId="17" r:id="rId4"/>
-    <sheet name="All_Seasons_normal_2015-30" sheetId="16" r:id="rId5"/>
+    <sheet name="Sheet1" sheetId="19" r:id="rId4"/>
+    <sheet name="locations" sheetId="17" r:id="rId5"/>
+    <sheet name="All_Seasons_normal_2015-30" sheetId="16" r:id="rId6"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -37,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="651" uniqueCount="181">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="651" uniqueCount="180">
   <si>
     <t>Country</t>
   </si>
@@ -262,9 +263,6 @@
   </si>
   <si>
     <t>Reservoir</t>
-  </si>
-  <si>
-    <t>ROR</t>
   </si>
   <si>
     <t>SOUTH SUDAN</t>
@@ -666,7 +664,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -685,8 +683,11 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="165" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2013,7 +2014,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ADD0C4BF-8238-4E1B-8DDC-8CB02F115C91}">
   <dimension ref="B2:Q27"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D19" sqref="D19"/>
     </sheetView>
   </sheetViews>
@@ -2027,7 +2028,7 @@
   <sheetData>
     <row r="2" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B2" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C2" s="15" t="s">
         <v>67</v>
@@ -2037,16 +2038,16 @@
         <v>6124.4800000000005</v>
       </c>
       <c r="E2" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="G2" t="s">
+        <v>175</v>
+      </c>
+      <c r="K2" t="s">
         <v>176</v>
       </c>
-      <c r="K2" t="s">
+      <c r="O2" t="s">
         <v>177</v>
-      </c>
-      <c r="O2" t="s">
-        <v>178</v>
       </c>
     </row>
     <row r="3" spans="2:17" x14ac:dyDescent="0.2">
@@ -2065,7 +2066,7 @@
         <v>4900</v>
       </c>
       <c r="G4" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="H4">
         <v>2021</v>
@@ -2074,7 +2075,7 @@
         <v>2022</v>
       </c>
       <c r="K4" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="L4">
         <v>2021</v>
@@ -2083,18 +2084,18 @@
         <v>2022</v>
       </c>
       <c r="O4" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="5" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C5" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="D5">
         <v>3100</v>
       </c>
       <c r="G5" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="H5">
         <v>1.014</v>
@@ -2103,7 +2104,7 @@
         <v>1.014</v>
       </c>
       <c r="K5" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="L5">
         <v>1.014</v>
@@ -2112,7 +2113,7 @@
         <v>1.014</v>
       </c>
       <c r="O5" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="P5">
         <v>4.2000000000000259E-2</v>
@@ -2123,7 +2124,7 @@
     </row>
     <row r="6" spans="2:17" x14ac:dyDescent="0.2">
       <c r="G6" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="H6">
         <v>0.91826000000000008</v>
@@ -2132,7 +2133,7 @@
         <v>0.91826000000000008</v>
       </c>
       <c r="K6" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="L6">
         <v>0.91826000000000008</v>
@@ -2141,7 +2142,7 @@
         <v>0.91826000000000008</v>
       </c>
       <c r="O6" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="P6">
         <v>0</v>
@@ -2152,7 +2153,7 @@
     </row>
     <row r="7" spans="2:17" x14ac:dyDescent="0.2">
       <c r="G7" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="H7">
         <v>8.0000000000000004E-4</v>
@@ -2161,7 +2162,7 @@
         <v>8.0000000000000004E-4</v>
       </c>
       <c r="K7" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="L7">
         <v>0</v>
@@ -2170,7 +2171,7 @@
         <v>0</v>
       </c>
       <c r="O7" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="P7">
         <v>8.0000000000000004E-4</v>
@@ -2181,17 +2182,17 @@
     </row>
     <row r="8" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B8" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C8" t="s">
         <v>67</v>
       </c>
       <c r="D8" s="1">
         <f>SUM(All_Seasons_normal_all_plants!K2:K4,All_Seasons_normal_all_plants!K20,All_Seasons_normal_all_plants!K21,All_Seasons_normal_all_plants!K22)</f>
-        <v>4330</v>
+        <v>4804</v>
       </c>
       <c r="G8" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="H8">
         <v>2.1</v>
@@ -2200,7 +2201,7 @@
         <v>2.1</v>
       </c>
       <c r="K8" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="L8">
         <v>2.1</v>
@@ -2209,7 +2210,7 @@
         <v>2.1</v>
       </c>
       <c r="O8" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="P8">
         <v>2.1</v>
@@ -2227,7 +2228,7 @@
         <v>16561</v>
       </c>
       <c r="G9" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="H9">
         <v>0.28000000000000003</v>
@@ -2236,7 +2237,7 @@
         <v>0.28000000000000003</v>
       </c>
       <c r="K9" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="L9">
         <v>0.28000000000000003</v>
@@ -2245,7 +2246,7 @@
         <v>0.28000000000000003</v>
       </c>
       <c r="O9" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="P9">
         <v>0.28000000000000003</v>
@@ -2260,10 +2261,10 @@
       </c>
       <c r="D10">
         <f>SUM(All_Seasons_normal_all_plants!K11:K19,All_Seasons_normal_all_plants!K32,All_Seasons_normal_all_plants!K33)</f>
-        <v>11808</v>
+        <v>5806</v>
       </c>
       <c r="G10" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="H10">
         <v>0.27</v>
@@ -2272,7 +2273,7 @@
         <v>0.27</v>
       </c>
       <c r="K10" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="L10">
         <v>0.27</v>
@@ -2281,7 +2282,7 @@
         <v>0.27</v>
       </c>
       <c r="O10" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="P10">
         <v>0.27</v>
@@ -2296,10 +2297,10 @@
       </c>
       <c r="D11">
         <f>SUM(All_Seasons_normal_all_plants!K25:K31)</f>
-        <v>1479.4</v>
+        <v>1695.4</v>
       </c>
       <c r="G11" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="H11">
         <v>8.5999999999999993E-2</v>
@@ -2308,7 +2309,7 @@
         <v>8.5999999999999993E-2</v>
       </c>
       <c r="K11" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="L11">
         <v>8.5999999999999993E-2</v>
@@ -2317,7 +2318,7 @@
         <v>8.5999999999999993E-2</v>
       </c>
       <c r="O11" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="P11">
         <v>8.5999999999999993E-2</v>
@@ -2328,7 +2329,7 @@
     </row>
     <row r="12" spans="2:17" x14ac:dyDescent="0.2">
       <c r="G12" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="H12">
         <v>6.4000000000000001E-2</v>
@@ -2337,7 +2338,7 @@
         <v>6.4000000000000001E-2</v>
       </c>
       <c r="K12" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="L12">
         <v>6.4000000000000001E-2</v>
@@ -2346,7 +2347,7 @@
         <v>6.4000000000000001E-2</v>
       </c>
       <c r="O12" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="P12">
         <v>6.4000000000000001E-2</v>
@@ -2357,16 +2358,16 @@
     </row>
     <row r="13" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B13" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C13" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D13">
         <v>2831.7351598173518</v>
       </c>
       <c r="G13" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="H13">
         <v>3.1739999999999997E-2</v>
@@ -2375,7 +2376,7 @@
         <v>3.1739999999999997E-2</v>
       </c>
       <c r="K13" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="L13">
         <v>3.1739999999999997E-2</v>
@@ -2384,7 +2385,7 @@
         <v>3.1739999999999997E-2</v>
       </c>
       <c r="O13" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="P13">
         <v>3.1739999999999997E-2</v>
@@ -2395,13 +2396,13 @@
     </row>
     <row r="14" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C14" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="D14">
         <v>22834</v>
       </c>
       <c r="G14" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="H14">
         <f>SUM(H5:H13)</f>
@@ -2412,7 +2413,7 @@
         <v>4.7648000000000001</v>
       </c>
       <c r="K14" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="L14">
         <f>SUM(L5:L13)</f>
@@ -2423,7 +2424,7 @@
         <v>4.7640000000000002</v>
       </c>
       <c r="O14" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="P14">
         <f>SUM(P5:P13)</f>
@@ -2436,13 +2437,13 @@
     </row>
     <row r="15" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C15" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D15">
         <v>4142</v>
       </c>
       <c r="G15" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="H15">
         <f>SUM(H5:H7)</f>
@@ -2453,7 +2454,7 @@
         <v>1.93306</v>
       </c>
       <c r="K15" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="L15">
         <f>SUM(L5:L7)</f>
@@ -2466,7 +2467,7 @@
     </row>
     <row r="16" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C16" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D16">
         <v>2157.4</v>
@@ -2474,34 +2475,34 @@
     </row>
     <row r="18" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B18" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C18" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D18">
         <v>0</v>
       </c>
       <c r="G18" s="1" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="K18" s="1" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="O18" s="1" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
     </row>
     <row r="19" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C19" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="D19">
         <f>D14-D9</f>
         <v>6273</v>
       </c>
       <c r="G19" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="H19">
         <v>0.28000000000000003</v>
@@ -2510,7 +2511,7 @@
         <v>0.28000000000000003</v>
       </c>
       <c r="K19" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="L19">
         <v>0.28000000000000003</v>
@@ -2519,7 +2520,7 @@
         <v>0.28000000000000003</v>
       </c>
       <c r="O19" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="P19">
         <v>0.28000000000000003</v>
@@ -2530,13 +2531,13 @@
     </row>
     <row r="20" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C20" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D20">
         <v>0</v>
       </c>
       <c r="G20" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="H20">
         <v>0.27</v>
@@ -2545,7 +2546,7 @@
         <v>0.27</v>
       </c>
       <c r="K20" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="L20">
         <v>0.27</v>
@@ -2554,7 +2555,7 @@
         <v>0.27</v>
       </c>
       <c r="O20" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="P20">
         <v>0.27</v>
@@ -2565,13 +2566,13 @@
     </row>
     <row r="21" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C21" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D21">
         <v>0</v>
       </c>
       <c r="G21" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="H21">
         <v>2.1</v>
@@ -2580,7 +2581,7 @@
         <v>2.1</v>
       </c>
       <c r="K21" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="L21">
         <v>2.1</v>
@@ -2589,7 +2590,7 @@
         <v>2.1</v>
       </c>
       <c r="O21" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="P21">
         <v>2.1</v>
@@ -2600,7 +2601,7 @@
     </row>
     <row r="22" spans="2:17" x14ac:dyDescent="0.2">
       <c r="G22" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="H22">
         <v>8.5999999999999993E-2</v>
@@ -2609,7 +2610,7 @@
         <v>8.5999999999999993E-2</v>
       </c>
       <c r="K22" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="L22">
         <v>8.5999999999999993E-2</v>
@@ -2618,7 +2619,7 @@
         <v>8.5999999999999993E-2</v>
       </c>
       <c r="O22" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="P22">
         <v>8.5999999999999993E-2</v>
@@ -2629,7 +2630,7 @@
     </row>
     <row r="23" spans="2:17" x14ac:dyDescent="0.2">
       <c r="G23" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="H23">
         <v>6.4000000000000001E-2</v>
@@ -2638,7 +2639,7 @@
         <v>6.4000000000000001E-2</v>
       </c>
       <c r="K23" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="L23">
         <v>6.4000000000000001E-2</v>
@@ -2647,7 +2648,7 @@
         <v>6.4000000000000001E-2</v>
       </c>
       <c r="O23" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="P23">
         <v>6.4000000000000001E-2</v>
@@ -2658,7 +2659,7 @@
     </row>
     <row r="24" spans="2:17" x14ac:dyDescent="0.2">
       <c r="G24" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="H24">
         <v>3.1739999999999997E-2</v>
@@ -2667,7 +2668,7 @@
         <v>3.1739999999999997E-2</v>
       </c>
       <c r="K24" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="L24">
         <v>3.1739999999999997E-2</v>
@@ -2676,7 +2677,7 @@
         <v>3.1739999999999997E-2</v>
       </c>
       <c r="O24" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="P24">
         <v>0</v>
@@ -2687,7 +2688,7 @@
     </row>
     <row r="25" spans="2:17" x14ac:dyDescent="0.2">
       <c r="G25" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="H25">
         <f>SUM(H19:H24)</f>
@@ -2698,7 +2699,7 @@
         <v>2.8317400000000004</v>
       </c>
       <c r="K25" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="L25">
         <f>SUM(L19:L24)</f>
@@ -2709,7 +2710,7 @@
         <v>2.8317400000000004</v>
       </c>
       <c r="O25" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="P25">
         <f>SUM(P19:P24)</f>
@@ -2722,7 +2723,7 @@
     </row>
     <row r="27" spans="2:17" x14ac:dyDescent="0.2">
       <c r="G27" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="H27">
         <f>H25-H14</f>
@@ -2733,7 +2734,7 @@
         <v>-1.9330599999999998</v>
       </c>
       <c r="K27" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="L27">
         <f>L25-L15</f>
@@ -2744,7 +2745,7 @@
         <v>0.89948000000000028</v>
       </c>
       <c r="O27" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="P27">
         <f>P25-P14</f>
@@ -2764,20 +2765,20 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{77FC710B-81A7-4A19-B13B-3AD951BA7D4B}">
   <dimension ref="A1:AA49"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="I37" sqref="I37"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="P19" sqref="P19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="2" max="2" width="14.42578125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="17.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="17.7109375" customWidth="1"/>
+    <col min="4" max="4" width="17.7109375" hidden="1" customWidth="1"/>
     <col min="6" max="6" width="10.140625" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="10" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="20" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="20" hidden="1" customWidth="1"/>
     <col min="10" max="10" width="9.5703125" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.140625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.140625" style="16" bestFit="1" customWidth="1"/>
     <col min="12" max="13" width="14.140625" customWidth="1"/>
     <col min="14" max="14" width="10" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="10" customWidth="1"/>
@@ -2795,7 +2796,7 @@
   <sheetData>
     <row r="1" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B1" s="4" t="s">
         <v>0</v>
@@ -2804,7 +2805,7 @@
         <v>1</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="E1" s="4" t="s">
         <v>45</v>
@@ -2824,7 +2825,7 @@
       <c r="J1" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="K1" s="4" t="s">
+      <c r="K1" s="20" t="s">
         <v>44</v>
       </c>
       <c r="L1" s="11" t="s">
@@ -2887,7 +2888,7 @@
         <v>12</v>
       </c>
       <c r="D2" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="E2" s="1">
         <v>24.033999999999999</v>
@@ -2907,7 +2908,7 @@
       <c r="J2">
         <v>2010</v>
       </c>
-      <c r="K2">
+      <c r="K2" s="16">
         <v>280</v>
       </c>
       <c r="L2" s="12">
@@ -2970,7 +2971,7 @@
         <v>13</v>
       </c>
       <c r="D3" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="E3" s="1">
         <v>24.033999999999999</v>
@@ -2990,7 +2991,7 @@
       <c r="J3">
         <v>2010</v>
       </c>
-      <c r="K3">
+      <c r="K3" s="16">
         <v>270</v>
       </c>
       <c r="L3" s="12">
@@ -3053,7 +3054,7 @@
         <v>8</v>
       </c>
       <c r="D4" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="E4" s="1">
         <v>23.973310000000001</v>
@@ -3073,7 +3074,7 @@
       <c r="J4">
         <v>2010</v>
       </c>
-      <c r="K4">
+      <c r="K4" s="16">
         <v>2100</v>
       </c>
       <c r="L4" s="12">
@@ -3127,182 +3128,185 @@
     </row>
     <row r="5" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A5">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="B5" t="s">
         <v>17</v>
       </c>
       <c r="C5" t="s">
-        <v>105</v>
+        <v>99</v>
       </c>
       <c r="D5" t="s">
-        <v>116</v>
+        <v>129</v>
       </c>
       <c r="E5">
-        <v>9.7799999999999994</v>
+        <v>9.5592100000000002</v>
       </c>
       <c r="F5">
-        <v>38.83</v>
+        <v>37.36562</v>
       </c>
       <c r="G5" t="s">
-        <v>24</v>
+        <v>9</v>
       </c>
       <c r="H5" t="s">
         <v>74</v>
       </c>
       <c r="J5">
-        <v>2031</v>
-      </c>
-      <c r="K5">
-        <v>189</v>
+        <v>1973</v>
+      </c>
+      <c r="K5" s="16">
+        <v>128</v>
       </c>
       <c r="L5">
-        <v>3.433550240586513E-2</v>
+        <v>0.39112886967512511</v>
       </c>
       <c r="M5">
-        <v>3.433550240586513E-2</v>
+        <v>0.39112886967512511</v>
       </c>
       <c r="N5">
-        <v>0.28975484309040223</v>
+        <v>0.31769913022700119</v>
       </c>
       <c r="O5">
-        <v>0.13667612353643971</v>
+        <v>0.1226002829151733</v>
       </c>
       <c r="P5">
-        <v>0.57473682007163951</v>
+        <v>0.55395990010728102</v>
       </c>
       <c r="Q5">
-        <v>0.57473682007163951</v>
+        <v>0.55395990010728102</v>
       </c>
       <c r="R5">
-        <v>0.2641995675029869</v>
+        <v>0.26080937037037039</v>
       </c>
       <c r="S5">
-        <v>9.4938511350059748E-2</v>
+        <v>7.8234182317801673E-2</v>
       </c>
       <c r="T5">
-        <v>0.45762385822795409</v>
+        <v>0.50142622072856036</v>
       </c>
       <c r="U5">
-        <v>0.45762385822795409</v>
+        <v>0.50142622072856036</v>
       </c>
       <c r="V5">
-        <v>0.29161254161688571</v>
+        <v>0.29062612704101948</v>
       </c>
       <c r="W5">
-        <v>0.13333808936678609</v>
+        <v>0.1203243992831541</v>
       </c>
       <c r="X5">
-        <v>2.6200930948138496E-2</v>
+        <v>0.39620138396267701</v>
       </c>
       <c r="Y5">
-        <v>2.6200930948138496E-2</v>
+        <v>0.39620138396267701</v>
       </c>
       <c r="Z5">
-        <v>0.35088009813961418</v>
+        <v>0.36399640809011768</v>
       </c>
       <c r="AA5">
-        <v>0.14635089605734769</v>
+        <v>0.13593716615463389</v>
       </c>
     </row>
     <row r="6" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A6">
-        <v>46</v>
+        <v>9</v>
       </c>
       <c r="B6" t="s">
         <v>17</v>
       </c>
       <c r="C6" t="s">
-        <v>106</v>
+        <v>112</v>
       </c>
       <c r="D6" t="s">
-        <v>117</v>
-      </c>
-      <c r="E6">
-        <v>9.7799999999999994</v>
+        <v>136</v>
+      </c>
+      <c r="E6" s="1">
+        <v>11.71</v>
       </c>
       <c r="F6">
-        <v>38.83</v>
+        <v>37.380000000000003</v>
       </c>
       <c r="G6" t="s">
-        <v>24</v>
+        <v>9</v>
       </c>
       <c r="H6" t="s">
         <v>74</v>
       </c>
+      <c r="I6">
+        <v>3600</v>
+      </c>
       <c r="J6">
-        <v>2031</v>
-      </c>
-      <c r="K6">
-        <v>265</v>
-      </c>
-      <c r="L6">
-        <v>3.433550240586513E-2</v>
-      </c>
-      <c r="M6">
-        <v>3.433550240586513E-2</v>
+        <v>2010</v>
+      </c>
+      <c r="K6" s="16">
+        <v>460</v>
+      </c>
+      <c r="L6" s="12">
+        <v>0.46374835586876301</v>
+      </c>
+      <c r="M6" s="12">
+        <v>0.46374835586876301</v>
       </c>
       <c r="N6">
-        <v>0.28975484309040223</v>
+        <v>0.34544052767821593</v>
       </c>
       <c r="O6">
-        <v>0.13667612353643971</v>
-      </c>
-      <c r="P6">
-        <v>0.57473682007163962</v>
-      </c>
-      <c r="Q6">
-        <v>0.57473682007163962</v>
+        <v>0.11954228339307051</v>
+      </c>
+      <c r="P6" s="12">
+        <v>0.46374835586876301</v>
+      </c>
+      <c r="Q6" s="12">
+        <v>0.46374835586876301</v>
       </c>
       <c r="R6">
-        <v>0.2641995675029869</v>
+        <v>0.24786641338112311</v>
       </c>
       <c r="S6">
-        <v>9.4938511350059748E-2</v>
-      </c>
-      <c r="T6">
-        <v>0.45762385822795409</v>
-      </c>
-      <c r="U6">
-        <v>0.45762385822795409</v>
+        <v>9.7465531660692939E-2</v>
+      </c>
+      <c r="T6" s="12">
+        <v>0.46374835586876301</v>
+      </c>
+      <c r="U6" s="12">
+        <v>0.46374835586876301</v>
       </c>
       <c r="V6">
-        <v>0.29161254161688571</v>
+        <v>0.31596995459976113</v>
       </c>
       <c r="W6">
-        <v>0.13333808936678609</v>
-      </c>
-      <c r="X6">
-        <v>2.6200930948138496E-2</v>
-      </c>
-      <c r="Y6">
-        <v>2.6200930948138496E-2</v>
+        <v>0.1412421925925926</v>
+      </c>
+      <c r="X6" s="12">
+        <v>0.46374835586876301</v>
+      </c>
+      <c r="Y6" s="12">
+        <v>0.46374835586876301</v>
       </c>
       <c r="Z6">
-        <v>0.35088009813961418</v>
+        <v>0.3865118322239291</v>
       </c>
       <c r="AA6">
-        <v>0.14635089605734769</v>
+        <v>0.14075010650281619</v>
       </c>
     </row>
     <row r="7" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A7">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="B7" t="s">
         <v>17</v>
       </c>
       <c r="C7" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="D7" t="s">
-        <v>118</v>
+        <v>146</v>
       </c>
       <c r="E7">
-        <v>9.5941700999999906</v>
+        <v>13.347630000000001</v>
       </c>
       <c r="F7">
-        <v>37.232997899999901</v>
+        <v>38.743160000000003</v>
       </c>
       <c r="G7" t="s">
         <v>9</v>
@@ -3311,238 +3315,241 @@
         <v>74</v>
       </c>
       <c r="J7">
-        <v>2013</v>
-      </c>
-      <c r="K7">
-        <v>98</v>
+        <v>2010</v>
+      </c>
+      <c r="K7" s="16">
+        <v>300</v>
       </c>
       <c r="L7">
-        <v>0.47346314129137629</v>
+        <v>1</v>
       </c>
       <c r="M7">
-        <v>0.47346314129137629</v>
+        <v>1</v>
       </c>
       <c r="N7">
-        <v>0.32822893986459573</v>
+        <v>0.28742656471525291</v>
       </c>
       <c r="O7">
-        <v>0.11213200095579449</v>
+        <v>0.13885416821983271</v>
       </c>
       <c r="P7">
-        <v>0.47346314129137629</v>
+        <v>1</v>
       </c>
       <c r="Q7">
-        <v>0.47346314129137629</v>
+        <v>1</v>
       </c>
       <c r="R7">
-        <v>0.25394759219434487</v>
+        <v>0.26241724253285548</v>
       </c>
       <c r="S7">
-        <v>7.8348711589008357E-2</v>
+        <v>0.1140387906810036</v>
       </c>
       <c r="T7">
-        <v>0.47346314129137629</v>
+        <v>1</v>
       </c>
       <c r="U7">
-        <v>0.47346314129137629</v>
+        <v>1</v>
       </c>
       <c r="V7">
-        <v>0.30030267144563932</v>
+        <v>0.2465983233771406</v>
       </c>
       <c r="W7">
-        <v>0.11891993715651129</v>
+        <v>0.14380953620071679</v>
       </c>
       <c r="X7">
-        <v>0.47346314129137629</v>
+        <v>1</v>
       </c>
       <c r="Y7">
-        <v>0.47346314129137629</v>
+        <v>1</v>
       </c>
       <c r="Z7">
-        <v>0.38199672683051711</v>
+        <v>0.26817943207031919</v>
       </c>
       <c r="AA7">
-        <v>0.1325895962621608</v>
+        <v>0.1139012657450077</v>
       </c>
     </row>
     <row r="8" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A8">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="B8" t="s">
         <v>17</v>
       </c>
       <c r="C8" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="D8" t="s">
-        <v>126</v>
+        <v>117</v>
       </c>
       <c r="E8">
-        <v>7.2166699999999997</v>
+        <v>9.5941700999999906</v>
       </c>
       <c r="F8">
-        <v>35.633339999999997</v>
+        <v>37.232997899999901</v>
       </c>
       <c r="G8" t="s">
-        <v>24</v>
+        <v>9</v>
       </c>
       <c r="H8" t="s">
         <v>74</v>
       </c>
       <c r="J8">
-        <v>2025</v>
-      </c>
-      <c r="K8">
-        <v>645</v>
+        <v>2013</v>
+      </c>
+      <c r="K8" s="16">
+        <v>98</v>
       </c>
       <c r="L8">
-        <v>0.71648926237161525</v>
+        <v>0.47346314129137629</v>
       </c>
       <c r="M8">
-        <v>0.71648926237161525</v>
+        <v>0.47346314129137629</v>
       </c>
       <c r="N8">
-        <v>0.28282056272401429</v>
+        <v>0.32822893986459573</v>
       </c>
       <c r="O8">
-        <v>9.2343708960573465E-2</v>
+        <v>0.11213200095579449</v>
       </c>
       <c r="P8">
-        <v>0.98991596638655466</v>
+        <v>0.47346314129137629</v>
       </c>
       <c r="Q8">
-        <v>0.98991596638655466</v>
+        <v>0.47346314129137629</v>
       </c>
       <c r="R8">
-        <v>0.2265720688968538</v>
+        <v>0.25394759219434487</v>
       </c>
       <c r="S8">
-        <v>7.175436367980885E-2</v>
+        <v>7.8348711589008357E-2</v>
       </c>
       <c r="T8">
-        <v>0.87813258636788039</v>
+        <v>0.47346314129137629</v>
       </c>
       <c r="U8">
-        <v>0.87813258636788039</v>
+        <v>0.47346314129137629</v>
       </c>
       <c r="V8">
-        <v>0.25743379729191562</v>
+        <v>0.30030267144563932</v>
       </c>
       <c r="W8">
-        <v>0.1046037954599761</v>
+        <v>0.11891993715651129</v>
       </c>
       <c r="X8">
-        <v>0.24112418300653601</v>
+        <v>0.47346314129137629</v>
       </c>
       <c r="Y8">
-        <v>0.24112418300653601</v>
+        <v>0.47346314129137629</v>
       </c>
       <c r="Z8">
-        <v>0.33027548088410991</v>
+        <v>0.38199672683051711</v>
       </c>
       <c r="AA8">
-        <v>0.1029040325140809</v>
+        <v>0.1325895962621608</v>
       </c>
     </row>
     <row r="9" spans="1:27" x14ac:dyDescent="0.2">
-      <c r="A9">
-        <v>7</v>
-      </c>
-      <c r="B9" t="s">
+      <c r="A9" s="16">
+        <v>4</v>
+      </c>
+      <c r="B9" s="16" t="s">
         <v>17</v>
       </c>
-      <c r="C9" t="s">
-        <v>26</v>
-      </c>
-      <c r="D9" t="s">
-        <v>119</v>
-      </c>
-      <c r="E9" s="1">
-        <v>10.340844000000001</v>
-      </c>
-      <c r="F9">
-        <v>36.65</v>
-      </c>
-      <c r="G9" t="s">
-        <v>24</v>
-      </c>
-      <c r="H9" t="s">
+      <c r="C9" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="D9" s="16" t="s">
+        <v>140</v>
+      </c>
+      <c r="E9" s="17">
+        <v>11.21</v>
+      </c>
+      <c r="F9" s="16">
+        <v>35.090000000000003</v>
+      </c>
+      <c r="G9" s="16" t="s">
+        <v>9</v>
+      </c>
+      <c r="H9" s="16" t="s">
         <v>74</v>
       </c>
-      <c r="J9">
-        <v>2028</v>
-      </c>
-      <c r="K9">
-        <v>935</v>
-      </c>
-      <c r="L9" s="12">
-        <v>4.8058277799555731E-2</v>
-      </c>
-      <c r="M9" s="12">
-        <v>4.8058277799555731E-2</v>
-      </c>
-      <c r="N9">
-        <v>0.3186647343687774</v>
-      </c>
-      <c r="O9">
-        <v>0.1097955641577061</v>
-      </c>
-      <c r="P9" s="1">
-        <v>0.72644714491049267</v>
-      </c>
-      <c r="Q9" s="1">
-        <v>0.72644714491049267</v>
-      </c>
-      <c r="R9">
-        <v>0.27000886260453999</v>
-      </c>
-      <c r="S9">
-        <v>7.4062143130227007E-2</v>
-      </c>
-      <c r="T9" s="1">
-        <v>0.48480334509342748</v>
-      </c>
-      <c r="U9" s="1">
-        <v>0.48480334509342748</v>
-      </c>
-      <c r="V9">
-        <v>0.3237500696933493</v>
-      </c>
-      <c r="W9">
-        <v>0.1145830021505376</v>
-      </c>
-      <c r="X9" s="1">
-        <v>2.9720371096302111E-2</v>
-      </c>
-      <c r="Y9" s="1">
-        <v>2.9720371096302111E-2</v>
-      </c>
-      <c r="Z9">
-        <v>0.38074566009557947</v>
-      </c>
-      <c r="AA9">
-        <v>0.1242511758832565</v>
+      <c r="I9" s="18">
+        <v>1874</v>
+      </c>
+      <c r="J9" s="16">
+        <v>2023</v>
+      </c>
+      <c r="K9" s="16">
+        <v>6400</v>
+      </c>
+      <c r="L9" s="19">
+        <v>0.27571636687559031</v>
+      </c>
+      <c r="M9" s="19">
+        <v>0.27571636687559031</v>
+      </c>
+      <c r="N9" s="16">
+        <v>0.33303783671843878</v>
+      </c>
+      <c r="O9" s="16">
+        <v>0.10567916917562729</v>
+      </c>
+      <c r="P9" s="17">
+        <v>0.27571636687559031</v>
+      </c>
+      <c r="Q9" s="17">
+        <v>0.27571636687559031</v>
+      </c>
+      <c r="R9" s="16">
+        <v>0.27764846395858228</v>
+      </c>
+      <c r="S9" s="16">
+        <v>6.7827279569892471E-2</v>
+      </c>
+      <c r="T9" s="17">
+        <v>0.27571636687559031</v>
+      </c>
+      <c r="U9" s="17">
+        <v>0.27571636687559031</v>
+      </c>
+      <c r="V9" s="16">
+        <v>0.30851121903624051</v>
+      </c>
+      <c r="W9" s="16">
+        <v>0.1091898138590203</v>
+      </c>
+      <c r="X9" s="17">
+        <v>0.27571636687559031</v>
+      </c>
+      <c r="Y9" s="17">
+        <v>0.27571636687559031</v>
+      </c>
+      <c r="Z9" s="16">
+        <v>0.37835753840245773</v>
+      </c>
+      <c r="AA9" s="16">
+        <v>0.11339636354326681</v>
       </c>
     </row>
     <row r="10" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A10">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="B10" t="s">
         <v>17</v>
       </c>
       <c r="C10" t="s">
-        <v>110</v>
+        <v>103</v>
       </c>
       <c r="D10" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="E10">
-        <v>8.5429999999999993</v>
+        <v>7.2166699999999997</v>
       </c>
       <c r="F10">
-        <v>35.195</v>
+        <v>35.633339999999997</v>
       </c>
       <c r="G10" t="s">
         <v>24</v>
@@ -3553,76 +3560,76 @@
       <c r="J10">
         <v>2025</v>
       </c>
-      <c r="K10">
-        <v>467</v>
+      <c r="K10" s="16">
+        <v>645</v>
       </c>
       <c r="L10">
-        <v>4.3201198882104185E-2</v>
+        <v>0.71648926237161525</v>
       </c>
       <c r="M10">
-        <v>4.3201198882104185E-2</v>
+        <v>0.71648926237161525</v>
       </c>
       <c r="N10">
-        <v>0.30872469454400631</v>
+        <v>0.28282056272401429</v>
       </c>
       <c r="O10">
-        <v>8.7997688649940245E-2</v>
+        <v>9.2343708960573465E-2</v>
       </c>
       <c r="P10">
-        <v>0.82341432688128036</v>
+        <v>0.98991596638655466</v>
       </c>
       <c r="Q10">
-        <v>0.82341432688128036</v>
+        <v>0.98991596638655466</v>
       </c>
       <c r="R10">
-        <v>0.27046071166865798</v>
+        <v>0.2265720688968538</v>
       </c>
       <c r="S10">
-        <v>7.1315783990442069E-2</v>
+        <v>7.175436367980885E-2</v>
       </c>
       <c r="T10">
-        <v>0.4738184238006809</v>
+        <v>0.87813258636788039</v>
       </c>
       <c r="U10">
-        <v>0.4738184238006809</v>
+        <v>0.87813258636788039</v>
       </c>
       <c r="V10">
-        <v>0.2988493687773795</v>
+        <v>0.25743379729191562</v>
       </c>
       <c r="W10">
-        <v>0.100828680525687</v>
+        <v>0.1046037954599761</v>
       </c>
       <c r="X10">
-        <v>2.5322465759443403E-2</v>
+        <v>0.24112418300653601</v>
       </c>
       <c r="Y10">
-        <v>2.5322465759443403E-2</v>
+        <v>0.24112418300653601</v>
       </c>
       <c r="Z10">
-        <v>0.35154741167434722</v>
+        <v>0.33027548088410991</v>
       </c>
       <c r="AA10">
-        <v>0.1059629395801331</v>
+        <v>0.1029040325140809</v>
       </c>
     </row>
     <row r="11" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A11">
-        <v>8</v>
+        <v>50</v>
       </c>
       <c r="B11" t="s">
         <v>17</v>
       </c>
       <c r="C11" t="s">
-        <v>27</v>
+        <v>109</v>
       </c>
       <c r="D11" t="s">
-        <v>120</v>
-      </c>
-      <c r="E11" s="1">
-        <v>9.8629999999999995</v>
+        <v>126</v>
+      </c>
+      <c r="E11">
+        <v>8.5429999999999993</v>
       </c>
       <c r="F11">
-        <v>37.67</v>
+        <v>35.195</v>
       </c>
       <c r="G11" t="s">
         <v>24</v>
@@ -3633,136 +3640,136 @@
       <c r="J11">
         <v>2025</v>
       </c>
-      <c r="K11">
-        <v>280</v>
-      </c>
-      <c r="L11" s="12">
-        <v>3.0751295336787571E-2</v>
-      </c>
-      <c r="M11" s="12">
-        <v>3.0751295336787571E-2</v>
+      <c r="K11" s="16">
+        <v>467</v>
+      </c>
+      <c r="L11">
+        <v>4.3201198882104185E-2</v>
+      </c>
+      <c r="M11">
+        <v>4.3201198882104185E-2</v>
       </c>
       <c r="N11">
-        <v>0.34092719315013942</v>
+        <v>0.30872469454400631</v>
       </c>
       <c r="O11">
-        <v>0.1071180219832736</v>
-      </c>
-      <c r="P11" s="1">
-        <v>0.86701208981001721</v>
-      </c>
-      <c r="Q11" s="1">
-        <v>0.86701208981001721</v>
+        <v>8.7997688649940245E-2</v>
+      </c>
+      <c r="P11">
+        <v>0.82341432688128036</v>
+      </c>
+      <c r="Q11">
+        <v>0.82341432688128036</v>
       </c>
       <c r="R11">
-        <v>0.30769531063321381</v>
+        <v>0.27046071166865798</v>
       </c>
       <c r="S11">
-        <v>7.763356463560335E-2</v>
-      </c>
-      <c r="T11" s="1">
-        <v>0.58084628670120908</v>
-      </c>
-      <c r="U11" s="1">
-        <v>0.58084628670120908</v>
+        <v>7.1315783990442069E-2</v>
+      </c>
+      <c r="T11">
+        <v>0.4738184238006809</v>
+      </c>
+      <c r="U11">
+        <v>0.4738184238006809</v>
       </c>
       <c r="V11">
-        <v>0.32889110155316609</v>
+        <v>0.2988493687773795</v>
       </c>
       <c r="W11">
-        <v>0.1072930659498208</v>
-      </c>
-      <c r="X11" s="1">
-        <v>3.181347150259068E-2</v>
-      </c>
-      <c r="Y11" s="1">
-        <v>3.181347150259068E-2</v>
+        <v>0.100828680525687</v>
+      </c>
+      <c r="X11">
+        <v>2.5322465759443403E-2</v>
+      </c>
+      <c r="Y11">
+        <v>2.5322465759443403E-2</v>
       </c>
       <c r="Z11">
-        <v>0.36244325098139613</v>
+        <v>0.35154741167434722</v>
       </c>
       <c r="AA11">
-        <v>9.809929006656426E-2</v>
+        <v>0.1059629395801331</v>
       </c>
     </row>
     <row r="12" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A12">
-        <v>40</v>
+        <v>8</v>
       </c>
       <c r="B12" t="s">
         <v>17</v>
       </c>
       <c r="C12" t="s">
-        <v>100</v>
+        <v>27</v>
       </c>
       <c r="D12" t="s">
-        <v>130</v>
-      </c>
-      <c r="E12">
-        <v>9.5592100000000002</v>
+        <v>119</v>
+      </c>
+      <c r="E12" s="1">
+        <v>9.8629999999999995</v>
       </c>
       <c r="F12">
-        <v>37.36562</v>
+        <v>37.67</v>
       </c>
       <c r="G12" t="s">
-        <v>9</v>
+        <v>24</v>
       </c>
       <c r="H12" t="s">
         <v>74</v>
       </c>
       <c r="J12">
-        <v>1973</v>
-      </c>
-      <c r="K12">
-        <v>128</v>
-      </c>
-      <c r="L12">
-        <v>0.39112886967512511</v>
-      </c>
-      <c r="M12">
-        <v>0.39112886967512511</v>
+        <v>2025</v>
+      </c>
+      <c r="K12" s="16">
+        <v>280</v>
+      </c>
+      <c r="L12" s="12">
+        <v>3.0751295336787571E-2</v>
+      </c>
+      <c r="M12" s="12">
+        <v>3.0751295336787571E-2</v>
       </c>
       <c r="N12">
-        <v>0.31769913022700119</v>
+        <v>0.34092719315013942</v>
       </c>
       <c r="O12">
-        <v>0.1226002829151733</v>
-      </c>
-      <c r="P12">
-        <v>0.55395990010728102</v>
-      </c>
-      <c r="Q12">
-        <v>0.55395990010728102</v>
+        <v>0.1071180219832736</v>
+      </c>
+      <c r="P12" s="1">
+        <v>0.86701208981001721</v>
+      </c>
+      <c r="Q12" s="1">
+        <v>0.86701208981001721</v>
       </c>
       <c r="R12">
-        <v>0.26080937037037039</v>
+        <v>0.30769531063321381</v>
       </c>
       <c r="S12">
-        <v>7.8234182317801673E-2</v>
-      </c>
-      <c r="T12">
-        <v>0.50142622072856036</v>
-      </c>
-      <c r="U12">
-        <v>0.50142622072856036</v>
+        <v>7.763356463560335E-2</v>
+      </c>
+      <c r="T12" s="1">
+        <v>0.58084628670120908</v>
+      </c>
+      <c r="U12" s="1">
+        <v>0.58084628670120908</v>
       </c>
       <c r="V12">
-        <v>0.29062612704101948</v>
+        <v>0.32889110155316609</v>
       </c>
       <c r="W12">
-        <v>0.1203243992831541</v>
-      </c>
-      <c r="X12">
-        <v>0.39620138396267701</v>
-      </c>
-      <c r="Y12">
-        <v>0.39620138396267701</v>
+        <v>0.1072930659498208</v>
+      </c>
+      <c r="X12" s="1">
+        <v>3.181347150259068E-2</v>
+      </c>
+      <c r="Y12" s="1">
+        <v>3.181347150259068E-2</v>
       </c>
       <c r="Z12">
-        <v>0.36399640809011768</v>
+        <v>0.36244325098139613</v>
       </c>
       <c r="AA12">
-        <v>0.13593716615463389</v>
+        <v>9.809929006656426E-2</v>
       </c>
     </row>
     <row r="13" spans="1:27" x14ac:dyDescent="0.2">
@@ -3773,10 +3780,10 @@
         <v>17</v>
       </c>
       <c r="C13" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="D13" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="E13">
         <v>8.31</v>
@@ -3793,7 +3800,7 @@
       <c r="J13">
         <v>2025</v>
       </c>
-      <c r="K13">
+      <c r="K13" s="16">
         <v>372</v>
       </c>
       <c r="L13">
@@ -3853,10 +3860,10 @@
         <v>17</v>
       </c>
       <c r="C14" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="D14" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="E14">
         <v>8.23</v>
@@ -3873,7 +3880,7 @@
       <c r="J14">
         <v>2025</v>
       </c>
-      <c r="K14">
+      <c r="K14" s="16">
         <v>216</v>
       </c>
       <c r="L14">
@@ -3927,22 +3934,22 @@
     </row>
     <row r="15" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A15">
-        <v>6</v>
+        <v>51</v>
       </c>
       <c r="B15" t="s">
         <v>17</v>
       </c>
       <c r="C15" t="s">
-        <v>23</v>
+        <v>110</v>
       </c>
       <c r="D15" t="s">
-        <v>135</v>
-      </c>
-      <c r="E15" s="1">
-        <v>10.144004000000001</v>
+        <v>137</v>
+      </c>
+      <c r="E15">
+        <v>8.9687499999993818</v>
       </c>
       <c r="F15">
-        <v>38.340000000000003</v>
+        <v>36.228934219808657</v>
       </c>
       <c r="G15" t="s">
         <v>24</v>
@@ -3951,161 +3958,158 @@
         <v>74</v>
       </c>
       <c r="J15">
-        <v>2026</v>
-      </c>
-      <c r="K15">
-        <v>1600</v>
-      </c>
-      <c r="L15" s="12">
-        <v>0.15239928498888736</v>
-      </c>
-      <c r="M15" s="12">
-        <v>0.15239928498888736</v>
+        <v>2025</v>
+      </c>
+      <c r="K15" s="16">
+        <v>550</v>
+      </c>
+      <c r="L15">
+        <v>0.5</v>
+      </c>
+      <c r="M15">
+        <v>0.5</v>
       </c>
       <c r="N15">
-        <v>0.34185133452807648</v>
+        <v>0.32026751971326162</v>
       </c>
       <c r="O15">
-        <v>0.120099909916368</v>
-      </c>
-      <c r="P15" s="1">
-        <v>0.96594138936903073</v>
-      </c>
-      <c r="Q15" s="1">
-        <v>0.96594138936903073</v>
+        <v>0.1044625844683393</v>
+      </c>
+      <c r="P15">
+        <v>0.5</v>
+      </c>
+      <c r="Q15">
+        <v>0.5</v>
       </c>
       <c r="R15">
-        <v>0.30371421146953398</v>
+        <v>0.26110407606531272</v>
       </c>
       <c r="S15">
-        <v>8.7546180884109925E-2</v>
-      </c>
-      <c r="T15" s="1">
-        <v>0.6383653800451311</v>
-      </c>
-      <c r="U15" s="1">
-        <v>0.6383653800451311</v>
+        <v>7.1898174910394255E-2</v>
+      </c>
+      <c r="T15">
+        <v>0.5</v>
+      </c>
+      <c r="U15">
+        <v>0.5</v>
       </c>
       <c r="V15">
-        <v>0.33924185145360408</v>
+        <v>0.31357061529271207</v>
       </c>
       <c r="W15">
-        <v>0.12606837108721619</v>
-      </c>
-      <c r="X15" s="1">
-        <v>6.2072973513692446E-2</v>
-      </c>
-      <c r="Y15" s="1">
-        <v>6.2072973513692446E-2</v>
+        <v>0.1066021416965352</v>
+      </c>
+      <c r="X15">
+        <v>0.5</v>
+      </c>
+      <c r="Y15">
+        <v>0.5</v>
       </c>
       <c r="Z15">
-        <v>0.37769306152927129</v>
+        <v>0.3784216705069125</v>
       </c>
       <c r="AA15">
-        <v>0.13024408422939071</v>
+        <v>0.1159565138248848</v>
       </c>
     </row>
     <row r="16" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A16">
-        <v>9</v>
+        <v>37</v>
       </c>
       <c r="B16" t="s">
         <v>17</v>
       </c>
       <c r="C16" t="s">
-        <v>113</v>
+        <v>96</v>
       </c>
       <c r="D16" t="s">
-        <v>137</v>
-      </c>
-      <c r="E16" s="1">
-        <v>11.71</v>
+        <v>147</v>
+      </c>
+      <c r="E16">
+        <v>13.790556</v>
       </c>
       <c r="F16">
-        <v>37.380000000000003</v>
+        <v>37.997222000000001</v>
       </c>
       <c r="G16" t="s">
-        <v>9</v>
+        <v>24</v>
       </c>
       <c r="H16" t="s">
         <v>74</v>
       </c>
-      <c r="I16">
-        <v>3600</v>
-      </c>
       <c r="J16">
-        <v>2010</v>
-      </c>
-      <c r="K16">
-        <v>460</v>
-      </c>
-      <c r="L16" s="12">
-        <v>0.46374835586876301</v>
-      </c>
-      <c r="M16" s="12">
-        <v>0.46374835586876301</v>
+        <v>2025</v>
+      </c>
+      <c r="K16" s="16">
+        <v>380</v>
+      </c>
+      <c r="L16">
+        <v>1</v>
+      </c>
+      <c r="M16">
+        <v>1</v>
       </c>
       <c r="N16">
-        <v>0.34544052767821593</v>
+        <v>0.29878433373158098</v>
       </c>
       <c r="O16">
-        <v>0.11954228339307051</v>
-      </c>
-      <c r="P16" s="12">
-        <v>0.46374835586876301</v>
-      </c>
-      <c r="Q16" s="12">
-        <v>0.46374835586876301</v>
+        <v>0.13950407383512539</v>
+      </c>
+      <c r="P16">
+        <v>1</v>
+      </c>
+      <c r="Q16">
+        <v>1</v>
       </c>
       <c r="R16">
-        <v>0.24786641338112311</v>
+        <v>0.26141661210673039</v>
       </c>
       <c r="S16">
-        <v>9.7465531660692939E-2</v>
-      </c>
-      <c r="T16" s="12">
-        <v>0.46374835586876301</v>
-      </c>
-      <c r="U16" s="12">
-        <v>0.46374835586876301</v>
+        <v>0.11389629414575871</v>
+      </c>
+      <c r="T16">
+        <v>1</v>
+      </c>
+      <c r="U16">
+        <v>1</v>
       </c>
       <c r="V16">
-        <v>0.31596995459976113</v>
+        <v>0.28619818797291918</v>
       </c>
       <c r="W16">
-        <v>0.1412421925925926</v>
-      </c>
-      <c r="X16" s="12">
-        <v>0.46374835586876301</v>
-      </c>
-      <c r="Y16" s="12">
-        <v>0.46374835586876301</v>
+        <v>0.15239372855436081</v>
+      </c>
+      <c r="X16">
+        <v>1</v>
+      </c>
+      <c r="Y16">
+        <v>1</v>
       </c>
       <c r="Z16">
-        <v>0.3865118322239291</v>
+        <v>0.32245606332138588</v>
       </c>
       <c r="AA16">
-        <v>0.14075010650281619</v>
+        <v>0.144823194828469</v>
       </c>
     </row>
     <row r="17" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A17">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="B17" t="s">
         <v>17</v>
       </c>
       <c r="C17" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="D17" t="s">
-        <v>123</v>
+        <v>149</v>
       </c>
       <c r="E17">
-        <v>9.7920509063105143</v>
+        <v>9.9860109999999995</v>
       </c>
       <c r="F17">
-        <v>34.821217572976948</v>
+        <v>34.893504</v>
       </c>
       <c r="G17" t="s">
         <v>24</v>
@@ -4114,78 +4118,78 @@
         <v>74</v>
       </c>
       <c r="J17">
-        <v>2031</v>
-      </c>
-      <c r="K17">
-        <v>250</v>
+        <v>2025</v>
+      </c>
+      <c r="K17" s="16">
+        <v>326</v>
       </c>
       <c r="L17">
-        <v>0.5</v>
+        <v>3.9472117214678984E-2</v>
       </c>
       <c r="M17">
-        <v>0.5</v>
+        <v>3.9472117214678984E-2</v>
       </c>
       <c r="N17">
-        <v>0.27238327479091989</v>
+        <v>0.29209634846674631</v>
       </c>
       <c r="O17">
-        <v>0.10800152401433689</v>
+        <v>0.10407190322580639</v>
       </c>
       <c r="P17">
-        <v>0.5</v>
+        <v>0.84636157253600031</v>
       </c>
       <c r="Q17">
-        <v>0.5</v>
+        <v>0.84636157253600031</v>
       </c>
       <c r="R17">
-        <v>0.24155350975706891</v>
+        <v>0.24039536280366389</v>
       </c>
       <c r="S17">
-        <v>6.6075166547192352E-2</v>
+        <v>6.262635101553167E-2</v>
       </c>
       <c r="T17">
-        <v>0.5</v>
+        <v>0.53219510012209625</v>
       </c>
       <c r="U17">
-        <v>0.5</v>
+        <v>0.53219510012209625</v>
       </c>
       <c r="V17">
-        <v>0.27196658821186781</v>
+        <v>0.28377471166865792</v>
       </c>
       <c r="W17">
-        <v>0.10728013309438469</v>
+        <v>0.1086817311827957</v>
       </c>
       <c r="X17">
-        <v>0.5</v>
+        <v>2.2890325229511288E-2</v>
       </c>
       <c r="Y17">
-        <v>0.5</v>
+        <v>2.2890325229511288E-2</v>
       </c>
       <c r="Z17">
-        <v>0.35598600273084152</v>
+        <v>0.37913282130056319</v>
       </c>
       <c r="AA17">
-        <v>0.12134669226830511</v>
+        <v>0.117723065796211</v>
       </c>
     </row>
     <row r="18" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A18">
-        <v>51</v>
+        <v>6</v>
       </c>
       <c r="B18" t="s">
         <v>17</v>
       </c>
       <c r="C18" t="s">
-        <v>111</v>
+        <v>23</v>
       </c>
       <c r="D18" t="s">
-        <v>138</v>
-      </c>
-      <c r="E18">
-        <v>8.9687499999993818</v>
+        <v>134</v>
+      </c>
+      <c r="E18" s="1">
+        <v>10.144004000000001</v>
       </c>
       <c r="F18">
-        <v>36.228934219808657</v>
+        <v>38.340000000000003</v>
       </c>
       <c r="G18" t="s">
         <v>24</v>
@@ -4194,161 +4198,159 @@
         <v>74</v>
       </c>
       <c r="J18">
-        <v>2025</v>
-      </c>
-      <c r="K18">
-        <v>550</v>
-      </c>
-      <c r="L18">
-        <v>0.5</v>
-      </c>
-      <c r="M18">
-        <v>0.5</v>
+        <v>2026</v>
+      </c>
+      <c r="K18" s="16">
+        <v>1600</v>
+      </c>
+      <c r="L18" s="12">
+        <v>0.15239928498888736</v>
+      </c>
+      <c r="M18" s="12">
+        <v>0.15239928498888736</v>
       </c>
       <c r="N18">
-        <v>0.32026751971326162</v>
+        <v>0.34185133452807648</v>
       </c>
       <c r="O18">
-        <v>0.1044625844683393</v>
-      </c>
-      <c r="P18">
-        <v>0.5</v>
-      </c>
-      <c r="Q18">
-        <v>0.5</v>
+        <v>0.120099909916368</v>
+      </c>
+      <c r="P18" s="1">
+        <v>0.96594138936903073</v>
+      </c>
+      <c r="Q18" s="1">
+        <v>0.96594138936903073</v>
       </c>
       <c r="R18">
-        <v>0.26110407606531272</v>
+        <v>0.30371421146953398</v>
       </c>
       <c r="S18">
-        <v>7.1898174910394255E-2</v>
-      </c>
-      <c r="T18">
-        <v>0.5</v>
-      </c>
-      <c r="U18">
-        <v>0.5</v>
+        <v>8.7546180884109925E-2</v>
+      </c>
+      <c r="T18" s="1">
+        <v>0.6383653800451311</v>
+      </c>
+      <c r="U18" s="1">
+        <v>0.6383653800451311</v>
       </c>
       <c r="V18">
-        <v>0.31357061529271207</v>
+        <v>0.33924185145360408</v>
       </c>
       <c r="W18">
-        <v>0.1066021416965352</v>
-      </c>
-      <c r="X18">
-        <v>0.5</v>
-      </c>
-      <c r="Y18">
-        <v>0.5</v>
+        <v>0.12606837108721619</v>
+      </c>
+      <c r="X18" s="1">
+        <v>6.2072973513692446E-2</v>
+      </c>
+      <c r="Y18" s="1">
+        <v>6.2072973513692446E-2</v>
       </c>
       <c r="Z18">
-        <v>0.3784216705069125</v>
+        <v>0.37769306152927129</v>
       </c>
       <c r="AA18">
-        <v>0.1159565138248848</v>
-      </c>
-    </row>
-    <row r="19" spans="1:27" s="8" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="8">
-        <v>4</v>
-      </c>
-      <c r="B19" s="8" t="s">
+        <v>0.13024408422939071</v>
+      </c>
+    </row>
+    <row r="19" spans="1:27" s="16" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A19">
+        <v>7</v>
+      </c>
+      <c r="B19" t="s">
         <v>17</v>
       </c>
-      <c r="C19" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="D19" s="8" t="s">
-        <v>141</v>
-      </c>
-      <c r="E19" s="9">
-        <v>11.21</v>
-      </c>
-      <c r="F19" s="8">
-        <v>35.090000000000003</v>
-      </c>
-      <c r="G19" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="H19" s="8" t="s">
+      <c r="C19" t="s">
+        <v>26</v>
+      </c>
+      <c r="D19" t="s">
+        <v>118</v>
+      </c>
+      <c r="E19" s="1">
+        <v>10.340844000000001</v>
+      </c>
+      <c r="F19">
+        <v>36.65</v>
+      </c>
+      <c r="G19" t="s">
+        <v>24</v>
+      </c>
+      <c r="H19" t="s">
         <v>74</v>
       </c>
-      <c r="I19" s="16">
-        <v>1874</v>
-      </c>
-      <c r="J19" s="8">
-        <v>2023</v>
-      </c>
-      <c r="K19" s="8">
-        <v>6400</v>
-      </c>
-      <c r="L19" s="17">
-        <v>0.27571636687559031</v>
-      </c>
-      <c r="M19" s="17">
-        <v>0.27571636687559031</v>
-      </c>
-      <c r="N19" s="8">
-        <v>0.33303783671843878</v>
-      </c>
-      <c r="O19" s="8">
-        <v>0.10567916917562729</v>
-      </c>
-      <c r="P19" s="9">
-        <v>0.27571636687559031</v>
-      </c>
-      <c r="Q19" s="9">
-        <v>0.27571636687559031</v>
-      </c>
-      <c r="R19" s="8">
-        <v>0.27764846395858228</v>
-      </c>
-      <c r="S19" s="8">
-        <v>6.7827279569892471E-2</v>
-      </c>
-      <c r="T19" s="9">
-        <v>0.27571636687559031</v>
-      </c>
-      <c r="U19" s="9">
-        <v>0.27571636687559031</v>
-      </c>
-      <c r="V19" s="8">
-        <v>0.30851121903624051</v>
-      </c>
-      <c r="W19" s="8">
-        <v>0.1091898138590203</v>
-      </c>
-      <c r="X19" s="9">
-        <v>0.27571636687559031</v>
-      </c>
-      <c r="Y19" s="9">
-        <v>0.27571636687559031</v>
-      </c>
-      <c r="Z19" s="8">
-        <v>0.37835753840245773</v>
-      </c>
-      <c r="AA19" s="8">
-        <v>0.11339636354326681</v>
+      <c r="I19"/>
+      <c r="J19">
+        <v>2028</v>
+      </c>
+      <c r="K19" s="16">
+        <v>935</v>
+      </c>
+      <c r="L19" s="12">
+        <v>4.8058277799555731E-2</v>
+      </c>
+      <c r="M19" s="12">
+        <v>4.8058277799555731E-2</v>
+      </c>
+      <c r="N19">
+        <v>0.3186647343687774</v>
+      </c>
+      <c r="O19">
+        <v>0.1097955641577061</v>
+      </c>
+      <c r="P19" s="1">
+        <v>0.72644714491049267</v>
+      </c>
+      <c r="Q19" s="1">
+        <v>0.72644714491049267</v>
+      </c>
+      <c r="R19">
+        <v>0.27000886260453999</v>
+      </c>
+      <c r="S19">
+        <v>7.4062143130227007E-2</v>
+      </c>
+      <c r="T19" s="1">
+        <v>0.48480334509342748</v>
+      </c>
+      <c r="U19" s="1">
+        <v>0.48480334509342748</v>
+      </c>
+      <c r="V19">
+        <v>0.3237500696933493</v>
+      </c>
+      <c r="W19">
+        <v>0.1145830021505376</v>
+      </c>
+      <c r="X19" s="1">
+        <v>2.9720371096302111E-2</v>
+      </c>
+      <c r="Y19" s="1">
+        <v>2.9720371096302111E-2</v>
+      </c>
+      <c r="Z19">
+        <v>0.38074566009557947</v>
+      </c>
+      <c r="AA19">
+        <v>0.1242511758832565</v>
       </c>
     </row>
     <row r="20" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A20">
-        <v>39</v>
+        <v>5</v>
       </c>
       <c r="B20" t="s">
         <v>17</v>
       </c>
       <c r="C20" t="s">
-        <v>99</v>
+        <v>28</v>
       </c>
       <c r="D20" t="s">
-        <v>146</v>
-      </c>
-      <c r="E20">
-        <v>7.9729166666660403</v>
+        <v>150</v>
+      </c>
+      <c r="E20" s="1">
+        <v>9.9470200000000002</v>
       </c>
       <c r="F20">
-        <v>35.327083333332517</v>
+        <v>35.68</v>
       </c>
       <c r="G20" t="s">
         <v>24</v>
@@ -4356,162 +4358,159 @@
       <c r="H20" t="s">
         <v>74</v>
       </c>
-      <c r="I20">
-        <v>76</v>
-      </c>
       <c r="J20">
-        <v>2031</v>
-      </c>
-      <c r="K20">
-        <v>1000</v>
-      </c>
-      <c r="L20">
-        <v>0.5</v>
-      </c>
-      <c r="M20">
-        <v>0.5</v>
+        <v>2030</v>
+      </c>
+      <c r="K20" s="16">
+        <v>1700</v>
+      </c>
+      <c r="L20" s="12">
+        <v>4.9502697311754849E-2</v>
+      </c>
+      <c r="M20" s="12">
+        <v>4.9502697311754849E-2</v>
       </c>
       <c r="N20">
-        <v>0.27118642134607718</v>
+        <v>0.32756912345679012</v>
       </c>
       <c r="O20">
-        <v>9.4730189247311816E-2</v>
-      </c>
-      <c r="P20">
-        <v>0.5</v>
-      </c>
-      <c r="Q20">
-        <v>0.5</v>
+        <v>9.7332529988052571E-2</v>
+      </c>
+      <c r="P20" s="1">
+        <v>0.78571104764495214</v>
+      </c>
+      <c r="Q20" s="1">
+        <v>0.78571104764495214</v>
       </c>
       <c r="R20">
-        <v>0.19225094026284351</v>
+        <v>0.26230201513341289</v>
       </c>
       <c r="S20">
-        <v>7.0605205017921155E-2</v>
-      </c>
-      <c r="T20">
-        <v>0.5</v>
-      </c>
-      <c r="U20">
-        <v>0.5</v>
+        <v>7.0104277419354835E-2</v>
+      </c>
+      <c r="T20" s="1">
+        <v>0.50293304320232102</v>
+      </c>
+      <c r="U20" s="1">
+        <v>0.50293304320232102</v>
       </c>
       <c r="V20">
-        <v>0.23421118598168059</v>
+        <v>0.32110683074472318</v>
       </c>
       <c r="W20">
-        <v>0.10729649032258071</v>
-      </c>
-      <c r="X20">
-        <v>0.5</v>
-      </c>
-      <c r="Y20">
-        <v>0.5</v>
+        <v>0.10273956296296299</v>
+      </c>
+      <c r="X20" s="1">
+        <v>2.8134548256947282E-2</v>
+      </c>
+      <c r="Y20" s="1">
+        <v>2.8134548256947282E-2</v>
       </c>
       <c r="Z20">
-        <v>0.33075371693121691</v>
+        <v>0.37596370327700979</v>
       </c>
       <c r="AA20">
-        <v>0.1102367903225806</v>
+        <v>0.111860513312852</v>
       </c>
     </row>
     <row r="21" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A21">
-        <v>38</v>
+        <v>45</v>
       </c>
       <c r="B21" t="s">
         <v>17</v>
       </c>
       <c r="C21" t="s">
-        <v>98</v>
+        <v>104</v>
       </c>
       <c r="D21" t="s">
-        <v>147</v>
+        <v>115</v>
       </c>
       <c r="E21">
-        <v>13.347630000000001</v>
+        <v>9.7799999999999994</v>
       </c>
       <c r="F21">
-        <v>38.743160000000003</v>
+        <v>38.83</v>
       </c>
       <c r="G21" t="s">
-        <v>9</v>
+        <v>24</v>
       </c>
       <c r="H21" t="s">
         <v>74</v>
       </c>
       <c r="J21">
-        <v>2010</v>
-      </c>
-      <c r="K21">
-        <v>300</v>
+        <v>2031</v>
+      </c>
+      <c r="K21" s="16">
+        <v>189</v>
       </c>
       <c r="L21">
-        <v>1</v>
+        <v>3.433550240586513E-2</v>
       </c>
       <c r="M21">
-        <v>1</v>
+        <v>3.433550240586513E-2</v>
       </c>
       <c r="N21">
-        <v>0.28742656471525291</v>
+        <v>0.28975484309040223</v>
       </c>
       <c r="O21">
-        <v>0.13885416821983271</v>
+        <v>0.13667612353643971</v>
       </c>
       <c r="P21">
-        <v>1</v>
+        <v>0.57473682007163951</v>
       </c>
       <c r="Q21">
-        <v>1</v>
+        <v>0.57473682007163951</v>
       </c>
       <c r="R21">
-        <v>0.26241724253285548</v>
+        <v>0.2641995675029869</v>
       </c>
       <c r="S21">
-        <v>0.1140387906810036</v>
+        <v>9.4938511350059748E-2</v>
       </c>
       <c r="T21">
-        <v>1</v>
+        <v>0.45762385822795409</v>
       </c>
       <c r="U21">
-        <v>1</v>
+        <v>0.45762385822795409</v>
       </c>
       <c r="V21">
-        <v>0.2465983233771406</v>
+        <v>0.29161254161688571</v>
       </c>
       <c r="W21">
-        <v>0.14380953620071679</v>
+        <v>0.13333808936678609</v>
       </c>
       <c r="X21">
-        <v>1</v>
+        <v>2.6200930948138496E-2</v>
       </c>
       <c r="Y21">
-        <v>1</v>
+        <v>2.6200930948138496E-2</v>
       </c>
       <c r="Z21">
-        <v>0.26817943207031919</v>
+        <v>0.35088009813961418</v>
       </c>
       <c r="AA21">
-        <v>0.1139012657450077</v>
+        <v>0.14635089605734769</v>
       </c>
     </row>
     <row r="22" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A22">
-        <v>37</v>
+        <v>46</v>
       </c>
       <c r="B22" t="s">
         <v>17</v>
       </c>
       <c r="C22" t="s">
-        <v>97</v>
+        <v>105</v>
       </c>
       <c r="D22" t="s">
-        <v>148</v>
+        <v>116</v>
       </c>
       <c r="E22">
-        <v>13.790556</v>
+        <v>9.7799999999999994</v>
       </c>
       <c r="F22">
-        <v>37.997222000000001</v>
+        <v>38.83</v>
       </c>
       <c r="G22" t="s">
         <v>24</v>
@@ -4520,78 +4519,78 @@
         <v>74</v>
       </c>
       <c r="J22">
-        <v>2025</v>
-      </c>
-      <c r="K22">
-        <v>380</v>
+        <v>2031</v>
+      </c>
+      <c r="K22" s="16">
+        <v>265</v>
       </c>
       <c r="L22">
-        <v>1</v>
+        <v>3.433550240586513E-2</v>
       </c>
       <c r="M22">
-        <v>1</v>
+        <v>3.433550240586513E-2</v>
       </c>
       <c r="N22">
-        <v>0.29878433373158098</v>
+        <v>0.28975484309040223</v>
       </c>
       <c r="O22">
-        <v>0.13950407383512539</v>
+        <v>0.13667612353643971</v>
       </c>
       <c r="P22">
-        <v>1</v>
+        <v>0.57473682007163962</v>
       </c>
       <c r="Q22">
-        <v>1</v>
+        <v>0.57473682007163962</v>
       </c>
       <c r="R22">
-        <v>0.26141661210673039</v>
+        <v>0.2641995675029869</v>
       </c>
       <c r="S22">
-        <v>0.11389629414575871</v>
+        <v>9.4938511350059748E-2</v>
       </c>
       <c r="T22">
-        <v>1</v>
+        <v>0.45762385822795409</v>
       </c>
       <c r="U22">
-        <v>1</v>
+        <v>0.45762385822795409</v>
       </c>
       <c r="V22">
-        <v>0.28619818797291918</v>
+        <v>0.29161254161688571</v>
       </c>
       <c r="W22">
-        <v>0.15239372855436081</v>
+        <v>0.13333808936678609</v>
       </c>
       <c r="X22">
-        <v>1</v>
+        <v>2.6200930948138496E-2</v>
       </c>
       <c r="Y22">
-        <v>1</v>
+        <v>2.6200930948138496E-2</v>
       </c>
       <c r="Z22">
-        <v>0.32245606332138588</v>
+        <v>0.35088009813961418</v>
       </c>
       <c r="AA22">
-        <v>0.144823194828469</v>
+        <v>0.14635089605734769</v>
       </c>
     </row>
     <row r="23" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A23">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="B23" t="s">
         <v>17</v>
       </c>
       <c r="C23" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="D23" t="s">
-        <v>150</v>
+        <v>122</v>
       </c>
       <c r="E23">
-        <v>9.9860109999999995</v>
+        <v>9.7920509063105143</v>
       </c>
       <c r="F23">
-        <v>34.893504</v>
+        <v>34.821217572976948</v>
       </c>
       <c r="G23" t="s">
         <v>24</v>
@@ -4600,78 +4599,78 @@
         <v>74</v>
       </c>
       <c r="J23">
-        <v>2025</v>
-      </c>
-      <c r="K23">
-        <v>326</v>
+        <v>2031</v>
+      </c>
+      <c r="K23" s="16">
+        <v>250</v>
       </c>
       <c r="L23">
-        <v>3.9472117214678984E-2</v>
+        <v>0.5</v>
       </c>
       <c r="M23">
-        <v>3.9472117214678984E-2</v>
+        <v>0.5</v>
       </c>
       <c r="N23">
-        <v>0.29209634846674631</v>
+        <v>0.27238327479091989</v>
       </c>
       <c r="O23">
-        <v>0.10407190322580639</v>
+        <v>0.10800152401433689</v>
       </c>
       <c r="P23">
-        <v>0.84636157253600031</v>
+        <v>0.5</v>
       </c>
       <c r="Q23">
-        <v>0.84636157253600031</v>
+        <v>0.5</v>
       </c>
       <c r="R23">
-        <v>0.24039536280366389</v>
+        <v>0.24155350975706891</v>
       </c>
       <c r="S23">
-        <v>6.262635101553167E-2</v>
+        <v>6.6075166547192352E-2</v>
       </c>
       <c r="T23">
-        <v>0.53219510012209625</v>
+        <v>0.5</v>
       </c>
       <c r="U23">
-        <v>0.53219510012209625</v>
+        <v>0.5</v>
       </c>
       <c r="V23">
-        <v>0.28377471166865792</v>
+        <v>0.27196658821186781</v>
       </c>
       <c r="W23">
-        <v>0.1086817311827957</v>
+        <v>0.10728013309438469</v>
       </c>
       <c r="X23">
-        <v>2.2890325229511288E-2</v>
+        <v>0.5</v>
       </c>
       <c r="Y23">
-        <v>2.2890325229511288E-2</v>
+        <v>0.5</v>
       </c>
       <c r="Z23">
-        <v>0.37913282130056319</v>
+        <v>0.35598600273084152</v>
       </c>
       <c r="AA23">
-        <v>0.117723065796211</v>
+        <v>0.12134669226830511</v>
       </c>
     </row>
     <row r="24" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A24">
-        <v>5</v>
+        <v>39</v>
       </c>
       <c r="B24" t="s">
         <v>17</v>
       </c>
       <c r="C24" t="s">
-        <v>28</v>
+        <v>98</v>
       </c>
       <c r="D24" t="s">
-        <v>151</v>
-      </c>
-      <c r="E24" s="1">
-        <v>9.9470200000000002</v>
+        <v>145</v>
+      </c>
+      <c r="E24">
+        <v>7.9729166666660403</v>
       </c>
       <c r="F24">
-        <v>35.68</v>
+        <v>35.327083333332517</v>
       </c>
       <c r="G24" t="s">
         <v>24</v>
@@ -4679,59 +4678,62 @@
       <c r="H24" t="s">
         <v>74</v>
       </c>
+      <c r="I24">
+        <v>76</v>
+      </c>
       <c r="J24">
-        <v>2030</v>
-      </c>
-      <c r="K24">
-        <v>1700</v>
-      </c>
-      <c r="L24" s="12">
-        <v>4.9502697311754849E-2</v>
-      </c>
-      <c r="M24" s="12">
-        <v>4.9502697311754849E-2</v>
+        <v>2031</v>
+      </c>
+      <c r="K24" s="16">
+        <v>1000</v>
+      </c>
+      <c r="L24">
+        <v>0.5</v>
+      </c>
+      <c r="M24">
+        <v>0.5</v>
       </c>
       <c r="N24">
-        <v>0.32756912345679012</v>
+        <v>0.27118642134607718</v>
       </c>
       <c r="O24">
-        <v>9.7332529988052571E-2</v>
-      </c>
-      <c r="P24" s="1">
-        <v>0.78571104764495214</v>
-      </c>
-      <c r="Q24" s="1">
-        <v>0.78571104764495214</v>
+        <v>9.4730189247311816E-2</v>
+      </c>
+      <c r="P24">
+        <v>0.5</v>
+      </c>
+      <c r="Q24">
+        <v>0.5</v>
       </c>
       <c r="R24">
-        <v>0.26230201513341289</v>
+        <v>0.19225094026284351</v>
       </c>
       <c r="S24">
-        <v>7.0104277419354835E-2</v>
-      </c>
-      <c r="T24" s="1">
-        <v>0.50293304320232102</v>
-      </c>
-      <c r="U24" s="1">
-        <v>0.50293304320232102</v>
+        <v>7.0605205017921155E-2</v>
+      </c>
+      <c r="T24">
+        <v>0.5</v>
+      </c>
+      <c r="U24">
+        <v>0.5</v>
       </c>
       <c r="V24">
-        <v>0.32110683074472318</v>
+        <v>0.23421118598168059</v>
       </c>
       <c r="W24">
-        <v>0.10273956296296299</v>
-      </c>
-      <c r="X24" s="1">
-        <v>2.8134548256947282E-2</v>
-      </c>
-      <c r="Y24" s="1">
-        <v>2.8134548256947282E-2</v>
+        <v>0.10729649032258071</v>
+      </c>
+      <c r="X24">
+        <v>0.5</v>
+      </c>
+      <c r="Y24">
+        <v>0.5</v>
       </c>
       <c r="Z24">
-        <v>0.37596370327700979</v>
+        <v>0.33075371693121691</v>
       </c>
       <c r="AA24">
-        <v>0.111860513312852</v>
+        <v>0.1102367903225806</v>
       </c>
     </row>
     <row r="25" spans="1:27" x14ac:dyDescent="0.2">
@@ -4739,13 +4741,13 @@
         <v>28</v>
       </c>
       <c r="B25" t="s">
+        <v>75</v>
+      </c>
+      <c r="C25" s="16" t="s">
         <v>76</v>
       </c>
-      <c r="C25" s="8" t="s">
-        <v>77</v>
-      </c>
       <c r="D25" s="8" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="E25">
         <v>4.7392422337811801</v>
@@ -4762,7 +4764,7 @@
       <c r="J25">
         <v>2026</v>
       </c>
-      <c r="K25">
+      <c r="K25" s="16">
         <v>120</v>
       </c>
       <c r="L25">
@@ -4819,13 +4821,13 @@
         <v>34</v>
       </c>
       <c r="B26" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C26" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D26" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="E26" s="1">
         <v>7.6813841641640401</v>
@@ -4842,7 +4844,7 @@
       <c r="J26">
         <v>2030</v>
       </c>
-      <c r="K26">
+      <c r="K26" s="16">
         <v>10.4</v>
       </c>
       <c r="L26">
@@ -4896,182 +4898,185 @@
     </row>
     <row r="27" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A27">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="B27" t="s">
         <v>29</v>
       </c>
       <c r="C27" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="D27" t="s">
-        <v>128</v>
+        <v>143</v>
       </c>
       <c r="E27" s="1">
-        <v>19.3353124367388</v>
+        <v>13.29707</v>
       </c>
       <c r="F27">
-        <v>33.409999999999997</v>
+        <v>33.89</v>
       </c>
       <c r="G27" t="s">
-        <v>24</v>
+        <v>9</v>
       </c>
       <c r="H27" t="s">
         <v>74</v>
       </c>
+      <c r="I27">
+        <v>15.2</v>
+      </c>
       <c r="J27">
-        <v>2028</v>
-      </c>
-      <c r="K27">
-        <v>312</v>
+        <v>1962</v>
+      </c>
+      <c r="K27" s="16">
+        <v>26</v>
       </c>
       <c r="L27" s="12">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="M27" s="12">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="N27">
-        <v>0.40658502349661491</v>
+        <v>0.36713684946236558</v>
       </c>
       <c r="O27">
-        <v>0.133054680525687</v>
+        <v>0.1140524489844684</v>
       </c>
       <c r="P27" s="1">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="Q27" s="1">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="R27">
-        <v>0.35451344165671039</v>
+        <v>0.28934304380724812</v>
       </c>
       <c r="S27">
-        <v>0.11408707311827949</v>
+        <v>7.8925713261648753E-2</v>
       </c>
       <c r="T27" s="1">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="U27" s="1">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="V27">
-        <v>0.36084930426125061</v>
+        <v>0.33376081999203511</v>
       </c>
       <c r="W27">
-        <v>0.13215149486260461</v>
+        <v>0.1145908714456392</v>
       </c>
       <c r="X27" s="1">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="Y27" s="1">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="Z27">
-        <v>0.40695313150708318</v>
+        <v>0.39572908004778973</v>
       </c>
       <c r="AA27">
-        <v>0.12382463159242189</v>
+        <v>0.1173318461341526</v>
       </c>
     </row>
     <row r="28" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A28">
-        <v>14</v>
+        <v>35</v>
       </c>
       <c r="B28" t="s">
         <v>29</v>
       </c>
       <c r="C28" t="s">
-        <v>39</v>
+        <v>84</v>
       </c>
       <c r="D28" t="s">
-        <v>129</v>
+        <v>135</v>
       </c>
       <c r="E28" s="1">
-        <v>21.373100000000001</v>
-      </c>
-      <c r="F28">
-        <v>30.93</v>
+        <v>14.9222</v>
+      </c>
+      <c r="F28" s="1">
+        <v>35.908299999999997</v>
       </c>
       <c r="G28" t="s">
-        <v>24</v>
+        <v>9</v>
       </c>
       <c r="H28" t="s">
         <v>74</v>
       </c>
       <c r="J28">
-        <v>2030</v>
-      </c>
-      <c r="K28">
-        <v>648</v>
-      </c>
-      <c r="L28" s="12">
-        <v>1</v>
-      </c>
-      <c r="M28" s="12">
-        <v>1</v>
+        <v>1964</v>
+      </c>
+      <c r="K28" s="16">
+        <v>10</v>
+      </c>
+      <c r="L28">
+        <v>0.42335374090065131</v>
+      </c>
+      <c r="M28">
+        <v>0.42335374090065131</v>
       </c>
       <c r="N28">
-        <v>0.42521820788530468</v>
+        <v>0.35828716925527671</v>
       </c>
       <c r="O28">
-        <v>0.1244606697729988</v>
-      </c>
-      <c r="P28" s="1">
-        <v>1</v>
-      </c>
-      <c r="Q28" s="1">
+        <v>0.12592183058542411</v>
+      </c>
+      <c r="P28">
+        <v>1</v>
+      </c>
+      <c r="Q28">
         <v>1</v>
       </c>
       <c r="R28">
-        <v>0.37771498287534838</v>
+        <v>0.30841619553962568</v>
       </c>
       <c r="S28">
-        <v>0.1102721285543608</v>
-      </c>
-      <c r="T28" s="1">
-        <v>1</v>
-      </c>
-      <c r="U28" s="1">
+        <v>0.1049052191158901</v>
+      </c>
+      <c r="T28">
+        <v>1</v>
+      </c>
+      <c r="U28">
         <v>1</v>
       </c>
       <c r="V28">
-        <v>0.38316936001592983</v>
+        <v>0.33410105575467941</v>
       </c>
       <c r="W28">
-        <v>0.12599141863799279</v>
-      </c>
-      <c r="X28" s="1">
-        <v>1</v>
-      </c>
-      <c r="Y28" s="1">
-        <v>1</v>
+        <v>0.13192159689366789</v>
+      </c>
+      <c r="X28">
+        <v>0.45356200606665714</v>
+      </c>
+      <c r="Y28">
+        <v>0.45356200606665714</v>
       </c>
       <c r="Z28">
-        <v>0.40716517665130569</v>
+        <v>0.38180538061102581</v>
       </c>
       <c r="AA28">
-        <v>0.1130760087045571</v>
+        <v>0.12809286277521759</v>
       </c>
     </row>
     <row r="29" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A29">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B29" t="s">
         <v>29</v>
       </c>
       <c r="C29" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="D29" t="s">
-        <v>121</v>
+        <v>141</v>
       </c>
       <c r="E29" s="1">
-        <v>15.238888888888889</v>
+        <v>11.7983333333333</v>
       </c>
       <c r="F29">
-        <v>32.46</v>
+        <v>34.39</v>
       </c>
       <c r="G29" t="s">
         <v>9</v>
@@ -5080,161 +5085,164 @@
         <v>74</v>
       </c>
       <c r="I29">
-        <v>1222</v>
+        <v>233</v>
       </c>
       <c r="J29">
-        <v>2003</v>
-      </c>
-      <c r="K29">
-        <v>19</v>
+        <v>1966</v>
+      </c>
+      <c r="K29" s="16">
+        <v>270</v>
       </c>
       <c r="L29" s="12">
-        <v>0.83298124989973343</v>
+        <v>0.5</v>
       </c>
       <c r="M29" s="12">
-        <v>0.83298124989973343</v>
+        <v>0.5</v>
       </c>
       <c r="N29">
-        <v>0.39466196216646748</v>
+        <v>0.36434364874551972</v>
       </c>
       <c r="O29">
-        <v>0.1190324735961768</v>
+        <v>0.1070808571087216</v>
       </c>
       <c r="P29" s="1">
-        <v>0.77571629040725032</v>
+        <v>0.5</v>
       </c>
       <c r="Q29" s="1">
-        <v>0.77571629040725032</v>
+        <v>0.5</v>
       </c>
       <c r="R29">
-        <v>0.32528437594583842</v>
+        <v>0.29083403385105527</v>
       </c>
       <c r="S29">
-        <v>9.0738510872162489E-2</v>
+        <v>7.0465027718040626E-2</v>
       </c>
       <c r="T29" s="1">
-        <v>0.80812762284681627</v>
+        <v>0.5</v>
       </c>
       <c r="U29" s="1">
-        <v>0.80812762284681627</v>
+        <v>0.5</v>
       </c>
       <c r="V29">
-        <v>0.35242235364396662</v>
+        <v>0.33143540342493027</v>
       </c>
       <c r="W29">
-        <v>0.1197469111111111</v>
+        <v>0.1056444339307049</v>
       </c>
       <c r="X29" s="1">
-        <v>0.34980347843566895</v>
+        <v>0.5</v>
       </c>
       <c r="Y29" s="1">
-        <v>0.34980347843566895</v>
+        <v>0.5</v>
       </c>
       <c r="Z29">
-        <v>0.41910394393241168</v>
+        <v>0.40202260582010579</v>
       </c>
       <c r="AA29">
-        <v>0.1194960299539171</v>
+        <v>0.11319275345622121</v>
       </c>
     </row>
     <row r="30" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A30">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="B30" t="s">
         <v>29</v>
       </c>
       <c r="C30" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="D30" t="s">
-        <v>134</v>
+        <v>120</v>
       </c>
       <c r="E30" s="1">
-        <v>19.166699999999999</v>
+        <v>15.238888888888889</v>
       </c>
       <c r="F30">
-        <v>30.48</v>
+        <v>32.46</v>
       </c>
       <c r="G30" t="s">
-        <v>24</v>
+        <v>9</v>
       </c>
       <c r="H30" t="s">
         <v>74</v>
       </c>
+      <c r="I30">
+        <v>1222</v>
+      </c>
       <c r="J30">
-        <v>2024</v>
-      </c>
-      <c r="K30">
-        <v>360</v>
+        <v>2003</v>
+      </c>
+      <c r="K30" s="16">
+        <v>19</v>
       </c>
       <c r="L30" s="12">
-        <v>1</v>
+        <v>0.83298124989973343</v>
       </c>
       <c r="M30" s="12">
-        <v>1</v>
+        <v>0.83298124989973343</v>
       </c>
       <c r="N30">
-        <v>0.41996924133811242</v>
+        <v>0.39466196216646748</v>
       </c>
       <c r="O30">
-        <v>0.1218930356033453</v>
+        <v>0.1190324735961768</v>
       </c>
       <c r="P30" s="1">
-        <v>1</v>
+        <v>0.77571629040725032</v>
       </c>
       <c r="Q30" s="1">
-        <v>1</v>
+        <v>0.77571629040725032</v>
       </c>
       <c r="R30">
-        <v>0.36449918518518509</v>
+        <v>0.32528437594583842</v>
       </c>
       <c r="S30">
-        <v>0.10455796200716851</v>
+        <v>9.0738510872162489E-2</v>
       </c>
       <c r="T30" s="1">
-        <v>1</v>
+        <v>0.80812762284681627</v>
       </c>
       <c r="U30" s="1">
-        <v>1</v>
+        <v>0.80812762284681627</v>
       </c>
       <c r="V30">
-        <v>0.37915904579848669</v>
+        <v>0.35242235364396662</v>
       </c>
       <c r="W30">
-        <v>0.1228442348864994</v>
+        <v>0.1197469111111111</v>
       </c>
       <c r="X30" s="1">
-        <v>1</v>
+        <v>0.34980347843566895</v>
       </c>
       <c r="Y30" s="1">
-        <v>1</v>
+        <v>0.34980347843566895</v>
       </c>
       <c r="Z30">
-        <v>0.43280106246799788</v>
+        <v>0.41910394393241168</v>
       </c>
       <c r="AA30">
-        <v>0.1174430401945725</v>
+        <v>0.1194960299539171</v>
       </c>
     </row>
     <row r="31" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A31">
-        <v>35</v>
+        <v>10</v>
       </c>
       <c r="B31" t="s">
         <v>29</v>
       </c>
       <c r="C31" t="s">
-        <v>85</v>
+        <v>33</v>
       </c>
       <c r="D31" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="E31" s="1">
-        <v>14.9222</v>
-      </c>
-      <c r="F31" s="1">
-        <v>35.908299999999997</v>
+        <v>18.492560000000001</v>
+      </c>
+      <c r="F31">
+        <v>31.82</v>
       </c>
       <c r="G31" t="s">
         <v>9</v>
@@ -5242,162 +5250,163 @@
       <c r="H31" t="s">
         <v>74</v>
       </c>
+      <c r="I31">
+        <v>476</v>
+      </c>
       <c r="J31">
-        <v>1964</v>
-      </c>
-      <c r="K31">
-        <v>10</v>
-      </c>
-      <c r="L31">
-        <v>0.42335374090065131</v>
-      </c>
-      <c r="M31">
-        <v>0.42335374090065131</v>
+        <v>2009</v>
+      </c>
+      <c r="K31" s="16">
+        <v>1240</v>
+      </c>
+      <c r="L31" s="12">
+        <v>0.85019816635710554</v>
+      </c>
+      <c r="M31" s="12">
+        <v>0.85019816635710554</v>
       </c>
       <c r="N31">
-        <v>0.35828716925527671</v>
+        <v>0.41324736758263642</v>
       </c>
       <c r="O31">
-        <v>0.12592183058542411</v>
-      </c>
-      <c r="P31">
-        <v>1</v>
-      </c>
-      <c r="Q31">
-        <v>1</v>
+        <v>0.12749815675029871</v>
+      </c>
+      <c r="P31" s="1">
+        <v>0.92476270759666213</v>
+      </c>
+      <c r="Q31" s="1">
+        <v>0.92476270759666213</v>
       </c>
       <c r="R31">
-        <v>0.30841619553962568</v>
+        <v>0.35471768857029068</v>
       </c>
       <c r="S31">
-        <v>0.1049052191158901</v>
-      </c>
-      <c r="T31">
-        <v>1</v>
-      </c>
-      <c r="U31">
-        <v>1</v>
+        <v>0.1051770494623656</v>
+      </c>
+      <c r="T31" s="1">
+        <v>0.98817898158853146</v>
+      </c>
+      <c r="U31" s="1">
+        <v>0.98817898158853146</v>
       </c>
       <c r="V31">
-        <v>0.33410105575467941</v>
+        <v>0.36381105894066113</v>
       </c>
       <c r="W31">
-        <v>0.13192159689366789</v>
-      </c>
-      <c r="X31">
-        <v>0.45356200606665714</v>
-      </c>
-      <c r="Y31">
-        <v>0.45356200606665714</v>
+        <v>0.12547243990442061</v>
+      </c>
+      <c r="X31" s="1">
+        <v>0.81116964716180107</v>
+      </c>
+      <c r="Y31" s="1">
+        <v>0.81116964716180107</v>
       </c>
       <c r="Z31">
-        <v>0.38180538061102581</v>
+        <v>0.41797175029868577</v>
       </c>
       <c r="AA31">
-        <v>0.12809286277521759</v>
+        <v>0.1216317309267793</v>
       </c>
     </row>
     <row r="32" spans="1:27" x14ac:dyDescent="0.2">
-      <c r="A32">
-        <v>10</v>
-      </c>
-      <c r="B32" t="s">
+      <c r="A32" s="16">
+        <v>36</v>
+      </c>
+      <c r="B32" s="16" t="s">
         <v>29</v>
       </c>
-      <c r="C32" t="s">
-        <v>33</v>
-      </c>
-      <c r="D32" t="s">
-        <v>139</v>
-      </c>
-      <c r="E32" s="1">
-        <v>18.492560000000001</v>
-      </c>
-      <c r="F32">
-        <v>31.82</v>
-      </c>
-      <c r="G32" t="s">
+      <c r="C32" s="16" t="s">
+        <v>85</v>
+      </c>
+      <c r="D32" s="16" t="s">
+        <v>148</v>
+      </c>
+      <c r="E32" s="17">
+        <v>14.2767</v>
+      </c>
+      <c r="F32" s="17">
+        <v>35.896900000000002</v>
+      </c>
+      <c r="G32" s="16" t="s">
         <v>9</v>
       </c>
-      <c r="H32" t="s">
+      <c r="H32" s="16" t="s">
         <v>74</v>
       </c>
-      <c r="I32">
-        <v>476</v>
-      </c>
-      <c r="J32">
-        <v>2009</v>
-      </c>
-      <c r="K32">
-        <v>1240</v>
-      </c>
-      <c r="L32" s="12">
-        <v>0.85019816635710554</v>
-      </c>
-      <c r="M32" s="12">
-        <v>0.85019816635710554</v>
-      </c>
-      <c r="N32">
-        <v>0.41324736758263642</v>
-      </c>
-      <c r="O32">
-        <v>0.12749815675029871</v>
-      </c>
-      <c r="P32" s="1">
-        <v>0.92476270759666213</v>
-      </c>
-      <c r="Q32" s="1">
-        <v>0.92476270759666213</v>
-      </c>
-      <c r="R32">
-        <v>0.35471768857029068</v>
-      </c>
-      <c r="S32">
-        <v>0.1051770494623656</v>
-      </c>
-      <c r="T32" s="1">
-        <v>0.98817898158853146</v>
-      </c>
-      <c r="U32" s="1">
-        <v>0.98817898158853146</v>
-      </c>
-      <c r="V32">
-        <v>0.36381105894066113</v>
-      </c>
-      <c r="W32">
-        <v>0.12547243990442061</v>
-      </c>
-      <c r="X32" s="1">
-        <v>0.81116964716180107</v>
-      </c>
-      <c r="Y32" s="1">
-        <v>0.81116964716180107</v>
-      </c>
-      <c r="Z32">
-        <v>0.41797175029868577</v>
-      </c>
-      <c r="AA32">
-        <v>0.1216317309267793</v>
+      <c r="I32" s="16"/>
+      <c r="J32" s="16">
+        <v>2017</v>
+      </c>
+      <c r="K32" s="16">
+        <v>320</v>
+      </c>
+      <c r="L32" s="16">
+        <v>2.7317154803051569E-2</v>
+      </c>
+      <c r="M32" s="16">
+        <v>2.7317154803051569E-2</v>
+      </c>
+      <c r="N32" s="16">
+        <v>0.35530261847869382</v>
+      </c>
+      <c r="O32" s="16">
+        <v>0.1228047395459976</v>
+      </c>
+      <c r="P32" s="16">
+        <v>0.59015230995696066</v>
+      </c>
+      <c r="Q32" s="16">
+        <v>0.59015230995696066</v>
+      </c>
+      <c r="R32" s="16">
+        <v>0.30836657228195941</v>
+      </c>
+      <c r="S32" s="16">
+        <v>0.1002377624850657</v>
+      </c>
+      <c r="T32" s="16">
+        <v>0.44439081011541814</v>
+      </c>
+      <c r="U32" s="16">
+        <v>0.44439081011541814</v>
+      </c>
+      <c r="V32" s="16">
+        <v>0.33429198128235771</v>
+      </c>
+      <c r="W32" s="16">
+        <v>0.12918153524492229</v>
+      </c>
+      <c r="X32" s="16">
+        <v>2.9266361284883659E-2</v>
+      </c>
+      <c r="Y32" s="16">
+        <v>2.9266361284883659E-2</v>
+      </c>
+      <c r="Z32" s="16">
+        <v>0.37724122802526022</v>
+      </c>
+      <c r="AA32" s="16">
+        <v>0.123978404249872</v>
       </c>
     </row>
     <row r="33" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A33">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="B33" t="s">
         <v>29</v>
       </c>
       <c r="C33" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="D33" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="E33" s="1">
-        <v>19.286999999999999</v>
+        <v>19.166699999999999</v>
       </c>
       <c r="F33">
-        <v>32.69</v>
+        <v>30.48</v>
       </c>
       <c r="G33" t="s">
         <v>24</v>
@@ -5406,161 +5415,158 @@
         <v>74</v>
       </c>
       <c r="J33">
-        <v>2030</v>
-      </c>
-      <c r="K33">
-        <v>312</v>
+        <v>2024</v>
+      </c>
+      <c r="K33" s="16">
+        <v>360</v>
       </c>
       <c r="L33" s="12">
-        <v>0.48267455815236754</v>
+        <v>1</v>
       </c>
       <c r="M33" s="12">
-        <v>0.48267455815236754</v>
+        <v>1</v>
       </c>
       <c r="N33">
-        <v>0.41117306730386288</v>
+        <v>0.41996924133811242</v>
       </c>
       <c r="O33">
-        <v>0.13151496917562719</v>
+        <v>0.1218930356033453</v>
       </c>
       <c r="P33" s="1">
-        <v>0.53491992806031752</v>
+        <v>1</v>
       </c>
       <c r="Q33" s="1">
-        <v>0.53491992806031752</v>
+        <v>1</v>
       </c>
       <c r="R33">
-        <v>0.35771489884508167</v>
+        <v>0.36449918518518509</v>
       </c>
       <c r="S33">
-        <v>0.1127497758661888</v>
+        <v>0.10455796200716851</v>
       </c>
       <c r="T33" s="1">
-        <v>0.54138714543912902</v>
+        <v>1</v>
       </c>
       <c r="U33" s="1">
-        <v>0.54138714543912902</v>
+        <v>1</v>
       </c>
       <c r="V33">
-        <v>0.36348772481083241</v>
+        <v>0.37915904579848669</v>
       </c>
       <c r="W33">
-        <v>0.12972741075268809</v>
+        <v>0.1228442348864994</v>
       </c>
       <c r="X33" s="1">
-        <v>0.44101836834818581</v>
+        <v>1</v>
       </c>
       <c r="Y33" s="1">
-        <v>0.44101836834818581</v>
+        <v>1</v>
       </c>
       <c r="Z33">
-        <v>0.41726091696535239</v>
+        <v>0.43280106246799788</v>
       </c>
       <c r="AA33">
-        <v>0.12471186533538151</v>
+        <v>0.1174430401945725</v>
       </c>
     </row>
     <row r="34" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A34">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="B34" t="s">
         <v>29</v>
       </c>
       <c r="C34" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="D34" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="E34" s="1">
-        <v>11.7983333333333</v>
+        <v>19.226299999999998</v>
       </c>
       <c r="F34">
-        <v>34.39</v>
+        <v>33.479999999999997</v>
       </c>
       <c r="G34" t="s">
-        <v>9</v>
+        <v>24</v>
       </c>
       <c r="H34" t="s">
         <v>74</v>
       </c>
-      <c r="I34">
-        <v>233</v>
-      </c>
       <c r="J34">
-        <v>1966</v>
-      </c>
-      <c r="K34">
-        <v>270</v>
+        <v>2025</v>
+      </c>
+      <c r="K34" s="16">
+        <v>420</v>
       </c>
       <c r="L34" s="12">
-        <v>0.5</v>
+        <v>0.968101455335308</v>
       </c>
       <c r="M34" s="12">
-        <v>0.5</v>
+        <v>0.968101455335308</v>
       </c>
       <c r="N34">
-        <v>0.36434364874551972</v>
+        <v>0.40367119076065322</v>
       </c>
       <c r="O34">
-        <v>0.1070808571087216</v>
+        <v>0.1329511230585424</v>
       </c>
       <c r="P34" s="1">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="Q34" s="1">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="R34">
-        <v>0.29083403385105527</v>
+        <v>0.35034039944245321</v>
       </c>
       <c r="S34">
-        <v>7.0465027718040626E-2</v>
+        <v>0.1136679777777778</v>
       </c>
       <c r="T34" s="1">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="U34" s="1">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="V34">
-        <v>0.33143540342493027</v>
+        <v>0.35596104659498212</v>
       </c>
       <c r="W34">
-        <v>0.1056444339307049</v>
+        <v>0.13273961720430111</v>
       </c>
       <c r="X34" s="1">
-        <v>0.5</v>
+        <v>0.98223850763713827</v>
       </c>
       <c r="Y34" s="1">
-        <v>0.5</v>
+        <v>0.98223850763713827</v>
       </c>
       <c r="Z34">
-        <v>0.40202260582010579</v>
+        <v>0.40630400110940429</v>
       </c>
       <c r="AA34">
-        <v>0.11319275345622121</v>
+        <v>0.12482191730670759</v>
       </c>
     </row>
     <row r="35" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A35">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B35" t="s">
         <v>29</v>
       </c>
       <c r="C35" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="D35" t="s">
-        <v>143</v>
+        <v>127</v>
       </c>
       <c r="E35" s="1">
-        <v>16.3569</v>
+        <v>19.3353124367388</v>
       </c>
       <c r="F35">
-        <v>32.71</v>
+        <v>33.409999999999997</v>
       </c>
       <c r="G35" t="s">
         <v>24</v>
@@ -5569,10 +5575,10 @@
         <v>74</v>
       </c>
       <c r="J35">
-        <v>2030</v>
-      </c>
-      <c r="K35">
-        <v>205</v>
+        <v>2028</v>
+      </c>
+      <c r="K35" s="16">
+        <v>312</v>
       </c>
       <c r="L35" s="12">
         <v>1</v>
@@ -5581,10 +5587,10 @@
         <v>1</v>
       </c>
       <c r="N35">
-        <v>0.40252829948227792</v>
+        <v>0.40658502349661491</v>
       </c>
       <c r="O35">
-        <v>0.1276621199522103</v>
+        <v>0.133054680525687</v>
       </c>
       <c r="P35" s="1">
         <v>1</v>
@@ -5593,10 +5599,10 @@
         <v>1</v>
       </c>
       <c r="R35">
-        <v>0.33904976543209869</v>
+        <v>0.35451344165671039</v>
       </c>
       <c r="S35">
-        <v>0.1012916372759857</v>
+        <v>0.11408707311827949</v>
       </c>
       <c r="T35" s="1">
         <v>1</v>
@@ -5605,10 +5611,10 @@
         <v>1</v>
       </c>
       <c r="V35">
-        <v>0.35010868657905209</v>
+        <v>0.36084930426125061</v>
       </c>
       <c r="W35">
-        <v>0.12502672329749101</v>
+        <v>0.13215149486260461</v>
       </c>
       <c r="X35" s="1">
         <v>1</v>
@@ -5617,113 +5623,110 @@
         <v>1</v>
       </c>
       <c r="Z35">
-        <v>0.41956464285714279</v>
+        <v>0.40695313150708318</v>
       </c>
       <c r="AA35">
-        <v>0.124365051203277</v>
+        <v>0.12382463159242189</v>
       </c>
     </row>
     <row r="36" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A36">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="B36" t="s">
         <v>29</v>
       </c>
       <c r="C36" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="D36" t="s">
-        <v>144</v>
+        <v>128</v>
       </c>
       <c r="E36" s="1">
-        <v>13.29707</v>
+        <v>21.373100000000001</v>
       </c>
       <c r="F36">
-        <v>33.89</v>
+        <v>30.93</v>
       </c>
       <c r="G36" t="s">
-        <v>9</v>
+        <v>24</v>
       </c>
       <c r="H36" t="s">
         <v>74</v>
       </c>
-      <c r="I36">
-        <v>15.2</v>
-      </c>
       <c r="J36">
-        <v>1962</v>
-      </c>
-      <c r="K36">
-        <v>26</v>
+        <v>2030</v>
+      </c>
+      <c r="K36" s="16">
+        <v>648</v>
       </c>
       <c r="L36" s="12">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="M36" s="12">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="N36">
-        <v>0.36713684946236558</v>
+        <v>0.42521820788530468</v>
       </c>
       <c r="O36">
-        <v>0.1140524489844684</v>
+        <v>0.1244606697729988</v>
       </c>
       <c r="P36" s="1">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="Q36" s="1">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="R36">
-        <v>0.28934304380724812</v>
+        <v>0.37771498287534838</v>
       </c>
       <c r="S36">
-        <v>7.8925713261648753E-2</v>
+        <v>0.1102721285543608</v>
       </c>
       <c r="T36" s="1">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="U36" s="1">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="V36">
-        <v>0.33376081999203511</v>
+        <v>0.38316936001592983</v>
       </c>
       <c r="W36">
-        <v>0.1145908714456392</v>
+        <v>0.12599141863799279</v>
       </c>
       <c r="X36" s="1">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="Y36" s="1">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="Z36">
-        <v>0.39572908004778973</v>
+        <v>0.40716517665130569</v>
       </c>
       <c r="AA36">
-        <v>0.1173318461341526</v>
+        <v>0.1130760087045571</v>
       </c>
     </row>
     <row r="37" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A37">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="B37" t="s">
         <v>29</v>
       </c>
       <c r="C37" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="D37" t="s">
-        <v>145</v>
+        <v>139</v>
       </c>
       <c r="E37" s="1">
-        <v>19.226299999999998</v>
+        <v>19.286999999999999</v>
       </c>
       <c r="F37">
-        <v>33.479999999999997</v>
+        <v>32.69</v>
       </c>
       <c r="G37" t="s">
         <v>24</v>
@@ -5732,138 +5735,139 @@
         <v>74</v>
       </c>
       <c r="J37">
-        <v>2025</v>
-      </c>
-      <c r="K37">
-        <v>420</v>
+        <v>2030</v>
+      </c>
+      <c r="K37" s="16">
+        <v>312</v>
       </c>
       <c r="L37" s="12">
-        <v>0.968101455335308</v>
+        <v>0.48267455815236754</v>
       </c>
       <c r="M37" s="12">
-        <v>0.968101455335308</v>
+        <v>0.48267455815236754</v>
       </c>
       <c r="N37">
-        <v>0.40367119076065322</v>
+        <v>0.41117306730386288</v>
       </c>
       <c r="O37">
-        <v>0.1329511230585424</v>
+        <v>0.13151496917562719</v>
       </c>
       <c r="P37" s="1">
-        <v>1</v>
+        <v>0.53491992806031752</v>
       </c>
       <c r="Q37" s="1">
-        <v>1</v>
+        <v>0.53491992806031752</v>
       </c>
       <c r="R37">
-        <v>0.35034039944245321</v>
+        <v>0.35771489884508167</v>
       </c>
       <c r="S37">
-        <v>0.1136679777777778</v>
+        <v>0.1127497758661888</v>
       </c>
       <c r="T37" s="1">
-        <v>1</v>
+        <v>0.54138714543912902</v>
       </c>
       <c r="U37" s="1">
-        <v>1</v>
+        <v>0.54138714543912902</v>
       </c>
       <c r="V37">
-        <v>0.35596104659498212</v>
+        <v>0.36348772481083241</v>
       </c>
       <c r="W37">
-        <v>0.13273961720430111</v>
+        <v>0.12972741075268809</v>
       </c>
       <c r="X37" s="1">
-        <v>0.98223850763713827</v>
+        <v>0.44101836834818581</v>
       </c>
       <c r="Y37" s="1">
-        <v>0.98223850763713827</v>
+        <v>0.44101836834818581</v>
       </c>
       <c r="Z37">
-        <v>0.40630400110940429</v>
+        <v>0.41726091696535239</v>
       </c>
       <c r="AA37">
-        <v>0.12482191730670759</v>
-      </c>
-    </row>
-    <row r="38" spans="1:27" s="8" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A38" s="8">
-        <v>36</v>
-      </c>
-      <c r="B38" s="8" t="s">
+        <v>0.12471186533538151</v>
+      </c>
+    </row>
+    <row r="38" spans="1:27" s="16" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A38">
+        <v>19</v>
+      </c>
+      <c r="B38" t="s">
         <v>29</v>
       </c>
-      <c r="C38" s="8" t="s">
-        <v>86</v>
-      </c>
-      <c r="D38" s="8" t="s">
-        <v>149</v>
-      </c>
-      <c r="E38" s="9">
-        <v>14.2767</v>
-      </c>
-      <c r="F38" s="9">
-        <v>35.896900000000002</v>
-      </c>
-      <c r="G38" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="H38" s="8" t="s">
+      <c r="C38" t="s">
+        <v>40</v>
+      </c>
+      <c r="D38" t="s">
+        <v>142</v>
+      </c>
+      <c r="E38" s="1">
+        <v>16.3569</v>
+      </c>
+      <c r="F38">
+        <v>32.71</v>
+      </c>
+      <c r="G38" t="s">
+        <v>24</v>
+      </c>
+      <c r="H38" t="s">
         <v>74</v>
       </c>
-      <c r="J38" s="8">
-        <v>2017</v>
-      </c>
-      <c r="K38" s="8">
-        <v>320</v>
-      </c>
-      <c r="L38" s="8">
-        <v>2.7317154803051569E-2</v>
-      </c>
-      <c r="M38" s="8">
-        <v>2.7317154803051569E-2</v>
-      </c>
-      <c r="N38" s="8">
-        <v>0.35530261847869382</v>
-      </c>
-      <c r="O38" s="8">
-        <v>0.1228047395459976</v>
-      </c>
-      <c r="P38" s="8">
-        <v>0.59015230995696066</v>
-      </c>
-      <c r="Q38" s="8">
-        <v>0.59015230995696066</v>
-      </c>
-      <c r="R38" s="8">
-        <v>0.30836657228195941</v>
-      </c>
-      <c r="S38" s="8">
-        <v>0.1002377624850657</v>
-      </c>
-      <c r="T38" s="8">
-        <v>0.44439081011541814</v>
-      </c>
-      <c r="U38" s="8">
-        <v>0.44439081011541814</v>
-      </c>
-      <c r="V38" s="8">
-        <v>0.33429198128235771</v>
-      </c>
-      <c r="W38" s="8">
-        <v>0.12918153524492229</v>
-      </c>
-      <c r="X38" s="8">
-        <v>2.9266361284883659E-2</v>
-      </c>
-      <c r="Y38" s="8">
-        <v>2.9266361284883659E-2</v>
-      </c>
-      <c r="Z38" s="8">
-        <v>0.37724122802526022</v>
-      </c>
-      <c r="AA38" s="8">
-        <v>0.123978404249872</v>
+      <c r="I38"/>
+      <c r="J38">
+        <v>2030</v>
+      </c>
+      <c r="K38" s="16">
+        <v>205</v>
+      </c>
+      <c r="L38" s="12">
+        <v>1</v>
+      </c>
+      <c r="M38" s="12">
+        <v>1</v>
+      </c>
+      <c r="N38">
+        <v>0.40252829948227792</v>
+      </c>
+      <c r="O38">
+        <v>0.1276621199522103</v>
+      </c>
+      <c r="P38" s="1">
+        <v>1</v>
+      </c>
+      <c r="Q38" s="1">
+        <v>1</v>
+      </c>
+      <c r="R38">
+        <v>0.33904976543209869</v>
+      </c>
+      <c r="S38">
+        <v>0.1012916372759857</v>
+      </c>
+      <c r="T38" s="1">
+        <v>1</v>
+      </c>
+      <c r="U38" s="1">
+        <v>1</v>
+      </c>
+      <c r="V38">
+        <v>0.35010868657905209</v>
+      </c>
+      <c r="W38">
+        <v>0.12502672329749101</v>
+      </c>
+      <c r="X38" s="1">
+        <v>1</v>
+      </c>
+      <c r="Y38" s="1">
+        <v>1</v>
+      </c>
+      <c r="Z38">
+        <v>0.41956464285714279</v>
+      </c>
+      <c r="AA38">
+        <v>0.124365051203277</v>
       </c>
     </row>
     <row r="39" spans="1:27" x14ac:dyDescent="0.2">
@@ -5877,7 +5881,7 @@
         <v>14</v>
       </c>
       <c r="D39" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="E39" s="1">
         <v>25.315359999999998</v>
@@ -5889,12 +5893,12 @@
         <v>9</v>
       </c>
       <c r="H39" t="s">
-        <v>75</v>
+        <v>82</v>
       </c>
       <c r="J39">
         <v>2010</v>
       </c>
-      <c r="K39">
+      <c r="K39" s="16">
         <v>86</v>
       </c>
       <c r="L39" s="12">
@@ -5933,7 +5937,7 @@
         <v>15</v>
       </c>
       <c r="D40" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="E40" s="1">
         <v>26.045996917309001</v>
@@ -5945,12 +5949,12 @@
         <v>9</v>
       </c>
       <c r="H40" t="s">
-        <v>75</v>
+        <v>82</v>
       </c>
       <c r="J40">
         <v>2010</v>
       </c>
-      <c r="K40">
+      <c r="K40" s="16">
         <v>64</v>
       </c>
       <c r="L40" s="12">
@@ -5978,148 +5982,148 @@
         <v>1</v>
       </c>
     </row>
-    <row r="41" spans="1:27" s="8" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A41" s="8">
+    <row r="41" spans="1:27" s="16" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A41" s="16">
         <v>22</v>
       </c>
-      <c r="B41" s="8" t="s">
+      <c r="B41" s="16" t="s">
         <v>7</v>
       </c>
-      <c r="C41" s="8" t="s">
+      <c r="C41" s="16" t="s">
         <v>16</v>
       </c>
-      <c r="D41" s="8" t="s">
-        <v>162</v>
-      </c>
-      <c r="E41" s="9">
+      <c r="D41" s="16" t="s">
+        <v>161</v>
+      </c>
+      <c r="E41" s="17">
         <v>29.996935100000002</v>
       </c>
-      <c r="F41" s="8">
+      <c r="F41" s="16">
         <v>31.25</v>
       </c>
-      <c r="G41" s="8" t="s">
+      <c r="G41" s="16" t="s">
         <v>9</v>
       </c>
-      <c r="H41" s="8" t="s">
-        <v>75</v>
-      </c>
-      <c r="J41" s="8">
+      <c r="H41" t="s">
+        <v>82</v>
+      </c>
+      <c r="J41" s="16">
         <v>2018</v>
       </c>
-      <c r="K41" s="9">
+      <c r="K41" s="17">
         <v>31.73515982</v>
       </c>
-      <c r="L41" s="17">
-        <v>1</v>
-      </c>
-      <c r="M41" s="17">
-        <v>1</v>
-      </c>
-      <c r="P41" s="17">
-        <v>1</v>
-      </c>
-      <c r="Q41" s="17">
-        <v>1</v>
-      </c>
-      <c r="T41" s="17">
-        <v>1</v>
-      </c>
-      <c r="U41" s="17">
-        <v>1</v>
-      </c>
-      <c r="X41" s="17">
-        <v>1</v>
-      </c>
-      <c r="Y41" s="17">
+      <c r="L41" s="19">
+        <v>1</v>
+      </c>
+      <c r="M41" s="19">
+        <v>1</v>
+      </c>
+      <c r="P41" s="19">
+        <v>1</v>
+      </c>
+      <c r="Q41" s="19">
+        <v>1</v>
+      </c>
+      <c r="T41" s="19">
+        <v>1</v>
+      </c>
+      <c r="U41" s="19">
+        <v>1</v>
+      </c>
+      <c r="X41" s="19">
+        <v>1</v>
+      </c>
+      <c r="Y41" s="19">
         <v>1</v>
       </c>
     </row>
     <row r="42" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A42">
-        <v>42</v>
+        <v>24</v>
       </c>
       <c r="B42" t="s">
         <v>17</v>
       </c>
       <c r="C42" t="s">
-        <v>102</v>
+        <v>21</v>
       </c>
       <c r="D42" t="s">
-        <v>160</v>
-      </c>
-      <c r="E42">
-        <v>8.39</v>
+        <v>146</v>
+      </c>
+      <c r="E42" s="1">
+        <v>11.485569999999999</v>
       </c>
       <c r="F42">
-        <v>35.44</v>
+        <v>37.590000000000003</v>
       </c>
       <c r="G42" t="s">
         <v>9</v>
       </c>
       <c r="H42" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="J42">
-        <v>2014</v>
-      </c>
-      <c r="K42">
-        <v>5</v>
-      </c>
-      <c r="L42">
-        <v>0.17605086170659942</v>
-      </c>
-      <c r="M42">
-        <v>0.17605086170659942</v>
-      </c>
-      <c r="P42">
-        <v>0.97162673392181587</v>
-      </c>
-      <c r="Q42">
-        <v>0.97162673392181587</v>
-      </c>
-      <c r="T42">
-        <v>0.69829760403530894</v>
-      </c>
-      <c r="U42">
-        <v>0.69829760403530894</v>
-      </c>
-      <c r="X42">
-        <v>5.3270281630937368E-2</v>
-      </c>
-      <c r="Y42">
-        <v>5.3270281630937368E-2</v>
+        <v>2000</v>
+      </c>
+      <c r="K42" s="16">
+        <v>11</v>
+      </c>
+      <c r="L42" s="12">
+        <v>1</v>
+      </c>
+      <c r="M42" s="12">
+        <v>1</v>
+      </c>
+      <c r="P42" s="12">
+        <v>1</v>
+      </c>
+      <c r="Q42" s="12">
+        <v>1</v>
+      </c>
+      <c r="T42" s="12">
+        <v>1</v>
+      </c>
+      <c r="U42" s="12">
+        <v>1</v>
+      </c>
+      <c r="X42" s="12">
+        <v>1</v>
+      </c>
+      <c r="Y42" s="12">
+        <v>1</v>
       </c>
     </row>
     <row r="43" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A43">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B43" t="s">
         <v>17</v>
       </c>
       <c r="C43" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D43" t="s">
         <v>147</v>
       </c>
       <c r="E43" s="1">
-        <v>11.485569999999999</v>
+        <v>11.4887</v>
       </c>
       <c r="F43">
-        <v>37.590000000000003</v>
+        <v>37.6</v>
       </c>
       <c r="G43" t="s">
         <v>9</v>
       </c>
       <c r="H43" t="s">
-        <v>75</v>
+        <v>82</v>
       </c>
       <c r="J43">
-        <v>2000</v>
-      </c>
-      <c r="K43">
-        <v>11</v>
+        <v>2010</v>
+      </c>
+      <c r="K43" s="16">
+        <v>78</v>
       </c>
       <c r="L43" s="12">
         <v>1</v>
@@ -6148,58 +6152,58 @@
     </row>
     <row r="44" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A44">
-        <v>23</v>
+        <v>42</v>
       </c>
       <c r="B44" t="s">
         <v>17</v>
       </c>
       <c r="C44" t="s">
-        <v>22</v>
+        <v>101</v>
       </c>
       <c r="D44" t="s">
-        <v>148</v>
-      </c>
-      <c r="E44" s="1">
-        <v>11.4887</v>
+        <v>159</v>
+      </c>
+      <c r="E44">
+        <v>8.39</v>
       </c>
       <c r="F44">
-        <v>37.6</v>
+        <v>35.44</v>
       </c>
       <c r="G44" t="s">
         <v>9</v>
       </c>
       <c r="H44" t="s">
-        <v>75</v>
+        <v>82</v>
       </c>
       <c r="J44">
-        <v>2010</v>
-      </c>
-      <c r="K44">
-        <v>78</v>
-      </c>
-      <c r="L44" s="12">
-        <v>1</v>
-      </c>
-      <c r="M44" s="12">
-        <v>1</v>
-      </c>
-      <c r="P44" s="12">
-        <v>1</v>
-      </c>
-      <c r="Q44" s="12">
-        <v>1</v>
-      </c>
-      <c r="T44" s="12">
-        <v>1</v>
-      </c>
-      <c r="U44" s="12">
-        <v>1</v>
-      </c>
-      <c r="X44" s="12">
-        <v>1</v>
-      </c>
-      <c r="Y44" s="12">
-        <v>1</v>
+        <v>2014</v>
+      </c>
+      <c r="K44" s="16">
+        <v>5</v>
+      </c>
+      <c r="L44">
+        <v>0.17605086170659942</v>
+      </c>
+      <c r="M44">
+        <v>0.17605086170659942</v>
+      </c>
+      <c r="P44">
+        <v>0.97162673392181587</v>
+      </c>
+      <c r="Q44">
+        <v>0.97162673392181587</v>
+      </c>
+      <c r="T44">
+        <v>0.69829760403530894</v>
+      </c>
+      <c r="U44">
+        <v>0.69829760403530894</v>
+      </c>
+      <c r="X44">
+        <v>5.3270281630937368E-2</v>
+      </c>
+      <c r="Y44">
+        <v>5.3270281630937368E-2</v>
       </c>
     </row>
     <row r="45" spans="1:27" x14ac:dyDescent="0.2">
@@ -6207,13 +6211,13 @@
         <v>29</v>
       </c>
       <c r="B45" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C45" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D45" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="E45">
         <v>4.5624833330000456</v>
@@ -6225,12 +6229,12 @@
         <v>24</v>
       </c>
       <c r="H45" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="J45">
         <v>2024</v>
       </c>
-      <c r="K45">
+      <c r="K45" s="16">
         <v>570</v>
       </c>
       <c r="L45">
@@ -6263,13 +6267,13 @@
         <v>32</v>
       </c>
       <c r="B46" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C46" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="D46" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="E46">
         <v>3.954004000000054</v>
@@ -6281,12 +6285,12 @@
         <v>24</v>
       </c>
       <c r="H46" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="J46">
         <v>2024</v>
       </c>
-      <c r="K46">
+      <c r="K46" s="16">
         <v>890</v>
       </c>
       <c r="L46">
@@ -6316,272 +6320,176 @@
     </row>
     <row r="47" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A47">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="B47" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C47" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="D47" t="s">
         <v>156</v>
       </c>
       <c r="E47">
-        <v>3.6708333360000398</v>
+        <v>4.1286550000000366</v>
       </c>
       <c r="F47">
-        <v>31.972916667</v>
+        <v>31.581250000000072</v>
       </c>
       <c r="G47" t="s">
         <v>24</v>
       </c>
       <c r="H47" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="J47">
-        <v>2025</v>
-      </c>
-      <c r="K47">
-        <v>42</v>
+        <v>2024</v>
+      </c>
+      <c r="K47" s="16">
+        <v>410</v>
       </c>
       <c r="L47">
-        <v>0.80890994820337736</v>
+        <v>1</v>
       </c>
       <c r="M47">
-        <v>0.80890994820337736</v>
+        <v>1</v>
       </c>
       <c r="P47">
-        <v>0.23468337930949679</v>
+        <v>0.66221978734810272</v>
       </c>
       <c r="Q47">
-        <v>0.23468337930949679</v>
+        <v>0.66221978734810272</v>
       </c>
       <c r="T47">
-        <v>0.34012796812683682</v>
+        <v>0.91607860535489305</v>
       </c>
       <c r="U47">
-        <v>0.34012796812683682</v>
+        <v>0.91607860535489305</v>
       </c>
       <c r="X47">
-        <v>0.25363881180651482</v>
+        <v>0.6905463510218347</v>
       </c>
       <c r="Y47">
-        <v>0.25363881180651482</v>
+        <v>0.6905463510218347</v>
       </c>
     </row>
     <row r="48" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A48">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B48" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C48" t="s">
         <v>79</v>
       </c>
       <c r="D48" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="E48">
-        <v>4.1286550000000366</v>
+        <v>4.0364056660000642</v>
       </c>
       <c r="F48">
-        <v>31.581250000000072</v>
+        <v>31.634427666000079</v>
       </c>
       <c r="G48" t="s">
         <v>24</v>
       </c>
       <c r="H48" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="J48">
         <v>2024</v>
       </c>
-      <c r="K48">
-        <v>410</v>
+      <c r="K48" s="16">
+        <v>235</v>
       </c>
       <c r="L48">
-        <v>1</v>
+        <v>0.80346644663172329</v>
       </c>
       <c r="M48">
-        <v>1</v>
+        <v>0.80346644663172329</v>
       </c>
       <c r="P48">
-        <v>0.66221978734810272</v>
+        <v>0.23195088873838973</v>
       </c>
       <c r="Q48">
-        <v>0.66221978734810272</v>
+        <v>0.23195088873838973</v>
       </c>
       <c r="T48">
-        <v>0.91607860535489305</v>
+        <v>0.33939605785664223</v>
       </c>
       <c r="U48">
-        <v>0.91607860535489305</v>
+        <v>0.33939605785664223</v>
       </c>
       <c r="X48">
-        <v>0.6905463510218347</v>
+        <v>0.2418726273281383</v>
       </c>
       <c r="Y48">
-        <v>0.6905463510218347</v>
+        <v>0.2418726273281383</v>
       </c>
     </row>
     <row r="49" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A49">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="B49" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C49" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="D49" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="E49">
-        <v>4.0364056660000642</v>
+        <v>3.6708333360000398</v>
       </c>
       <c r="F49">
-        <v>31.634427666000079</v>
+        <v>31.972916667</v>
       </c>
       <c r="G49" t="s">
         <v>24</v>
       </c>
       <c r="H49" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="J49">
-        <v>2024</v>
-      </c>
-      <c r="K49">
-        <v>235</v>
+        <v>2025</v>
+      </c>
+      <c r="K49" s="16">
+        <v>42</v>
       </c>
       <c r="L49">
-        <v>0.80346644663172329</v>
+        <v>0.80890994820337736</v>
       </c>
       <c r="M49">
-        <v>0.80346644663172329</v>
+        <v>0.80890994820337736</v>
       </c>
       <c r="P49">
-        <v>0.23195088873838973</v>
+        <v>0.23468337930949679</v>
       </c>
       <c r="Q49">
-        <v>0.23195088873838973</v>
+        <v>0.23468337930949679</v>
       </c>
       <c r="T49">
-        <v>0.33939605785664223</v>
+        <v>0.34012796812683682</v>
       </c>
       <c r="U49">
-        <v>0.33939605785664223</v>
+        <v>0.34012796812683682</v>
       </c>
       <c r="X49">
-        <v>0.2418726273281383</v>
+        <v>0.25363881180651482</v>
       </c>
       <c r="Y49">
-        <v>0.2418726273281383</v>
+        <v>0.25363881180651482</v>
       </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:AA49">
-    <sortCondition ref="H2:H49"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A45:AA49">
+    <sortCondition ref="J45:J49"/>
   </sortState>
-  <conditionalFormatting sqref="K2:K49">
-    <cfRule type="colorScale" priority="384">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color theme="4" tint="0.79998168889431442"/>
-        <color theme="4" tint="0.39997558519241921"/>
-        <color theme="4" tint="-0.499984740745262"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K8:K17 K2:K6">
-    <cfRule type="colorScale" priority="95">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-    <cfRule type="colorScale" priority="94">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color theme="0"/>
-        <color theme="4" tint="0.39997558519241921"/>
-        <color theme="4" tint="-0.499984740745262"/>
-      </colorScale>
-    </cfRule>
-    <cfRule type="colorScale" priority="93">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color theme="0"/>
-        <color theme="4" tint="0.39997558519241921"/>
-        <color theme="4" tint="-0.249977111117893"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K8:K24 K2:K6">
-    <cfRule type="colorScale" priority="386">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color theme="4" tint="0.79998168889431442"/>
-        <color theme="4" tint="0.39997558519241921"/>
-        <color theme="4" tint="-0.249977111117893"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K8:K33 K2:K6">
-    <cfRule type="colorScale" priority="389">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color theme="4" tint="0.79998168889431442"/>
-        <color theme="4" tint="0.39997558519241921"/>
-        <color theme="4" tint="-0.499984740745262"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K18:K24">
-    <cfRule type="colorScale" priority="392">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color theme="0"/>
-        <color theme="4" tint="0.39997558519241921"/>
-        <color theme="4" tint="-0.249977111117893"/>
-      </colorScale>
-    </cfRule>
-    <cfRule type="colorScale" priority="393">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color theme="0"/>
-        <color theme="4" tint="0.39997558519241921"/>
-        <color theme="4" tint="-0.499984740745262"/>
-      </colorScale>
-    </cfRule>
-    <cfRule type="colorScale" priority="394">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
   <conditionalFormatting sqref="L2:M21">
     <cfRule type="colorScale" priority="398">
       <colorScale>
@@ -7041,6 +6949,20 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{852D55E0-078B-419B-90B8-96AA7180148F}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J17" sqref="J17"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{38BDE28D-E540-41A1-B5C0-F7E4C1D8034A}">
   <dimension ref="A1:C53"/>
   <sheetViews>
@@ -7107,7 +7029,7 @@
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A6" s="8" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="B6">
         <v>26.03449683085595</v>
@@ -7129,7 +7051,7 @@
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B8">
         <v>9.7799999999999994</v>
@@ -7140,7 +7062,7 @@
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B9">
         <v>9.7799999999999994</v>
@@ -7151,7 +7073,7 @@
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B10">
         <v>9.5941700999999906</v>
@@ -7162,7 +7084,7 @@
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B11">
         <v>7.2166699999999997</v>
@@ -7184,7 +7106,7 @@
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B13">
         <v>8.5429999999999993</v>
@@ -7206,7 +7128,7 @@
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B15">
         <v>9.5592100000000002</v>
@@ -7217,7 +7139,7 @@
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B16">
         <v>8.31</v>
@@ -7228,7 +7150,7 @@
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B17">
         <v>8.23</v>
@@ -7250,7 +7172,7 @@
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="B19" s="1">
         <v>11.71</v>
@@ -7261,7 +7183,7 @@
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="B20">
         <v>9.7920509063105143</v>
@@ -7272,7 +7194,7 @@
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B21">
         <v>8.9687499999993818</v>
@@ -7294,7 +7216,7 @@
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B23">
         <v>8.2235060000000004</v>
@@ -7305,12 +7227,12 @@
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B25">
         <v>13.347630000000001</v>
@@ -7321,7 +7243,7 @@
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B26">
         <v>13.790556</v>
@@ -7332,7 +7254,7 @@
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B27">
         <v>9.9860109999999995</v>
@@ -7354,7 +7276,7 @@
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A29" s="8" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B29">
         <v>4.7392422337811801</v>
@@ -7365,7 +7287,7 @@
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B30" s="1">
         <v>7.6813841641640401</v>
@@ -7420,7 +7342,7 @@
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B35" s="1">
         <v>14.9222</v>
@@ -7497,7 +7419,7 @@
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B42" s="1">
         <v>14.2767</v>
@@ -7541,7 +7463,7 @@
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B46">
         <v>8.2235060000000004</v>
@@ -7574,7 +7496,7 @@
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B49">
         <v>4.5624833330000456</v>
@@ -7585,7 +7507,7 @@
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B50">
         <v>3.954004000000054</v>
@@ -7596,7 +7518,7 @@
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B51">
         <v>3.6708333360000398</v>
@@ -7607,7 +7529,7 @@
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B52">
         <v>4.1286550000000366</v>
@@ -7618,7 +7540,7 @@
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B53">
         <v>4.0364056660000642</v>
@@ -7633,7 +7555,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7D0203F0-A1EC-4226-8EBE-C9AE66A6A6ED}">
   <dimension ref="A1:X41"/>
   <sheetViews>

--- a/HydroFPV_plants/CombinedTechsCreation/CombinedHydroSolar.xlsx
+++ b/HydroFPV_plants/CombinedTechsCreation/CombinedHydroSolar.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26731"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26827"/>
   <workbookPr hidePivotFieldList="1" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Alessandro Pieruzzi\Documents\Thesis\TEMBA_FPV\HydroFPV_plants\CombinedTechsCreation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{E80FB86C-A85C-4E87-B1C1-4A9B1A5EC9E0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A97F2C03-7D91-4527-95B9-F130F7FE9147}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" firstSheet="11" activeTab="12" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="20370" yWindow="-120" windowWidth="29040" windowHeight="15840" firstSheet="9" activeTab="10" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="CombinedHydroSolar" sheetId="1" r:id="rId1"/>
@@ -2098,8 +2098,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C12D4CD1-EA60-45BC-AF7D-FB8E106958A4}">
   <dimension ref="A1:AA49"/>
   <sheetViews>
-    <sheetView topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="A23" sqref="A23:XFD25"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A15" sqref="A15:XFD15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -5805,8 +5805,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8015D18A-6D36-49CD-83E7-E734D0F41EA6}">
   <dimension ref="A1:AA49"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H19" sqref="H19"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="M19" sqref="M19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -6980,23 +6980,47 @@
       <c r="K15">
         <v>550</v>
       </c>
+      <c r="L15">
+        <v>0.5</v>
+      </c>
+      <c r="M15">
+        <v>0.5</v>
+      </c>
       <c r="N15">
         <v>0.32026751971326162</v>
       </c>
       <c r="O15">
         <v>0.1044625844683393</v>
       </c>
+      <c r="P15">
+        <v>0.5</v>
+      </c>
+      <c r="Q15">
+        <v>0.5</v>
+      </c>
       <c r="R15">
         <v>0.26110407606531272</v>
       </c>
       <c r="S15">
         <v>7.1898174910394255E-2</v>
       </c>
+      <c r="T15">
+        <v>0.5</v>
+      </c>
+      <c r="U15">
+        <v>0.5</v>
+      </c>
       <c r="V15">
         <v>0.31357061529271207</v>
       </c>
       <c r="W15">
         <v>0.1066021416965352</v>
+      </c>
+      <c r="X15">
+        <v>0.5</v>
+      </c>
+      <c r="Y15">
+        <v>0.5</v>
       </c>
       <c r="Z15">
         <v>0.3784216705069125</v>
@@ -13195,7 +13219,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4077C91D-7F68-4E04-B52C-E724C959D063}">
   <dimension ref="A1:AA49"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="J15" sqref="J15"/>
     </sheetView>
   </sheetViews>

--- a/HydroFPV_plants/CombinedTechsCreation/CombinedHydroSolar.xlsx
+++ b/HydroFPV_plants/CombinedTechsCreation/CombinedHydroSolar.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26924"/>
   <workbookPr hidePivotFieldList="1" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Alessandro Pieruzzi\Documents\Thesis\TEMBA_FPV\HydroFPV_plants\CombinedTechsCreation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A97F2C03-7D91-4527-95B9-F130F7FE9147}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EBD4D56D-DE71-4E43-9449-70826894B054}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="20370" yWindow="-120" windowWidth="29040" windowHeight="15840" firstSheet="9" activeTab="10" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" firstSheet="3" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="CombinedHydroSolar" sheetId="1" r:id="rId1"/>
@@ -5805,7 +5805,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8015D18A-6D36-49CD-83E7-E734D0F41EA6}">
   <dimension ref="A1:AA49"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="M19" sqref="M19"/>
     </sheetView>
   </sheetViews>
@@ -18428,8 +18428,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{77FC710B-81A7-4A19-B13B-3AD951BA7D4B}">
   <dimension ref="A1:AC49"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F22" sqref="F22:F49"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="K11" sqref="K11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -18440,7 +18440,7 @@
     <col min="6" max="6" width="15" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="10.140625" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="10" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="20" hidden="1" customWidth="1"/>
+    <col min="11" max="11" width="20" customWidth="1"/>
     <col min="12" max="12" width="9.5703125" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="14.140625" bestFit="1" customWidth="1"/>
     <col min="14" max="15" width="14.140625" customWidth="1"/>

--- a/HydroFPV_plants/CombinedTechsCreation/CombinedHydroSolar.xlsx
+++ b/HydroFPV_plants/CombinedTechsCreation/CombinedHydroSolar.xlsx
@@ -8,16 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Alessandro Pieruzzi\Documents\Thesis\TEMBA_FPV\HydroFPV_plants\CombinedTechsCreation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CB12563C-36BB-4C18-8400-D083BB91C6AD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{5EA01B55-1CB1-4A73-B57C-B87327DAFADE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" firstSheet="4" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="20370" yWindow="-120" windowWidth="29040" windowHeight="15840" firstSheet="9" activeTab="12" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="CombinedHydroSolar" sheetId="1" r:id="rId1"/>
     <sheet name="Potentials" sheetId="18" r:id="rId2"/>
     <sheet name="locations" sheetId="17" r:id="rId3"/>
     <sheet name="planned_hydro_plants" sheetId="24" r:id="rId4"/>
-    <sheet name="All_Seasons_normal_all_plants" sheetId="4" r:id="rId5"/>
+    <sheet name="CombinedHydroSolar_ref" sheetId="4" r:id="rId5"/>
     <sheet name="Area calcs" sheetId="28" r:id="rId6"/>
     <sheet name="Area calcs new" sheetId="29" r:id="rId7"/>
     <sheet name="All_Seasons_dry_all_plants" sheetId="19" r:id="rId8"/>
@@ -4087,8 +4087,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{670846E0-FF5C-4AA0-B04B-766A5566097E}">
   <dimension ref="A1:AA49"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A23" sqref="A23:XFD25"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="K31" sqref="K31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -7798,7 +7798,7 @@
   <dimension ref="A1:AA49"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G20" sqref="G20"/>
+      <selection activeCell="C44" sqref="C44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -11505,7 +11505,7 @@
   <dimension ref="A1:AA49"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A15" sqref="A15:XFD15"/>
+      <selection activeCell="J30" sqref="J30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -15211,7 +15211,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8015D18A-6D36-49CD-83E7-E734D0F41EA6}">
   <dimension ref="A1:AA49"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="M19" sqref="M19"/>
     </sheetView>
   </sheetViews>
@@ -26506,8 +26506,8 @@
         <v>66</v>
       </c>
       <c r="D8" s="1">
-        <f>SUM(All_Seasons_normal_all_plants!Q2:Q4,All_Seasons_normal_all_plants!Q20,All_Seasons_normal_all_plants!Q21,All_Seasons_normal_all_plants!Q22)</f>
-        <v>3378</v>
+        <f>SUM(CombinedHydroSolar_ref!Q2:Q4,CombinedHydroSolar_ref!Q20,CombinedHydroSolar_ref!Q21,CombinedHydroSolar_ref!Q22)</f>
+        <v>2622</v>
       </c>
       <c r="G8" t="s">
         <v>169</v>
@@ -26542,8 +26542,8 @@
         <v>67</v>
       </c>
       <c r="D9">
-        <f>SUM(All_Seasons_normal_all_plants!Q5:Q24)</f>
-        <v>10938.73515982</v>
+        <f>SUM(CombinedHydroSolar_ref!Q5:Q24)</f>
+        <v>10022</v>
       </c>
       <c r="G9" t="s">
         <v>167</v>
@@ -26578,8 +26578,8 @@
         <v>68</v>
       </c>
       <c r="D10">
-        <f>SUM(All_Seasons_normal_all_plants!Q11:Q19,All_Seasons_normal_all_plants!Q32,All_Seasons_normal_all_plants!Q33)</f>
-        <v>3940.7351598200003</v>
+        <f>SUM(CombinedHydroSolar_ref!Q11:Q19,CombinedHydroSolar_ref!Q32,CombinedHydroSolar_ref!Q33)</f>
+        <v>5575</v>
       </c>
       <c r="G10" t="s">
         <v>168</v>
@@ -26614,8 +26614,8 @@
         <v>69</v>
       </c>
       <c r="D11">
-        <f>SUM(All_Seasons_normal_all_plants!Q25:Q31)</f>
-        <v>4379</v>
+        <f>SUM(CombinedHydroSolar_ref!Q25:Q31)</f>
+        <v>8873</v>
       </c>
       <c r="G11" t="s">
         <v>170</v>
@@ -26817,7 +26817,7 @@
       </c>
       <c r="D19">
         <f>D14-D9</f>
-        <v>11895.26484018</v>
+        <v>12812</v>
       </c>
       <c r="G19" t="s">
         <v>167</v>
@@ -27834,8 +27834,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{77FC710B-81A7-4A19-B13B-3AD951BA7D4B}">
   <dimension ref="A1:AG50"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A9" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="I22" sqref="I22"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="O38" sqref="O38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -27972,227 +27972,227 @@
     </row>
     <row r="2" spans="1:33" s="14" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A2" s="14">
-        <v>1</v>
+        <v>20</v>
       </c>
       <c r="B2" s="14" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="C2" s="14" t="s">
-        <v>7</v>
+        <v>17</v>
       </c>
       <c r="D2" s="14" t="s">
-        <v>12</v>
+        <v>103</v>
       </c>
       <c r="E2" s="14" t="s">
-        <v>122</v>
+        <v>114</v>
       </c>
       <c r="F2" s="14" t="str">
-        <f t="shared" ref="F2:F49" si="0">_xlfn.CONCAT(B2,"HYD",E2,"S03")</f>
-        <v>EGHYDA1S03</v>
-      </c>
-      <c r="G2" s="18">
-        <v>24.033999999999999</v>
+        <f>_xlfn.CONCAT(B2,"HYD",E2,"S03")</f>
+        <v>ETHYDAES03</v>
+      </c>
+      <c r="G2" s="14">
+        <v>9.7799999999999994</v>
       </c>
       <c r="H2" s="14">
-        <v>32.869999999999997</v>
+        <v>38.83</v>
       </c>
       <c r="I2" s="14" t="s">
-        <v>9</v>
+        <v>24</v>
       </c>
       <c r="J2" s="14" t="s">
         <v>73</v>
       </c>
       <c r="K2" s="20">
-        <v>5300</v>
-      </c>
-      <c r="L2" s="17">
-        <v>2763.982</v>
-      </c>
+        <v>520</v>
+      </c>
+      <c r="L2" s="17"/>
       <c r="M2" s="17">
-        <v>1449</v>
+        <v>24.8</v>
       </c>
       <c r="N2" s="14">
-        <v>8.24</v>
+        <v>40.5</v>
+      </c>
+      <c r="O2" s="14" t="s">
+        <v>231</v>
       </c>
       <c r="P2" s="14">
-        <v>2010</v>
+        <v>2031</v>
       </c>
       <c r="Q2" s="14">
-        <v>280</v>
-      </c>
-      <c r="R2" s="19">
-        <v>1</v>
-      </c>
-      <c r="S2" s="19">
-        <v>1</v>
+        <v>189</v>
+      </c>
+      <c r="R2" s="14">
+        <v>3.433550240586513E-2</v>
+      </c>
+      <c r="S2" s="14">
+        <v>3.433550240586513E-2</v>
       </c>
       <c r="T2" s="14">
-        <v>0.40949003026682601</v>
+        <v>0.28975484309040223</v>
       </c>
       <c r="U2" s="14">
-        <v>0.1261858979689367</v>
-      </c>
-      <c r="V2" s="18">
-        <v>1</v>
-      </c>
-      <c r="W2" s="18">
-        <v>1</v>
+        <v>0.13667612353643971</v>
+      </c>
+      <c r="V2" s="14">
+        <v>0.57473682007163951</v>
+      </c>
+      <c r="W2" s="14">
+        <v>0.57473682007163951</v>
       </c>
       <c r="X2" s="14">
-        <v>0.38181073277578648</v>
+        <v>0.2641995675029869</v>
       </c>
       <c r="Y2" s="14">
-        <v>0.1174411816009558</v>
-      </c>
-      <c r="Z2" s="18">
-        <v>1</v>
-      </c>
-      <c r="AA2" s="18">
-        <v>1</v>
+        <v>9.4938511350059748E-2</v>
+      </c>
+      <c r="Z2" s="14">
+        <v>0.45762385822795409</v>
+      </c>
+      <c r="AA2" s="14">
+        <v>0.45762385822795409</v>
       </c>
       <c r="AB2" s="14">
-        <v>0.37100408442851451</v>
+        <v>0.29161254161688571</v>
       </c>
       <c r="AC2" s="14">
-        <v>0.1288478107526882</v>
-      </c>
-      <c r="AD2" s="18">
-        <v>1</v>
-      </c>
-      <c r="AE2" s="18">
-        <v>1</v>
+        <v>0.13333808936678609</v>
+      </c>
+      <c r="AD2" s="14">
+        <v>2.6200930948138496E-2</v>
+      </c>
+      <c r="AE2" s="14">
+        <v>2.6200930948138496E-2</v>
       </c>
       <c r="AF2" s="14">
-        <v>0.4012607561017239</v>
+        <v>0.35088009813961418</v>
       </c>
       <c r="AG2" s="14">
-        <v>0.1126826774193548</v>
+        <v>0.14635089605734769</v>
       </c>
     </row>
     <row r="3" spans="1:33" s="14" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="14">
-        <v>2</v>
-      </c>
-      <c r="B3" s="14" t="s">
-        <v>87</v>
-      </c>
-      <c r="C3" s="14" t="s">
-        <v>7</v>
-      </c>
-      <c r="D3" s="14" t="s">
-        <v>13</v>
-      </c>
-      <c r="E3" s="14" t="s">
-        <v>123</v>
-      </c>
-      <c r="F3" s="14" t="str">
-        <f t="shared" si="0"/>
-        <v>EGHYDA2S03</v>
-      </c>
-      <c r="G3" s="18">
-        <v>24.033999999999999</v>
-      </c>
-      <c r="H3" s="14">
-        <v>32.869999999999997</v>
-      </c>
-      <c r="I3" s="14" t="s">
-        <v>9</v>
-      </c>
-      <c r="J3" s="14" t="s">
+      <c r="A3" s="8">
+        <v>21</v>
+      </c>
+      <c r="B3" s="8" t="s">
+        <v>88</v>
+      </c>
+      <c r="C3" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="D3" s="8" t="s">
+        <v>104</v>
+      </c>
+      <c r="E3" s="8" t="s">
+        <v>115</v>
+      </c>
+      <c r="F3" s="8" t="str">
+        <f>_xlfn.CONCAT(B3,"HYD",E3,"S03")</f>
+        <v>ETHYDAWS03</v>
+      </c>
+      <c r="G3" s="8">
+        <v>9.7799999999999994</v>
+      </c>
+      <c r="H3" s="8">
+        <v>38.83</v>
+      </c>
+      <c r="I3" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="J3" s="8" t="s">
         <v>73</v>
       </c>
-      <c r="K3" s="20">
-        <v>5300</v>
-      </c>
-      <c r="L3" s="17">
-        <v>2763.982</v>
-      </c>
-      <c r="M3" s="17">
-        <v>1172</v>
-      </c>
-      <c r="N3" s="14">
-        <v>8.24</v>
-      </c>
-      <c r="P3" s="14">
-        <v>2010</v>
-      </c>
-      <c r="Q3" s="14">
-        <v>270</v>
-      </c>
-      <c r="R3" s="19">
-        <v>1</v>
-      </c>
-      <c r="S3" s="19">
-        <v>1</v>
-      </c>
-      <c r="T3" s="14">
-        <v>0.40949003026682601</v>
-      </c>
-      <c r="U3" s="14">
-        <v>0.1261858979689367</v>
-      </c>
-      <c r="V3" s="18">
-        <v>1</v>
-      </c>
-      <c r="W3" s="18">
-        <v>1</v>
-      </c>
-      <c r="X3" s="14">
-        <v>0.38181073277578648</v>
-      </c>
-      <c r="Y3" s="14">
-        <v>0.1174411816009558</v>
-      </c>
-      <c r="Z3" s="18">
-        <v>1</v>
-      </c>
-      <c r="AA3" s="18">
-        <v>1</v>
-      </c>
-      <c r="AB3" s="14">
-        <v>0.37100408442851451</v>
-      </c>
-      <c r="AC3" s="14">
-        <v>0.1288478107526882</v>
-      </c>
-      <c r="AD3" s="18">
-        <v>1</v>
-      </c>
-      <c r="AE3" s="18">
-        <v>1</v>
-      </c>
-      <c r="AF3" s="14">
-        <v>0.4012607561017239</v>
-      </c>
-      <c r="AG3" s="14">
-        <v>0.1126826774193548</v>
+      <c r="K3" s="10">
+        <v>619</v>
+      </c>
+      <c r="L3" s="21"/>
+      <c r="M3" s="21">
+        <v>30.5</v>
+      </c>
+      <c r="N3" s="8"/>
+      <c r="O3" s="8" t="s">
+        <v>231</v>
+      </c>
+      <c r="P3" s="8">
+        <v>2031</v>
+      </c>
+      <c r="Q3" s="8">
+        <v>265</v>
+      </c>
+      <c r="R3" s="8">
+        <v>3.433550240586513E-2</v>
+      </c>
+      <c r="S3" s="8">
+        <v>3.433550240586513E-2</v>
+      </c>
+      <c r="T3" s="8">
+        <v>0.28975484309040223</v>
+      </c>
+      <c r="U3" s="8">
+        <v>0.13667612353643971</v>
+      </c>
+      <c r="V3" s="8">
+        <v>0.57473682007163962</v>
+      </c>
+      <c r="W3" s="8">
+        <v>0.57473682007163962</v>
+      </c>
+      <c r="X3" s="8">
+        <v>0.2641995675029869</v>
+      </c>
+      <c r="Y3" s="8">
+        <v>9.4938511350059748E-2</v>
+      </c>
+      <c r="Z3" s="8">
+        <v>0.45762385822795409</v>
+      </c>
+      <c r="AA3" s="8">
+        <v>0.45762385822795409</v>
+      </c>
+      <c r="AB3" s="8">
+        <v>0.29161254161688571</v>
+      </c>
+      <c r="AC3" s="8">
+        <v>0.13333808936678609</v>
+      </c>
+      <c r="AD3" s="8">
+        <v>2.6200930948138496E-2</v>
+      </c>
+      <c r="AE3" s="8">
+        <v>2.6200930948138496E-2</v>
+      </c>
+      <c r="AF3" s="8">
+        <v>0.35088009813961418</v>
+      </c>
+      <c r="AG3" s="8">
+        <v>0.14635089605734769</v>
       </c>
     </row>
     <row r="4" spans="1:33" s="14" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A4" s="14">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="B4" s="14" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="C4" s="14" t="s">
-        <v>7</v>
+        <v>17</v>
       </c>
       <c r="D4" s="14" t="s">
-        <v>8</v>
+        <v>99</v>
       </c>
       <c r="E4" s="14" t="s">
-        <v>131</v>
+        <v>116</v>
       </c>
       <c r="F4" s="14" t="str">
-        <f t="shared" si="0"/>
-        <v>EGHYDHAS03</v>
-      </c>
-      <c r="G4" s="18">
-        <v>23.973310000000001</v>
+        <f>_xlfn.CONCAT(B4,"HYD",E4,"S03")</f>
+        <v>ETHYDANS03</v>
+      </c>
+      <c r="G4" s="14">
+        <v>9.5941700999999906</v>
       </c>
       <c r="H4" s="14">
-        <v>32.880000000000003</v>
+        <v>37.232997899999901</v>
       </c>
       <c r="I4" s="14" t="s">
         <v>9</v>
@@ -28201,97 +28201,98 @@
         <v>73</v>
       </c>
       <c r="K4" s="20">
-        <v>162000</v>
-      </c>
-      <c r="L4" s="17">
-        <v>2763.982</v>
-      </c>
+        <v>448</v>
+      </c>
+      <c r="L4" s="17"/>
       <c r="M4" s="17">
-        <v>3408</v>
+        <v>18.600000000000001</v>
       </c>
       <c r="N4" s="14">
-        <v>6500</v>
+        <v>22.6</v>
+      </c>
+      <c r="O4" s="14" t="s">
+        <v>221</v>
       </c>
       <c r="P4" s="14">
-        <v>2010</v>
+        <v>2013</v>
       </c>
       <c r="Q4" s="14">
-        <v>2100</v>
-      </c>
-      <c r="R4" s="19">
-        <v>0.72314188741695651</v>
-      </c>
-      <c r="S4" s="19">
-        <v>0.72314188741695651</v>
+        <v>98</v>
+      </c>
+      <c r="R4" s="14">
+        <v>0.47346314129137629</v>
+      </c>
+      <c r="S4" s="14">
+        <v>0.47346314129137629</v>
       </c>
       <c r="T4" s="14">
-        <v>0.40586848506571083</v>
+        <v>0.32822893986459573</v>
       </c>
       <c r="U4" s="14">
-        <v>0.12603861242532849</v>
-      </c>
-      <c r="V4" s="18">
-        <v>0.72314188741695651</v>
-      </c>
-      <c r="W4" s="18">
-        <v>0.72314188741695651</v>
+        <v>0.11213200095579449</v>
+      </c>
+      <c r="V4" s="14">
+        <v>0.47346314129137629</v>
+      </c>
+      <c r="W4" s="14">
+        <v>0.47346314129137629</v>
       </c>
       <c r="X4" s="14">
-        <v>0.38385520469932288</v>
+        <v>0.25394759219434487</v>
       </c>
       <c r="Y4" s="14">
-        <v>0.11816489581839899</v>
-      </c>
-      <c r="Z4" s="18">
-        <v>0.72314188741695651</v>
-      </c>
-      <c r="AA4" s="18">
-        <v>0.72314188741695651</v>
+        <v>7.8348711589008357E-2</v>
+      </c>
+      <c r="Z4" s="14">
+        <v>0.47346314129137629</v>
+      </c>
+      <c r="AA4" s="14">
+        <v>0.47346314129137629</v>
       </c>
       <c r="AB4" s="14">
-        <v>0.37423852608522501</v>
+        <v>0.30030267144563932</v>
       </c>
       <c r="AC4" s="14">
-        <v>0.1297939178016726</v>
-      </c>
-      <c r="AD4" s="18">
-        <v>0.72314188741695651</v>
-      </c>
-      <c r="AE4" s="18">
-        <v>0.72314188741695651</v>
+        <v>0.11891993715651129</v>
+      </c>
+      <c r="AD4" s="14">
+        <v>0.47346314129137629</v>
+      </c>
+      <c r="AE4" s="14">
+        <v>0.47346314129137629</v>
       </c>
       <c r="AF4" s="14">
-        <v>0.39426057176992663</v>
+        <v>0.38199672683051711</v>
       </c>
       <c r="AG4" s="14">
-        <v>0.1117774126984127</v>
+        <v>0.1325895962621608</v>
       </c>
     </row>
     <row r="5" spans="1:33" s="14" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A5" s="14">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="B5" s="14" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C5" s="14" t="s">
-        <v>17</v>
+        <v>7</v>
       </c>
       <c r="D5" s="14" t="s">
-        <v>98</v>
+        <v>12</v>
       </c>
       <c r="E5" s="14" t="s">
-        <v>128</v>
+        <v>122</v>
       </c>
       <c r="F5" s="14" t="str">
-        <f t="shared" si="0"/>
-        <v>ETHYDFCS03</v>
-      </c>
-      <c r="G5" s="14">
-        <v>9.5592100000000002</v>
+        <f>_xlfn.CONCAT(B5,"HYD",E5,"S03")</f>
+        <v>EGHYDA1S03</v>
+      </c>
+      <c r="G5" s="18">
+        <v>24.033999999999999</v>
       </c>
       <c r="H5" s="14">
-        <v>37.36562</v>
+        <v>32.869999999999997</v>
       </c>
       <c r="I5" s="14" t="s">
         <v>9</v>
@@ -28300,98 +28301,97 @@
         <v>73</v>
       </c>
       <c r="K5" s="20">
-        <v>650</v>
-      </c>
-      <c r="L5" s="17"/>
+        <v>5300</v>
+      </c>
+      <c r="L5" s="17">
+        <v>2763.982</v>
+      </c>
       <c r="M5" s="17">
-        <v>29.6</v>
+        <v>1449</v>
       </c>
       <c r="N5" s="14">
-        <v>2.04</v>
-      </c>
-      <c r="O5" s="14" t="s">
-        <v>221</v>
+        <v>8.24</v>
       </c>
       <c r="P5" s="14">
-        <v>1973</v>
+        <v>2010</v>
       </c>
       <c r="Q5" s="14">
-        <v>128</v>
-      </c>
-      <c r="R5" s="14">
-        <v>0.39112886967512511</v>
-      </c>
-      <c r="S5" s="14">
-        <v>0.39112886967512511</v>
+        <v>280</v>
+      </c>
+      <c r="R5" s="19">
+        <v>1</v>
+      </c>
+      <c r="S5" s="19">
+        <v>1</v>
       </c>
       <c r="T5" s="14">
-        <v>0.31769913022700119</v>
+        <v>0.40949003026682601</v>
       </c>
       <c r="U5" s="14">
-        <v>0.1226002829151733</v>
-      </c>
-      <c r="V5" s="14">
-        <v>0.55395990010728102</v>
-      </c>
-      <c r="W5" s="14">
-        <v>0.55395990010728102</v>
+        <v>0.1261858979689367</v>
+      </c>
+      <c r="V5" s="18">
+        <v>1</v>
+      </c>
+      <c r="W5" s="18">
+        <v>1</v>
       </c>
       <c r="X5" s="14">
-        <v>0.26080937037037039</v>
+        <v>0.38181073277578648</v>
       </c>
       <c r="Y5" s="14">
-        <v>7.8234182317801673E-2</v>
-      </c>
-      <c r="Z5" s="14">
-        <v>0.50142622072856036</v>
-      </c>
-      <c r="AA5" s="14">
-        <v>0.50142622072856036</v>
+        <v>0.1174411816009558</v>
+      </c>
+      <c r="Z5" s="18">
+        <v>1</v>
+      </c>
+      <c r="AA5" s="18">
+        <v>1</v>
       </c>
       <c r="AB5" s="14">
-        <v>0.29062612704101948</v>
+        <v>0.37100408442851451</v>
       </c>
       <c r="AC5" s="14">
-        <v>0.1203243992831541</v>
-      </c>
-      <c r="AD5" s="14">
-        <v>0.39620138396267701</v>
-      </c>
-      <c r="AE5" s="14">
-        <v>0.39620138396267701</v>
+        <v>0.1288478107526882</v>
+      </c>
+      <c r="AD5" s="18">
+        <v>1</v>
+      </c>
+      <c r="AE5" s="18">
+        <v>1</v>
       </c>
       <c r="AF5" s="14">
-        <v>0.36399640809011768</v>
+        <v>0.4012607561017239</v>
       </c>
       <c r="AG5" s="14">
-        <v>0.13593716615463389</v>
+        <v>0.1126826774193548</v>
       </c>
     </row>
     <row r="6" spans="1:33" s="14" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A6" s="14">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="B6" s="14" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C6" s="14" t="s">
-        <v>17</v>
+        <v>7</v>
       </c>
       <c r="D6" s="14" t="s">
-        <v>111</v>
+        <v>13</v>
       </c>
       <c r="E6" s="14" t="s">
-        <v>135</v>
+        <v>123</v>
       </c>
       <c r="F6" s="14" t="str">
-        <f t="shared" si="0"/>
-        <v>ETHYDLTS03</v>
+        <f>_xlfn.CONCAT(B6,"HYD",E6,"S03")</f>
+        <v>EGHYDA2S03</v>
       </c>
       <c r="G6" s="18">
-        <v>11.71</v>
+        <v>24.033999999999999</v>
       </c>
       <c r="H6" s="14">
-        <v>37.380000000000003</v>
+        <v>32.869999999999997</v>
       </c>
       <c r="I6" s="14" t="s">
         <v>9</v>
@@ -28400,687 +28400,667 @@
         <v>73</v>
       </c>
       <c r="K6" s="20">
-        <v>284000</v>
+        <v>5300</v>
+      </c>
+      <c r="L6" s="17">
+        <v>2763.982</v>
+      </c>
+      <c r="M6" s="17">
+        <v>1172</v>
       </c>
       <c r="N6" s="14">
-        <v>3600</v>
+        <v>8.24</v>
       </c>
       <c r="P6" s="14">
         <v>2010</v>
       </c>
       <c r="Q6" s="14">
-        <v>460</v>
+        <v>270</v>
       </c>
       <c r="R6" s="19">
-        <v>0.46374835586876301</v>
+        <v>1</v>
       </c>
       <c r="S6" s="19">
-        <v>0.46374835586876301</v>
+        <v>1</v>
       </c>
       <c r="T6" s="14">
-        <v>0.34544052767821593</v>
+        <v>0.40949003026682601</v>
       </c>
       <c r="U6" s="14">
-        <v>0.11954228339307051</v>
-      </c>
-      <c r="V6" s="19">
-        <v>0.46374835586876301</v>
-      </c>
-      <c r="W6" s="19">
-        <v>0.46374835586876301</v>
+        <v>0.1261858979689367</v>
+      </c>
+      <c r="V6" s="18">
+        <v>1</v>
+      </c>
+      <c r="W6" s="18">
+        <v>1</v>
       </c>
       <c r="X6" s="14">
-        <v>0.24786641338112311</v>
+        <v>0.38181073277578648</v>
       </c>
       <c r="Y6" s="14">
-        <v>9.7465531660692939E-2</v>
-      </c>
-      <c r="Z6" s="19">
-        <v>0.46374835586876301</v>
-      </c>
-      <c r="AA6" s="19">
-        <v>0.46374835586876301</v>
+        <v>0.1174411816009558</v>
+      </c>
+      <c r="Z6" s="18">
+        <v>1</v>
+      </c>
+      <c r="AA6" s="18">
+        <v>1</v>
       </c>
       <c r="AB6" s="14">
-        <v>0.31596995459976113</v>
+        <v>0.37100408442851451</v>
       </c>
       <c r="AC6" s="14">
-        <v>0.1412421925925926</v>
-      </c>
-      <c r="AD6" s="19">
-        <v>0.46374835586876301</v>
-      </c>
-      <c r="AE6" s="19">
-        <v>0.46374835586876301</v>
+        <v>0.1288478107526882</v>
+      </c>
+      <c r="AD6" s="18">
+        <v>1</v>
+      </c>
+      <c r="AE6" s="18">
+        <v>1</v>
       </c>
       <c r="AF6" s="14">
-        <v>0.3865118322239291</v>
+        <v>0.4012607561017239</v>
       </c>
       <c r="AG6" s="14">
-        <v>0.14075010650281619</v>
+        <v>0.1126826774193548</v>
       </c>
     </row>
     <row r="7" spans="1:33" s="14" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="14">
-        <v>6</v>
-      </c>
-      <c r="B7" s="14" t="s">
+      <c r="A7" s="8">
+        <v>9</v>
+      </c>
+      <c r="B7" s="8" t="s">
         <v>88</v>
       </c>
-      <c r="C7" s="14" t="s">
+      <c r="C7" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="D7" s="14" t="s">
-        <v>96</v>
-      </c>
-      <c r="E7" s="14" t="s">
-        <v>145</v>
-      </c>
-      <c r="F7" s="14" t="str">
-        <f t="shared" si="0"/>
-        <v>ETHYDT1S03</v>
-      </c>
-      <c r="G7" s="14">
-        <v>13.347630000000001</v>
-      </c>
-      <c r="H7" s="14">
-        <v>38.743160000000003</v>
-      </c>
-      <c r="I7" s="14" t="s">
-        <v>9</v>
-      </c>
-      <c r="J7" s="14" t="s">
+      <c r="D7" s="8" t="s">
+        <v>102</v>
+      </c>
+      <c r="E7" s="8" t="s">
+        <v>124</v>
+      </c>
+      <c r="F7" s="8" t="str">
+        <f>_xlfn.CONCAT(B7,"HYD",E7,"S03")</f>
+        <v>ETHYDBRS03</v>
+      </c>
+      <c r="G7" s="8">
+        <v>7.2166699999999997</v>
+      </c>
+      <c r="H7" s="8">
+        <v>35.633339999999997</v>
+      </c>
+      <c r="I7" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="J7" s="8" t="s">
         <v>73</v>
       </c>
-      <c r="K7" s="20">
-        <v>9000</v>
-      </c>
-      <c r="L7" s="17">
-        <v>221.96854388635211</v>
-      </c>
-      <c r="M7" s="17">
-        <v>184</v>
-      </c>
-      <c r="N7" s="14">
-        <v>129</v>
-      </c>
-      <c r="O7" s="14" t="s">
-        <v>222</v>
-      </c>
-      <c r="P7" s="14">
-        <v>2010</v>
-      </c>
-      <c r="Q7" s="14">
-        <v>300</v>
-      </c>
-      <c r="R7" s="14">
-        <v>1</v>
-      </c>
-      <c r="S7" s="14">
-        <v>1</v>
-      </c>
-      <c r="T7" s="14">
-        <v>0.28742656471525291</v>
-      </c>
-      <c r="U7" s="14">
-        <v>0.13885416821983271</v>
-      </c>
-      <c r="V7" s="14">
-        <v>1</v>
-      </c>
-      <c r="W7" s="14">
-        <v>1</v>
-      </c>
-      <c r="X7" s="14">
-        <v>0.26241724253285548</v>
-      </c>
-      <c r="Y7" s="14">
-        <v>0.1140387906810036</v>
-      </c>
-      <c r="Z7" s="14">
-        <v>1</v>
-      </c>
-      <c r="AA7" s="14">
-        <v>1</v>
-      </c>
-      <c r="AB7" s="14">
-        <v>0.2465983233771406</v>
-      </c>
-      <c r="AC7" s="14">
-        <v>0.14380953620071679</v>
-      </c>
-      <c r="AD7" s="14">
-        <v>1</v>
-      </c>
-      <c r="AE7" s="14">
-        <v>1</v>
-      </c>
-      <c r="AF7" s="14">
-        <v>0.26817943207031919</v>
-      </c>
-      <c r="AG7" s="14">
-        <v>0.1139012657450077</v>
+      <c r="K7" s="10"/>
+      <c r="L7" s="21"/>
+      <c r="M7" s="21"/>
+      <c r="N7" s="8"/>
+      <c r="O7" s="8"/>
+      <c r="P7" s="8">
+        <v>2025</v>
+      </c>
+      <c r="Q7" s="8">
+        <v>645</v>
+      </c>
+      <c r="R7" s="8">
+        <v>0.71648926237161525</v>
+      </c>
+      <c r="S7" s="8">
+        <v>0.71648926237161525</v>
+      </c>
+      <c r="T7" s="8">
+        <v>0.28282056272401429</v>
+      </c>
+      <c r="U7" s="8">
+        <v>9.2343708960573465E-2</v>
+      </c>
+      <c r="V7" s="8">
+        <v>0.98991596638655466</v>
+      </c>
+      <c r="W7" s="8">
+        <v>0.98991596638655466</v>
+      </c>
+      <c r="X7" s="8">
+        <v>0.2265720688968538</v>
+      </c>
+      <c r="Y7" s="8">
+        <v>7.175436367980885E-2</v>
+      </c>
+      <c r="Z7" s="8">
+        <v>0.87813258636788039</v>
+      </c>
+      <c r="AA7" s="8">
+        <v>0.87813258636788039</v>
+      </c>
+      <c r="AB7" s="8">
+        <v>0.25743379729191562</v>
+      </c>
+      <c r="AC7" s="8">
+        <v>0.1046037954599761</v>
+      </c>
+      <c r="AD7" s="8">
+        <v>0.24112418300653601</v>
+      </c>
+      <c r="AE7" s="8">
+        <v>0.24112418300653601</v>
+      </c>
+      <c r="AF7" s="8">
+        <v>0.33027548088410991</v>
+      </c>
+      <c r="AG7" s="8">
+        <v>0.1029040325140809</v>
       </c>
     </row>
     <row r="8" spans="1:33" s="14" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="14">
-        <v>7</v>
-      </c>
-      <c r="B8" s="14" t="s">
+      <c r="A8" s="8">
+        <v>18</v>
+      </c>
+      <c r="B8" s="8" t="s">
         <v>88</v>
       </c>
-      <c r="C8" s="14" t="s">
+      <c r="C8" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="D8" s="14" t="s">
-        <v>99</v>
-      </c>
-      <c r="E8" s="14" t="s">
-        <v>116</v>
-      </c>
-      <c r="F8" s="14" t="str">
-        <f t="shared" si="0"/>
-        <v>ETHYDANS03</v>
-      </c>
-      <c r="G8" s="14">
-        <v>9.5941700999999906</v>
-      </c>
-      <c r="H8" s="14">
-        <v>37.232997899999901</v>
-      </c>
-      <c r="I8" s="14" t="s">
-        <v>9</v>
-      </c>
-      <c r="J8" s="14" t="s">
+      <c r="D8" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="E8" s="8" t="s">
+        <v>117</v>
+      </c>
+      <c r="F8" s="8" t="str">
+        <f>_xlfn.CONCAT(B8,"HYD",E8,"S03")</f>
+        <v>ETHYDBAS03</v>
+      </c>
+      <c r="G8" s="9">
+        <v>10.340844000000001</v>
+      </c>
+      <c r="H8" s="8">
+        <v>36.65</v>
+      </c>
+      <c r="I8" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="J8" s="8" t="s">
         <v>73</v>
       </c>
-      <c r="K8" s="20">
-        <v>448</v>
-      </c>
-      <c r="L8" s="17"/>
-      <c r="M8" s="17">
-        <v>18.600000000000001</v>
-      </c>
-      <c r="N8" s="14">
-        <v>22.6</v>
-      </c>
-      <c r="O8" s="14" t="s">
-        <v>221</v>
-      </c>
-      <c r="P8" s="14">
-        <v>2013</v>
-      </c>
-      <c r="Q8" s="14">
-        <v>98</v>
-      </c>
-      <c r="R8" s="14">
-        <v>0.47346314129137629</v>
-      </c>
-      <c r="S8" s="14">
-        <v>0.47346314129137629</v>
-      </c>
-      <c r="T8" s="14">
-        <v>0.32822893986459573</v>
-      </c>
-      <c r="U8" s="14">
-        <v>0.11213200095579449</v>
-      </c>
-      <c r="V8" s="14">
-        <v>0.47346314129137629</v>
-      </c>
-      <c r="W8" s="14">
-        <v>0.47346314129137629</v>
-      </c>
-      <c r="X8" s="14">
-        <v>0.25394759219434487</v>
-      </c>
-      <c r="Y8" s="14">
-        <v>7.8348711589008357E-2</v>
-      </c>
-      <c r="Z8" s="14">
-        <v>0.47346314129137629</v>
-      </c>
-      <c r="AA8" s="14">
-        <v>0.47346314129137629</v>
-      </c>
-      <c r="AB8" s="14">
-        <v>0.30030267144563932</v>
-      </c>
-      <c r="AC8" s="14">
-        <v>0.11891993715651129</v>
-      </c>
-      <c r="AD8" s="14">
-        <v>0.47346314129137629</v>
-      </c>
-      <c r="AE8" s="14">
-        <v>0.47346314129137629</v>
-      </c>
-      <c r="AF8" s="14">
-        <v>0.38199672683051711</v>
-      </c>
-      <c r="AG8" s="14">
-        <v>0.1325895962621608</v>
+      <c r="K8" s="10">
+        <v>17.5</v>
+      </c>
+      <c r="L8" s="21"/>
+      <c r="M8" s="21"/>
+      <c r="N8" s="8"/>
+      <c r="O8" s="8" t="s">
+        <v>229</v>
+      </c>
+      <c r="P8" s="8">
+        <v>2028</v>
+      </c>
+      <c r="Q8" s="8">
+        <v>935</v>
+      </c>
+      <c r="R8" s="22">
+        <v>4.8058277799555731E-2</v>
+      </c>
+      <c r="S8" s="22">
+        <v>4.8058277799555731E-2</v>
+      </c>
+      <c r="T8" s="8">
+        <v>0.3186647343687774</v>
+      </c>
+      <c r="U8" s="8">
+        <v>0.1097955641577061</v>
+      </c>
+      <c r="V8" s="9">
+        <v>0.72644714491049267</v>
+      </c>
+      <c r="W8" s="9">
+        <v>0.72644714491049267</v>
+      </c>
+      <c r="X8" s="8">
+        <v>0.27000886260453999</v>
+      </c>
+      <c r="Y8" s="8">
+        <v>7.4062143130227007E-2</v>
+      </c>
+      <c r="Z8" s="9">
+        <v>0.48480334509342748</v>
+      </c>
+      <c r="AA8" s="9">
+        <v>0.48480334509342748</v>
+      </c>
+      <c r="AB8" s="8">
+        <v>0.3237500696933493</v>
+      </c>
+      <c r="AC8" s="8">
+        <v>0.1145830021505376</v>
+      </c>
+      <c r="AD8" s="9">
+        <v>2.9720371096302111E-2</v>
+      </c>
+      <c r="AE8" s="9">
+        <v>2.9720371096302111E-2</v>
+      </c>
+      <c r="AF8" s="8">
+        <v>0.38074566009557947</v>
+      </c>
+      <c r="AG8" s="8">
+        <v>0.1242511758832565</v>
       </c>
     </row>
     <row r="9" spans="1:33" s="14" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="14">
-        <v>8</v>
-      </c>
-      <c r="B9" s="14" t="s">
+      <c r="A9" s="8">
+        <v>10</v>
+      </c>
+      <c r="B9" s="8" t="s">
         <v>88</v>
       </c>
-      <c r="C9" s="14" t="s">
+      <c r="C9" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="D9" s="14" t="s">
-        <v>18</v>
-      </c>
-      <c r="E9" s="14" t="s">
-        <v>139</v>
-      </c>
-      <c r="F9" s="14" t="str">
-        <f t="shared" si="0"/>
-        <v>ETHYDRNS03</v>
-      </c>
-      <c r="G9" s="18">
-        <v>11.21</v>
-      </c>
-      <c r="H9" s="14">
-        <v>35.090000000000003</v>
-      </c>
-      <c r="I9" s="14" t="s">
-        <v>9</v>
-      </c>
-      <c r="J9" s="14" t="s">
+      <c r="D9" s="8" t="s">
+        <v>108</v>
+      </c>
+      <c r="E9" s="8" t="s">
+        <v>125</v>
+      </c>
+      <c r="F9" s="8" t="str">
+        <f>_xlfn.CONCAT(B9,"HYD",E9,"S03")</f>
+        <v>ETHYDBBS03</v>
+      </c>
+      <c r="G9" s="8">
+        <v>8.5429999999999993</v>
+      </c>
+      <c r="H9" s="8">
+        <v>35.195</v>
+      </c>
+      <c r="I9" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="J9" s="8" t="s">
         <v>73</v>
       </c>
-      <c r="K9" s="20">
-        <v>74000</v>
-      </c>
-      <c r="L9" s="17">
-        <v>1544.2668696093353</v>
-      </c>
-      <c r="M9" s="17"/>
-      <c r="N9" s="15">
-        <v>1874</v>
-      </c>
-      <c r="O9" s="15"/>
-      <c r="P9" s="14">
-        <v>2023</v>
-      </c>
-      <c r="Q9" s="14">
-        <v>6400</v>
-      </c>
-      <c r="R9" s="19">
-        <v>0.27571636687559031</v>
-      </c>
-      <c r="S9" s="19">
-        <v>0.27571636687559031</v>
-      </c>
-      <c r="T9" s="14">
-        <v>0.33303783671843878</v>
-      </c>
-      <c r="U9" s="14">
-        <v>0.10567916917562729</v>
-      </c>
-      <c r="V9" s="18">
-        <v>0.27571636687559031</v>
-      </c>
-      <c r="W9" s="18">
-        <v>0.27571636687559031</v>
-      </c>
-      <c r="X9" s="14">
-        <v>0.27764846395858228</v>
-      </c>
-      <c r="Y9" s="14">
-        <v>6.7827279569892471E-2</v>
-      </c>
-      <c r="Z9" s="18">
-        <v>0.27571636687559031</v>
-      </c>
-      <c r="AA9" s="18">
-        <v>0.27571636687559031</v>
-      </c>
-      <c r="AB9" s="14">
-        <v>0.30851121903624051</v>
-      </c>
-      <c r="AC9" s="14">
-        <v>0.1091898138590203</v>
-      </c>
-      <c r="AD9" s="18">
-        <v>0.27571636687559031</v>
-      </c>
-      <c r="AE9" s="18">
-        <v>0.27571636687559031</v>
-      </c>
-      <c r="AF9" s="14">
-        <v>0.37835753840245773</v>
-      </c>
-      <c r="AG9" s="14">
-        <v>0.11339636354326681</v>
+      <c r="K9" s="10"/>
+      <c r="L9" s="21"/>
+      <c r="M9" s="21"/>
+      <c r="N9" s="8"/>
+      <c r="O9" s="8"/>
+      <c r="P9" s="8">
+        <v>2025</v>
+      </c>
+      <c r="Q9" s="8">
+        <v>467</v>
+      </c>
+      <c r="R9" s="8">
+        <v>4.3201198882104185E-2</v>
+      </c>
+      <c r="S9" s="8">
+        <v>4.3201198882104185E-2</v>
+      </c>
+      <c r="T9" s="8">
+        <v>0.30872469454400631</v>
+      </c>
+      <c r="U9" s="8">
+        <v>8.7997688649940245E-2</v>
+      </c>
+      <c r="V9" s="8">
+        <v>0.82341432688128036</v>
+      </c>
+      <c r="W9" s="8">
+        <v>0.82341432688128036</v>
+      </c>
+      <c r="X9" s="8">
+        <v>0.27046071166865798</v>
+      </c>
+      <c r="Y9" s="8">
+        <v>7.1315783990442069E-2</v>
+      </c>
+      <c r="Z9" s="8">
+        <v>0.4738184238006809</v>
+      </c>
+      <c r="AA9" s="8">
+        <v>0.4738184238006809</v>
+      </c>
+      <c r="AB9" s="8">
+        <v>0.2988493687773795</v>
+      </c>
+      <c r="AC9" s="8">
+        <v>0.100828680525687</v>
+      </c>
+      <c r="AD9" s="8">
+        <v>2.5322465759443403E-2</v>
+      </c>
+      <c r="AE9" s="8">
+        <v>2.5322465759443403E-2</v>
+      </c>
+      <c r="AF9" s="8">
+        <v>0.35154741167434722</v>
+      </c>
+      <c r="AG9" s="8">
+        <v>0.1059629395801331</v>
       </c>
     </row>
     <row r="10" spans="1:33" s="14" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="14">
-        <v>26</v>
-      </c>
-      <c r="B10" s="14" t="s">
+      <c r="A10" s="8">
+        <v>11</v>
+      </c>
+      <c r="B10" s="8" t="s">
+        <v>88</v>
+      </c>
+      <c r="C10" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="D10" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="E10" s="8" t="s">
+        <v>118</v>
+      </c>
+      <c r="F10" s="8" t="str">
+        <f>_xlfn.CONCAT(B10,"HYD",E10,"S03")</f>
+        <v>ETHYDCYS03</v>
+      </c>
+      <c r="G10" s="9">
+        <v>9.8629999999999995</v>
+      </c>
+      <c r="H10" s="8">
+        <v>37.67</v>
+      </c>
+      <c r="I10" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="J10" s="8" t="s">
+        <v>73</v>
+      </c>
+      <c r="K10" s="10">
+        <v>325</v>
+      </c>
+      <c r="L10" s="21"/>
+      <c r="M10" s="21">
+        <v>18.7</v>
+      </c>
+      <c r="N10" s="8"/>
+      <c r="O10" s="8" t="s">
+        <v>225</v>
+      </c>
+      <c r="P10" s="8">
+        <v>2025</v>
+      </c>
+      <c r="Q10" s="8">
+        <v>280</v>
+      </c>
+      <c r="R10" s="22">
+        <v>3.0751295336787571E-2</v>
+      </c>
+      <c r="S10" s="22">
+        <v>3.0751295336787571E-2</v>
+      </c>
+      <c r="T10" s="8">
+        <v>0.34092719315013942</v>
+      </c>
+      <c r="U10" s="8">
+        <v>0.1071180219832736</v>
+      </c>
+      <c r="V10" s="9">
+        <v>0.86701208981001721</v>
+      </c>
+      <c r="W10" s="9">
+        <v>0.86701208981001721</v>
+      </c>
+      <c r="X10" s="8">
+        <v>0.30769531063321381</v>
+      </c>
+      <c r="Y10" s="8">
+        <v>7.763356463560335E-2</v>
+      </c>
+      <c r="Z10" s="9">
+        <v>0.58084628670120908</v>
+      </c>
+      <c r="AA10" s="9">
+        <v>0.58084628670120908</v>
+      </c>
+      <c r="AB10" s="8">
+        <v>0.32889110155316609</v>
+      </c>
+      <c r="AC10" s="8">
+        <v>0.1072930659498208</v>
+      </c>
+      <c r="AD10" s="9">
+        <v>3.181347150259068E-2</v>
+      </c>
+      <c r="AE10" s="9">
+        <v>3.181347150259068E-2</v>
+      </c>
+      <c r="AF10" s="8">
+        <v>0.36244325098139613</v>
+      </c>
+      <c r="AG10" s="8">
+        <v>9.809929006656426E-2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:33" s="14" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A11" s="8">
+        <v>34</v>
+      </c>
+      <c r="B11" s="8" t="s">
         <v>89</v>
       </c>
-      <c r="C10" s="14" t="s">
+      <c r="C11" s="8" t="s">
         <v>29</v>
       </c>
-      <c r="D10" s="14" t="s">
+      <c r="D11" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="E11" s="8" t="s">
+        <v>126</v>
+      </c>
+      <c r="F11" s="8" t="str">
+        <f>_xlfn.CONCAT(B11,"HYD",E11,"S03")</f>
+        <v>SDHYDDGS03</v>
+      </c>
+      <c r="G11" s="9">
+        <v>19.3353124367388</v>
+      </c>
+      <c r="H11" s="8">
+        <v>33.409999999999997</v>
+      </c>
+      <c r="I11" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="J11" s="8" t="s">
+        <v>73</v>
+      </c>
+      <c r="K11" s="10"/>
+      <c r="L11" s="21">
+        <v>2667</v>
+      </c>
+      <c r="M11" s="21">
+        <v>2100</v>
+      </c>
+      <c r="N11" s="8"/>
+      <c r="O11" s="8"/>
+      <c r="P11" s="8">
+        <v>2028</v>
+      </c>
+      <c r="Q11" s="8">
+        <v>312</v>
+      </c>
+      <c r="R11" s="22">
+        <v>1</v>
+      </c>
+      <c r="S11" s="22">
+        <v>1</v>
+      </c>
+      <c r="T11" s="8">
+        <v>0.40658502349661491</v>
+      </c>
+      <c r="U11" s="8">
+        <v>0.133054680525687</v>
+      </c>
+      <c r="V11" s="9">
+        <v>1</v>
+      </c>
+      <c r="W11" s="9">
+        <v>1</v>
+      </c>
+      <c r="X11" s="8">
+        <v>0.35451344165671039</v>
+      </c>
+      <c r="Y11" s="8">
+        <v>0.11408707311827949</v>
+      </c>
+      <c r="Z11" s="9">
+        <v>1</v>
+      </c>
+      <c r="AA11" s="9">
+        <v>1</v>
+      </c>
+      <c r="AB11" s="8">
+        <v>0.36084930426125061</v>
+      </c>
+      <c r="AC11" s="8">
+        <v>0.13215149486260461</v>
+      </c>
+      <c r="AD11" s="9">
+        <v>1</v>
+      </c>
+      <c r="AE11" s="9">
+        <v>1</v>
+      </c>
+      <c r="AF11" s="8">
+        <v>0.40695313150708318</v>
+      </c>
+      <c r="AG11" s="8">
+        <v>0.12382463159242189</v>
+      </c>
+    </row>
+    <row r="12" spans="1:33" s="14" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A12" s="8">
         <v>35</v>
       </c>
-      <c r="E10" s="14" t="s">
-        <v>142</v>
-      </c>
-      <c r="F10" s="14" t="str">
-        <f t="shared" si="0"/>
-        <v>SDHYDSNS03</v>
-      </c>
-      <c r="G10" s="18">
-        <v>13.29707</v>
-      </c>
-      <c r="H10" s="14">
-        <v>33.89</v>
-      </c>
-      <c r="I10" s="14" t="s">
-        <v>9</v>
-      </c>
-      <c r="J10" s="14" t="s">
+      <c r="B12" s="8" t="s">
+        <v>89</v>
+      </c>
+      <c r="C12" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="D12" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="E12" s="8" t="s">
+        <v>127</v>
+      </c>
+      <c r="F12" s="8" t="str">
+        <f>_xlfn.CONCAT(B12,"HYD",E12,"S03")</f>
+        <v>SDHYDDLS03</v>
+      </c>
+      <c r="G12" s="9">
+        <v>21.373100000000001</v>
+      </c>
+      <c r="H12" s="8">
+        <v>30.93</v>
+      </c>
+      <c r="I12" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="J12" s="8" t="s">
         <v>73</v>
       </c>
-      <c r="K10" s="20">
-        <v>930</v>
-      </c>
-      <c r="L10" s="17">
-        <v>1544.2668696093353</v>
-      </c>
-      <c r="M10" s="17"/>
-      <c r="N10" s="14">
-        <v>15.2</v>
-      </c>
-      <c r="P10" s="14">
-        <v>1962</v>
-      </c>
-      <c r="Q10" s="14">
-        <v>26</v>
-      </c>
-      <c r="R10" s="19">
-        <v>0.5</v>
-      </c>
-      <c r="S10" s="19">
-        <v>0.5</v>
-      </c>
-      <c r="T10" s="14">
-        <v>0.36713684946236558</v>
-      </c>
-      <c r="U10" s="14">
-        <v>0.1140524489844684</v>
-      </c>
-      <c r="V10" s="18">
-        <v>0.5</v>
-      </c>
-      <c r="W10" s="18">
-        <v>0.5</v>
-      </c>
-      <c r="X10" s="14">
-        <v>0.28934304380724812</v>
-      </c>
-      <c r="Y10" s="14">
-        <v>7.8925713261648753E-2</v>
-      </c>
-      <c r="Z10" s="18">
-        <v>0.5</v>
-      </c>
-      <c r="AA10" s="18">
-        <v>0.5</v>
-      </c>
-      <c r="AB10" s="14">
-        <v>0.33376081999203511</v>
-      </c>
-      <c r="AC10" s="14">
-        <v>0.1145908714456392</v>
-      </c>
-      <c r="AD10" s="18">
-        <v>0.5</v>
-      </c>
-      <c r="AE10" s="18">
-        <v>0.5</v>
-      </c>
-      <c r="AF10" s="14">
-        <v>0.39572908004778973</v>
-      </c>
-      <c r="AG10" s="14">
-        <v>0.1173318461341526</v>
-      </c>
-    </row>
-    <row r="11" spans="1:33" s="14" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="14">
-        <v>27</v>
-      </c>
-      <c r="B11" s="14" t="s">
-        <v>89</v>
-      </c>
-      <c r="C11" s="14" t="s">
-        <v>29</v>
-      </c>
-      <c r="D11" s="14" t="s">
-        <v>83</v>
-      </c>
-      <c r="E11" s="14" t="s">
-        <v>134</v>
-      </c>
-      <c r="F11" s="14" t="str">
-        <f t="shared" si="0"/>
-        <v>SDHYDKSS03</v>
-      </c>
-      <c r="G11" s="18">
-        <v>14.9222</v>
-      </c>
-      <c r="H11" s="18">
-        <v>35.908299999999997</v>
-      </c>
-      <c r="I11" s="14" t="s">
-        <v>9</v>
-      </c>
-      <c r="J11" s="14" t="s">
-        <v>73</v>
-      </c>
-      <c r="K11" s="20">
-        <v>1300</v>
-      </c>
-      <c r="L11" s="17">
-        <v>348.80771182141041</v>
-      </c>
-      <c r="M11" s="17">
-        <v>60</v>
-      </c>
-      <c r="N11" s="14">
-        <v>125</v>
-      </c>
-      <c r="O11" s="14" t="s">
-        <v>223</v>
-      </c>
-      <c r="P11" s="14">
-        <v>1964</v>
-      </c>
-      <c r="Q11" s="14">
-        <v>10</v>
-      </c>
-      <c r="R11" s="14">
-        <v>0.42335374090065131</v>
-      </c>
-      <c r="S11" s="14">
-        <v>0.42335374090065131</v>
-      </c>
-      <c r="T11" s="14">
-        <v>0.35828716925527671</v>
-      </c>
-      <c r="U11" s="14">
-        <v>0.12592183058542411</v>
-      </c>
-      <c r="V11" s="14">
-        <v>1</v>
-      </c>
-      <c r="W11" s="14">
-        <v>1</v>
-      </c>
-      <c r="X11" s="14">
-        <v>0.30841619553962568</v>
-      </c>
-      <c r="Y11" s="14">
-        <v>0.1049052191158901</v>
-      </c>
-      <c r="Z11" s="14">
-        <v>1</v>
-      </c>
-      <c r="AA11" s="14">
-        <v>1</v>
-      </c>
-      <c r="AB11" s="14">
-        <v>0.33410105575467941</v>
-      </c>
-      <c r="AC11" s="14">
-        <v>0.13192159689366789</v>
-      </c>
-      <c r="AD11" s="14">
-        <v>0.45356200606665714</v>
-      </c>
-      <c r="AE11" s="14">
-        <v>0.45356200606665714</v>
-      </c>
-      <c r="AF11" s="14">
-        <v>0.38180538061102581</v>
-      </c>
-      <c r="AG11" s="14">
-        <v>0.12809286277521759</v>
-      </c>
-    </row>
-    <row r="12" spans="1:33" s="14" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="14">
-        <v>28</v>
-      </c>
-      <c r="B12" s="14" t="s">
-        <v>89</v>
-      </c>
-      <c r="C12" s="14" t="s">
-        <v>29</v>
-      </c>
-      <c r="D12" s="14" t="s">
-        <v>32</v>
-      </c>
-      <c r="E12" s="14" t="s">
-        <v>140</v>
-      </c>
-      <c r="F12" s="14" t="str">
-        <f t="shared" si="0"/>
-        <v>SDHYDRSS03</v>
-      </c>
-      <c r="G12" s="18">
-        <v>11.7983333333333</v>
-      </c>
-      <c r="H12" s="14">
-        <v>34.39</v>
-      </c>
-      <c r="I12" s="14" t="s">
-        <v>9</v>
-      </c>
-      <c r="J12" s="14" t="s">
-        <v>73</v>
-      </c>
-      <c r="K12" s="20">
-        <v>3000</v>
-      </c>
-      <c r="L12" s="17">
-        <v>1544.2668696093353</v>
-      </c>
-      <c r="M12" s="17"/>
-      <c r="N12" s="14">
-        <v>233</v>
-      </c>
-      <c r="P12" s="14">
-        <v>1966</v>
-      </c>
-      <c r="Q12" s="14">
-        <v>270</v>
-      </c>
-      <c r="R12" s="19">
-        <v>0.5</v>
-      </c>
-      <c r="S12" s="19">
-        <v>0.5</v>
-      </c>
-      <c r="T12" s="14">
-        <v>0.36434364874551972</v>
-      </c>
-      <c r="U12" s="14">
-        <v>0.1070808571087216</v>
-      </c>
-      <c r="V12" s="18">
-        <v>0.5</v>
-      </c>
-      <c r="W12" s="18">
-        <v>0.5</v>
-      </c>
-      <c r="X12" s="14">
-        <v>0.29083403385105527</v>
-      </c>
-      <c r="Y12" s="14">
-        <v>7.0465027718040626E-2</v>
-      </c>
-      <c r="Z12" s="18">
-        <v>0.5</v>
-      </c>
-      <c r="AA12" s="18">
-        <v>0.5</v>
-      </c>
-      <c r="AB12" s="14">
-        <v>0.33143540342493027</v>
-      </c>
-      <c r="AC12" s="14">
-        <v>0.1056444339307049</v>
-      </c>
-      <c r="AD12" s="18">
-        <v>0.5</v>
-      </c>
-      <c r="AE12" s="18">
-        <v>0.5</v>
-      </c>
-      <c r="AF12" s="14">
-        <v>0.40202260582010579</v>
-      </c>
-      <c r="AG12" s="14">
-        <v>0.11319275345622121</v>
+      <c r="K12" s="10"/>
+      <c r="L12" s="21">
+        <v>2667</v>
+      </c>
+      <c r="M12" s="21">
+        <v>2100</v>
+      </c>
+      <c r="N12" s="8"/>
+      <c r="O12" s="8"/>
+      <c r="P12" s="8">
+        <v>2030</v>
+      </c>
+      <c r="Q12" s="8">
+        <v>648</v>
+      </c>
+      <c r="R12" s="22">
+        <v>1</v>
+      </c>
+      <c r="S12" s="22">
+        <v>1</v>
+      </c>
+      <c r="T12" s="8">
+        <v>0.42521820788530468</v>
+      </c>
+      <c r="U12" s="8">
+        <v>0.1244606697729988</v>
+      </c>
+      <c r="V12" s="9">
+        <v>1</v>
+      </c>
+      <c r="W12" s="9">
+        <v>1</v>
+      </c>
+      <c r="X12" s="8">
+        <v>0.37771498287534838</v>
+      </c>
+      <c r="Y12" s="8">
+        <v>0.1102721285543608</v>
+      </c>
+      <c r="Z12" s="9">
+        <v>1</v>
+      </c>
+      <c r="AA12" s="9">
+        <v>1</v>
+      </c>
+      <c r="AB12" s="8">
+        <v>0.38316936001592983</v>
+      </c>
+      <c r="AC12" s="8">
+        <v>0.12599141863799279</v>
+      </c>
+      <c r="AD12" s="9">
+        <v>1</v>
+      </c>
+      <c r="AE12" s="9">
+        <v>1</v>
+      </c>
+      <c r="AF12" s="8">
+        <v>0.40716517665130569</v>
+      </c>
+      <c r="AG12" s="8">
+        <v>0.1130760087045571</v>
       </c>
     </row>
     <row r="13" spans="1:33" s="14" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A13" s="14">
-        <v>29</v>
+        <v>4</v>
       </c>
       <c r="B13" s="14" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C13" s="14" t="s">
-        <v>29</v>
+        <v>17</v>
       </c>
       <c r="D13" s="14" t="s">
-        <v>30</v>
+        <v>98</v>
       </c>
       <c r="E13" s="14" t="s">
-        <v>119</v>
+        <v>128</v>
       </c>
       <c r="F13" s="14" t="str">
-        <f t="shared" si="0"/>
-        <v>SDHYDJAS03</v>
-      </c>
-      <c r="G13" s="18">
-        <v>15.238888888888889</v>
+        <f>_xlfn.CONCAT(B13,"HYD",E13,"S03")</f>
+        <v>ETHYDFCS03</v>
+      </c>
+      <c r="G13" s="14">
+        <v>9.5592100000000002</v>
       </c>
       <c r="H13" s="14">
-        <v>32.46</v>
+        <v>37.36562</v>
       </c>
       <c r="I13" s="14" t="s">
         <v>9</v>
@@ -29089,832 +29069,958 @@
         <v>73</v>
       </c>
       <c r="K13" s="20">
-        <v>3500</v>
-      </c>
-      <c r="L13" s="17">
-        <v>824.45459157787923</v>
-      </c>
+        <v>650</v>
+      </c>
+      <c r="L13" s="17"/>
       <c r="M13" s="17">
-        <v>940</v>
+        <v>29.6</v>
       </c>
       <c r="N13" s="14">
-        <v>1222</v>
+        <v>2.04</v>
+      </c>
+      <c r="O13" s="14" t="s">
+        <v>221</v>
       </c>
       <c r="P13" s="14">
-        <v>2003</v>
+        <v>1973</v>
       </c>
       <c r="Q13" s="14">
-        <v>19</v>
-      </c>
-      <c r="R13" s="19">
-        <v>0.83298124989973343</v>
-      </c>
-      <c r="S13" s="19">
-        <v>0.83298124989973343</v>
+        <v>128</v>
+      </c>
+      <c r="R13" s="14">
+        <v>0.39112886967512511</v>
+      </c>
+      <c r="S13" s="14">
+        <v>0.39112886967512511</v>
       </c>
       <c r="T13" s="14">
-        <v>0.39466196216646748</v>
+        <v>0.31769913022700119</v>
       </c>
       <c r="U13" s="14">
-        <v>0.1190324735961768</v>
-      </c>
-      <c r="V13" s="18">
-        <v>0.77571629040725032</v>
-      </c>
-      <c r="W13" s="18">
-        <v>0.77571629040725032</v>
+        <v>0.1226002829151733</v>
+      </c>
+      <c r="V13" s="14">
+        <v>0.55395990010728102</v>
+      </c>
+      <c r="W13" s="14">
+        <v>0.55395990010728102</v>
       </c>
       <c r="X13" s="14">
-        <v>0.32528437594583842</v>
+        <v>0.26080937037037039</v>
       </c>
       <c r="Y13" s="14">
-        <v>9.0738510872162489E-2</v>
-      </c>
-      <c r="Z13" s="18">
-        <v>0.80812762284681627</v>
-      </c>
-      <c r="AA13" s="18">
-        <v>0.80812762284681627</v>
+        <v>7.8234182317801673E-2</v>
+      </c>
+      <c r="Z13" s="14">
+        <v>0.50142622072856036</v>
+      </c>
+      <c r="AA13" s="14">
+        <v>0.50142622072856036</v>
       </c>
       <c r="AB13" s="14">
-        <v>0.35242235364396662</v>
+        <v>0.29062612704101948</v>
       </c>
       <c r="AC13" s="14">
-        <v>0.1197469111111111</v>
-      </c>
-      <c r="AD13" s="18">
-        <v>0.34980347843566895</v>
-      </c>
-      <c r="AE13" s="18">
-        <v>0.34980347843566895</v>
+        <v>0.1203243992831541</v>
+      </c>
+      <c r="AD13" s="14">
+        <v>0.39620138396267701</v>
+      </c>
+      <c r="AE13" s="14">
+        <v>0.39620138396267701</v>
       </c>
       <c r="AF13" s="14">
-        <v>0.41910394393241168</v>
+        <v>0.36399640809011768</v>
       </c>
       <c r="AG13" s="14">
-        <v>0.1194960299539171</v>
+        <v>0.13593716615463389</v>
       </c>
     </row>
     <row r="14" spans="1:33" s="14" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A14" s="14">
-        <v>30</v>
+        <v>12</v>
       </c>
       <c r="B14" s="14" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C14" s="14" t="s">
-        <v>29</v>
+        <v>17</v>
       </c>
       <c r="D14" s="14" t="s">
-        <v>33</v>
+        <v>105</v>
       </c>
       <c r="E14" s="14" t="s">
-        <v>137</v>
+        <v>129</v>
       </c>
       <c r="F14" s="14" t="str">
-        <f t="shared" si="0"/>
-        <v>SDHYDMRS03</v>
-      </c>
-      <c r="G14" s="18">
-        <v>18.492560000000001</v>
+        <f>_xlfn.CONCAT(B14,"HYD",E14,"S03")</f>
+        <v>ETHYDGBS03</v>
+      </c>
+      <c r="G14" s="14">
+        <v>8.31</v>
       </c>
       <c r="H14" s="14">
-        <v>31.82</v>
+        <v>36.1</v>
       </c>
       <c r="I14" s="14" t="s">
-        <v>9</v>
+        <v>24</v>
       </c>
       <c r="J14" s="14" t="s">
         <v>73</v>
       </c>
-      <c r="K14" s="20">
-        <v>12390</v>
-      </c>
-      <c r="L14" s="17">
+      <c r="K14" s="14">
+        <v>350</v>
+      </c>
+      <c r="L14" s="17"/>
+      <c r="M14" s="17"/>
+      <c r="N14" s="20">
+        <v>9</v>
+      </c>
+      <c r="O14" s="14" t="s">
+        <v>226</v>
+      </c>
+      <c r="P14" s="14">
+        <v>2025</v>
+      </c>
+      <c r="Q14" s="14">
+        <v>372</v>
+      </c>
+      <c r="R14" s="14">
+        <v>0.4734631412913764</v>
+      </c>
+      <c r="S14" s="14">
+        <v>0.4734631412913764</v>
+      </c>
+      <c r="T14" s="14">
+        <v>0.28966248387096782</v>
+      </c>
+      <c r="U14" s="14">
+        <v>0.10492320908004781</v>
+      </c>
+      <c r="V14" s="14">
+        <v>0.4734631412913764</v>
+      </c>
+      <c r="W14" s="14">
+        <v>0.4734631412913764</v>
+      </c>
+      <c r="X14" s="14">
+        <v>0.20662490123456789</v>
+      </c>
+      <c r="Y14" s="14">
+        <v>7.2926951254480288E-2</v>
+      </c>
+      <c r="Z14" s="14">
+        <v>0.4734631412913764</v>
+      </c>
+      <c r="AA14" s="14">
+        <v>0.4734631412913764</v>
+      </c>
+      <c r="AB14" s="14">
+        <v>0.25082501951413783</v>
+      </c>
+      <c r="AC14" s="14">
+        <v>0.1116878334528076</v>
+      </c>
+      <c r="AD14" s="14">
+        <v>0.4734631412913764</v>
+      </c>
+      <c r="AE14" s="14">
+        <v>0.4734631412913764</v>
+      </c>
+      <c r="AF14" s="14">
+        <v>0.34061422725721108</v>
+      </c>
+      <c r="AG14" s="14">
+        <v>0.1200607611367128</v>
+      </c>
+    </row>
+    <row r="15" spans="1:33" s="14" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A15" s="8">
+        <v>13</v>
+      </c>
+      <c r="B15" s="8" t="s">
+        <v>88</v>
+      </c>
+      <c r="C15" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="D15" s="8" t="s">
+        <v>106</v>
+      </c>
+      <c r="E15" s="8" t="s">
+        <v>130</v>
+      </c>
+      <c r="F15" s="8" t="str">
+        <f>_xlfn.CONCAT(B15,"HYD",E15,"S03")</f>
+        <v>ETHYDGJS03</v>
+      </c>
+      <c r="G15" s="8">
+        <v>8.23</v>
+      </c>
+      <c r="H15" s="8">
+        <v>34.96</v>
+      </c>
+      <c r="I15" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="J15" s="8" t="s">
+        <v>73</v>
+      </c>
+      <c r="K15" s="10"/>
+      <c r="L15" s="21">
+        <v>36.625</v>
+      </c>
+      <c r="M15" s="21">
+        <v>63.3</v>
+      </c>
+      <c r="N15" s="8"/>
+      <c r="O15" s="8"/>
+      <c r="P15" s="8">
+        <v>2025</v>
+      </c>
+      <c r="Q15" s="8">
+        <v>216</v>
+      </c>
+      <c r="R15" s="8">
+        <v>0.17605086170659942</v>
+      </c>
+      <c r="S15" s="8">
+        <v>0.17605086170659942</v>
+      </c>
+      <c r="T15" s="8">
+        <v>0.3125925786539227</v>
+      </c>
+      <c r="U15" s="8">
+        <v>7.9993380406212664E-2</v>
+      </c>
+      <c r="V15" s="8">
+        <v>0.97162673392181587</v>
+      </c>
+      <c r="W15" s="8">
+        <v>0.97162673392181587</v>
+      </c>
+      <c r="X15" s="8">
+        <v>0.25202684906411782</v>
+      </c>
+      <c r="Y15" s="8">
+        <v>6.7338230585424139E-2</v>
+      </c>
+      <c r="Z15" s="8">
+        <v>0.69829760403530894</v>
+      </c>
+      <c r="AA15" s="8">
+        <v>0.69829760403530894</v>
+      </c>
+      <c r="AB15" s="8">
+        <v>0.29334078255675028</v>
+      </c>
+      <c r="AC15" s="8">
+        <v>9.7413269772998801E-2</v>
+      </c>
+      <c r="AD15" s="8">
+        <v>5.3270281630937368E-2</v>
+      </c>
+      <c r="AE15" s="8">
+        <v>5.3270281630937368E-2</v>
+      </c>
+      <c r="AF15" s="8">
+        <v>0.35921848566308251</v>
+      </c>
+      <c r="AG15" s="8">
+        <v>9.4217673067076291E-2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:33" x14ac:dyDescent="0.2">
+      <c r="A16" s="14">
+        <v>3</v>
+      </c>
+      <c r="B16" s="14" t="s">
+        <v>87</v>
+      </c>
+      <c r="C16" s="14" t="s">
+        <v>7</v>
+      </c>
+      <c r="D16" s="14" t="s">
+        <v>8</v>
+      </c>
+      <c r="E16" s="14" t="s">
+        <v>131</v>
+      </c>
+      <c r="F16" s="14" t="str">
+        <f>_xlfn.CONCAT(B16,"HYD",E16,"S03")</f>
+        <v>EGHYDHAS03</v>
+      </c>
+      <c r="G16" s="18">
+        <v>23.973310000000001</v>
+      </c>
+      <c r="H16" s="14">
+        <v>32.880000000000003</v>
+      </c>
+      <c r="I16" s="14" t="s">
+        <v>9</v>
+      </c>
+      <c r="J16" s="14" t="s">
+        <v>73</v>
+      </c>
+      <c r="K16" s="20">
+        <v>162000</v>
+      </c>
+      <c r="L16" s="17">
+        <v>2763.982</v>
+      </c>
+      <c r="M16" s="17">
+        <v>3408</v>
+      </c>
+      <c r="N16" s="14">
+        <v>6500</v>
+      </c>
+      <c r="O16" s="14"/>
+      <c r="P16" s="14">
+        <v>2010</v>
+      </c>
+      <c r="Q16" s="14">
+        <v>2100</v>
+      </c>
+      <c r="R16" s="19">
+        <v>0.72314188741695651</v>
+      </c>
+      <c r="S16" s="19">
+        <v>0.72314188741695651</v>
+      </c>
+      <c r="T16" s="14">
+        <v>0.40586848506571083</v>
+      </c>
+      <c r="U16" s="14">
+        <v>0.12603861242532849</v>
+      </c>
+      <c r="V16" s="18">
+        <v>0.72314188741695651</v>
+      </c>
+      <c r="W16" s="18">
+        <v>0.72314188741695651</v>
+      </c>
+      <c r="X16" s="14">
+        <v>0.38385520469932288</v>
+      </c>
+      <c r="Y16" s="14">
+        <v>0.11816489581839899</v>
+      </c>
+      <c r="Z16" s="18">
+        <v>0.72314188741695651</v>
+      </c>
+      <c r="AA16" s="18">
+        <v>0.72314188741695651</v>
+      </c>
+      <c r="AB16" s="14">
+        <v>0.37423852608522501</v>
+      </c>
+      <c r="AC16" s="14">
+        <v>0.1297939178016726</v>
+      </c>
+      <c r="AD16" s="18">
+        <v>0.72314188741695651</v>
+      </c>
+      <c r="AE16" s="18">
+        <v>0.72314188741695651</v>
+      </c>
+      <c r="AF16" s="14">
+        <v>0.39426057176992663</v>
+      </c>
+      <c r="AG16" s="14">
+        <v>0.1117774126984127</v>
+      </c>
+    </row>
+    <row r="17" spans="1:33" x14ac:dyDescent="0.2">
+      <c r="A17" s="14">
+        <v>29</v>
+      </c>
+      <c r="B17" s="14" t="s">
+        <v>89</v>
+      </c>
+      <c r="C17" s="14" t="s">
+        <v>29</v>
+      </c>
+      <c r="D17" s="14" t="s">
+        <v>30</v>
+      </c>
+      <c r="E17" s="14" t="s">
+        <v>119</v>
+      </c>
+      <c r="F17" s="14" t="str">
+        <f>_xlfn.CONCAT(B17,"HYD",E17,"S03")</f>
+        <v>SDHYDJAS03</v>
+      </c>
+      <c r="G17" s="18">
+        <v>15.238888888888889</v>
+      </c>
+      <c r="H17" s="14">
+        <v>32.46</v>
+      </c>
+      <c r="I17" s="14" t="s">
+        <v>9</v>
+      </c>
+      <c r="J17" s="14" t="s">
+        <v>73</v>
+      </c>
+      <c r="K17" s="20">
+        <v>3500</v>
+      </c>
+      <c r="L17" s="17">
+        <v>824.45459157787923</v>
+      </c>
+      <c r="M17" s="17">
+        <v>940</v>
+      </c>
+      <c r="N17" s="14">
+        <v>1222</v>
+      </c>
+      <c r="O17" s="14"/>
+      <c r="P17" s="14">
+        <v>2003</v>
+      </c>
+      <c r="Q17" s="14">
+        <v>19</v>
+      </c>
+      <c r="R17" s="19">
+        <v>0.83298124989973343</v>
+      </c>
+      <c r="S17" s="19">
+        <v>0.83298124989973343</v>
+      </c>
+      <c r="T17" s="14">
+        <v>0.39466196216646748</v>
+      </c>
+      <c r="U17" s="14">
+        <v>0.1190324735961768</v>
+      </c>
+      <c r="V17" s="18">
+        <v>0.77571629040725032</v>
+      </c>
+      <c r="W17" s="18">
+        <v>0.77571629040725032</v>
+      </c>
+      <c r="X17" s="14">
+        <v>0.32528437594583842</v>
+      </c>
+      <c r="Y17" s="14">
+        <v>9.0738510872162489E-2</v>
+      </c>
+      <c r="Z17" s="18">
+        <v>0.80812762284681627</v>
+      </c>
+      <c r="AA17" s="18">
+        <v>0.80812762284681627</v>
+      </c>
+      <c r="AB17" s="14">
+        <v>0.35242235364396662</v>
+      </c>
+      <c r="AC17" s="14">
+        <v>0.1197469111111111</v>
+      </c>
+      <c r="AD17" s="18">
+        <v>0.34980347843566895</v>
+      </c>
+      <c r="AE17" s="18">
+        <v>0.34980347843566895</v>
+      </c>
+      <c r="AF17" s="14">
+        <v>0.41910394393241168</v>
+      </c>
+      <c r="AG17" s="14">
+        <v>0.1194960299539171</v>
+      </c>
+    </row>
+    <row r="18" spans="1:33" x14ac:dyDescent="0.2">
+      <c r="A18" s="8">
+        <v>24</v>
+      </c>
+      <c r="B18" s="8" t="s">
+        <v>90</v>
+      </c>
+      <c r="C18" s="8" t="s">
+        <v>74</v>
+      </c>
+      <c r="D18" s="8" t="s">
+        <v>75</v>
+      </c>
+      <c r="E18" s="8" t="s">
+        <v>120</v>
+      </c>
+      <c r="F18" s="8" t="str">
+        <f>_xlfn.CONCAT(B18,"HYD",E18,"S03")</f>
+        <v>SSHYDJBS03</v>
+      </c>
+      <c r="G18" s="8">
+        <v>4.7392422337811801</v>
+      </c>
+      <c r="H18" s="8">
+        <v>31.597916666665899</v>
+      </c>
+      <c r="I18" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="J18" s="8" t="s">
+        <v>73</v>
+      </c>
+      <c r="K18" s="10"/>
+      <c r="L18" s="8"/>
+      <c r="M18" s="8"/>
+      <c r="N18" s="8"/>
+      <c r="O18" s="8"/>
+      <c r="P18" s="8">
+        <v>2026</v>
+      </c>
+      <c r="Q18" s="8">
+        <v>120</v>
+      </c>
+      <c r="R18" s="8">
+        <v>0.5</v>
+      </c>
+      <c r="S18" s="8">
+        <v>0.5</v>
+      </c>
+      <c r="T18" s="8">
+        <v>0.31782991039426522</v>
+      </c>
+      <c r="U18" s="8">
+        <v>9.1050570609318995E-2</v>
+      </c>
+      <c r="V18" s="8">
+        <v>0.5</v>
+      </c>
+      <c r="W18" s="8">
+        <v>0.5</v>
+      </c>
+      <c r="X18" s="8">
+        <v>0.27428759936280372</v>
+      </c>
+      <c r="Y18" s="8">
+        <v>7.5601210513739539E-2</v>
+      </c>
+      <c r="Z18" s="8">
+        <v>0.5</v>
+      </c>
+      <c r="AA18" s="8">
+        <v>0.5</v>
+      </c>
+      <c r="AB18" s="8">
+        <v>0.29182108442851451</v>
+      </c>
+      <c r="AC18" s="8">
+        <v>0.107807576344086</v>
+      </c>
+      <c r="AD18" s="8">
+        <v>0.5</v>
+      </c>
+      <c r="AE18" s="8">
+        <v>0.5</v>
+      </c>
+      <c r="AF18" s="8">
+        <v>0.3619241816009558</v>
+      </c>
+      <c r="AG18" s="8">
+        <v>0.10526507910906301</v>
+      </c>
+    </row>
+    <row r="19" spans="1:33" x14ac:dyDescent="0.2">
+      <c r="A19" s="14">
+        <v>32</v>
+      </c>
+      <c r="B19" s="14" t="s">
+        <v>89</v>
+      </c>
+      <c r="C19" s="14" t="s">
+        <v>29</v>
+      </c>
+      <c r="D19" s="14" t="s">
+        <v>37</v>
+      </c>
+      <c r="E19" s="14" t="s">
+        <v>132</v>
+      </c>
+      <c r="F19" s="14" t="str">
+        <f>_xlfn.CONCAT(B19,"HYD",E19,"S03")</f>
+        <v>SDHYDKBS03</v>
+      </c>
+      <c r="G19" s="18">
+        <v>19.166699999999999</v>
+      </c>
+      <c r="H19" s="14">
+        <v>30.48</v>
+      </c>
+      <c r="I19" s="14" t="s">
+        <v>24</v>
+      </c>
+      <c r="J19" s="14" t="s">
+        <v>73</v>
+      </c>
+      <c r="K19" s="20"/>
+      <c r="L19" s="17">
         <v>2667</v>
       </c>
-      <c r="M14" s="17">
-        <v>2900</v>
-      </c>
-      <c r="N14" s="14">
-        <v>476</v>
-      </c>
-      <c r="P14" s="14">
-        <v>2009</v>
-      </c>
-      <c r="Q14" s="14">
-        <v>1240</v>
-      </c>
-      <c r="R14" s="19">
-        <v>0.85019816635710554</v>
-      </c>
-      <c r="S14" s="19">
-        <v>0.85019816635710554</v>
-      </c>
-      <c r="T14" s="14">
-        <v>0.41324736758263642</v>
-      </c>
-      <c r="U14" s="14">
-        <v>0.12749815675029871</v>
-      </c>
-      <c r="V14" s="18">
-        <v>0.92476270759666213</v>
-      </c>
-      <c r="W14" s="18">
-        <v>0.92476270759666213</v>
-      </c>
-      <c r="X14" s="14">
-        <v>0.35471768857029068</v>
-      </c>
-      <c r="Y14" s="14">
-        <v>0.1051770494623656</v>
-      </c>
-      <c r="Z14" s="18">
-        <v>0.98817898158853146</v>
-      </c>
-      <c r="AA14" s="18">
-        <v>0.98817898158853146</v>
-      </c>
-      <c r="AB14" s="14">
-        <v>0.36381105894066113</v>
-      </c>
-      <c r="AC14" s="14">
-        <v>0.12547243990442061</v>
-      </c>
-      <c r="AD14" s="18">
-        <v>0.81116964716180107</v>
-      </c>
-      <c r="AE14" s="18">
-        <v>0.81116964716180107</v>
-      </c>
-      <c r="AF14" s="14">
-        <v>0.41797175029868577</v>
-      </c>
-      <c r="AG14" s="14">
-        <v>0.1216317309267793</v>
-      </c>
-    </row>
-    <row r="15" spans="1:33" s="14" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="14">
-        <v>31</v>
-      </c>
-      <c r="B15" s="14" t="s">
+      <c r="M19" s="17">
+        <v>1254</v>
+      </c>
+      <c r="N19" s="14">
+        <v>110</v>
+      </c>
+      <c r="O19" s="14" t="s">
+        <v>223</v>
+      </c>
+      <c r="P19" s="14">
+        <v>2024</v>
+      </c>
+      <c r="Q19" s="14">
+        <v>360</v>
+      </c>
+      <c r="R19" s="19">
+        <v>1</v>
+      </c>
+      <c r="S19" s="19">
+        <v>1</v>
+      </c>
+      <c r="T19" s="14">
+        <v>0.41996924133811242</v>
+      </c>
+      <c r="U19" s="14">
+        <v>0.1218930356033453</v>
+      </c>
+      <c r="V19" s="18">
+        <v>1</v>
+      </c>
+      <c r="W19" s="18">
+        <v>1</v>
+      </c>
+      <c r="X19" s="14">
+        <v>0.36449918518518509</v>
+      </c>
+      <c r="Y19" s="14">
+        <v>0.10455796200716851</v>
+      </c>
+      <c r="Z19" s="18">
+        <v>1</v>
+      </c>
+      <c r="AA19" s="18">
+        <v>1</v>
+      </c>
+      <c r="AB19" s="14">
+        <v>0.37915904579848669</v>
+      </c>
+      <c r="AC19" s="14">
+        <v>0.1228442348864994</v>
+      </c>
+      <c r="AD19" s="18">
+        <v>1</v>
+      </c>
+      <c r="AE19" s="18">
+        <v>1</v>
+      </c>
+      <c r="AF19" s="14">
+        <v>0.43280106246799788</v>
+      </c>
+      <c r="AG19" s="14">
+        <v>0.1174430401945725</v>
+      </c>
+    </row>
+    <row r="20" spans="1:33" x14ac:dyDescent="0.2">
+      <c r="A20" s="8">
+        <v>17</v>
+      </c>
+      <c r="B20" s="8" t="s">
+        <v>88</v>
+      </c>
+      <c r="C20" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="D20" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="E20" s="8" t="s">
+        <v>133</v>
+      </c>
+      <c r="F20" s="8" t="str">
+        <f>_xlfn.CONCAT(B20,"HYD",E20,"S03")</f>
+        <v>ETHYDKRS03</v>
+      </c>
+      <c r="G20" s="9">
+        <v>10.144004000000001</v>
+      </c>
+      <c r="H20" s="8">
+        <v>38.340000000000003</v>
+      </c>
+      <c r="I20" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="J20" s="8" t="s">
+        <v>73</v>
+      </c>
+      <c r="K20" s="10">
+        <v>40200</v>
+      </c>
+      <c r="L20" s="21"/>
+      <c r="M20" s="21">
+        <v>879.1</v>
+      </c>
+      <c r="N20" s="8"/>
+      <c r="O20" s="8" t="s">
+        <v>228</v>
+      </c>
+      <c r="P20" s="8">
+        <v>2026</v>
+      </c>
+      <c r="Q20" s="8">
+        <v>1600</v>
+      </c>
+      <c r="R20" s="22">
+        <v>0.15239928498888736</v>
+      </c>
+      <c r="S20" s="22">
+        <v>0.15239928498888736</v>
+      </c>
+      <c r="T20" s="8">
+        <v>0.34185133452807648</v>
+      </c>
+      <c r="U20" s="8">
+        <v>0.120099909916368</v>
+      </c>
+      <c r="V20" s="9">
+        <v>0.96594138936903073</v>
+      </c>
+      <c r="W20" s="9">
+        <v>0.96594138936903073</v>
+      </c>
+      <c r="X20" s="8">
+        <v>0.30371421146953398</v>
+      </c>
+      <c r="Y20" s="8">
+        <v>8.7546180884109925E-2</v>
+      </c>
+      <c r="Z20" s="9">
+        <v>0.6383653800451311</v>
+      </c>
+      <c r="AA20" s="9">
+        <v>0.6383653800451311</v>
+      </c>
+      <c r="AB20" s="8">
+        <v>0.33924185145360408</v>
+      </c>
+      <c r="AC20" s="8">
+        <v>0.12606837108721619</v>
+      </c>
+      <c r="AD20" s="9">
+        <v>6.2072973513692446E-2</v>
+      </c>
+      <c r="AE20" s="9">
+        <v>6.2072973513692446E-2</v>
+      </c>
+      <c r="AF20" s="8">
+        <v>0.37769306152927129</v>
+      </c>
+      <c r="AG20" s="8">
+        <v>0.13024408422939071</v>
+      </c>
+    </row>
+    <row r="21" spans="1:33" x14ac:dyDescent="0.2">
+      <c r="A21" s="14">
+        <v>27</v>
+      </c>
+      <c r="B21" s="14" t="s">
         <v>89</v>
       </c>
-      <c r="C15" s="14" t="s">
+      <c r="C21" s="14" t="s">
         <v>29</v>
       </c>
-      <c r="D15" s="14" t="s">
-        <v>84</v>
-      </c>
-      <c r="E15" s="14" t="s">
-        <v>147</v>
-      </c>
-      <c r="F15" s="14" t="str">
-        <f t="shared" si="0"/>
-        <v>SDHYDUAS03</v>
-      </c>
-      <c r="G15" s="18">
-        <v>14.2767</v>
-      </c>
-      <c r="H15" s="18">
-        <v>35.896900000000002</v>
-      </c>
-      <c r="I15" s="14" t="s">
+      <c r="D21" s="14" t="s">
+        <v>83</v>
+      </c>
+      <c r="E21" s="14" t="s">
+        <v>134</v>
+      </c>
+      <c r="F21" s="14" t="str">
+        <f>_xlfn.CONCAT(B21,"HYD",E21,"S03")</f>
+        <v>SDHYDKSS03</v>
+      </c>
+      <c r="G21" s="18">
+        <v>14.9222</v>
+      </c>
+      <c r="H21" s="18">
+        <v>35.908299999999997</v>
+      </c>
+      <c r="I21" s="14" t="s">
         <v>9</v>
       </c>
-      <c r="J15" s="14" t="s">
+      <c r="J21" s="14" t="s">
         <v>73</v>
       </c>
-      <c r="K15" s="20">
-        <v>2700</v>
-      </c>
-      <c r="L15" s="17">
+      <c r="K21" s="20">
+        <v>1300</v>
+      </c>
+      <c r="L21" s="17">
         <v>348.80771182141041</v>
       </c>
-      <c r="M15" s="17"/>
-      <c r="N15" s="14">
-        <v>100</v>
-      </c>
-      <c r="O15" s="14" t="s">
-        <v>221</v>
-      </c>
-      <c r="P15" s="14">
-        <v>2017</v>
-      </c>
-      <c r="Q15" s="14">
-        <v>320</v>
-      </c>
-      <c r="R15" s="14">
-        <v>2.7317154803051569E-2</v>
-      </c>
-      <c r="S15" s="14">
-        <v>2.7317154803051569E-2</v>
-      </c>
-      <c r="T15" s="14">
-        <v>0.35530261847869382</v>
-      </c>
-      <c r="U15" s="14">
-        <v>0.1228047395459976</v>
-      </c>
-      <c r="V15" s="14">
-        <v>0.59015230995696066</v>
-      </c>
-      <c r="W15" s="14">
-        <v>0.59015230995696066</v>
-      </c>
-      <c r="X15" s="14">
-        <v>0.30836657228195941</v>
-      </c>
-      <c r="Y15" s="14">
-        <v>0.1002377624850657</v>
-      </c>
-      <c r="Z15" s="14">
-        <v>0.44439081011541814</v>
-      </c>
-      <c r="AA15" s="14">
-        <v>0.44439081011541814</v>
-      </c>
-      <c r="AB15" s="14">
-        <v>0.33429198128235771</v>
-      </c>
-      <c r="AC15" s="14">
-        <v>0.12918153524492229</v>
-      </c>
-      <c r="AD15" s="14">
-        <v>2.9266361284883659E-2</v>
-      </c>
-      <c r="AE15" s="14">
-        <v>2.9266361284883659E-2</v>
-      </c>
-      <c r="AF15" s="14">
-        <v>0.37724122802526022</v>
-      </c>
-      <c r="AG15" s="14">
-        <v>0.123978404249872</v>
-      </c>
-    </row>
-    <row r="16" spans="1:33" x14ac:dyDescent="0.2">
-      <c r="A16">
-        <v>38</v>
-      </c>
-      <c r="B16" t="s">
-        <v>87</v>
-      </c>
-      <c r="C16" t="s">
-        <v>7</v>
-      </c>
-      <c r="D16" t="s">
-        <v>14</v>
-      </c>
-      <c r="E16" t="s">
-        <v>152</v>
-      </c>
-      <c r="F16" t="str">
-        <f t="shared" si="0"/>
-        <v>EGHYDESS03</v>
-      </c>
-      <c r="G16" s="1">
-        <v>25.315359999999998</v>
-      </c>
-      <c r="H16">
-        <v>32.56</v>
-      </c>
-      <c r="I16" t="s">
+      <c r="M21" s="17">
+        <v>60</v>
+      </c>
+      <c r="N21" s="14">
+        <v>125</v>
+      </c>
+      <c r="O21" s="14" t="s">
+        <v>223</v>
+      </c>
+      <c r="P21" s="14">
+        <v>1964</v>
+      </c>
+      <c r="Q21" s="14">
+        <v>10</v>
+      </c>
+      <c r="R21" s="14">
+        <v>0.42335374090065131</v>
+      </c>
+      <c r="S21" s="14">
+        <v>0.42335374090065131</v>
+      </c>
+      <c r="T21" s="14">
+        <v>0.35828716925527671</v>
+      </c>
+      <c r="U21" s="14">
+        <v>0.12592183058542411</v>
+      </c>
+      <c r="V21" s="14">
+        <v>1</v>
+      </c>
+      <c r="W21" s="14">
+        <v>1</v>
+      </c>
+      <c r="X21" s="14">
+        <v>0.30841619553962568</v>
+      </c>
+      <c r="Y21" s="14">
+        <v>0.1049052191158901</v>
+      </c>
+      <c r="Z21" s="14">
+        <v>1</v>
+      </c>
+      <c r="AA21" s="14">
+        <v>1</v>
+      </c>
+      <c r="AB21" s="14">
+        <v>0.33410105575467941</v>
+      </c>
+      <c r="AC21" s="14">
+        <v>0.13192159689366789</v>
+      </c>
+      <c r="AD21" s="14">
+        <v>0.45356200606665714</v>
+      </c>
+      <c r="AE21" s="14">
+        <v>0.45356200606665714</v>
+      </c>
+      <c r="AF21" s="14">
+        <v>0.38180538061102581</v>
+      </c>
+      <c r="AG21" s="14">
+        <v>0.12809286277521759</v>
+      </c>
+    </row>
+    <row r="22" spans="1:33" s="8" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A22" s="14">
+        <v>5</v>
+      </c>
+      <c r="B22" s="14" t="s">
+        <v>88</v>
+      </c>
+      <c r="C22" s="14" t="s">
+        <v>17</v>
+      </c>
+      <c r="D22" s="14" t="s">
+        <v>111</v>
+      </c>
+      <c r="E22" s="14" t="s">
+        <v>135</v>
+      </c>
+      <c r="F22" s="14" t="str">
+        <f>_xlfn.CONCAT(B22,"HYD",E22,"S03")</f>
+        <v>ETHYDLTS03</v>
+      </c>
+      <c r="G22" s="18">
+        <v>11.71</v>
+      </c>
+      <c r="H22" s="14">
+        <v>37.380000000000003</v>
+      </c>
+      <c r="I22" s="14" t="s">
         <v>9</v>
       </c>
-      <c r="J16" t="s">
-        <v>81</v>
-      </c>
-      <c r="K16" s="7" t="s">
-        <v>224</v>
-      </c>
-      <c r="L16" s="7" t="s">
-        <v>224</v>
-      </c>
-      <c r="M16" s="7" t="s">
-        <v>224</v>
-      </c>
-      <c r="N16" s="7" t="s">
-        <v>224</v>
-      </c>
-      <c r="O16" s="7" t="s">
-        <v>224</v>
-      </c>
-      <c r="P16">
+      <c r="J22" s="14" t="s">
+        <v>73</v>
+      </c>
+      <c r="K22" s="20">
+        <v>284000</v>
+      </c>
+      <c r="L22" s="14"/>
+      <c r="M22" s="14"/>
+      <c r="N22" s="14">
+        <v>3600</v>
+      </c>
+      <c r="O22" s="14"/>
+      <c r="P22" s="14">
         <v>2010</v>
       </c>
-      <c r="Q16">
-        <v>86</v>
-      </c>
-      <c r="R16" s="12">
-        <v>0.92906388888888891</v>
-      </c>
-      <c r="S16" s="12">
-        <v>0.92906388888888891</v>
-      </c>
-      <c r="V16" s="12">
-        <v>0.92906388888888891</v>
-      </c>
-      <c r="W16" s="12">
-        <v>0.92906388888888891</v>
-      </c>
-      <c r="Z16" s="12">
-        <v>0.92906388888888891</v>
-      </c>
-      <c r="AA16" s="12">
-        <v>0.92906388888888891</v>
-      </c>
-      <c r="AD16" s="12">
-        <v>0.92906388888888891</v>
-      </c>
-      <c r="AE16" s="12">
-        <v>0.92906388888888891</v>
-      </c>
-    </row>
-    <row r="17" spans="1:33" x14ac:dyDescent="0.2">
-      <c r="A17">
-        <v>39</v>
-      </c>
-      <c r="B17" t="s">
-        <v>87</v>
-      </c>
-      <c r="C17" t="s">
-        <v>7</v>
-      </c>
-      <c r="D17" t="s">
-        <v>15</v>
-      </c>
-      <c r="E17" t="s">
-        <v>156</v>
-      </c>
-      <c r="F17" t="str">
-        <f t="shared" si="0"/>
-        <v>EGHYDNHS03</v>
-      </c>
-      <c r="G17" s="1">
-        <v>26.045996917309001</v>
-      </c>
-      <c r="H17">
-        <v>32.25</v>
-      </c>
-      <c r="I17" t="s">
-        <v>9</v>
-      </c>
-      <c r="J17" t="s">
-        <v>81</v>
-      </c>
-      <c r="K17" s="7" t="s">
-        <v>224</v>
-      </c>
-      <c r="L17" s="7" t="s">
-        <v>224</v>
-      </c>
-      <c r="M17" s="7" t="s">
-        <v>224</v>
-      </c>
-      <c r="N17" s="7" t="s">
-        <v>224</v>
-      </c>
-      <c r="O17" s="7" t="s">
-        <v>224</v>
-      </c>
-      <c r="P17">
-        <v>2010</v>
-      </c>
-      <c r="Q17">
-        <v>64</v>
-      </c>
-      <c r="R17" s="12">
-        <v>1</v>
-      </c>
-      <c r="S17" s="12">
-        <v>1</v>
-      </c>
-      <c r="V17" s="12">
-        <v>1</v>
-      </c>
-      <c r="W17" s="12">
-        <v>1</v>
-      </c>
-      <c r="Z17" s="12">
-        <v>1</v>
-      </c>
-      <c r="AA17" s="12">
-        <v>1</v>
-      </c>
-      <c r="AD17" s="12">
-        <v>1</v>
-      </c>
-      <c r="AE17" s="12">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="18" spans="1:33" x14ac:dyDescent="0.2">
-      <c r="A18">
-        <v>40</v>
-      </c>
-      <c r="B18" t="s">
-        <v>87</v>
-      </c>
-      <c r="C18" t="s">
-        <v>7</v>
-      </c>
-      <c r="D18" t="s">
-        <v>16</v>
-      </c>
-      <c r="E18" t="s">
-        <v>160</v>
-      </c>
-      <c r="F18" t="str">
-        <f t="shared" si="0"/>
-        <v>EGHYDNBS03</v>
-      </c>
-      <c r="G18" s="1">
-        <v>29.996935100000002</v>
-      </c>
-      <c r="H18">
-        <v>31.25</v>
-      </c>
-      <c r="I18" t="s">
-        <v>9</v>
-      </c>
-      <c r="J18" t="s">
-        <v>81</v>
-      </c>
-      <c r="K18" s="7" t="s">
-        <v>224</v>
-      </c>
-      <c r="L18" s="7" t="s">
-        <v>224</v>
-      </c>
-      <c r="M18" s="7" t="s">
-        <v>224</v>
-      </c>
-      <c r="N18" s="7" t="s">
-        <v>224</v>
-      </c>
-      <c r="O18" s="7" t="s">
-        <v>224</v>
-      </c>
-      <c r="P18">
-        <v>2018</v>
-      </c>
-      <c r="Q18" s="1">
-        <v>31.73515982</v>
-      </c>
-      <c r="R18" s="12">
-        <v>1</v>
-      </c>
-      <c r="S18" s="12">
-        <v>1</v>
-      </c>
-      <c r="V18" s="12">
-        <v>1</v>
-      </c>
-      <c r="W18" s="12">
-        <v>1</v>
-      </c>
-      <c r="Z18" s="12">
-        <v>1</v>
-      </c>
-      <c r="AA18" s="12">
-        <v>1</v>
-      </c>
-      <c r="AD18" s="12">
-        <v>1</v>
-      </c>
-      <c r="AE18" s="12">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="19" spans="1:33" x14ac:dyDescent="0.2">
-      <c r="A19">
-        <v>41</v>
-      </c>
-      <c r="B19" t="s">
-        <v>88</v>
-      </c>
-      <c r="C19" t="s">
-        <v>17</v>
-      </c>
-      <c r="D19" t="s">
-        <v>21</v>
-      </c>
-      <c r="E19" t="s">
-        <v>145</v>
-      </c>
-      <c r="F19" t="str">
-        <f t="shared" si="0"/>
-        <v>ETHYDT1S03</v>
-      </c>
-      <c r="G19" s="1">
-        <v>11.485569999999999</v>
-      </c>
-      <c r="H19">
-        <v>37.590000000000003</v>
-      </c>
-      <c r="I19" t="s">
-        <v>9</v>
-      </c>
-      <c r="J19" t="s">
-        <v>81</v>
-      </c>
-      <c r="K19" s="7" t="s">
-        <v>224</v>
-      </c>
-      <c r="L19" s="7" t="s">
-        <v>224</v>
-      </c>
-      <c r="M19" s="7" t="s">
-        <v>224</v>
-      </c>
-      <c r="N19" s="7" t="s">
-        <v>224</v>
-      </c>
-      <c r="O19" s="7" t="s">
-        <v>224</v>
-      </c>
-      <c r="P19">
-        <v>2000</v>
-      </c>
-      <c r="Q19">
-        <v>11</v>
-      </c>
-      <c r="R19" s="12">
-        <v>1</v>
-      </c>
-      <c r="S19" s="12">
-        <v>1</v>
-      </c>
-      <c r="V19" s="12">
-        <v>1</v>
-      </c>
-      <c r="W19" s="12">
-        <v>1</v>
-      </c>
-      <c r="Z19" s="12">
-        <v>1</v>
-      </c>
-      <c r="AA19" s="12">
-        <v>1</v>
-      </c>
-      <c r="AD19" s="12">
-        <v>1</v>
-      </c>
-      <c r="AE19" s="12">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="20" spans="1:33" x14ac:dyDescent="0.2">
-      <c r="A20">
-        <v>42</v>
-      </c>
-      <c r="B20" t="s">
-        <v>88</v>
-      </c>
-      <c r="C20" t="s">
-        <v>17</v>
-      </c>
-      <c r="D20" t="s">
-        <v>22</v>
-      </c>
-      <c r="E20" t="s">
-        <v>146</v>
-      </c>
-      <c r="F20" t="str">
-        <f t="shared" si="0"/>
-        <v>ETHYDT2S03</v>
-      </c>
-      <c r="G20" s="1">
-        <v>11.4887</v>
-      </c>
-      <c r="H20">
-        <v>37.6</v>
-      </c>
-      <c r="I20" t="s">
-        <v>9</v>
-      </c>
-      <c r="J20" t="s">
-        <v>81</v>
-      </c>
-      <c r="K20" s="7" t="s">
-        <v>224</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>224</v>
-      </c>
-      <c r="M20" s="7" t="s">
-        <v>224</v>
-      </c>
-      <c r="N20" s="7" t="s">
-        <v>224</v>
-      </c>
-      <c r="O20" s="7" t="s">
-        <v>224</v>
-      </c>
-      <c r="P20">
-        <v>2010</v>
-      </c>
-      <c r="Q20">
-        <v>78</v>
-      </c>
-      <c r="R20" s="12">
-        <v>1</v>
-      </c>
-      <c r="S20" s="12">
-        <v>1</v>
-      </c>
-      <c r="V20" s="12">
-        <v>1</v>
-      </c>
-      <c r="W20" s="12">
-        <v>1</v>
-      </c>
-      <c r="Z20" s="12">
-        <v>1</v>
-      </c>
-      <c r="AA20" s="12">
-        <v>1</v>
-      </c>
-      <c r="AD20" s="12">
-        <v>1</v>
-      </c>
-      <c r="AE20" s="12">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="21" spans="1:33" x14ac:dyDescent="0.2">
-      <c r="A21">
-        <v>43</v>
-      </c>
-      <c r="B21" t="s">
-        <v>88</v>
-      </c>
-      <c r="C21" t="s">
-        <v>17</v>
-      </c>
-      <c r="D21" t="s">
-        <v>100</v>
-      </c>
-      <c r="E21" t="s">
-        <v>158</v>
-      </c>
-      <c r="F21" t="str">
-        <f t="shared" si="0"/>
-        <v>ETHYDSRS03</v>
-      </c>
-      <c r="G21">
-        <v>8.39</v>
-      </c>
-      <c r="H21">
-        <v>35.44</v>
-      </c>
-      <c r="I21" t="s">
-        <v>9</v>
-      </c>
-      <c r="J21" t="s">
-        <v>81</v>
-      </c>
-      <c r="K21" s="7" t="s">
-        <v>224</v>
-      </c>
-      <c r="L21" s="7" t="s">
-        <v>224</v>
-      </c>
-      <c r="M21" s="7" t="s">
-        <v>224</v>
-      </c>
-      <c r="N21" s="7" t="s">
-        <v>224</v>
-      </c>
-      <c r="O21" s="7" t="s">
-        <v>224</v>
-      </c>
-      <c r="P21">
-        <v>2014</v>
-      </c>
-      <c r="Q21">
-        <v>5</v>
-      </c>
-      <c r="R21">
-        <v>0.17605086170659942</v>
-      </c>
-      <c r="S21">
-        <v>0.17605086170659942</v>
-      </c>
-      <c r="V21">
-        <v>0.97162673392181587</v>
-      </c>
-      <c r="W21">
-        <v>0.97162673392181587</v>
-      </c>
-      <c r="Z21">
-        <v>0.69829760403530894</v>
-      </c>
-      <c r="AA21">
-        <v>0.69829760403530894</v>
-      </c>
-      <c r="AD21">
-        <v>5.3270281630937368E-2</v>
-      </c>
-      <c r="AE21">
-        <v>5.3270281630937368E-2</v>
-      </c>
-    </row>
-    <row r="22" spans="1:33" s="8" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="8">
-        <v>9</v>
-      </c>
-      <c r="B22" s="8" t="s">
-        <v>88</v>
-      </c>
-      <c r="C22" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="D22" s="8" t="s">
-        <v>102</v>
-      </c>
-      <c r="E22" s="8" t="s">
-        <v>124</v>
-      </c>
-      <c r="F22" s="8" t="str">
-        <f t="shared" si="0"/>
-        <v>ETHYDBRS03</v>
-      </c>
-      <c r="G22" s="8">
-        <v>7.2166699999999997</v>
-      </c>
-      <c r="H22" s="8">
-        <v>35.633339999999997</v>
-      </c>
-      <c r="I22" s="8" t="s">
-        <v>24</v>
-      </c>
-      <c r="J22" s="8" t="s">
-        <v>73</v>
-      </c>
-      <c r="K22" s="10"/>
-      <c r="L22" s="21"/>
-      <c r="M22" s="21"/>
-      <c r="P22" s="8">
-        <v>2025</v>
-      </c>
-      <c r="Q22" s="8">
-        <v>645</v>
-      </c>
-      <c r="R22" s="8">
-        <v>0.71648926237161525</v>
-      </c>
-      <c r="S22" s="8">
-        <v>0.71648926237161525</v>
-      </c>
-      <c r="T22" s="8">
-        <v>0.28282056272401429</v>
-      </c>
-      <c r="U22" s="8">
-        <v>9.2343708960573465E-2</v>
-      </c>
-      <c r="V22" s="8">
-        <v>0.98991596638655466</v>
-      </c>
-      <c r="W22" s="8">
-        <v>0.98991596638655466</v>
-      </c>
-      <c r="X22" s="8">
-        <v>0.2265720688968538</v>
-      </c>
-      <c r="Y22" s="8">
-        <v>7.175436367980885E-2</v>
-      </c>
-      <c r="Z22" s="8">
-        <v>0.87813258636788039</v>
-      </c>
-      <c r="AA22" s="8">
-        <v>0.87813258636788039</v>
-      </c>
-      <c r="AB22" s="8">
-        <v>0.25743379729191562</v>
-      </c>
-      <c r="AC22" s="8">
-        <v>0.1046037954599761</v>
-      </c>
-      <c r="AD22" s="8">
-        <v>0.24112418300653601</v>
-      </c>
-      <c r="AE22" s="8">
-        <v>0.24112418300653601</v>
-      </c>
-      <c r="AF22" s="8">
-        <v>0.33027548088410991</v>
-      </c>
-      <c r="AG22" s="8">
-        <v>0.1029040325140809</v>
+      <c r="Q22" s="14">
+        <v>460</v>
+      </c>
+      <c r="R22" s="19">
+        <v>0.46374835586876301</v>
+      </c>
+      <c r="S22" s="19">
+        <v>0.46374835586876301</v>
+      </c>
+      <c r="T22" s="14">
+        <v>0.34544052767821593</v>
+      </c>
+      <c r="U22" s="14">
+        <v>0.11954228339307051</v>
+      </c>
+      <c r="V22" s="19">
+        <v>0.46374835586876301</v>
+      </c>
+      <c r="W22" s="19">
+        <v>0.46374835586876301</v>
+      </c>
+      <c r="X22" s="14">
+        <v>0.24786641338112311</v>
+      </c>
+      <c r="Y22" s="14">
+        <v>9.7465531660692939E-2</v>
+      </c>
+      <c r="Z22" s="19">
+        <v>0.46374835586876301</v>
+      </c>
+      <c r="AA22" s="19">
+        <v>0.46374835586876301</v>
+      </c>
+      <c r="AB22" s="14">
+        <v>0.31596995459976113</v>
+      </c>
+      <c r="AC22" s="14">
+        <v>0.1412421925925926</v>
+      </c>
+      <c r="AD22" s="19">
+        <v>0.46374835586876301</v>
+      </c>
+      <c r="AE22" s="19">
+        <v>0.46374835586876301</v>
+      </c>
+      <c r="AF22" s="14">
+        <v>0.3865118322239291</v>
+      </c>
+      <c r="AG22" s="14">
+        <v>0.14075010650281619</v>
       </c>
     </row>
     <row r="23" spans="1:33" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A23" s="8">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="B23" s="8" t="s">
         <v>88</v>
@@ -29923,20 +30029,20 @@
         <v>17</v>
       </c>
       <c r="D23" s="8" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="E23" s="8" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="F23" s="8" t="str">
-        <f t="shared" si="0"/>
-        <v>ETHYDBBS03</v>
+        <f>_xlfn.CONCAT(B23,"HYD",E23,"S03")</f>
+        <v>ETHYDLDS03</v>
       </c>
       <c r="G23" s="8">
-        <v>8.5429999999999993</v>
+        <v>9.7920509063105143</v>
       </c>
       <c r="H23" s="8">
-        <v>35.195</v>
+        <v>34.821217572976948</v>
       </c>
       <c r="I23" s="8" t="s">
         <v>24</v>
@@ -29944,67 +30050,72 @@
       <c r="J23" s="8" t="s">
         <v>73</v>
       </c>
-      <c r="K23" s="10"/>
+      <c r="K23" s="10">
+        <v>53</v>
+      </c>
       <c r="L23" s="21"/>
       <c r="M23" s="21"/>
+      <c r="O23" s="8" t="s">
+        <v>230</v>
+      </c>
       <c r="P23" s="8">
-        <v>2025</v>
+        <v>2031</v>
       </c>
       <c r="Q23" s="8">
-        <v>467</v>
+        <v>250</v>
       </c>
       <c r="R23" s="8">
-        <v>4.3201198882104185E-2</v>
+        <v>0.5</v>
       </c>
       <c r="S23" s="8">
-        <v>4.3201198882104185E-2</v>
+        <v>0.5</v>
       </c>
       <c r="T23" s="8">
-        <v>0.30872469454400631</v>
+        <v>0.27238327479091989</v>
       </c>
       <c r="U23" s="8">
-        <v>8.7997688649940245E-2</v>
+        <v>0.10800152401433689</v>
       </c>
       <c r="V23" s="8">
-        <v>0.82341432688128036</v>
+        <v>0.5</v>
       </c>
       <c r="W23" s="8">
-        <v>0.82341432688128036</v>
+        <v>0.5</v>
       </c>
       <c r="X23" s="8">
-        <v>0.27046071166865798</v>
+        <v>0.24155350975706891</v>
       </c>
       <c r="Y23" s="8">
-        <v>7.1315783990442069E-2</v>
+        <v>6.6075166547192352E-2</v>
       </c>
       <c r="Z23" s="8">
-        <v>0.4738184238006809</v>
+        <v>0.5</v>
       </c>
       <c r="AA23" s="8">
-        <v>0.4738184238006809</v>
+        <v>0.5</v>
       </c>
       <c r="AB23" s="8">
-        <v>0.2988493687773795</v>
+        <v>0.27196658821186781</v>
       </c>
       <c r="AC23" s="8">
-        <v>0.100828680525687</v>
+        <v>0.10728013309438469</v>
       </c>
       <c r="AD23" s="8">
-        <v>2.5322465759443403E-2</v>
+        <v>0.5</v>
       </c>
       <c r="AE23" s="8">
-        <v>2.5322465759443403E-2</v>
+        <v>0.5</v>
       </c>
       <c r="AF23" s="8">
-        <v>0.35154741167434722</v>
+        <v>0.35598600273084152</v>
       </c>
       <c r="AG23" s="8">
-        <v>0.1059629395801331</v>
+        <v>0.12134669226830511</v>
       </c>
     </row>
     <row r="24" spans="1:33" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A24" s="8">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="B24" s="8" t="s">
         <v>88</v>
@@ -30013,20 +30124,20 @@
         <v>17</v>
       </c>
       <c r="D24" s="8" t="s">
-        <v>27</v>
+        <v>109</v>
       </c>
       <c r="E24" s="8" t="s">
-        <v>118</v>
+        <v>136</v>
       </c>
       <c r="F24" s="8" t="str">
-        <f t="shared" si="0"/>
-        <v>ETHYDCYS03</v>
-      </c>
-      <c r="G24" s="9">
-        <v>9.8629999999999995</v>
+        <f>_xlfn.CONCAT(B24,"HYD",E24,"S03")</f>
+        <v>ETHYDLSS03</v>
+      </c>
+      <c r="G24" s="8">
+        <v>8.9687499999993818</v>
       </c>
       <c r="H24" s="8">
-        <v>37.67</v>
+        <v>36.228934219808657</v>
       </c>
       <c r="I24" s="8" t="s">
         <v>24</v>
@@ -30034,194 +30145,188 @@
       <c r="J24" s="8" t="s">
         <v>73</v>
       </c>
-      <c r="K24" s="10">
-        <v>325</v>
-      </c>
+      <c r="K24" s="10"/>
       <c r="L24" s="21"/>
-      <c r="M24" s="21">
-        <v>18.7</v>
-      </c>
-      <c r="O24" s="8" t="s">
-        <v>225</v>
-      </c>
+      <c r="M24" s="21"/>
       <c r="P24" s="8">
         <v>2025</v>
       </c>
       <c r="Q24" s="8">
-        <v>280</v>
-      </c>
-      <c r="R24" s="22">
-        <v>3.0751295336787571E-2</v>
-      </c>
-      <c r="S24" s="22">
-        <v>3.0751295336787571E-2</v>
+        <v>550</v>
+      </c>
+      <c r="R24" s="8">
+        <v>0.5</v>
+      </c>
+      <c r="S24" s="8">
+        <v>0.5</v>
       </c>
       <c r="T24" s="8">
-        <v>0.34092719315013942</v>
+        <v>0.32026751971326162</v>
       </c>
       <c r="U24" s="8">
-        <v>0.1071180219832736</v>
-      </c>
-      <c r="V24" s="9">
-        <v>0.86701208981001721</v>
-      </c>
-      <c r="W24" s="9">
-        <v>0.86701208981001721</v>
+        <v>0.1044625844683393</v>
+      </c>
+      <c r="V24" s="8">
+        <v>0.5</v>
+      </c>
+      <c r="W24" s="8">
+        <v>0.5</v>
       </c>
       <c r="X24" s="8">
-        <v>0.30769531063321381</v>
+        <v>0.26110407606531272</v>
       </c>
       <c r="Y24" s="8">
-        <v>7.763356463560335E-2</v>
-      </c>
-      <c r="Z24" s="9">
-        <v>0.58084628670120908</v>
-      </c>
-      <c r="AA24" s="9">
-        <v>0.58084628670120908</v>
+        <v>7.1898174910394255E-2</v>
+      </c>
+      <c r="Z24" s="8">
+        <v>0.5</v>
+      </c>
+      <c r="AA24" s="8">
+        <v>0.5</v>
       </c>
       <c r="AB24" s="8">
-        <v>0.32889110155316609</v>
+        <v>0.31357061529271207</v>
       </c>
       <c r="AC24" s="8">
-        <v>0.1072930659498208</v>
-      </c>
-      <c r="AD24" s="9">
-        <v>3.181347150259068E-2</v>
-      </c>
-      <c r="AE24" s="9">
-        <v>3.181347150259068E-2</v>
+        <v>0.1066021416965352</v>
+      </c>
+      <c r="AD24" s="8">
+        <v>0.5</v>
+      </c>
+      <c r="AE24" s="8">
+        <v>0.5</v>
       </c>
       <c r="AF24" s="8">
-        <v>0.36244325098139613</v>
+        <v>0.3784216705069125</v>
       </c>
       <c r="AG24" s="8">
-        <v>9.809929006656426E-2</v>
+        <v>0.1159565138248848</v>
       </c>
     </row>
     <row r="25" spans="1:33" s="14" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A25" s="14">
-        <v>12</v>
+        <v>30</v>
       </c>
       <c r="B25" s="14" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="C25" s="14" t="s">
-        <v>17</v>
+        <v>29</v>
       </c>
       <c r="D25" s="14" t="s">
-        <v>105</v>
+        <v>33</v>
       </c>
       <c r="E25" s="14" t="s">
-        <v>129</v>
+        <v>137</v>
       </c>
       <c r="F25" s="14" t="str">
-        <f t="shared" si="0"/>
-        <v>ETHYDGBS03</v>
-      </c>
-      <c r="G25" s="14">
-        <v>8.31</v>
+        <f>_xlfn.CONCAT(B25,"HYD",E25,"S03")</f>
+        <v>SDHYDMRS03</v>
+      </c>
+      <c r="G25" s="18">
+        <v>18.492560000000001</v>
       </c>
       <c r="H25" s="14">
-        <v>36.1</v>
+        <v>31.82</v>
       </c>
       <c r="I25" s="14" t="s">
-        <v>24</v>
+        <v>9</v>
       </c>
       <c r="J25" s="14" t="s">
         <v>73</v>
       </c>
-      <c r="K25" s="14">
-        <v>350</v>
-      </c>
-      <c r="L25" s="17"/>
-      <c r="M25" s="17"/>
-      <c r="N25" s="20">
-        <v>9</v>
-      </c>
-      <c r="O25" s="14" t="s">
-        <v>226</v>
+      <c r="K25" s="20">
+        <v>12390</v>
+      </c>
+      <c r="L25" s="17">
+        <v>2667</v>
+      </c>
+      <c r="M25" s="17">
+        <v>2900</v>
+      </c>
+      <c r="N25" s="14">
+        <v>476</v>
       </c>
       <c r="P25" s="14">
-        <v>2025</v>
+        <v>2009</v>
       </c>
       <c r="Q25" s="14">
-        <v>372</v>
-      </c>
-      <c r="R25" s="14">
-        <v>0.4734631412913764</v>
-      </c>
-      <c r="S25" s="14">
-        <v>0.4734631412913764</v>
+        <v>1240</v>
+      </c>
+      <c r="R25" s="19">
+        <v>0.85019816635710554</v>
+      </c>
+      <c r="S25" s="19">
+        <v>0.85019816635710554</v>
       </c>
       <c r="T25" s="14">
-        <v>0.28966248387096782</v>
+        <v>0.41324736758263642</v>
       </c>
       <c r="U25" s="14">
-        <v>0.10492320908004781</v>
-      </c>
-      <c r="V25" s="14">
-        <v>0.4734631412913764</v>
-      </c>
-      <c r="W25" s="14">
-        <v>0.4734631412913764</v>
+        <v>0.12749815675029871</v>
+      </c>
+      <c r="V25" s="18">
+        <v>0.92476270759666213</v>
+      </c>
+      <c r="W25" s="18">
+        <v>0.92476270759666213</v>
       </c>
       <c r="X25" s="14">
-        <v>0.20662490123456789</v>
+        <v>0.35471768857029068</v>
       </c>
       <c r="Y25" s="14">
-        <v>7.2926951254480288E-2</v>
-      </c>
-      <c r="Z25" s="14">
-        <v>0.4734631412913764</v>
-      </c>
-      <c r="AA25" s="14">
-        <v>0.4734631412913764</v>
+        <v>0.1051770494623656</v>
+      </c>
+      <c r="Z25" s="18">
+        <v>0.98817898158853146</v>
+      </c>
+      <c r="AA25" s="18">
+        <v>0.98817898158853146</v>
       </c>
       <c r="AB25" s="14">
-        <v>0.25082501951413783</v>
+        <v>0.36381105894066113</v>
       </c>
       <c r="AC25" s="14">
-        <v>0.1116878334528076</v>
-      </c>
-      <c r="AD25" s="14">
-        <v>0.4734631412913764</v>
-      </c>
-      <c r="AE25" s="14">
-        <v>0.4734631412913764</v>
+        <v>0.12547243990442061</v>
+      </c>
+      <c r="AD25" s="18">
+        <v>0.81116964716180107</v>
+      </c>
+      <c r="AE25" s="18">
+        <v>0.81116964716180107</v>
       </c>
       <c r="AF25" s="14">
-        <v>0.34061422725721108</v>
+        <v>0.41797175029868577</v>
       </c>
       <c r="AG25" s="14">
-        <v>0.1200607611367128</v>
+        <v>0.1216317309267793</v>
       </c>
     </row>
     <row r="26" spans="1:33" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A26" s="8">
-        <v>13</v>
+        <v>36</v>
       </c>
       <c r="B26" s="8" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="C26" s="8" t="s">
-        <v>17</v>
+        <v>29</v>
       </c>
       <c r="D26" s="8" t="s">
-        <v>106</v>
+        <v>34</v>
       </c>
       <c r="E26" s="8" t="s">
-        <v>130</v>
+        <v>138</v>
       </c>
       <c r="F26" s="8" t="str">
-        <f t="shared" si="0"/>
-        <v>ETHYDGJS03</v>
-      </c>
-      <c r="G26" s="8">
-        <v>8.23</v>
+        <f>_xlfn.CONCAT(B26,"HYD",E26,"S03")</f>
+        <v>SDHYDMGS03</v>
+      </c>
+      <c r="G26" s="9">
+        <v>19.286999999999999</v>
       </c>
       <c r="H26" s="8">
-        <v>34.96</v>
+        <v>32.69</v>
       </c>
       <c r="I26" s="8" t="s">
         <v>24</v>
@@ -30231,283 +30336,285 @@
       </c>
       <c r="K26" s="10"/>
       <c r="L26" s="21">
-        <v>36.625</v>
-      </c>
-      <c r="M26" s="21">
-        <v>63.3</v>
-      </c>
+        <v>2667</v>
+      </c>
+      <c r="M26" s="21"/>
       <c r="P26" s="8">
-        <v>2025</v>
+        <v>2030</v>
       </c>
       <c r="Q26" s="8">
-        <v>216</v>
-      </c>
-      <c r="R26" s="8">
-        <v>0.17605086170659942</v>
-      </c>
-      <c r="S26" s="8">
-        <v>0.17605086170659942</v>
+        <v>312</v>
+      </c>
+      <c r="R26" s="22">
+        <v>0.48267455815236754</v>
+      </c>
+      <c r="S26" s="22">
+        <v>0.48267455815236754</v>
       </c>
       <c r="T26" s="8">
-        <v>0.3125925786539227</v>
+        <v>0.41117306730386288</v>
       </c>
       <c r="U26" s="8">
-        <v>7.9993380406212664E-2</v>
-      </c>
-      <c r="V26" s="8">
-        <v>0.97162673392181587</v>
-      </c>
-      <c r="W26" s="8">
-        <v>0.97162673392181587</v>
+        <v>0.13151496917562719</v>
+      </c>
+      <c r="V26" s="9">
+        <v>0.53491992806031752</v>
+      </c>
+      <c r="W26" s="9">
+        <v>0.53491992806031752</v>
       </c>
       <c r="X26" s="8">
-        <v>0.25202684906411782</v>
+        <v>0.35771489884508167</v>
       </c>
       <c r="Y26" s="8">
-        <v>6.7338230585424139E-2</v>
-      </c>
-      <c r="Z26" s="8">
-        <v>0.69829760403530894</v>
-      </c>
-      <c r="AA26" s="8">
-        <v>0.69829760403530894</v>
+        <v>0.1127497758661888</v>
+      </c>
+      <c r="Z26" s="9">
+        <v>0.54138714543912902</v>
+      </c>
+      <c r="AA26" s="9">
+        <v>0.54138714543912902</v>
       </c>
       <c r="AB26" s="8">
-        <v>0.29334078255675028</v>
+        <v>0.36348772481083241</v>
       </c>
       <c r="AC26" s="8">
-        <v>9.7413269772998801E-2</v>
-      </c>
-      <c r="AD26" s="8">
-        <v>5.3270281630937368E-2</v>
-      </c>
-      <c r="AE26" s="8">
-        <v>5.3270281630937368E-2</v>
+        <v>0.12972741075268809</v>
+      </c>
+      <c r="AD26" s="9">
+        <v>0.44101836834818581</v>
+      </c>
+      <c r="AE26" s="9">
+        <v>0.44101836834818581</v>
       </c>
       <c r="AF26" s="8">
-        <v>0.35921848566308251</v>
+        <v>0.41726091696535239</v>
       </c>
       <c r="AG26" s="8">
-        <v>9.4217673067076291E-2</v>
+        <v>0.12471186533538151</v>
       </c>
     </row>
     <row r="27" spans="1:33" s="8" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="8">
-        <v>14</v>
-      </c>
-      <c r="B27" s="8" t="s">
+      <c r="A27" s="14">
+        <v>8</v>
+      </c>
+      <c r="B27" s="14" t="s">
         <v>88</v>
       </c>
-      <c r="C27" s="8" t="s">
+      <c r="C27" s="14" t="s">
         <v>17</v>
       </c>
-      <c r="D27" s="8" t="s">
-        <v>109</v>
-      </c>
-      <c r="E27" s="8" t="s">
-        <v>136</v>
-      </c>
-      <c r="F27" s="8" t="str">
-        <f t="shared" si="0"/>
-        <v>ETHYDLSS03</v>
-      </c>
-      <c r="G27" s="8">
-        <v>8.9687499999993818</v>
-      </c>
-      <c r="H27" s="8">
-        <v>36.228934219808657</v>
-      </c>
-      <c r="I27" s="8" t="s">
-        <v>24</v>
-      </c>
-      <c r="J27" s="8" t="s">
+      <c r="D27" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="E27" s="14" t="s">
+        <v>139</v>
+      </c>
+      <c r="F27" s="14" t="str">
+        <f>_xlfn.CONCAT(B27,"HYD",E27,"S03")</f>
+        <v>ETHYDRNS03</v>
+      </c>
+      <c r="G27" s="18">
+        <v>11.21</v>
+      </c>
+      <c r="H27" s="14">
+        <v>35.090000000000003</v>
+      </c>
+      <c r="I27" s="14" t="s">
+        <v>9</v>
+      </c>
+      <c r="J27" s="14" t="s">
         <v>73</v>
       </c>
-      <c r="K27" s="10"/>
-      <c r="L27" s="21"/>
-      <c r="M27" s="21"/>
-      <c r="P27" s="8">
-        <v>2025</v>
-      </c>
-      <c r="Q27" s="8">
-        <v>550</v>
-      </c>
-      <c r="R27" s="8">
+      <c r="K27" s="20">
+        <v>74000</v>
+      </c>
+      <c r="L27" s="17">
+        <v>1544.2668696093353</v>
+      </c>
+      <c r="M27" s="17"/>
+      <c r="N27" s="15">
+        <v>1874</v>
+      </c>
+      <c r="O27" s="15"/>
+      <c r="P27" s="14">
+        <v>2023</v>
+      </c>
+      <c r="Q27" s="14">
+        <v>6400</v>
+      </c>
+      <c r="R27" s="19">
+        <v>0.27571636687559031</v>
+      </c>
+      <c r="S27" s="19">
+        <v>0.27571636687559031</v>
+      </c>
+      <c r="T27" s="14">
+        <v>0.33303783671843878</v>
+      </c>
+      <c r="U27" s="14">
+        <v>0.10567916917562729</v>
+      </c>
+      <c r="V27" s="18">
+        <v>0.27571636687559031</v>
+      </c>
+      <c r="W27" s="18">
+        <v>0.27571636687559031</v>
+      </c>
+      <c r="X27" s="14">
+        <v>0.27764846395858228</v>
+      </c>
+      <c r="Y27" s="14">
+        <v>6.7827279569892471E-2</v>
+      </c>
+      <c r="Z27" s="18">
+        <v>0.27571636687559031</v>
+      </c>
+      <c r="AA27" s="18">
+        <v>0.27571636687559031</v>
+      </c>
+      <c r="AB27" s="14">
+        <v>0.30851121903624051</v>
+      </c>
+      <c r="AC27" s="14">
+        <v>0.1091898138590203</v>
+      </c>
+      <c r="AD27" s="18">
+        <v>0.27571636687559031</v>
+      </c>
+      <c r="AE27" s="18">
+        <v>0.27571636687559031</v>
+      </c>
+      <c r="AF27" s="14">
+        <v>0.37835753840245773</v>
+      </c>
+      <c r="AG27" s="14">
+        <v>0.11339636354326681</v>
+      </c>
+    </row>
+    <row r="28" spans="1:33" s="8" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A28" s="14">
+        <v>28</v>
+      </c>
+      <c r="B28" s="14" t="s">
+        <v>89</v>
+      </c>
+      <c r="C28" s="14" t="s">
+        <v>29</v>
+      </c>
+      <c r="D28" s="14" t="s">
+        <v>32</v>
+      </c>
+      <c r="E28" s="14" t="s">
+        <v>140</v>
+      </c>
+      <c r="F28" s="14" t="str">
+        <f>_xlfn.CONCAT(B28,"HYD",E28,"S03")</f>
+        <v>SDHYDRSS03</v>
+      </c>
+      <c r="G28" s="18">
+        <v>11.7983333333333</v>
+      </c>
+      <c r="H28" s="14">
+        <v>34.39</v>
+      </c>
+      <c r="I28" s="14" t="s">
+        <v>9</v>
+      </c>
+      <c r="J28" s="14" t="s">
+        <v>73</v>
+      </c>
+      <c r="K28" s="20">
+        <v>3000</v>
+      </c>
+      <c r="L28" s="17">
+        <v>1544.2668696093353</v>
+      </c>
+      <c r="M28" s="17"/>
+      <c r="N28" s="14">
+        <v>233</v>
+      </c>
+      <c r="O28" s="14"/>
+      <c r="P28" s="14">
+        <v>1966</v>
+      </c>
+      <c r="Q28" s="14">
+        <v>270</v>
+      </c>
+      <c r="R28" s="19">
         <v>0.5</v>
       </c>
-      <c r="S27" s="8">
+      <c r="S28" s="19">
         <v>0.5</v>
       </c>
-      <c r="T27" s="8">
-        <v>0.32026751971326162</v>
-      </c>
-      <c r="U27" s="8">
-        <v>0.1044625844683393</v>
-      </c>
-      <c r="V27" s="8">
+      <c r="T28" s="14">
+        <v>0.36434364874551972</v>
+      </c>
+      <c r="U28" s="14">
+        <v>0.1070808571087216</v>
+      </c>
+      <c r="V28" s="18">
         <v>0.5</v>
       </c>
-      <c r="W27" s="8">
+      <c r="W28" s="18">
         <v>0.5</v>
       </c>
-      <c r="X27" s="8">
-        <v>0.26110407606531272</v>
-      </c>
-      <c r="Y27" s="8">
-        <v>7.1898174910394255E-2</v>
-      </c>
-      <c r="Z27" s="8">
+      <c r="X28" s="14">
+        <v>0.29083403385105527</v>
+      </c>
+      <c r="Y28" s="14">
+        <v>7.0465027718040626E-2</v>
+      </c>
+      <c r="Z28" s="18">
         <v>0.5</v>
       </c>
-      <c r="AA27" s="8">
+      <c r="AA28" s="18">
         <v>0.5</v>
       </c>
-      <c r="AB27" s="8">
-        <v>0.31357061529271207</v>
-      </c>
-      <c r="AC27" s="8">
-        <v>0.1066021416965352</v>
-      </c>
-      <c r="AD27" s="8">
+      <c r="AB28" s="14">
+        <v>0.33143540342493027</v>
+      </c>
+      <c r="AC28" s="14">
+        <v>0.1056444339307049</v>
+      </c>
+      <c r="AD28" s="18">
         <v>0.5</v>
       </c>
-      <c r="AE27" s="8">
+      <c r="AE28" s="18">
         <v>0.5</v>
       </c>
-      <c r="AF27" s="8">
-        <v>0.3784216705069125</v>
-      </c>
-      <c r="AG27" s="8">
-        <v>0.1159565138248848</v>
-      </c>
-    </row>
-    <row r="28" spans="1:33" s="8" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A28" s="8">
-        <v>15</v>
-      </c>
-      <c r="B28" s="8" t="s">
-        <v>88</v>
-      </c>
-      <c r="C28" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="D28" s="8" t="s">
-        <v>95</v>
-      </c>
-      <c r="E28" s="8" t="s">
-        <v>146</v>
-      </c>
-      <c r="F28" s="8" t="str">
-        <f t="shared" si="0"/>
-        <v>ETHYDT2S03</v>
-      </c>
-      <c r="G28" s="8">
-        <v>13.790556</v>
-      </c>
-      <c r="H28" s="8">
-        <v>37.997222000000001</v>
-      </c>
-      <c r="I28" s="8" t="s">
-        <v>24</v>
-      </c>
-      <c r="J28" s="8" t="s">
-        <v>73</v>
-      </c>
-      <c r="K28" s="10" t="s">
-        <v>224</v>
-      </c>
-      <c r="L28" s="21">
-        <v>221.96854388635211</v>
-      </c>
-      <c r="M28" s="21">
-        <v>168</v>
-      </c>
-      <c r="N28" s="8" t="s">
-        <v>224</v>
-      </c>
-      <c r="O28" s="8" t="s">
-        <v>227</v>
-      </c>
-      <c r="P28" s="8">
-        <v>2025</v>
-      </c>
-      <c r="Q28" s="8">
-        <v>380</v>
-      </c>
-      <c r="R28" s="8">
-        <v>1</v>
-      </c>
-      <c r="S28" s="8">
-        <v>1</v>
-      </c>
-      <c r="T28" s="8">
-        <v>0.29878433373158098</v>
-      </c>
-      <c r="U28" s="8">
-        <v>0.13950407383512539</v>
-      </c>
-      <c r="V28" s="8">
-        <v>1</v>
-      </c>
-      <c r="W28" s="8">
-        <v>1</v>
-      </c>
-      <c r="X28" s="8">
-        <v>0.26141661210673039</v>
-      </c>
-      <c r="Y28" s="8">
-        <v>0.11389629414575871</v>
-      </c>
-      <c r="Z28" s="8">
-        <v>1</v>
-      </c>
-      <c r="AA28" s="8">
-        <v>1</v>
-      </c>
-      <c r="AB28" s="8">
-        <v>0.28619818797291918</v>
-      </c>
-      <c r="AC28" s="8">
-        <v>0.15239372855436081</v>
-      </c>
-      <c r="AD28" s="8">
-        <v>1</v>
-      </c>
-      <c r="AE28" s="8">
-        <v>1</v>
-      </c>
-      <c r="AF28" s="8">
-        <v>0.32245606332138588</v>
-      </c>
-      <c r="AG28" s="8">
-        <v>0.144823194828469</v>
+      <c r="AF28" s="14">
+        <v>0.40202260582010579</v>
+      </c>
+      <c r="AG28" s="14">
+        <v>0.11319275345622121</v>
       </c>
     </row>
     <row r="29" spans="1:33" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A29" s="8">
-        <v>16</v>
+        <v>37</v>
       </c>
       <c r="B29" s="8" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="C29" s="8" t="s">
-        <v>17</v>
+        <v>29</v>
       </c>
       <c r="D29" s="8" t="s">
-        <v>107</v>
+        <v>40</v>
       </c>
       <c r="E29" s="8" t="s">
-        <v>148</v>
+        <v>141</v>
       </c>
       <c r="F29" s="8" t="str">
-        <f t="shared" si="0"/>
-        <v>ETHYDUDS03</v>
-      </c>
-      <c r="G29" s="8">
-        <v>9.9860109999999995</v>
+        <f>_xlfn.CONCAT(B29,"HYD",E29,"S03")</f>
+        <v>SDHYDSBS03</v>
+      </c>
+      <c r="G29" s="9">
+        <v>16.3569</v>
       </c>
       <c r="H29" s="8">
-        <v>34.893504</v>
+        <v>32.71</v>
       </c>
       <c r="I29" s="8" t="s">
         <v>24</v>
@@ -30516,192 +30623,195 @@
         <v>73</v>
       </c>
       <c r="K29" s="10">
-        <v>2470</v>
+        <v>4000</v>
       </c>
       <c r="L29" s="21">
-        <v>0.89300000000000002</v>
-      </c>
-      <c r="M29" s="21"/>
+        <v>2305.3018772196856</v>
+      </c>
+      <c r="M29" s="21">
+        <v>1700</v>
+      </c>
       <c r="O29" s="8" t="s">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="P29" s="8">
-        <v>2025</v>
+        <v>2030</v>
       </c>
       <c r="Q29" s="8">
-        <v>326</v>
-      </c>
-      <c r="R29" s="8">
-        <v>3.9472117214678984E-2</v>
-      </c>
-      <c r="S29" s="8">
-        <v>3.9472117214678984E-2</v>
+        <v>205</v>
+      </c>
+      <c r="R29" s="22">
+        <v>1</v>
+      </c>
+      <c r="S29" s="22">
+        <v>1</v>
       </c>
       <c r="T29" s="8">
-        <v>0.29209634846674631</v>
+        <v>0.40252829948227792</v>
       </c>
       <c r="U29" s="8">
-        <v>0.10407190322580639</v>
-      </c>
-      <c r="V29" s="8">
-        <v>0.84636157253600031</v>
-      </c>
-      <c r="W29" s="8">
-        <v>0.84636157253600031</v>
+        <v>0.1276621199522103</v>
+      </c>
+      <c r="V29" s="9">
+        <v>1</v>
+      </c>
+      <c r="W29" s="9">
+        <v>1</v>
       </c>
       <c r="X29" s="8">
-        <v>0.24039536280366389</v>
+        <v>0.33904976543209869</v>
       </c>
       <c r="Y29" s="8">
-        <v>6.262635101553167E-2</v>
-      </c>
-      <c r="Z29" s="8">
-        <v>0.53219510012209625</v>
-      </c>
-      <c r="AA29" s="8">
-        <v>0.53219510012209625</v>
+        <v>0.1012916372759857</v>
+      </c>
+      <c r="Z29" s="9">
+        <v>1</v>
+      </c>
+      <c r="AA29" s="9">
+        <v>1</v>
       </c>
       <c r="AB29" s="8">
-        <v>0.28377471166865792</v>
+        <v>0.35010868657905209</v>
       </c>
       <c r="AC29" s="8">
-        <v>0.1086817311827957</v>
-      </c>
-      <c r="AD29" s="8">
-        <v>2.2890325229511288E-2</v>
-      </c>
-      <c r="AE29" s="8">
-        <v>2.2890325229511288E-2</v>
+        <v>0.12502672329749101</v>
+      </c>
+      <c r="AD29" s="9">
+        <v>1</v>
+      </c>
+      <c r="AE29" s="9">
+        <v>1</v>
       </c>
       <c r="AF29" s="8">
-        <v>0.37913282130056319</v>
+        <v>0.41956464285714279</v>
       </c>
       <c r="AG29" s="8">
-        <v>0.117723065796211</v>
+        <v>0.124365051203277</v>
       </c>
     </row>
     <row r="30" spans="1:33" s="8" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A30" s="8">
-        <v>17</v>
-      </c>
-      <c r="B30" s="8" t="s">
-        <v>88</v>
-      </c>
-      <c r="C30" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="D30" s="8" t="s">
-        <v>23</v>
-      </c>
-      <c r="E30" s="8" t="s">
-        <v>133</v>
-      </c>
-      <c r="F30" s="8" t="str">
-        <f t="shared" si="0"/>
-        <v>ETHYDKRS03</v>
-      </c>
-      <c r="G30" s="9">
-        <v>10.144004000000001</v>
-      </c>
-      <c r="H30" s="8">
-        <v>38.340000000000003</v>
-      </c>
-      <c r="I30" s="8" t="s">
-        <v>24</v>
-      </c>
-      <c r="J30" s="8" t="s">
+      <c r="A30" s="14">
+        <v>26</v>
+      </c>
+      <c r="B30" s="14" t="s">
+        <v>89</v>
+      </c>
+      <c r="C30" s="14" t="s">
+        <v>29</v>
+      </c>
+      <c r="D30" s="14" t="s">
+        <v>35</v>
+      </c>
+      <c r="E30" s="14" t="s">
+        <v>142</v>
+      </c>
+      <c r="F30" s="14" t="str">
+        <f>_xlfn.CONCAT(B30,"HYD",E30,"S03")</f>
+        <v>SDHYDSNS03</v>
+      </c>
+      <c r="G30" s="18">
+        <v>13.29707</v>
+      </c>
+      <c r="H30" s="14">
+        <v>33.89</v>
+      </c>
+      <c r="I30" s="14" t="s">
+        <v>9</v>
+      </c>
+      <c r="J30" s="14" t="s">
         <v>73</v>
       </c>
-      <c r="K30" s="10">
-        <v>40200</v>
-      </c>
-      <c r="L30" s="21"/>
-      <c r="M30" s="21">
-        <v>879.1</v>
-      </c>
-      <c r="O30" s="8" t="s">
-        <v>228</v>
-      </c>
-      <c r="P30" s="8">
-        <v>2026</v>
-      </c>
-      <c r="Q30" s="8">
-        <v>1600</v>
-      </c>
-      <c r="R30" s="22">
-        <v>0.15239928498888736</v>
-      </c>
-      <c r="S30" s="22">
-        <v>0.15239928498888736</v>
-      </c>
-      <c r="T30" s="8">
-        <v>0.34185133452807648</v>
-      </c>
-      <c r="U30" s="8">
-        <v>0.120099909916368</v>
-      </c>
-      <c r="V30" s="9">
-        <v>0.96594138936903073</v>
-      </c>
-      <c r="W30" s="9">
-        <v>0.96594138936903073</v>
-      </c>
-      <c r="X30" s="8">
-        <v>0.30371421146953398</v>
-      </c>
-      <c r="Y30" s="8">
-        <v>8.7546180884109925E-2</v>
-      </c>
-      <c r="Z30" s="9">
-        <v>0.6383653800451311</v>
-      </c>
-      <c r="AA30" s="9">
-        <v>0.6383653800451311</v>
-      </c>
-      <c r="AB30" s="8">
-        <v>0.33924185145360408</v>
-      </c>
-      <c r="AC30" s="8">
-        <v>0.12606837108721619</v>
-      </c>
-      <c r="AD30" s="9">
-        <v>6.2072973513692446E-2</v>
-      </c>
-      <c r="AE30" s="9">
-        <v>6.2072973513692446E-2</v>
-      </c>
-      <c r="AF30" s="8">
-        <v>0.37769306152927129</v>
-      </c>
-      <c r="AG30" s="8">
-        <v>0.13024408422939071</v>
+      <c r="K30" s="20">
+        <v>930</v>
+      </c>
+      <c r="L30" s="17">
+        <v>1544.2668696093353</v>
+      </c>
+      <c r="M30" s="17"/>
+      <c r="N30" s="14">
+        <v>15.2</v>
+      </c>
+      <c r="O30" s="14"/>
+      <c r="P30" s="14">
+        <v>1962</v>
+      </c>
+      <c r="Q30" s="14">
+        <v>26</v>
+      </c>
+      <c r="R30" s="19">
+        <v>0.5</v>
+      </c>
+      <c r="S30" s="19">
+        <v>0.5</v>
+      </c>
+      <c r="T30" s="14">
+        <v>0.36713684946236558</v>
+      </c>
+      <c r="U30" s="14">
+        <v>0.1140524489844684</v>
+      </c>
+      <c r="V30" s="18">
+        <v>0.5</v>
+      </c>
+      <c r="W30" s="18">
+        <v>0.5</v>
+      </c>
+      <c r="X30" s="14">
+        <v>0.28934304380724812</v>
+      </c>
+      <c r="Y30" s="14">
+        <v>7.8925713261648753E-2</v>
+      </c>
+      <c r="Z30" s="18">
+        <v>0.5</v>
+      </c>
+      <c r="AA30" s="18">
+        <v>0.5</v>
+      </c>
+      <c r="AB30" s="14">
+        <v>0.33376081999203511</v>
+      </c>
+      <c r="AC30" s="14">
+        <v>0.1145908714456392</v>
+      </c>
+      <c r="AD30" s="18">
+        <v>0.5</v>
+      </c>
+      <c r="AE30" s="18">
+        <v>0.5</v>
+      </c>
+      <c r="AF30" s="14">
+        <v>0.39572908004778973</v>
+      </c>
+      <c r="AG30" s="14">
+        <v>0.1173318461341526</v>
       </c>
     </row>
     <row r="31" spans="1:33" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A31" s="8">
-        <v>18</v>
+        <v>33</v>
       </c>
       <c r="B31" s="8" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="C31" s="8" t="s">
-        <v>17</v>
+        <v>29</v>
       </c>
       <c r="D31" s="8" t="s">
-        <v>26</v>
+        <v>36</v>
       </c>
       <c r="E31" s="8" t="s">
-        <v>117</v>
+        <v>143</v>
       </c>
       <c r="F31" s="8" t="str">
-        <f t="shared" si="0"/>
-        <v>ETHYDBAS03</v>
+        <f>_xlfn.CONCAT(B31,"HYD",E31,"S03")</f>
+        <v>SDHYDSHS03</v>
       </c>
       <c r="G31" s="9">
-        <v>10.340844000000001</v>
+        <v>19.226299999999998</v>
       </c>
       <c r="H31" s="8">
-        <v>36.65</v>
+        <v>33.479999999999997</v>
       </c>
       <c r="I31" s="8" t="s">
         <v>24</v>
@@ -30709,167 +30819,167 @@
       <c r="J31" s="8" t="s">
         <v>73</v>
       </c>
-      <c r="K31" s="10">
-        <v>17.5</v>
-      </c>
-      <c r="L31" s="21"/>
-      <c r="M31" s="21"/>
-      <c r="O31" s="8" t="s">
-        <v>229</v>
+      <c r="K31" s="10"/>
+      <c r="L31" s="21">
+        <v>2657.2805682394719</v>
+      </c>
+      <c r="M31" s="21">
+        <v>1945</v>
       </c>
       <c r="P31" s="8">
-        <v>2028</v>
+        <v>2025</v>
       </c>
       <c r="Q31" s="8">
-        <v>935</v>
+        <v>420</v>
       </c>
       <c r="R31" s="22">
-        <v>4.8058277799555731E-2</v>
+        <v>0.968101455335308</v>
       </c>
       <c r="S31" s="22">
-        <v>4.8058277799555731E-2</v>
+        <v>0.968101455335308</v>
       </c>
       <c r="T31" s="8">
-        <v>0.3186647343687774</v>
+        <v>0.40367119076065322</v>
       </c>
       <c r="U31" s="8">
-        <v>0.1097955641577061</v>
+        <v>0.1329511230585424</v>
       </c>
       <c r="V31" s="9">
-        <v>0.72644714491049267</v>
+        <v>1</v>
       </c>
       <c r="W31" s="9">
-        <v>0.72644714491049267</v>
+        <v>1</v>
       </c>
       <c r="X31" s="8">
-        <v>0.27000886260453999</v>
+        <v>0.35034039944245321</v>
       </c>
       <c r="Y31" s="8">
-        <v>7.4062143130227007E-2</v>
+        <v>0.1136679777777778</v>
       </c>
       <c r="Z31" s="9">
-        <v>0.48480334509342748</v>
+        <v>1</v>
       </c>
       <c r="AA31" s="9">
-        <v>0.48480334509342748</v>
+        <v>1</v>
       </c>
       <c r="AB31" s="8">
-        <v>0.3237500696933493</v>
+        <v>0.35596104659498212</v>
       </c>
       <c r="AC31" s="8">
-        <v>0.1145830021505376</v>
+        <v>0.13273961720430111</v>
       </c>
       <c r="AD31" s="9">
-        <v>2.9720371096302111E-2</v>
+        <v>0.98223850763713827</v>
       </c>
       <c r="AE31" s="9">
-        <v>2.9720371096302111E-2</v>
+        <v>0.98223850763713827</v>
       </c>
       <c r="AF31" s="8">
-        <v>0.38074566009557947</v>
+        <v>0.40630400110940429</v>
       </c>
       <c r="AG31" s="8">
-        <v>0.1242511758832565</v>
+        <v>0.12482191730670759</v>
       </c>
     </row>
     <row r="32" spans="1:33" s="8" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A32" s="8">
-        <v>19</v>
-      </c>
-      <c r="B32" s="8" t="s">
+      <c r="A32" s="14">
+        <v>23</v>
+      </c>
+      <c r="B32" s="14" t="s">
         <v>88</v>
       </c>
-      <c r="C32" s="8" t="s">
+      <c r="C32" s="14" t="s">
         <v>17</v>
       </c>
-      <c r="D32" s="8" t="s">
-        <v>28</v>
-      </c>
-      <c r="E32" s="8" t="s">
-        <v>149</v>
-      </c>
-      <c r="F32" s="8" t="str">
-        <f t="shared" si="0"/>
-        <v>ETHYDUMS03</v>
-      </c>
-      <c r="G32" s="9">
-        <v>9.9470200000000002</v>
-      </c>
-      <c r="H32" s="8">
-        <v>35.68</v>
-      </c>
-      <c r="I32" s="8" t="s">
+      <c r="D32" s="14" t="s">
+        <v>97</v>
+      </c>
+      <c r="E32" s="14" t="s">
+        <v>144</v>
+      </c>
+      <c r="F32" s="14" t="str">
+        <f>_xlfn.CONCAT(B32,"HYD",E32,"S03")</f>
+        <v>ETHYDTMS03</v>
+      </c>
+      <c r="G32" s="14">
+        <v>7.9729166666660403</v>
+      </c>
+      <c r="H32" s="14">
+        <v>35.327083333332517</v>
+      </c>
+      <c r="I32" s="14" t="s">
         <v>24</v>
       </c>
-      <c r="J32" s="8" t="s">
+      <c r="J32" s="14" t="s">
         <v>73</v>
       </c>
-      <c r="K32" s="10">
-        <v>13</v>
-      </c>
-      <c r="L32" s="21"/>
-      <c r="M32" s="21"/>
-      <c r="O32" s="23" t="s">
-        <v>229</v>
-      </c>
-      <c r="P32" s="8">
-        <v>2030</v>
-      </c>
-      <c r="Q32" s="8">
-        <v>1700</v>
-      </c>
-      <c r="R32" s="22">
-        <v>4.9502697311754849E-2</v>
-      </c>
-      <c r="S32" s="22">
-        <v>4.9502697311754849E-2</v>
-      </c>
-      <c r="T32" s="8">
-        <v>0.32756912345679012</v>
-      </c>
-      <c r="U32" s="8">
-        <v>9.7332529988052571E-2</v>
-      </c>
-      <c r="V32" s="9">
-        <v>0.78571104764495214</v>
-      </c>
-      <c r="W32" s="9">
-        <v>0.78571104764495214</v>
-      </c>
-      <c r="X32" s="8">
-        <v>0.26230201513341289</v>
-      </c>
-      <c r="Y32" s="8">
-        <v>7.0104277419354835E-2</v>
-      </c>
-      <c r="Z32" s="9">
-        <v>0.50293304320232102</v>
-      </c>
-      <c r="AA32" s="9">
-        <v>0.50293304320232102</v>
-      </c>
-      <c r="AB32" s="8">
-        <v>0.32110683074472318</v>
-      </c>
-      <c r="AC32" s="8">
-        <v>0.10273956296296299</v>
-      </c>
-      <c r="AD32" s="9">
-        <v>2.8134548256947282E-2</v>
-      </c>
-      <c r="AE32" s="9">
-        <v>2.8134548256947282E-2</v>
-      </c>
-      <c r="AF32" s="8">
-        <v>0.37596370327700979</v>
-      </c>
-      <c r="AG32" s="8">
-        <v>0.111860513312852</v>
+      <c r="K32" s="20">
+        <v>4800</v>
+      </c>
+      <c r="L32" s="17"/>
+      <c r="M32" s="17"/>
+      <c r="N32" s="14">
+        <v>76</v>
+      </c>
+      <c r="O32" s="14"/>
+      <c r="P32" s="14">
+        <v>2031</v>
+      </c>
+      <c r="Q32" s="14">
+        <v>1000</v>
+      </c>
+      <c r="R32" s="14">
+        <v>0.5</v>
+      </c>
+      <c r="S32" s="14">
+        <v>0.5</v>
+      </c>
+      <c r="T32" s="14">
+        <v>0.27118642134607718</v>
+      </c>
+      <c r="U32" s="14">
+        <v>9.4730189247311816E-2</v>
+      </c>
+      <c r="V32" s="14">
+        <v>0.5</v>
+      </c>
+      <c r="W32" s="14">
+        <v>0.5</v>
+      </c>
+      <c r="X32" s="14">
+        <v>0.19225094026284351</v>
+      </c>
+      <c r="Y32" s="14">
+        <v>7.0605205017921155E-2</v>
+      </c>
+      <c r="Z32" s="14">
+        <v>0.5</v>
+      </c>
+      <c r="AA32" s="14">
+        <v>0.5</v>
+      </c>
+      <c r="AB32" s="14">
+        <v>0.23421118598168059</v>
+      </c>
+      <c r="AC32" s="14">
+        <v>0.10729649032258071</v>
+      </c>
+      <c r="AD32" s="14">
+        <v>0.5</v>
+      </c>
+      <c r="AE32" s="14">
+        <v>0.5</v>
+      </c>
+      <c r="AF32" s="14">
+        <v>0.33075371693121691</v>
+      </c>
+      <c r="AG32" s="14">
+        <v>0.1102367903225806</v>
       </c>
     </row>
     <row r="33" spans="1:33" s="14" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A33" s="14">
-        <v>20</v>
+        <v>6</v>
       </c>
       <c r="B33" s="14" t="s">
         <v>88</v>
@@ -30878,98 +30988,100 @@
         <v>17</v>
       </c>
       <c r="D33" s="14" t="s">
-        <v>103</v>
+        <v>96</v>
       </c>
       <c r="E33" s="14" t="s">
-        <v>114</v>
+        <v>145</v>
       </c>
       <c r="F33" s="14" t="str">
-        <f t="shared" si="0"/>
-        <v>ETHYDAES03</v>
+        <f>_xlfn.CONCAT(B33,"HYD",E33,"S03")</f>
+        <v>ETHYDT1S03</v>
       </c>
       <c r="G33" s="14">
-        <v>9.7799999999999994</v>
+        <v>13.347630000000001</v>
       </c>
       <c r="H33" s="14">
-        <v>38.83</v>
+        <v>38.743160000000003</v>
       </c>
       <c r="I33" s="14" t="s">
-        <v>24</v>
+        <v>9</v>
       </c>
       <c r="J33" s="14" t="s">
         <v>73</v>
       </c>
       <c r="K33" s="20">
-        <v>520</v>
-      </c>
-      <c r="L33" s="17"/>
+        <v>9000</v>
+      </c>
+      <c r="L33" s="17">
+        <v>221.96854388635211</v>
+      </c>
       <c r="M33" s="17">
-        <v>24.8</v>
+        <v>184</v>
       </c>
       <c r="N33" s="14">
-        <v>40.5</v>
+        <v>129</v>
       </c>
       <c r="O33" s="14" t="s">
-        <v>231</v>
+        <v>222</v>
       </c>
       <c r="P33" s="14">
-        <v>2031</v>
+        <v>2010</v>
       </c>
       <c r="Q33" s="14">
-        <v>189</v>
+        <v>300</v>
       </c>
       <c r="R33" s="14">
-        <v>3.433550240586513E-2</v>
+        <v>1</v>
       </c>
       <c r="S33" s="14">
-        <v>3.433550240586513E-2</v>
+        <v>1</v>
       </c>
       <c r="T33" s="14">
-        <v>0.28975484309040223</v>
+        <v>0.28742656471525291</v>
       </c>
       <c r="U33" s="14">
-        <v>0.13667612353643971</v>
+        <v>0.13885416821983271</v>
       </c>
       <c r="V33" s="14">
-        <v>0.57473682007163951</v>
+        <v>1</v>
       </c>
       <c r="W33" s="14">
-        <v>0.57473682007163951</v>
+        <v>1</v>
       </c>
       <c r="X33" s="14">
-        <v>0.2641995675029869</v>
+        <v>0.26241724253285548</v>
       </c>
       <c r="Y33" s="14">
-        <v>9.4938511350059748E-2</v>
+        <v>0.1140387906810036</v>
       </c>
       <c r="Z33" s="14">
-        <v>0.45762385822795409</v>
+        <v>1</v>
       </c>
       <c r="AA33" s="14">
-        <v>0.45762385822795409</v>
+        <v>1</v>
       </c>
       <c r="AB33" s="14">
-        <v>0.29161254161688571</v>
+        <v>0.2465983233771406</v>
       </c>
       <c r="AC33" s="14">
-        <v>0.13333808936678609</v>
+        <v>0.14380953620071679</v>
       </c>
       <c r="AD33" s="14">
-        <v>2.6200930948138496E-2</v>
+        <v>1</v>
       </c>
       <c r="AE33" s="14">
-        <v>2.6200930948138496E-2</v>
+        <v>1</v>
       </c>
       <c r="AF33" s="14">
-        <v>0.35088009813961418</v>
+        <v>0.26817943207031919</v>
       </c>
       <c r="AG33" s="14">
-        <v>0.14635089605734769</v>
+        <v>0.1139012657450077</v>
       </c>
     </row>
     <row r="34" spans="1:33" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A34" s="8">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="B34" s="8" t="s">
         <v>88</v>
@@ -30978,20 +31090,20 @@
         <v>17</v>
       </c>
       <c r="D34" s="8" t="s">
-        <v>104</v>
+        <v>95</v>
       </c>
       <c r="E34" s="8" t="s">
-        <v>115</v>
+        <v>146</v>
       </c>
       <c r="F34" s="8" t="str">
-        <f t="shared" si="0"/>
-        <v>ETHYDAWS03</v>
+        <f>_xlfn.CONCAT(B34,"HYD",E34,"S03")</f>
+        <v>ETHYDT2S03</v>
       </c>
       <c r="G34" s="8">
-        <v>9.7799999999999994</v>
+        <v>13.790556</v>
       </c>
       <c r="H34" s="8">
-        <v>38.83</v>
+        <v>37.997222000000001</v>
       </c>
       <c r="I34" s="8" t="s">
         <v>24</v>
@@ -30999,286 +31111,299 @@
       <c r="J34" s="8" t="s">
         <v>73</v>
       </c>
-      <c r="K34" s="10">
-        <v>619</v>
-      </c>
-      <c r="L34" s="21"/>
+      <c r="K34" s="10" t="s">
+        <v>224</v>
+      </c>
+      <c r="L34" s="21">
+        <v>221.96854388635211</v>
+      </c>
       <c r="M34" s="21">
-        <v>30.5</v>
+        <v>168</v>
+      </c>
+      <c r="N34" s="8" t="s">
+        <v>224</v>
       </c>
       <c r="O34" s="8" t="s">
-        <v>231</v>
+        <v>227</v>
       </c>
       <c r="P34" s="8">
-        <v>2031</v>
+        <v>2025</v>
       </c>
       <c r="Q34" s="8">
-        <v>265</v>
+        <v>380</v>
       </c>
       <c r="R34" s="8">
-        <v>3.433550240586513E-2</v>
+        <v>1</v>
       </c>
       <c r="S34" s="8">
-        <v>3.433550240586513E-2</v>
+        <v>1</v>
       </c>
       <c r="T34" s="8">
-        <v>0.28975484309040223</v>
+        <v>0.29878433373158098</v>
       </c>
       <c r="U34" s="8">
-        <v>0.13667612353643971</v>
+        <v>0.13950407383512539</v>
       </c>
       <c r="V34" s="8">
-        <v>0.57473682007163962</v>
+        <v>1</v>
       </c>
       <c r="W34" s="8">
-        <v>0.57473682007163962</v>
+        <v>1</v>
       </c>
       <c r="X34" s="8">
-        <v>0.2641995675029869</v>
+        <v>0.26141661210673039</v>
       </c>
       <c r="Y34" s="8">
-        <v>9.4938511350059748E-2</v>
+        <v>0.11389629414575871</v>
       </c>
       <c r="Z34" s="8">
-        <v>0.45762385822795409</v>
+        <v>1</v>
       </c>
       <c r="AA34" s="8">
-        <v>0.45762385822795409</v>
+        <v>1</v>
       </c>
       <c r="AB34" s="8">
-        <v>0.29161254161688571</v>
+        <v>0.28619818797291918</v>
       </c>
       <c r="AC34" s="8">
-        <v>0.13333808936678609</v>
+        <v>0.15239372855436081</v>
       </c>
       <c r="AD34" s="8">
-        <v>2.6200930948138496E-2</v>
+        <v>1</v>
       </c>
       <c r="AE34" s="8">
-        <v>2.6200930948138496E-2</v>
+        <v>1</v>
       </c>
       <c r="AF34" s="8">
-        <v>0.35088009813961418</v>
+        <v>0.32245606332138588</v>
       </c>
       <c r="AG34" s="8">
-        <v>0.14635089605734769</v>
+        <v>0.144823194828469</v>
       </c>
     </row>
     <row r="35" spans="1:33" s="8" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A35" s="8">
-        <v>22</v>
-      </c>
-      <c r="B35" s="8" t="s">
+      <c r="A35" s="14">
+        <v>31</v>
+      </c>
+      <c r="B35" s="14" t="s">
+        <v>89</v>
+      </c>
+      <c r="C35" s="14" t="s">
+        <v>29</v>
+      </c>
+      <c r="D35" s="14" t="s">
+        <v>84</v>
+      </c>
+      <c r="E35" s="14" t="s">
+        <v>147</v>
+      </c>
+      <c r="F35" s="14" t="str">
+        <f>_xlfn.CONCAT(B35,"HYD",E35,"S03")</f>
+        <v>SDHYDUAS03</v>
+      </c>
+      <c r="G35" s="18">
+        <v>14.2767</v>
+      </c>
+      <c r="H35" s="18">
+        <v>35.896900000000002</v>
+      </c>
+      <c r="I35" s="14" t="s">
+        <v>9</v>
+      </c>
+      <c r="J35" s="14" t="s">
+        <v>73</v>
+      </c>
+      <c r="K35" s="20">
+        <v>2700</v>
+      </c>
+      <c r="L35" s="17">
+        <v>348.80771182141041</v>
+      </c>
+      <c r="M35" s="17"/>
+      <c r="N35" s="14">
+        <v>100</v>
+      </c>
+      <c r="O35" s="14" t="s">
+        <v>221</v>
+      </c>
+      <c r="P35" s="14">
+        <v>2017</v>
+      </c>
+      <c r="Q35" s="14">
+        <v>320</v>
+      </c>
+      <c r="R35" s="14">
+        <v>2.7317154803051569E-2</v>
+      </c>
+      <c r="S35" s="14">
+        <v>2.7317154803051569E-2</v>
+      </c>
+      <c r="T35" s="14">
+        <v>0.35530261847869382</v>
+      </c>
+      <c r="U35" s="14">
+        <v>0.1228047395459976</v>
+      </c>
+      <c r="V35" s="14">
+        <v>0.59015230995696066</v>
+      </c>
+      <c r="W35" s="14">
+        <v>0.59015230995696066</v>
+      </c>
+      <c r="X35" s="14">
+        <v>0.30836657228195941</v>
+      </c>
+      <c r="Y35" s="14">
+        <v>0.1002377624850657</v>
+      </c>
+      <c r="Z35" s="14">
+        <v>0.44439081011541814</v>
+      </c>
+      <c r="AA35" s="14">
+        <v>0.44439081011541814</v>
+      </c>
+      <c r="AB35" s="14">
+        <v>0.33429198128235771</v>
+      </c>
+      <c r="AC35" s="14">
+        <v>0.12918153524492229</v>
+      </c>
+      <c r="AD35" s="14">
+        <v>2.9266361284883659E-2</v>
+      </c>
+      <c r="AE35" s="14">
+        <v>2.9266361284883659E-2</v>
+      </c>
+      <c r="AF35" s="14">
+        <v>0.37724122802526022</v>
+      </c>
+      <c r="AG35" s="14">
+        <v>0.123978404249872</v>
+      </c>
+    </row>
+    <row r="36" spans="1:33" s="14" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A36" s="8">
+        <v>16</v>
+      </c>
+      <c r="B36" s="8" t="s">
         <v>88</v>
       </c>
-      <c r="C35" s="8" t="s">
+      <c r="C36" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="D35" s="8" t="s">
-        <v>110</v>
-      </c>
-      <c r="E35" s="8" t="s">
-        <v>121</v>
-      </c>
-      <c r="F35" s="8" t="str">
-        <f t="shared" si="0"/>
-        <v>ETHYDLDS03</v>
-      </c>
-      <c r="G35" s="8">
-        <v>9.7920509063105143</v>
-      </c>
-      <c r="H35" s="8">
-        <v>34.821217572976948</v>
-      </c>
-      <c r="I35" s="8" t="s">
+      <c r="D36" s="8" t="s">
+        <v>107</v>
+      </c>
+      <c r="E36" s="8" t="s">
+        <v>148</v>
+      </c>
+      <c r="F36" s="8" t="str">
+        <f>_xlfn.CONCAT(B36,"HYD",E36,"S03")</f>
+        <v>ETHYDUDS03</v>
+      </c>
+      <c r="G36" s="8">
+        <v>9.9860109999999995</v>
+      </c>
+      <c r="H36" s="8">
+        <v>34.893504</v>
+      </c>
+      <c r="I36" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="J35" s="8" t="s">
+      <c r="J36" s="8" t="s">
         <v>73</v>
       </c>
-      <c r="K35" s="10">
-        <v>53</v>
-      </c>
-      <c r="L35" s="21"/>
-      <c r="M35" s="21"/>
-      <c r="O35" s="8" t="s">
+      <c r="K36" s="10">
+        <v>2470</v>
+      </c>
+      <c r="L36" s="21">
+        <v>0.89300000000000002</v>
+      </c>
+      <c r="M36" s="21"/>
+      <c r="N36" s="8"/>
+      <c r="O36" s="8" t="s">
         <v>230</v>
       </c>
-      <c r="P35" s="8">
-        <v>2031</v>
-      </c>
-      <c r="Q35" s="8">
-        <v>250</v>
-      </c>
-      <c r="R35" s="8">
-        <v>0.5</v>
-      </c>
-      <c r="S35" s="8">
-        <v>0.5</v>
-      </c>
-      <c r="T35" s="8">
-        <v>0.27238327479091989</v>
-      </c>
-      <c r="U35" s="8">
-        <v>0.10800152401433689</v>
-      </c>
-      <c r="V35" s="8">
-        <v>0.5</v>
-      </c>
-      <c r="W35" s="8">
-        <v>0.5</v>
-      </c>
-      <c r="X35" s="8">
-        <v>0.24155350975706891</v>
-      </c>
-      <c r="Y35" s="8">
-        <v>6.6075166547192352E-2</v>
-      </c>
-      <c r="Z35" s="8">
-        <v>0.5</v>
-      </c>
-      <c r="AA35" s="8">
-        <v>0.5</v>
-      </c>
-      <c r="AB35" s="8">
-        <v>0.27196658821186781</v>
-      </c>
-      <c r="AC35" s="8">
-        <v>0.10728013309438469</v>
-      </c>
-      <c r="AD35" s="8">
-        <v>0.5</v>
-      </c>
-      <c r="AE35" s="8">
-        <v>0.5</v>
-      </c>
-      <c r="AF35" s="8">
-        <v>0.35598600273084152</v>
-      </c>
-      <c r="AG35" s="8">
-        <v>0.12134669226830511</v>
-      </c>
-    </row>
-    <row r="36" spans="1:33" s="14" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A36" s="14">
-        <v>23</v>
-      </c>
-      <c r="B36" s="14" t="s">
-        <v>88</v>
-      </c>
-      <c r="C36" s="14" t="s">
-        <v>17</v>
-      </c>
-      <c r="D36" s="14" t="s">
-        <v>97</v>
-      </c>
-      <c r="E36" s="14" t="s">
-        <v>144</v>
-      </c>
-      <c r="F36" s="14" t="str">
-        <f t="shared" si="0"/>
-        <v>ETHYDTMS03</v>
-      </c>
-      <c r="G36" s="14">
-        <v>7.9729166666660403</v>
-      </c>
-      <c r="H36" s="14">
-        <v>35.327083333332517</v>
-      </c>
-      <c r="I36" s="14" t="s">
-        <v>24</v>
-      </c>
-      <c r="J36" s="14" t="s">
-        <v>73</v>
-      </c>
-      <c r="K36" s="20">
-        <v>4800</v>
-      </c>
-      <c r="L36" s="17"/>
-      <c r="M36" s="17"/>
-      <c r="N36" s="14">
-        <v>76</v>
-      </c>
-      <c r="P36" s="14">
-        <v>2031</v>
-      </c>
-      <c r="Q36" s="14">
-        <v>1000</v>
-      </c>
-      <c r="R36" s="14">
-        <v>0.5</v>
-      </c>
-      <c r="S36" s="14">
-        <v>0.5</v>
-      </c>
-      <c r="T36" s="14">
-        <v>0.27118642134607718</v>
-      </c>
-      <c r="U36" s="14">
-        <v>9.4730189247311816E-2</v>
-      </c>
-      <c r="V36" s="14">
-        <v>0.5</v>
-      </c>
-      <c r="W36" s="14">
-        <v>0.5</v>
-      </c>
-      <c r="X36" s="14">
-        <v>0.19225094026284351</v>
-      </c>
-      <c r="Y36" s="14">
-        <v>7.0605205017921155E-2</v>
-      </c>
-      <c r="Z36" s="14">
-        <v>0.5</v>
-      </c>
-      <c r="AA36" s="14">
-        <v>0.5</v>
-      </c>
-      <c r="AB36" s="14">
-        <v>0.23421118598168059</v>
-      </c>
-      <c r="AC36" s="14">
-        <v>0.10729649032258071</v>
-      </c>
-      <c r="AD36" s="14">
-        <v>0.5</v>
-      </c>
-      <c r="AE36" s="14">
-        <v>0.5</v>
-      </c>
-      <c r="AF36" s="14">
-        <v>0.33075371693121691</v>
-      </c>
-      <c r="AG36" s="14">
-        <v>0.1102367903225806</v>
+      <c r="P36" s="8">
+        <v>2025</v>
+      </c>
+      <c r="Q36" s="8">
+        <v>326</v>
+      </c>
+      <c r="R36" s="8">
+        <v>3.9472117214678984E-2</v>
+      </c>
+      <c r="S36" s="8">
+        <v>3.9472117214678984E-2</v>
+      </c>
+      <c r="T36" s="8">
+        <v>0.29209634846674631</v>
+      </c>
+      <c r="U36" s="8">
+        <v>0.10407190322580639</v>
+      </c>
+      <c r="V36" s="8">
+        <v>0.84636157253600031</v>
+      </c>
+      <c r="W36" s="8">
+        <v>0.84636157253600031</v>
+      </c>
+      <c r="X36" s="8">
+        <v>0.24039536280366389</v>
+      </c>
+      <c r="Y36" s="8">
+        <v>6.262635101553167E-2</v>
+      </c>
+      <c r="Z36" s="8">
+        <v>0.53219510012209625</v>
+      </c>
+      <c r="AA36" s="8">
+        <v>0.53219510012209625</v>
+      </c>
+      <c r="AB36" s="8">
+        <v>0.28377471166865792</v>
+      </c>
+      <c r="AC36" s="8">
+        <v>0.1086817311827957</v>
+      </c>
+      <c r="AD36" s="8">
+        <v>2.2890325229511288E-2</v>
+      </c>
+      <c r="AE36" s="8">
+        <v>2.2890325229511288E-2</v>
+      </c>
+      <c r="AF36" s="8">
+        <v>0.37913282130056319</v>
+      </c>
+      <c r="AG36" s="8">
+        <v>0.117723065796211</v>
       </c>
     </row>
     <row r="37" spans="1:33" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A37" s="8">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="B37" s="8" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="C37" s="8" t="s">
-        <v>74</v>
+        <v>17</v>
       </c>
       <c r="D37" s="8" t="s">
-        <v>75</v>
+        <v>28</v>
       </c>
       <c r="E37" s="8" t="s">
-        <v>120</v>
+        <v>149</v>
       </c>
       <c r="F37" s="8" t="str">
-        <f t="shared" si="0"/>
-        <v>SSHYDJBS03</v>
-      </c>
-      <c r="G37" s="8">
-        <v>4.7392422337811801</v>
+        <f>_xlfn.CONCAT(B37,"HYD",E37,"S03")</f>
+        <v>ETHYDUMS03</v>
+      </c>
+      <c r="G37" s="9">
+        <v>9.9470200000000002</v>
       </c>
       <c r="H37" s="8">
-        <v>31.597916666665899</v>
+        <v>35.68</v>
       </c>
       <c r="I37" s="8" t="s">
         <v>24</v>
@@ -31286,60 +31411,67 @@
       <c r="J37" s="8" t="s">
         <v>73</v>
       </c>
-      <c r="K37" s="10"/>
+      <c r="K37" s="10">
+        <v>13</v>
+      </c>
+      <c r="L37" s="21"/>
+      <c r="M37" s="21"/>
+      <c r="O37" s="23" t="s">
+        <v>229</v>
+      </c>
       <c r="P37" s="8">
-        <v>2026</v>
+        <v>2030</v>
       </c>
       <c r="Q37" s="8">
-        <v>120</v>
-      </c>
-      <c r="R37" s="8">
-        <v>0.5</v>
-      </c>
-      <c r="S37" s="8">
-        <v>0.5</v>
+        <v>1700</v>
+      </c>
+      <c r="R37" s="22">
+        <v>4.9502697311754849E-2</v>
+      </c>
+      <c r="S37" s="22">
+        <v>4.9502697311754849E-2</v>
       </c>
       <c r="T37" s="8">
-        <v>0.31782991039426522</v>
+        <v>0.32756912345679012</v>
       </c>
       <c r="U37" s="8">
-        <v>9.1050570609318995E-2</v>
-      </c>
-      <c r="V37" s="8">
-        <v>0.5</v>
-      </c>
-      <c r="W37" s="8">
-        <v>0.5</v>
+        <v>9.7332529988052571E-2</v>
+      </c>
+      <c r="V37" s="9">
+        <v>0.78571104764495214</v>
+      </c>
+      <c r="W37" s="9">
+        <v>0.78571104764495214</v>
       </c>
       <c r="X37" s="8">
-        <v>0.27428759936280372</v>
+        <v>0.26230201513341289</v>
       </c>
       <c r="Y37" s="8">
-        <v>7.5601210513739539E-2</v>
-      </c>
-      <c r="Z37" s="8">
-        <v>0.5</v>
-      </c>
-      <c r="AA37" s="8">
-        <v>0.5</v>
+        <v>7.0104277419354835E-2</v>
+      </c>
+      <c r="Z37" s="9">
+        <v>0.50293304320232102</v>
+      </c>
+      <c r="AA37" s="9">
+        <v>0.50293304320232102</v>
       </c>
       <c r="AB37" s="8">
-        <v>0.29182108442851451</v>
+        <v>0.32110683074472318</v>
       </c>
       <c r="AC37" s="8">
-        <v>0.107807576344086</v>
-      </c>
-      <c r="AD37" s="8">
-        <v>0.5</v>
-      </c>
-      <c r="AE37" s="8">
-        <v>0.5</v>
+        <v>0.10273956296296299</v>
+      </c>
+      <c r="AD37" s="9">
+        <v>2.8134548256947282E-2</v>
+      </c>
+      <c r="AE37" s="9">
+        <v>2.8134548256947282E-2</v>
       </c>
       <c r="AF37" s="8">
-        <v>0.3619241816009558</v>
+        <v>0.37596370327700979</v>
       </c>
       <c r="AG37" s="8">
-        <v>0.10526507910906301</v>
+        <v>0.111860513312852</v>
       </c>
     </row>
     <row r="38" spans="1:33" s="8" customFormat="1" x14ac:dyDescent="0.2">
@@ -31359,7 +31491,7 @@
         <v>150</v>
       </c>
       <c r="F38" s="8" t="str">
-        <f t="shared" si="0"/>
+        <f>_xlfn.CONCAT(B38,"HYD",E38,"S03")</f>
         <v>SSHYDWAS03</v>
       </c>
       <c r="G38" s="9">
@@ -31435,606 +31567,549 @@
       </c>
     </row>
     <row r="39" spans="1:33" s="14" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A39" s="14">
-        <v>32</v>
-      </c>
-      <c r="B39" s="14" t="s">
-        <v>89</v>
-      </c>
-      <c r="C39" s="14" t="s">
-        <v>29</v>
-      </c>
-      <c r="D39" s="14" t="s">
-        <v>37</v>
-      </c>
-      <c r="E39" s="14" t="s">
-        <v>132</v>
-      </c>
-      <c r="F39" s="14" t="str">
-        <f t="shared" si="0"/>
-        <v>SDHYDKBS03</v>
-      </c>
-      <c r="G39" s="18">
-        <v>19.166699999999999</v>
-      </c>
-      <c r="H39" s="14">
-        <v>30.48</v>
-      </c>
-      <c r="I39" s="14" t="s">
+      <c r="A39">
+        <v>44</v>
+      </c>
+      <c r="B39" t="s">
+        <v>90</v>
+      </c>
+      <c r="C39" t="s">
+        <v>74</v>
+      </c>
+      <c r="D39" t="s">
+        <v>76</v>
+      </c>
+      <c r="E39" t="s">
+        <v>151</v>
+      </c>
+      <c r="F39" t="str">
+        <f>_xlfn.CONCAT(B39,"HYD",E39,"S03")</f>
+        <v>SSHYDBDS03</v>
+      </c>
+      <c r="G39">
+        <v>4.5624833330000456</v>
+      </c>
+      <c r="H39">
+        <v>31.504183333000071</v>
+      </c>
+      <c r="I39" t="s">
         <v>24</v>
       </c>
-      <c r="J39" s="14" t="s">
-        <v>73</v>
-      </c>
-      <c r="K39" s="20"/>
-      <c r="L39" s="17">
-        <v>2667</v>
-      </c>
-      <c r="M39" s="17">
-        <v>1254</v>
-      </c>
-      <c r="N39" s="14">
-        <v>110</v>
-      </c>
-      <c r="O39" s="14" t="s">
-        <v>223</v>
-      </c>
-      <c r="P39" s="14">
+      <c r="J39" t="s">
+        <v>81</v>
+      </c>
+      <c r="K39" s="7" t="s">
+        <v>224</v>
+      </c>
+      <c r="L39" s="7" t="s">
+        <v>224</v>
+      </c>
+      <c r="M39" s="7" t="s">
+        <v>224</v>
+      </c>
+      <c r="N39" s="7" t="s">
+        <v>224</v>
+      </c>
+      <c r="O39" s="7" t="s">
+        <v>224</v>
+      </c>
+      <c r="P39">
         <v>2024</v>
       </c>
-      <c r="Q39" s="14">
-        <v>360</v>
-      </c>
-      <c r="R39" s="19">
-        <v>1</v>
-      </c>
-      <c r="S39" s="19">
-        <v>1</v>
-      </c>
-      <c r="T39" s="14">
-        <v>0.41996924133811242</v>
-      </c>
-      <c r="U39" s="14">
-        <v>0.1218930356033453</v>
-      </c>
-      <c r="V39" s="18">
-        <v>1</v>
-      </c>
-      <c r="W39" s="18">
-        <v>1</v>
-      </c>
-      <c r="X39" s="14">
-        <v>0.36449918518518509</v>
-      </c>
-      <c r="Y39" s="14">
-        <v>0.10455796200716851</v>
-      </c>
-      <c r="Z39" s="18">
-        <v>1</v>
-      </c>
-      <c r="AA39" s="18">
-        <v>1</v>
-      </c>
-      <c r="AB39" s="14">
-        <v>0.37915904579848669</v>
-      </c>
-      <c r="AC39" s="14">
-        <v>0.1228442348864994</v>
-      </c>
-      <c r="AD39" s="18">
-        <v>1</v>
-      </c>
-      <c r="AE39" s="18">
-        <v>1</v>
-      </c>
-      <c r="AF39" s="14">
-        <v>0.43280106246799788</v>
-      </c>
-      <c r="AG39" s="14">
-        <v>0.1174430401945725</v>
-      </c>
+      <c r="Q39">
+        <v>570</v>
+      </c>
+      <c r="R39">
+        <v>1</v>
+      </c>
+      <c r="S39">
+        <v>1</v>
+      </c>
+      <c r="T39"/>
+      <c r="U39"/>
+      <c r="V39">
+        <v>0.67026307426542553</v>
+      </c>
+      <c r="W39">
+        <v>0.67026307426542553</v>
+      </c>
+      <c r="X39"/>
+      <c r="Y39"/>
+      <c r="Z39">
+        <v>0.91525790813472963</v>
+      </c>
+      <c r="AA39">
+        <v>0.91525790813472963</v>
+      </c>
+      <c r="AB39"/>
+      <c r="AC39"/>
+      <c r="AD39">
+        <v>0.67857773012340161</v>
+      </c>
+      <c r="AE39">
+        <v>0.67857773012340161</v>
+      </c>
+      <c r="AF39"/>
+      <c r="AG39"/>
     </row>
     <row r="40" spans="1:33" s="8" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A40" s="8">
-        <v>33</v>
-      </c>
-      <c r="B40" s="8" t="s">
-        <v>89</v>
-      </c>
-      <c r="C40" s="8" t="s">
-        <v>29</v>
-      </c>
-      <c r="D40" s="8" t="s">
-        <v>36</v>
-      </c>
-      <c r="E40" s="8" t="s">
-        <v>143</v>
-      </c>
-      <c r="F40" s="8" t="str">
-        <f t="shared" si="0"/>
-        <v>SDHYDSHS03</v>
-      </c>
-      <c r="G40" s="9">
-        <v>19.226299999999998</v>
-      </c>
-      <c r="H40" s="8">
-        <v>33.479999999999997</v>
-      </c>
-      <c r="I40" s="8" t="s">
+      <c r="A40">
+        <v>38</v>
+      </c>
+      <c r="B40" t="s">
+        <v>87</v>
+      </c>
+      <c r="C40" t="s">
+        <v>7</v>
+      </c>
+      <c r="D40" t="s">
+        <v>14</v>
+      </c>
+      <c r="E40" t="s">
+        <v>152</v>
+      </c>
+      <c r="F40" t="str">
+        <f>_xlfn.CONCAT(B40,"HYD",E40,"S03")</f>
+        <v>EGHYDESS03</v>
+      </c>
+      <c r="G40" s="1">
+        <v>25.315359999999998</v>
+      </c>
+      <c r="H40">
+        <v>32.56</v>
+      </c>
+      <c r="I40" t="s">
+        <v>9</v>
+      </c>
+      <c r="J40" t="s">
+        <v>81</v>
+      </c>
+      <c r="K40" s="7" t="s">
+        <v>224</v>
+      </c>
+      <c r="L40" s="7" t="s">
+        <v>224</v>
+      </c>
+      <c r="M40" s="7" t="s">
+        <v>224</v>
+      </c>
+      <c r="N40" s="7" t="s">
+        <v>224</v>
+      </c>
+      <c r="O40" s="7" t="s">
+        <v>224</v>
+      </c>
+      <c r="P40">
+        <v>2010</v>
+      </c>
+      <c r="Q40">
+        <v>86</v>
+      </c>
+      <c r="R40" s="12">
+        <v>0.92906388888888891</v>
+      </c>
+      <c r="S40" s="12">
+        <v>0.92906388888888891</v>
+      </c>
+      <c r="T40"/>
+      <c r="U40"/>
+      <c r="V40" s="12">
+        <v>0.92906388888888891</v>
+      </c>
+      <c r="W40" s="12">
+        <v>0.92906388888888891</v>
+      </c>
+      <c r="X40"/>
+      <c r="Y40"/>
+      <c r="Z40" s="12">
+        <v>0.92906388888888891</v>
+      </c>
+      <c r="AA40" s="12">
+        <v>0.92906388888888891</v>
+      </c>
+      <c r="AB40"/>
+      <c r="AC40"/>
+      <c r="AD40" s="12">
+        <v>0.92906388888888891</v>
+      </c>
+      <c r="AE40" s="12">
+        <v>0.92906388888888891</v>
+      </c>
+      <c r="AF40"/>
+      <c r="AG40"/>
+    </row>
+    <row r="41" spans="1:33" s="8" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A41">
+        <v>45</v>
+      </c>
+      <c r="B41" t="s">
+        <v>90</v>
+      </c>
+      <c r="C41" t="s">
+        <v>74</v>
+      </c>
+      <c r="D41" t="s">
+        <v>79</v>
+      </c>
+      <c r="E41" t="s">
+        <v>153</v>
+      </c>
+      <c r="F41" t="str">
+        <f>_xlfn.CONCAT(B41,"HYD",E41,"S03")</f>
+        <v>SSHYDFLS03</v>
+      </c>
+      <c r="G41">
+        <v>3.954004000000054</v>
+      </c>
+      <c r="H41">
+        <v>31.708496000000029</v>
+      </c>
+      <c r="I41" t="s">
         <v>24</v>
       </c>
-      <c r="J40" s="8" t="s">
-        <v>73</v>
-      </c>
-      <c r="K40" s="10"/>
-      <c r="L40" s="21">
-        <v>2657.2805682394719</v>
-      </c>
-      <c r="M40" s="21">
-        <v>1945</v>
-      </c>
-      <c r="P40" s="8">
+      <c r="J41" t="s">
+        <v>81</v>
+      </c>
+      <c r="K41" s="7" t="s">
+        <v>224</v>
+      </c>
+      <c r="L41" s="7" t="s">
+        <v>224</v>
+      </c>
+      <c r="M41" s="7" t="s">
+        <v>224</v>
+      </c>
+      <c r="N41" s="7" t="s">
+        <v>224</v>
+      </c>
+      <c r="O41" s="7" t="s">
+        <v>224</v>
+      </c>
+      <c r="P41">
+        <v>2024</v>
+      </c>
+      <c r="Q41">
+        <v>890</v>
+      </c>
+      <c r="R41">
+        <v>0.80890994820337736</v>
+      </c>
+      <c r="S41">
+        <v>0.80890994820337736</v>
+      </c>
+      <c r="T41"/>
+      <c r="U41"/>
+      <c r="V41">
+        <v>0.23468337930949679</v>
+      </c>
+      <c r="W41">
+        <v>0.23468337930949679</v>
+      </c>
+      <c r="X41"/>
+      <c r="Y41"/>
+      <c r="Z41">
+        <v>0.34012796812683682</v>
+      </c>
+      <c r="AA41">
+        <v>0.34012796812683682</v>
+      </c>
+      <c r="AB41"/>
+      <c r="AC41"/>
+      <c r="AD41">
+        <v>0.25363881180651482</v>
+      </c>
+      <c r="AE41">
+        <v>0.25363881180651482</v>
+      </c>
+      <c r="AF41"/>
+      <c r="AG41"/>
+    </row>
+    <row r="42" spans="1:33" s="8" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A42">
+        <v>48</v>
+      </c>
+      <c r="B42" t="s">
+        <v>90</v>
+      </c>
+      <c r="C42" t="s">
+        <v>74</v>
+      </c>
+      <c r="D42" t="s">
+        <v>80</v>
+      </c>
+      <c r="E42" t="s">
+        <v>154</v>
+      </c>
+      <c r="F42" t="str">
+        <f>_xlfn.CONCAT(B42,"HYD",E42,"S03")</f>
+        <v>SSHYDFSS03</v>
+      </c>
+      <c r="G42">
+        <v>3.6708333360000398</v>
+      </c>
+      <c r="H42">
+        <v>31.972916667</v>
+      </c>
+      <c r="I42" t="s">
+        <v>24</v>
+      </c>
+      <c r="J42" t="s">
+        <v>81</v>
+      </c>
+      <c r="K42" s="7" t="s">
+        <v>224</v>
+      </c>
+      <c r="L42" s="7" t="s">
+        <v>224</v>
+      </c>
+      <c r="M42" s="7" t="s">
+        <v>224</v>
+      </c>
+      <c r="N42" s="7" t="s">
+        <v>224</v>
+      </c>
+      <c r="O42" s="7" t="s">
+        <v>224</v>
+      </c>
+      <c r="P42">
         <v>2025</v>
       </c>
-      <c r="Q40" s="8">
-        <v>420</v>
-      </c>
-      <c r="R40" s="22">
-        <v>0.968101455335308</v>
-      </c>
-      <c r="S40" s="22">
-        <v>0.968101455335308</v>
-      </c>
-      <c r="T40" s="8">
-        <v>0.40367119076065322</v>
-      </c>
-      <c r="U40" s="8">
-        <v>0.1329511230585424</v>
-      </c>
-      <c r="V40" s="9">
-        <v>1</v>
-      </c>
-      <c r="W40" s="9">
-        <v>1</v>
-      </c>
-      <c r="X40" s="8">
-        <v>0.35034039944245321</v>
-      </c>
-      <c r="Y40" s="8">
-        <v>0.1136679777777778</v>
-      </c>
-      <c r="Z40" s="9">
-        <v>1</v>
-      </c>
-      <c r="AA40" s="9">
-        <v>1</v>
-      </c>
-      <c r="AB40" s="8">
-        <v>0.35596104659498212</v>
-      </c>
-      <c r="AC40" s="8">
-        <v>0.13273961720430111</v>
-      </c>
-      <c r="AD40" s="9">
-        <v>0.98223850763713827</v>
-      </c>
-      <c r="AE40" s="9">
-        <v>0.98223850763713827</v>
-      </c>
-      <c r="AF40" s="8">
-        <v>0.40630400110940429</v>
-      </c>
-      <c r="AG40" s="8">
-        <v>0.12482191730670759</v>
-      </c>
-    </row>
-    <row r="41" spans="1:33" s="8" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A41" s="8">
-        <v>34</v>
-      </c>
-      <c r="B41" s="8" t="s">
-        <v>89</v>
-      </c>
-      <c r="C41" s="8" t="s">
-        <v>29</v>
-      </c>
-      <c r="D41" s="8" t="s">
-        <v>38</v>
-      </c>
-      <c r="E41" s="8" t="s">
-        <v>126</v>
-      </c>
-      <c r="F41" s="8" t="str">
-        <f t="shared" si="0"/>
-        <v>SDHYDDGS03</v>
-      </c>
-      <c r="G41" s="9">
-        <v>19.3353124367388</v>
-      </c>
-      <c r="H41" s="8">
-        <v>33.409999999999997</v>
-      </c>
-      <c r="I41" s="8" t="s">
+      <c r="Q42">
+        <v>42</v>
+      </c>
+      <c r="R42">
+        <v>0.80890994820337736</v>
+      </c>
+      <c r="S42">
+        <v>0.80890994820337736</v>
+      </c>
+      <c r="T42"/>
+      <c r="U42"/>
+      <c r="V42">
+        <v>0.23468337930949679</v>
+      </c>
+      <c r="W42">
+        <v>0.23468337930949679</v>
+      </c>
+      <c r="X42"/>
+      <c r="Y42"/>
+      <c r="Z42">
+        <v>0.34012796812683682</v>
+      </c>
+      <c r="AA42">
+        <v>0.34012796812683682</v>
+      </c>
+      <c r="AB42"/>
+      <c r="AC42"/>
+      <c r="AD42">
+        <v>0.25363881180651482</v>
+      </c>
+      <c r="AE42">
+        <v>0.25363881180651482</v>
+      </c>
+      <c r="AF42"/>
+      <c r="AG42"/>
+    </row>
+    <row r="43" spans="1:33" s="8" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A43">
+        <v>46</v>
+      </c>
+      <c r="B43" t="s">
+        <v>90</v>
+      </c>
+      <c r="C43" t="s">
+        <v>74</v>
+      </c>
+      <c r="D43" t="s">
+        <v>77</v>
+      </c>
+      <c r="E43" t="s">
+        <v>155</v>
+      </c>
+      <c r="F43" t="str">
+        <f>_xlfn.CONCAT(B43,"HYD",E43,"S03")</f>
+        <v>SSHYDLKS03</v>
+      </c>
+      <c r="G43">
+        <v>4.1286550000000366</v>
+      </c>
+      <c r="H43">
+        <v>31.581250000000072</v>
+      </c>
+      <c r="I43" t="s">
         <v>24</v>
       </c>
-      <c r="J41" s="8" t="s">
-        <v>73</v>
-      </c>
-      <c r="K41" s="10"/>
-      <c r="L41" s="21">
-        <v>2667</v>
-      </c>
-      <c r="M41" s="21">
-        <v>2100</v>
-      </c>
-      <c r="P41" s="8">
-        <v>2028</v>
-      </c>
-      <c r="Q41" s="8">
-        <v>312</v>
-      </c>
-      <c r="R41" s="22">
-        <v>1</v>
-      </c>
-      <c r="S41" s="22">
-        <v>1</v>
-      </c>
-      <c r="T41" s="8">
-        <v>0.40658502349661491</v>
-      </c>
-      <c r="U41" s="8">
-        <v>0.133054680525687</v>
-      </c>
-      <c r="V41" s="9">
-        <v>1</v>
-      </c>
-      <c r="W41" s="9">
-        <v>1</v>
-      </c>
-      <c r="X41" s="8">
-        <v>0.35451344165671039</v>
-      </c>
-      <c r="Y41" s="8">
-        <v>0.11408707311827949</v>
-      </c>
-      <c r="Z41" s="9">
-        <v>1</v>
-      </c>
-      <c r="AA41" s="9">
-        <v>1</v>
-      </c>
-      <c r="AB41" s="8">
-        <v>0.36084930426125061</v>
-      </c>
-      <c r="AC41" s="8">
-        <v>0.13215149486260461</v>
-      </c>
-      <c r="AD41" s="9">
-        <v>1</v>
-      </c>
-      <c r="AE41" s="9">
-        <v>1</v>
-      </c>
-      <c r="AF41" s="8">
-        <v>0.40695313150708318</v>
-      </c>
-      <c r="AG41" s="8">
-        <v>0.12382463159242189</v>
-      </c>
-    </row>
-    <row r="42" spans="1:33" s="8" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A42" s="8">
-        <v>35</v>
-      </c>
-      <c r="B42" s="8" t="s">
-        <v>89</v>
-      </c>
-      <c r="C42" s="8" t="s">
-        <v>29</v>
-      </c>
-      <c r="D42" s="8" t="s">
+      <c r="J43" t="s">
+        <v>81</v>
+      </c>
+      <c r="K43" s="7" t="s">
+        <v>224</v>
+      </c>
+      <c r="L43" s="7" t="s">
+        <v>224</v>
+      </c>
+      <c r="M43" s="7" t="s">
+        <v>224</v>
+      </c>
+      <c r="N43" s="7" t="s">
+        <v>224</v>
+      </c>
+      <c r="O43" s="7" t="s">
+        <v>224</v>
+      </c>
+      <c r="P43">
+        <v>2024</v>
+      </c>
+      <c r="Q43">
+        <v>410</v>
+      </c>
+      <c r="R43">
+        <v>1</v>
+      </c>
+      <c r="S43">
+        <v>1</v>
+      </c>
+      <c r="T43"/>
+      <c r="U43"/>
+      <c r="V43">
+        <v>0.66221978734810272</v>
+      </c>
+      <c r="W43">
+        <v>0.66221978734810272</v>
+      </c>
+      <c r="X43"/>
+      <c r="Y43"/>
+      <c r="Z43">
+        <v>0.91607860535489305</v>
+      </c>
+      <c r="AA43">
+        <v>0.91607860535489305</v>
+      </c>
+      <c r="AB43"/>
+      <c r="AC43"/>
+      <c r="AD43">
+        <v>0.6905463510218347</v>
+      </c>
+      <c r="AE43">
+        <v>0.6905463510218347</v>
+      </c>
+      <c r="AF43"/>
+      <c r="AG43"/>
+    </row>
+    <row r="44" spans="1:33" s="8" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A44">
         <v>39</v>
       </c>
-      <c r="E42" s="8" t="s">
-        <v>127</v>
-      </c>
-      <c r="F42" s="8" t="str">
-        <f t="shared" si="0"/>
-        <v>SDHYDDLS03</v>
-      </c>
-      <c r="G42" s="9">
-        <v>21.373100000000001</v>
-      </c>
-      <c r="H42" s="8">
-        <v>30.93</v>
-      </c>
-      <c r="I42" s="8" t="s">
-        <v>24</v>
-      </c>
-      <c r="J42" s="8" t="s">
-        <v>73</v>
-      </c>
-      <c r="K42" s="10"/>
-      <c r="L42" s="21">
-        <v>2667</v>
-      </c>
-      <c r="M42" s="21">
-        <v>2100</v>
-      </c>
-      <c r="P42" s="8">
-        <v>2030</v>
-      </c>
-      <c r="Q42" s="8">
-        <v>648</v>
-      </c>
-      <c r="R42" s="22">
-        <v>1</v>
-      </c>
-      <c r="S42" s="22">
-        <v>1</v>
-      </c>
-      <c r="T42" s="8">
-        <v>0.42521820788530468</v>
-      </c>
-      <c r="U42" s="8">
-        <v>0.1244606697729988</v>
-      </c>
-      <c r="V42" s="9">
-        <v>1</v>
-      </c>
-      <c r="W42" s="9">
-        <v>1</v>
-      </c>
-      <c r="X42" s="8">
-        <v>0.37771498287534838</v>
-      </c>
-      <c r="Y42" s="8">
-        <v>0.1102721285543608</v>
-      </c>
-      <c r="Z42" s="9">
-        <v>1</v>
-      </c>
-      <c r="AA42" s="9">
-        <v>1</v>
-      </c>
-      <c r="AB42" s="8">
-        <v>0.38316936001592983</v>
-      </c>
-      <c r="AC42" s="8">
-        <v>0.12599141863799279</v>
-      </c>
-      <c r="AD42" s="9">
-        <v>1</v>
-      </c>
-      <c r="AE42" s="9">
-        <v>1</v>
-      </c>
-      <c r="AF42" s="8">
-        <v>0.40716517665130569</v>
-      </c>
-      <c r="AG42" s="8">
-        <v>0.1130760087045571</v>
-      </c>
-    </row>
-    <row r="43" spans="1:33" s="8" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A43" s="8">
-        <v>36</v>
-      </c>
-      <c r="B43" s="8" t="s">
-        <v>89</v>
-      </c>
-      <c r="C43" s="8" t="s">
-        <v>29</v>
-      </c>
-      <c r="D43" s="8" t="s">
-        <v>34</v>
-      </c>
-      <c r="E43" s="8" t="s">
-        <v>138</v>
-      </c>
-      <c r="F43" s="8" t="str">
-        <f t="shared" si="0"/>
-        <v>SDHYDMGS03</v>
-      </c>
-      <c r="G43" s="9">
-        <v>19.286999999999999</v>
-      </c>
-      <c r="H43" s="8">
-        <v>32.69</v>
-      </c>
-      <c r="I43" s="8" t="s">
-        <v>24</v>
-      </c>
-      <c r="J43" s="8" t="s">
-        <v>73</v>
-      </c>
-      <c r="K43" s="10"/>
-      <c r="L43" s="21">
-        <v>2667</v>
-      </c>
-      <c r="M43" s="21"/>
-      <c r="P43" s="8">
-        <v>2030</v>
-      </c>
-      <c r="Q43" s="8">
-        <v>312</v>
-      </c>
-      <c r="R43" s="22">
-        <v>0.48267455815236754</v>
-      </c>
-      <c r="S43" s="22">
-        <v>0.48267455815236754</v>
-      </c>
-      <c r="T43" s="8">
-        <v>0.41117306730386288</v>
-      </c>
-      <c r="U43" s="8">
-        <v>0.13151496917562719</v>
-      </c>
-      <c r="V43" s="9">
-        <v>0.53491992806031752</v>
-      </c>
-      <c r="W43" s="9">
-        <v>0.53491992806031752</v>
-      </c>
-      <c r="X43" s="8">
-        <v>0.35771489884508167</v>
-      </c>
-      <c r="Y43" s="8">
-        <v>0.1127497758661888</v>
-      </c>
-      <c r="Z43" s="9">
-        <v>0.54138714543912902</v>
-      </c>
-      <c r="AA43" s="9">
-        <v>0.54138714543912902</v>
-      </c>
-      <c r="AB43" s="8">
-        <v>0.36348772481083241</v>
-      </c>
-      <c r="AC43" s="8">
-        <v>0.12972741075268809</v>
-      </c>
-      <c r="AD43" s="9">
-        <v>0.44101836834818581</v>
-      </c>
-      <c r="AE43" s="9">
-        <v>0.44101836834818581</v>
-      </c>
-      <c r="AF43" s="8">
-        <v>0.41726091696535239</v>
-      </c>
-      <c r="AG43" s="8">
-        <v>0.12471186533538151</v>
-      </c>
-    </row>
-    <row r="44" spans="1:33" s="8" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A44" s="8">
-        <v>37</v>
-      </c>
-      <c r="B44" s="8" t="s">
-        <v>89</v>
-      </c>
-      <c r="C44" s="8" t="s">
-        <v>29</v>
-      </c>
-      <c r="D44" s="8" t="s">
-        <v>40</v>
-      </c>
-      <c r="E44" s="8" t="s">
-        <v>141</v>
-      </c>
-      <c r="F44" s="8" t="str">
-        <f t="shared" si="0"/>
-        <v>SDHYDSBS03</v>
-      </c>
-      <c r="G44" s="9">
-        <v>16.3569</v>
-      </c>
-      <c r="H44" s="8">
-        <v>32.71</v>
-      </c>
-      <c r="I44" s="8" t="s">
-        <v>24</v>
-      </c>
-      <c r="J44" s="8" t="s">
-        <v>73</v>
-      </c>
-      <c r="K44" s="10">
-        <v>4000</v>
-      </c>
-      <c r="L44" s="21">
-        <v>2305.3018772196856</v>
-      </c>
-      <c r="M44" s="21">
-        <v>1700</v>
-      </c>
-      <c r="O44" s="8" t="s">
-        <v>232</v>
-      </c>
-      <c r="P44" s="8">
-        <v>2030</v>
-      </c>
-      <c r="Q44" s="8">
-        <v>205</v>
-      </c>
-      <c r="R44" s="22">
-        <v>1</v>
-      </c>
-      <c r="S44" s="22">
-        <v>1</v>
-      </c>
-      <c r="T44" s="8">
-        <v>0.40252829948227792</v>
-      </c>
-      <c r="U44" s="8">
-        <v>0.1276621199522103</v>
-      </c>
-      <c r="V44" s="9">
-        <v>1</v>
-      </c>
-      <c r="W44" s="9">
-        <v>1</v>
-      </c>
-      <c r="X44" s="8">
-        <v>0.33904976543209869</v>
-      </c>
-      <c r="Y44" s="8">
-        <v>0.1012916372759857</v>
-      </c>
-      <c r="Z44" s="9">
-        <v>1</v>
-      </c>
-      <c r="AA44" s="9">
-        <v>1</v>
-      </c>
-      <c r="AB44" s="8">
-        <v>0.35010868657905209</v>
-      </c>
-      <c r="AC44" s="8">
-        <v>0.12502672329749101</v>
-      </c>
-      <c r="AD44" s="9">
-        <v>1</v>
-      </c>
-      <c r="AE44" s="9">
-        <v>1</v>
-      </c>
-      <c r="AF44" s="8">
-        <v>0.41956464285714279</v>
-      </c>
-      <c r="AG44" s="8">
-        <v>0.124365051203277</v>
-      </c>
+      <c r="B44" t="s">
+        <v>87</v>
+      </c>
+      <c r="C44" t="s">
+        <v>7</v>
+      </c>
+      <c r="D44" t="s">
+        <v>15</v>
+      </c>
+      <c r="E44" t="s">
+        <v>156</v>
+      </c>
+      <c r="F44" t="str">
+        <f>_xlfn.CONCAT(B44,"HYD",E44,"S03")</f>
+        <v>EGHYDNHS03</v>
+      </c>
+      <c r="G44" s="1">
+        <v>26.045996917309001</v>
+      </c>
+      <c r="H44">
+        <v>32.25</v>
+      </c>
+      <c r="I44" t="s">
+        <v>9</v>
+      </c>
+      <c r="J44" t="s">
+        <v>81</v>
+      </c>
+      <c r="K44" s="7" t="s">
+        <v>224</v>
+      </c>
+      <c r="L44" s="7" t="s">
+        <v>224</v>
+      </c>
+      <c r="M44" s="7" t="s">
+        <v>224</v>
+      </c>
+      <c r="N44" s="7" t="s">
+        <v>224</v>
+      </c>
+      <c r="O44" s="7" t="s">
+        <v>224</v>
+      </c>
+      <c r="P44">
+        <v>2010</v>
+      </c>
+      <c r="Q44">
+        <v>64</v>
+      </c>
+      <c r="R44" s="12">
+        <v>1</v>
+      </c>
+      <c r="S44" s="12">
+        <v>1</v>
+      </c>
+      <c r="T44"/>
+      <c r="U44"/>
+      <c r="V44" s="12">
+        <v>1</v>
+      </c>
+      <c r="W44" s="12">
+        <v>1</v>
+      </c>
+      <c r="X44"/>
+      <c r="Y44"/>
+      <c r="Z44" s="12">
+        <v>1</v>
+      </c>
+      <c r="AA44" s="12">
+        <v>1</v>
+      </c>
+      <c r="AB44"/>
+      <c r="AC44"/>
+      <c r="AD44" s="12">
+        <v>1</v>
+      </c>
+      <c r="AE44" s="12">
+        <v>1</v>
+      </c>
+      <c r="AF44"/>
+      <c r="AG44"/>
     </row>
     <row r="45" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A45">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="B45" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="C45" t="s">
-        <v>74</v>
+        <v>7</v>
       </c>
       <c r="D45" t="s">
-        <v>76</v>
+        <v>16</v>
       </c>
       <c r="E45" t="s">
-        <v>151</v>
+        <v>160</v>
       </c>
       <c r="F45" t="str">
-        <f t="shared" si="0"/>
-        <v>SSHYDBDS03</v>
-      </c>
-      <c r="G45">
-        <v>4.5624833330000456</v>
+        <f>_xlfn.CONCAT(B45,"HYD",E45,"S03")</f>
+        <v>EGHYDNBS03</v>
+      </c>
+      <c r="G45" s="1">
+        <v>29.996935100000002</v>
       </c>
       <c r="H45">
-        <v>31.504183333000071</v>
+        <v>31.25</v>
       </c>
       <c r="I45" t="s">
-        <v>24</v>
+        <v>9</v>
       </c>
       <c r="J45" t="s">
         <v>81</v>
@@ -32055,39 +32130,39 @@
         <v>224</v>
       </c>
       <c r="P45">
-        <v>2024</v>
-      </c>
-      <c r="Q45">
-        <v>570</v>
-      </c>
-      <c r="R45">
-        <v>1</v>
-      </c>
-      <c r="S45">
-        <v>1</v>
-      </c>
-      <c r="V45">
-        <v>0.67026307426542553</v>
-      </c>
-      <c r="W45">
-        <v>0.67026307426542553</v>
-      </c>
-      <c r="Z45">
-        <v>0.91525790813472963</v>
-      </c>
-      <c r="AA45">
-        <v>0.91525790813472963</v>
-      </c>
-      <c r="AD45">
-        <v>0.67857773012340161</v>
-      </c>
-      <c r="AE45">
-        <v>0.67857773012340161</v>
+        <v>2018</v>
+      </c>
+      <c r="Q45" s="1">
+        <v>31.73515982</v>
+      </c>
+      <c r="R45" s="12">
+        <v>1</v>
+      </c>
+      <c r="S45" s="12">
+        <v>1</v>
+      </c>
+      <c r="V45" s="12">
+        <v>1</v>
+      </c>
+      <c r="W45" s="12">
+        <v>1</v>
+      </c>
+      <c r="Z45" s="12">
+        <v>1</v>
+      </c>
+      <c r="AA45" s="12">
+        <v>1</v>
+      </c>
+      <c r="AD45" s="12">
+        <v>1</v>
+      </c>
+      <c r="AE45" s="12">
+        <v>1</v>
       </c>
     </row>
     <row r="46" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A46">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="B46" t="s">
         <v>90</v>
@@ -32096,20 +32171,20 @@
         <v>74</v>
       </c>
       <c r="D46" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="E46" t="s">
-        <v>153</v>
+        <v>157</v>
       </c>
       <c r="F46" t="str">
-        <f t="shared" si="0"/>
-        <v>SSHYDFLS03</v>
+        <f>_xlfn.CONCAT(B46,"HYD",E46,"S03")</f>
+        <v>SSHYDSLS03</v>
       </c>
       <c r="G46">
-        <v>3.954004000000054</v>
+        <v>4.0364056660000642</v>
       </c>
       <c r="H46">
-        <v>31.708496000000029</v>
+        <v>31.634427666000079</v>
       </c>
       <c r="I46" t="s">
         <v>24</v>
@@ -32136,61 +32211,61 @@
         <v>2024</v>
       </c>
       <c r="Q46">
-        <v>890</v>
+        <v>235</v>
       </c>
       <c r="R46">
-        <v>0.80890994820337736</v>
+        <v>0.80346644663172329</v>
       </c>
       <c r="S46">
-        <v>0.80890994820337736</v>
+        <v>0.80346644663172329</v>
       </c>
       <c r="V46">
-        <v>0.23468337930949679</v>
+        <v>0.23195088873838973</v>
       </c>
       <c r="W46">
-        <v>0.23468337930949679</v>
+        <v>0.23195088873838973</v>
       </c>
       <c r="Z46">
-        <v>0.34012796812683682</v>
+        <v>0.33939605785664223</v>
       </c>
       <c r="AA46">
-        <v>0.34012796812683682</v>
+        <v>0.33939605785664223</v>
       </c>
       <c r="AD46">
-        <v>0.25363881180651482</v>
+        <v>0.2418726273281383</v>
       </c>
       <c r="AE46">
-        <v>0.25363881180651482</v>
+        <v>0.2418726273281383</v>
       </c>
     </row>
     <row r="47" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A47">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="B47" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="C47" t="s">
-        <v>74</v>
+        <v>17</v>
       </c>
       <c r="D47" t="s">
-        <v>77</v>
+        <v>100</v>
       </c>
       <c r="E47" t="s">
-        <v>155</v>
+        <v>158</v>
       </c>
       <c r="F47" t="str">
-        <f t="shared" si="0"/>
-        <v>SSHYDLKS03</v>
+        <f>_xlfn.CONCAT(B47,"HYD",E47,"S03")</f>
+        <v>ETHYDSRS03</v>
       </c>
       <c r="G47">
-        <v>4.1286550000000366</v>
+        <v>8.39</v>
       </c>
       <c r="H47">
-        <v>31.581250000000072</v>
+        <v>35.44</v>
       </c>
       <c r="I47" t="s">
-        <v>24</v>
+        <v>9</v>
       </c>
       <c r="J47" t="s">
         <v>81</v>
@@ -32211,64 +32286,64 @@
         <v>224</v>
       </c>
       <c r="P47">
-        <v>2024</v>
+        <v>2014</v>
       </c>
       <c r="Q47">
-        <v>410</v>
+        <v>5</v>
       </c>
       <c r="R47">
-        <v>1</v>
+        <v>0.17605086170659942</v>
       </c>
       <c r="S47">
-        <v>1</v>
+        <v>0.17605086170659942</v>
       </c>
       <c r="V47">
-        <v>0.66221978734810272</v>
+        <v>0.97162673392181587</v>
       </c>
       <c r="W47">
-        <v>0.66221978734810272</v>
+        <v>0.97162673392181587</v>
       </c>
       <c r="Z47">
-        <v>0.91607860535489305</v>
+        <v>0.69829760403530894</v>
       </c>
       <c r="AA47">
-        <v>0.91607860535489305</v>
+        <v>0.69829760403530894</v>
       </c>
       <c r="AD47">
-        <v>0.6905463510218347</v>
+        <v>5.3270281630937368E-2</v>
       </c>
       <c r="AE47">
-        <v>0.6905463510218347</v>
+        <v>5.3270281630937368E-2</v>
       </c>
     </row>
     <row r="48" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A48">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="B48" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="C48" t="s">
-        <v>74</v>
+        <v>17</v>
       </c>
       <c r="D48" t="s">
-        <v>78</v>
+        <v>21</v>
       </c>
       <c r="E48" t="s">
-        <v>157</v>
+        <v>145</v>
       </c>
       <c r="F48" t="str">
-        <f t="shared" si="0"/>
-        <v>SSHYDSLS03</v>
-      </c>
-      <c r="G48">
-        <v>4.0364056660000642</v>
+        <f>_xlfn.CONCAT(B48,"HYD",E48,"S03")</f>
+        <v>ETHYDT1S03</v>
+      </c>
+      <c r="G48" s="1">
+        <v>11.485569999999999</v>
       </c>
       <c r="H48">
-        <v>31.634427666000079</v>
+        <v>37.590000000000003</v>
       </c>
       <c r="I48" t="s">
-        <v>24</v>
+        <v>9</v>
       </c>
       <c r="J48" t="s">
         <v>81</v>
@@ -32289,64 +32364,64 @@
         <v>224</v>
       </c>
       <c r="P48">
-        <v>2024</v>
+        <v>2000</v>
       </c>
       <c r="Q48">
-        <v>235</v>
-      </c>
-      <c r="R48">
-        <v>0.80346644663172329</v>
-      </c>
-      <c r="S48">
-        <v>0.80346644663172329</v>
-      </c>
-      <c r="V48">
-        <v>0.23195088873838973</v>
-      </c>
-      <c r="W48">
-        <v>0.23195088873838973</v>
-      </c>
-      <c r="Z48">
-        <v>0.33939605785664223</v>
-      </c>
-      <c r="AA48">
-        <v>0.33939605785664223</v>
-      </c>
-      <c r="AD48">
-        <v>0.2418726273281383</v>
-      </c>
-      <c r="AE48">
-        <v>0.2418726273281383</v>
+        <v>11</v>
+      </c>
+      <c r="R48" s="12">
+        <v>1</v>
+      </c>
+      <c r="S48" s="12">
+        <v>1</v>
+      </c>
+      <c r="V48" s="12">
+        <v>1</v>
+      </c>
+      <c r="W48" s="12">
+        <v>1</v>
+      </c>
+      <c r="Z48" s="12">
+        <v>1</v>
+      </c>
+      <c r="AA48" s="12">
+        <v>1</v>
+      </c>
+      <c r="AD48" s="12">
+        <v>1</v>
+      </c>
+      <c r="AE48" s="12">
+        <v>1</v>
       </c>
     </row>
     <row r="49" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A49">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="B49" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="C49" t="s">
-        <v>74</v>
+        <v>17</v>
       </c>
       <c r="D49" t="s">
-        <v>80</v>
+        <v>22</v>
       </c>
       <c r="E49" t="s">
-        <v>154</v>
+        <v>146</v>
       </c>
       <c r="F49" t="str">
-        <f t="shared" si="0"/>
-        <v>SSHYDFSS03</v>
-      </c>
-      <c r="G49">
-        <v>3.6708333360000398</v>
+        <f>_xlfn.CONCAT(B49,"HYD",E49,"S03")</f>
+        <v>ETHYDT2S03</v>
+      </c>
+      <c r="G49" s="1">
+        <v>11.4887</v>
       </c>
       <c r="H49">
-        <v>31.972916667</v>
+        <v>37.6</v>
       </c>
       <c r="I49" t="s">
-        <v>24</v>
+        <v>9</v>
       </c>
       <c r="J49" t="s">
         <v>81</v>
@@ -32367,42 +32442,42 @@
         <v>224</v>
       </c>
       <c r="P49">
-        <v>2025</v>
+        <v>2010</v>
       </c>
       <c r="Q49">
-        <v>42</v>
-      </c>
-      <c r="R49">
-        <v>0.80890994820337736</v>
-      </c>
-      <c r="S49">
-        <v>0.80890994820337736</v>
-      </c>
-      <c r="V49">
-        <v>0.23468337930949679</v>
-      </c>
-      <c r="W49">
-        <v>0.23468337930949679</v>
-      </c>
-      <c r="Z49">
-        <v>0.34012796812683682</v>
-      </c>
-      <c r="AA49">
-        <v>0.34012796812683682</v>
-      </c>
-      <c r="AD49">
-        <v>0.25363881180651482</v>
-      </c>
-      <c r="AE49">
-        <v>0.25363881180651482</v>
+        <v>78</v>
+      </c>
+      <c r="R49" s="12">
+        <v>1</v>
+      </c>
+      <c r="S49" s="12">
+        <v>1</v>
+      </c>
+      <c r="V49" s="12">
+        <v>1</v>
+      </c>
+      <c r="W49" s="12">
+        <v>1</v>
+      </c>
+      <c r="Z49" s="12">
+        <v>1</v>
+      </c>
+      <c r="AA49" s="12">
+        <v>1</v>
+      </c>
+      <c r="AD49" s="12">
+        <v>1</v>
+      </c>
+      <c r="AE49" s="12">
+        <v>1</v>
       </c>
     </row>
     <row r="50" spans="1:31" x14ac:dyDescent="0.2">
       <c r="K50" s="7"/>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:AG52">
-    <sortCondition descending="1" ref="I2:I52"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:AG49">
+    <sortCondition ref="J2:J49"/>
   </sortState>
   <conditionalFormatting sqref="R2:S21">
     <cfRule type="colorScale" priority="398">
@@ -32859,7 +32934,7 @@
     </cfRule>
   </conditionalFormatting>
   <hyperlinks>
-    <hyperlink ref="O32" r:id="rId1" xr:uid="{BF02E7A6-2592-404C-8199-9875513FF662}"/>
+    <hyperlink ref="O37" r:id="rId1" xr:uid="{BF02E7A6-2592-404C-8199-9875513FF662}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -35772,8 +35847,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{852D55E0-078B-419B-90B8-96AA7180148F}">
   <dimension ref="A1:AA49"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A23" sqref="A23:XFD25"/>
+    <sheetView topLeftCell="A10" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="H34" sqref="H34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
